--- a/Doku/Managementplaene_und_listen.xlsx
+++ b/Doku/Managementplaene_und_listen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8505" activeTab="5"/>
+    <workbookView xWindow="-30" yWindow="90" windowWidth="13290" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="Strukturplan" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="203">
   <si>
     <t>Risikoliste</t>
   </si>
@@ -225,15 +225,9 @@
     <t>Kick-Off Meeting</t>
   </si>
   <si>
-    <t>Rollen aufteilen</t>
-  </si>
-  <si>
     <t>Aufgabe analysieren</t>
   </si>
   <si>
-    <t>Fragen/Gespräch mit Herrn Dallmöller</t>
-  </si>
-  <si>
     <t>(nicht) funktionale Anforderungen definieren</t>
   </si>
   <si>
@@ -246,15 +240,9 @@
     <t>A1.2</t>
   </si>
   <si>
-    <t>A1.3</t>
-  </si>
-  <si>
     <t>funktionale Anforderungen definieren</t>
   </si>
   <si>
-    <t>A1.4</t>
-  </si>
-  <si>
     <t>Stakeholderanalyse</t>
   </si>
   <si>
@@ -271,9 +259,6 @@
   </si>
   <si>
     <t>Use Cases definieren</t>
-  </si>
-  <si>
-    <t>B3</t>
   </si>
   <si>
     <t>Application Functions definieren</t>
@@ -420,6 +405,240 @@
   </si>
   <si>
     <t>Ist zum Einen durch Github automatisiert, zum anderen durch regelmäßigen Geuppentreffen.</t>
+  </si>
+  <si>
+    <t>Dokumentenverwaltung</t>
+  </si>
+  <si>
+    <t>Wie lösen wir das Vernetzungproblem</t>
+  </si>
+  <si>
+    <t>Hoch</t>
+  </si>
+  <si>
+    <t>PD</t>
+  </si>
+  <si>
+    <t>erledigt</t>
+  </si>
+  <si>
+    <t>Github als zentrale Versions- und Dokumentantneverwaltung</t>
+  </si>
+  <si>
+    <t>Präsentationsvorlage</t>
+  </si>
+  <si>
+    <t>Eine Vorlage für einheitliche Präsentation</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>Präsentationsvorlage erstellt</t>
+  </si>
+  <si>
+    <t>Qualitätsmanagement</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C1.1</t>
+  </si>
+  <si>
+    <t>C1.2</t>
+  </si>
+  <si>
+    <t>C1.3</t>
+  </si>
+  <si>
+    <t>C1.4</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Entwurf</t>
+  </si>
+  <si>
+    <t>Implementierung</t>
+  </si>
+  <si>
+    <t>Projektvorbereitung</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Projektplanung</t>
+  </si>
+  <si>
+    <t>A2.1</t>
+  </si>
+  <si>
+    <t>Grober Struktur-/Aufwandsplan</t>
+  </si>
+  <si>
+    <t>A2.2</t>
+  </si>
+  <si>
+    <t>Rollen aufteilen/Teamplan</t>
+  </si>
+  <si>
+    <t>Termin- und Meilensteinplanung</t>
+  </si>
+  <si>
+    <t>A2.3</t>
+  </si>
+  <si>
+    <t>QM-Plan</t>
+  </si>
+  <si>
+    <t>Qualitätsziele bestimmen</t>
+  </si>
+  <si>
+    <t>Qualitätskriterien aufstelen</t>
+  </si>
+  <si>
+    <t>Qualitätsmaßnahmen bestimmen</t>
+  </si>
+  <si>
+    <t>B1.1</t>
+  </si>
+  <si>
+    <t>B1.2</t>
+  </si>
+  <si>
+    <t>B1.3</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>GUI Entwürfe</t>
+  </si>
+  <si>
+    <t>Entwurf Maske X</t>
+  </si>
+  <si>
+    <t>E1.1</t>
+  </si>
+  <si>
+    <t>Use Case X definieren und spezifzieren</t>
+  </si>
+  <si>
+    <t>D2.1</t>
+  </si>
+  <si>
+    <t>D2.2</t>
+  </si>
+  <si>
+    <t>D2.3</t>
+  </si>
+  <si>
+    <t>D2.4</t>
+  </si>
+  <si>
+    <t>Application Function X definieren und spezifizieren</t>
+  </si>
+  <si>
+    <t>D3.1</t>
+  </si>
+  <si>
+    <t>D3.2</t>
+  </si>
+  <si>
+    <t>E1.2</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>Test der Anwendung</t>
+  </si>
+  <si>
+    <t>Implementierung GUI</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>Implementierung Datenhaltung</t>
+  </si>
+  <si>
+    <t>Implementierung Anwendungskern</t>
+  </si>
+  <si>
+    <t>UseCases</t>
+  </si>
+  <si>
+    <t>Appication Functions</t>
+  </si>
+  <si>
+    <t>Datenbank</t>
+  </si>
+  <si>
+    <t>Zugriff</t>
+  </si>
+  <si>
+    <t>F1.1</t>
+  </si>
+  <si>
+    <t>F1.2</t>
+  </si>
+  <si>
+    <t>F2.1</t>
+  </si>
+  <si>
+    <t>F2.2</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>Test/Verifikation/Abnahme</t>
+  </si>
+  <si>
+    <t>ggf. Fehlerbehebung</t>
+  </si>
+  <si>
+    <t>Abnahmekriterien/Testdurchführung</t>
+  </si>
+  <si>
+    <t>B2.1</t>
+  </si>
+  <si>
+    <t>B2.2</t>
+  </si>
+  <si>
+    <t>Kriterien festlege</t>
+  </si>
+  <si>
+    <t>Testdurchführung ausfüllen</t>
   </si>
 </sst>
 </file>
@@ -623,6 +842,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -652,9 +874,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -957,18 +1176,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
@@ -991,220 +1210,526 @@
       </c>
     </row>
     <row r="3" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
-        <v>1</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>65</v>
-      </c>
+      <c r="A3" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="15"/>
       <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
-        <v>2</v>
+      <c r="A4" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="17"/>
+    </row>
+    <row r="5" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="D5" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" t="s">
+        <v>185</v>
+      </c>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1217,7 +1742,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2005,7 +2530,7 @@
   <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2021,94 +2546,94 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="21" t="s">
         <v>40</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Q2" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="S2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="T2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
     </row>
     <row r="3" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="21"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -3529,16 +4054,23 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:D12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="56.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
@@ -3547,88 +4079,134 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="23" t="s">
+      <c r="F2" s="27"/>
+      <c r="G2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="23" t="s">
+      <c r="J2" s="27"/>
+      <c r="K2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
       <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -4015,7 +4593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -4059,19 +4637,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4079,19 +4657,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>101</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4099,19 +4677,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>126</v>
+        <v>99</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4119,19 +4697,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4139,19 +4717,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4159,19 +4737,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4179,19 +4757,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4199,19 +4777,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4219,19 +4797,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4239,19 +4817,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4259,19 +4837,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -4279,19 +4857,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -4299,19 +4877,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -4319,19 +4897,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">

--- a/Doku/Managementplaene_und_listen.xlsx
+++ b/Doku/Managementplaene_und_listen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="90" windowWidth="13290" windowHeight="12960"/>
+    <workbookView xWindow="-30" yWindow="90" windowWidth="13290" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Strukturplan" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="236">
   <si>
     <t>Risikoliste</t>
   </si>
@@ -482,9 +482,6 @@
     <t>Implementierung</t>
   </si>
   <si>
-    <t>Projektvorbereitung</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
@@ -515,9 +512,6 @@
     <t>Qualitätsziele bestimmen</t>
   </si>
   <si>
-    <t>Qualitätskriterien aufstelen</t>
-  </si>
-  <si>
     <t>Qualitätsmaßnahmen bestimmen</t>
   </si>
   <si>
@@ -593,12 +587,6 @@
     <t>Implementierung Anwendungskern</t>
   </si>
   <si>
-    <t>UseCases</t>
-  </si>
-  <si>
-    <t>Appication Functions</t>
-  </si>
-  <si>
     <t>Datenbank</t>
   </si>
   <si>
@@ -635,10 +623,121 @@
     <t>B2.2</t>
   </si>
   <si>
-    <t>Kriterien festlege</t>
-  </si>
-  <si>
     <t>Testdurchführung ausfüllen</t>
+  </si>
+  <si>
+    <t>Serverspezifikation und -beantragung</t>
+  </si>
+  <si>
+    <t>Kriterien festlegen</t>
+  </si>
+  <si>
+    <t>Qualitätskriterien aufstellen</t>
+  </si>
+  <si>
+    <t>A1.3</t>
+  </si>
+  <si>
+    <t>Komponentenmodell erstellen</t>
+  </si>
+  <si>
+    <t>Modelle</t>
+  </si>
+  <si>
+    <t>D1.1</t>
+  </si>
+  <si>
+    <t>D1.2</t>
+  </si>
+  <si>
+    <t>mitte nov</t>
+  </si>
+  <si>
+    <t>beginnt ab mitte nov</t>
+  </si>
+  <si>
+    <t>kw52</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>interne Abnahme</t>
+  </si>
+  <si>
+    <t>60% (8Std./KW)</t>
+  </si>
+  <si>
+    <t>F3.1</t>
+  </si>
+  <si>
+    <t>Implementierung Maske X</t>
+  </si>
+  <si>
+    <t>Implementeirung UseCase X</t>
+  </si>
+  <si>
+    <t>F2.3</t>
+  </si>
+  <si>
+    <t>F2.4</t>
+  </si>
+  <si>
+    <t>F2.5</t>
+  </si>
+  <si>
+    <t>F2.6</t>
+  </si>
+  <si>
+    <t>Implementierung Appication Function X</t>
+  </si>
+  <si>
+    <t>Implementierung Appication Function Stundenplanberechnung</t>
+  </si>
+  <si>
+    <t>F3.2</t>
+  </si>
+  <si>
+    <t>F3.3</t>
+  </si>
+  <si>
+    <t>E1.3</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>A3.1</t>
+  </si>
+  <si>
+    <t>A3.2</t>
+  </si>
+  <si>
+    <t>A3.3</t>
+  </si>
+  <si>
+    <t>Präsentation 1 erstellen</t>
+  </si>
+  <si>
+    <t>Präsentation 2 erstellen</t>
+  </si>
+  <si>
+    <t>Präsentation 3 erstellen</t>
+  </si>
+  <si>
+    <t>Projektvorbereitung/Doku</t>
+  </si>
+  <si>
+    <t>Klassendiagramm je Komponente</t>
+  </si>
+  <si>
+    <t>D1.3</t>
+  </si>
+  <si>
+    <t>Klassendiagramm für jede Komponente</t>
   </si>
 </sst>
 </file>
@@ -683,7 +782,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -813,11 +912,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -845,6 +955,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -875,6 +987,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1176,10 +1289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,7 +1300,7 @@
     <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
@@ -1214,7 +1327,7 @@
         <v>61</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>150</v>
+        <v>232</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="17"/>
@@ -1234,8 +1347,9 @@
         <v>67</v>
       </c>
       <c r="B5" s="15"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1243,313 +1357,318 @@
         <v>69</v>
       </c>
       <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
       <c r="D6" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>63</v>
+      <c r="A7" s="19" t="s">
+        <v>201</v>
       </c>
       <c r="B7" s="15"/>
-      <c r="C7" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="19" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="8" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15" t="s">
-        <v>154</v>
-      </c>
+      <c r="C8" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15" t="s">
-        <v>157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>135</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="B11" s="15"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="D11" s="15" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="12" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15" t="s">
-        <v>159</v>
+        <v>225</v>
       </c>
       <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>163</v>
+        <v>226</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15" t="s">
-        <v>160</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>164</v>
+        <v>227</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15" t="s">
-        <v>161</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15" t="s">
-        <v>162</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15" t="s">
-        <v>198</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="15"/>
       <c r="D16" s="15"/>
     </row>
-    <row r="17" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>199</v>
+        <v>74</v>
       </c>
       <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B24" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B30" s="1"/>
+        <v>137</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="1"/>
+      <c r="E30" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>140</v>
+        <v>204</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C35" s="1"/>
+        <v>139</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1557,9 +1676,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1567,169 +1686,342 @@
         <v>168</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>149</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
       <c r="B40" s="1"/>
-      <c r="C40" t="s">
-        <v>185</v>
+      <c r="C40" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1" t="s">
-        <v>186</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B46" s="1"/>
-      <c r="C46" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>196</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="B49" s="1"/>
-      <c r="C49" s="1" t="s">
-        <v>197</v>
+      <c r="C49" t="s">
+        <v>183</v>
       </c>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1739,17 +2031,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -1778,463 +2070,930 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="A4" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <f>D4-E4</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="A5" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:F59" si="0">D5-E5</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="A6" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="15"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="A8" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="A9" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="A10" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="1">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" s="15"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4</v>
+      </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="A15" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="15"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="A16" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="A17" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="A18" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="1">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="A19" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="15"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="A20" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="1">
+        <v>6</v>
+      </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="A21" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D21" s="1">
+        <v>10</v>
+      </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="1">
+        <v>8</v>
+      </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="1">
+        <v>6</v>
+      </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="1">
+        <v>6</v>
+      </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="F26" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="1">
+        <v>8</v>
+      </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="F28" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D29" s="1">
+        <v>10</v>
+      </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="F29" s="1">
+        <f t="shared" ref="F29" si="1">D29-E29</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D30" s="1">
+        <v>8</v>
+      </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="F30" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D32" s="1">
+        <v>6</v>
+      </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="F32" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D33" s="1">
+        <v>6</v>
+      </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="F33" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D34" s="1">
+        <v>6</v>
+      </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="F34" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" s="1">
+        <v>6</v>
+      </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="F35" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D37" s="1">
+        <v>6</v>
+      </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="F37" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" s="1">
+        <v>6</v>
+      </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="F38" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D40" s="1">
+        <v>8</v>
+      </c>
       <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="F40" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D41" s="1">
+        <v>8</v>
+      </c>
       <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="F41" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
+      <c r="A42" s="31" t="s">
+        <v>223</v>
+      </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D42" s="1">
+        <v>8</v>
+      </c>
       <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+      <c r="F42" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B43" t="s">
+        <v>183</v>
+      </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D44" s="1">
+        <v>15</v>
+      </c>
       <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="F44" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D45" s="1">
+        <v>34</v>
+      </c>
       <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="F45" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D47" s="1">
+        <v>30</v>
+      </c>
       <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+      <c r="F47" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D48" s="1">
+        <v>30</v>
+      </c>
       <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+      <c r="F48" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
+      <c r="A49" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D49" s="1">
+        <v>30</v>
+      </c>
       <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+      <c r="F49" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
+      <c r="A50" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D50" s="1">
+        <v>30</v>
+      </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
+      <c r="F50" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
+      <c r="A51" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D51" s="1">
+        <v>50</v>
+      </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
+      <c r="F51" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
+      <c r="A52" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D52" s="1">
+        <v>30</v>
+      </c>
       <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+      <c r="F52" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
+      <c r="A53" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
+      <c r="A54" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D54" s="1">
+        <v>25</v>
+      </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+      <c r="F54" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
+      <c r="A55" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="C55" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D55" s="1">
+        <v>25</v>
+      </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
+      <c r="F55" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
+      <c r="A56" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="C56" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D56" s="1">
+        <v>25</v>
+      </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
+      <c r="F56" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
+      <c r="A57" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="D57" s="1">
+        <v>4</v>
+      </c>
       <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
+      <c r="F57" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
+      <c r="A58" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="D58" s="1">
+        <v>10</v>
+      </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
+      <c r="F58" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
+      <c r="A59" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="D59" s="1">
+        <v>5</v>
+      </c>
       <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
+      <c r="F59" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2376,6 +3135,76 @@
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <f>SUM(D3:D84)</f>
+        <v>520</v>
+      </c>
+      <c r="E85">
+        <f>SUM(E3:E84)</f>
+        <v>41</v>
+      </c>
+      <c r="F85">
+        <f>SUM(F3:F84)</f>
+        <v>479</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2388,7 +3217,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2397,6 +3226,7 @@
     <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
@@ -2434,8 +3264,8 @@
       <c r="D3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="13">
-        <v>0.6</v>
+      <c r="E3" s="13" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2451,8 +3281,8 @@
       <c r="D4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="13">
-        <v>0.6</v>
+      <c r="E4" s="13" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2468,8 +3298,8 @@
       <c r="D5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="13">
-        <v>0.6</v>
+      <c r="E5" s="13" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2485,8 +3315,8 @@
       <c r="D6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="13">
-        <v>0.6</v>
+      <c r="E6" s="13" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2502,8 +3332,8 @@
       <c r="D7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="13">
-        <v>0.6</v>
+      <c r="E7" s="13" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2529,8 +3359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2546,94 +3376,94 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="23" t="s">
         <v>40</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="R2" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="S2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="T2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
     </row>
     <row r="3" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="22"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="24"/>
       <c r="H3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -4054,7 +4884,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4079,60 +4909,60 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="24" t="s">
+      <c r="F2" s="29"/>
+      <c r="G2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="24" t="s">
+      <c r="J2" s="29"/>
+      <c r="K2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
       <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -4201,7 +5031,7 @@
         <v>133</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">

--- a/Doku/Managementplaene_und_listen.xlsx
+++ b/Doku/Managementplaene_und_listen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="90" windowWidth="13290" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="-30" yWindow="90" windowWidth="13290" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Strukturplan" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="247">
   <si>
     <t>Risikoliste</t>
   </si>
@@ -164,34 +164,16 @@
     <t>Kapazität</t>
   </si>
   <si>
-    <t>Sven Winkler</t>
-  </si>
-  <si>
     <t>Projektleiter</t>
   </si>
   <si>
     <t>Qualitätsbeauftragter</t>
   </si>
   <si>
-    <t>Markus Wulftange</t>
-  </si>
-  <si>
     <t>Fachlicher Chefdesigner</t>
   </si>
   <si>
-    <t>Jan-Nicklas Klaassen</t>
-  </si>
-  <si>
-    <t>Philip Dauwe</t>
-  </si>
-  <si>
     <t>Technischer Chefdesigner</t>
-  </si>
-  <si>
-    <t>Marc Ufferfilge</t>
-  </si>
-  <si>
-    <t>Entwickler/Spezifizierer/Tester</t>
   </si>
   <si>
     <t>verfügbar bis</t>
@@ -410,9 +392,6 @@
     <t>Dokumentenverwaltung</t>
   </si>
   <si>
-    <t>Wie lösen wir das Vernetzungproblem</t>
-  </si>
-  <si>
     <t>Hoch</t>
   </si>
   <si>
@@ -611,9 +590,6 @@
     <t>Test/Verifikation/Abnahme</t>
   </si>
   <si>
-    <t>ggf. Fehlerbehebung</t>
-  </si>
-  <si>
     <t>Abnahmekriterien/Testdurchführung</t>
   </si>
   <si>
@@ -738,13 +714,70 @@
   </si>
   <si>
     <t>Klassendiagramm für jede Komponente</t>
+  </si>
+  <si>
+    <t>Serverspezifikation</t>
+  </si>
+  <si>
+    <t>Mittel</t>
+  </si>
+  <si>
+    <t>Mit Herrn Dallmöller gesprochen. Spezifikationen festgelegt.</t>
+  </si>
+  <si>
+    <t>Wie lösen wir das Vernetzungproblem?</t>
+  </si>
+  <si>
+    <t>Was für Ressourcen braucht der Server?</t>
+  </si>
+  <si>
+    <t>Auslastung</t>
+  </si>
+  <si>
+    <t>Sven Winkler (SW)</t>
+  </si>
+  <si>
+    <t>Markus Wulftange (MW)</t>
+  </si>
+  <si>
+    <t>Jan-Nicklas Klaassen (JNK)</t>
+  </si>
+  <si>
+    <t>Philip Dauwe (PD)</t>
+  </si>
+  <si>
+    <t>Marc Ufferfilge (MU)</t>
+  </si>
+  <si>
+    <t>Doku/Spezifizierer/Tester</t>
+  </si>
+  <si>
+    <t>JNK</t>
+  </si>
+  <si>
+    <t>Entwurf Maske Eingabe Zeiten</t>
+  </si>
+  <si>
+    <t>Implementeirung UseCase Eingabe Zeiten</t>
+  </si>
+  <si>
+    <t>Implementeirung UseCase Eingabe Zeite</t>
+  </si>
+  <si>
+    <t>Anpassungen/Fehlerbehebung</t>
+  </si>
+  <si>
+    <t>Implementierung Maske Eingabe Zeiten</t>
+  </si>
+  <si>
+    <t>Meilenstein</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -767,8 +800,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -779,6 +819,11 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
       </patternFill>
     </fill>
   </fills>
@@ -924,10 +969,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -957,6 +1003,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -987,9 +1034,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Akzent1" xfId="1" builtinId="29"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1291,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1305,7 +1363,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1324,76 +1382,76 @@
     </row>
     <row r="3" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="17"/>
       <c r="D5" s="15" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B6" s="15"/>
       <c r="D6" s="15" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="19" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -1403,575 +1461,575 @@
     </row>
     <row r="11" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
     </row>
     <row r="17" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="16" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D21" s="15"/>
     </row>
     <row r="22" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>166</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D64" s="1"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
       <c r="D65" s="1"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D66" s="1"/>
     </row>
@@ -2033,8 +2091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2046,7 +2104,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2060,21 +2118,21 @@
         <v>23</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>39</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2083,11 +2141,11 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="15" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -2102,11 +2160,11 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="15" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -2121,11 +2179,11 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="19" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -2140,10 +2198,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="1"/>
@@ -2152,11 +2210,11 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D8" s="1">
         <v>6</v>
@@ -2171,7 +2229,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15" t="s">
@@ -2190,11 +2248,11 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D10" s="1">
         <v>6</v>
@@ -2209,10 +2267,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="1"/>
@@ -2221,11 +2279,11 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D12" s="1">
         <v>4</v>
@@ -2238,11 +2296,11 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D13" s="1">
         <v>4</v>
@@ -2255,11 +2313,11 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D14" s="1">
         <v>4</v>
@@ -2272,10 +2330,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="1"/>
@@ -2284,11 +2342,11 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D16" s="1">
         <v>5</v>
@@ -2303,11 +2361,11 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D17" s="1">
         <v>5</v>
@@ -2322,11 +2380,11 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D18" s="1">
         <v>8</v>
@@ -2341,10 +2399,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="1"/>
@@ -2356,11 +2414,11 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D20" s="1">
         <v>6</v>
@@ -2373,11 +2431,11 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D21" s="1">
         <v>10</v>
@@ -2390,10 +2448,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2402,11 +2460,11 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D23" s="1">
         <v>8</v>
@@ -2419,11 +2477,11 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D24" s="1">
         <v>6</v>
@@ -2436,11 +2494,11 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D25" s="1">
         <v>6</v>
@@ -2453,11 +2511,11 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
@@ -2470,10 +2528,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2482,11 +2540,11 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D28" s="1">
         <v>8</v>
@@ -2499,11 +2557,11 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D29" s="1">
         <v>10</v>
@@ -2516,10 +2574,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D30" s="1">
         <v>8</v>
@@ -2532,10 +2590,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2544,11 +2602,11 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D32" s="1">
         <v>6</v>
@@ -2561,11 +2619,11 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D33" s="1">
         <v>6</v>
@@ -2578,11 +2636,11 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D34" s="1">
         <v>6</v>
@@ -2595,11 +2653,11 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D35" s="1">
         <v>6</v>
@@ -2612,10 +2670,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2624,11 +2682,11 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D37" s="1">
         <v>6</v>
@@ -2641,11 +2699,11 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D38" s="1">
         <v>6</v>
@@ -2658,10 +2716,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2670,11 +2728,11 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>166</v>
+        <v>241</v>
       </c>
       <c r="D40" s="1">
         <v>8</v>
@@ -2687,11 +2745,11 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D41" s="1">
         <v>8</v>
@@ -2703,12 +2761,12 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="31" t="s">
-        <v>223</v>
+      <c r="A42" s="21" t="s">
+        <v>215</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D42" s="1">
         <v>8</v>
@@ -2721,10 +2779,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B43" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2733,11 +2791,11 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D44" s="1">
         <v>15</v>
@@ -2750,11 +2808,11 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D45" s="1">
         <v>34</v>
@@ -2767,10 +2825,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2779,11 +2837,11 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="D47" s="1">
         <v>30</v>
@@ -2796,11 +2854,11 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D48" s="1">
         <v>30</v>
@@ -2813,11 +2871,11 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D49" s="1">
         <v>30</v>
@@ -2830,11 +2888,11 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D50" s="1">
         <v>30</v>
@@ -2847,11 +2905,11 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D51" s="1">
         <v>50</v>
@@ -2864,11 +2922,11 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D52" s="1">
         <v>30</v>
@@ -2881,10 +2939,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2893,11 +2951,11 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="D54" s="1">
         <v>25</v>
@@ -2910,11 +2968,11 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D55" s="1">
         <v>25</v>
@@ -2927,11 +2985,11 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D56" s="1">
         <v>25</v>
@@ -2944,10 +3002,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1">
@@ -2961,10 +3019,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1">
@@ -2978,10 +3036,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1">
@@ -3217,12 +3275,12 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -3245,7 +3303,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>45</v>
@@ -3253,10 +3311,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>27</v>
@@ -3265,15 +3323,15 @@
         <v>37</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>235</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>25</v>
@@ -3282,15 +3340,15 @@
         <v>37</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>236</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>25</v>
@@ -3299,15 +3357,15 @@
         <v>37</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>237</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>25</v>
@@ -3316,15 +3374,15 @@
         <v>37</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>54</v>
+        <v>238</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>55</v>
+        <v>239</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>25</v>
@@ -3333,7 +3391,7 @@
         <v>37</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3357,124 +3415,146 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V66"/>
+  <dimension ref="A1:V72"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.28515625" style="32" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="35" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="24" t="s">
         <v>40</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="P2" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="Q2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="R2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="21" t="s">
+      <c r="S2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="21" t="s">
+      <c r="T2" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
     </row>
     <row r="3" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="24"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="25"/>
       <c r="H3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="9"/>
+      <c r="A4" s="34" t="str">
+        <f>IF(Aufwandsplan!A3&lt;&gt;0, Aufwandsplan!A3, "")</f>
+        <v>A1</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="34" t="str">
+        <f>IF(Aufwandsplan!B3&lt;&gt;0, Aufwandsplan!B3, "")</f>
+        <v>Kick-Off Meeting</v>
+      </c>
+      <c r="D4" s="34" t="str">
+        <f>IF(Aufwandsplan!C3&lt;&gt;0, Aufwandsplan!C3, "")</f>
+        <v/>
+      </c>
+      <c r="E4" s="34" t="str">
+        <f>IF(Aufwandsplan!D3&lt;&gt;0, Aufwandsplan!D3, "")</f>
+        <v/>
+      </c>
+      <c r="F4" s="34" t="str">
+        <f>IF(Aufwandsplan!E3&lt;&gt;0, Aufwandsplan!E3, "")</f>
+        <v/>
+      </c>
+      <c r="G4" s="36" t="str">
+        <f>IF(Aufwandsplan!F3&lt;&gt;0, Aufwandsplan!F3, "")</f>
+        <v/>
+      </c>
       <c r="H4" s="7"/>
-      <c r="I4" s="1"/>
+      <c r="I4" s="38"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -3488,15 +3568,37 @@
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="9"/>
+      <c r="A5" s="34" t="str">
+        <f>IF(Aufwandsplan!A4&lt;&gt;0, Aufwandsplan!A4, "")</f>
+        <v>A1.1</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="34" t="str">
+        <f>IF(Aufwandsplan!B4&lt;&gt;0, Aufwandsplan!B4, "")</f>
+        <v/>
+      </c>
+      <c r="D5" s="34" t="str">
+        <f>IF(Aufwandsplan!C4&lt;&gt;0, Aufwandsplan!C4, "")</f>
+        <v>Rollen aufteilen/Teamplan</v>
+      </c>
+      <c r="E5" s="34">
+        <f>IF(Aufwandsplan!D4&lt;&gt;0, Aufwandsplan!D4, "")</f>
+        <v>2</v>
+      </c>
+      <c r="F5" s="34">
+        <f>IF(Aufwandsplan!E4&lt;&gt;0, Aufwandsplan!E4, "")</f>
+        <v>2</v>
+      </c>
+      <c r="G5" s="36" t="str">
+        <f>IF(Aufwandsplan!F4&lt;&gt;0, Aufwandsplan!F4, "")</f>
+        <v/>
+      </c>
       <c r="H5" s="7"/>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -3510,15 +3612,37 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="9"/>
+      <c r="A6" s="34" t="str">
+        <f>IF(Aufwandsplan!A5&lt;&gt;0, Aufwandsplan!A5, "")</f>
+        <v>A1.2</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="34" t="str">
+        <f>IF(Aufwandsplan!B5&lt;&gt;0, Aufwandsplan!B5, "")</f>
+        <v/>
+      </c>
+      <c r="D6" s="34" t="str">
+        <f>IF(Aufwandsplan!C5&lt;&gt;0, Aufwandsplan!C5, "")</f>
+        <v>Github Schulung von Philip Dauwe</v>
+      </c>
+      <c r="E6" s="34">
+        <f>IF(Aufwandsplan!D5&lt;&gt;0, Aufwandsplan!D5, "")</f>
+        <v>2</v>
+      </c>
+      <c r="F6" s="34">
+        <f>IF(Aufwandsplan!E5&lt;&gt;0, Aufwandsplan!E5, "")</f>
+        <v>2</v>
+      </c>
+      <c r="G6" s="36" t="str">
+        <f>IF(Aufwandsplan!F5&lt;&gt;0, Aufwandsplan!F5, "")</f>
+        <v/>
+      </c>
       <c r="H6" s="7"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -3532,15 +3656,37 @@
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="9"/>
+      <c r="A7" s="34" t="str">
+        <f>IF(Aufwandsplan!A6&lt;&gt;0, Aufwandsplan!A6, "")</f>
+        <v>A1.3</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="34" t="str">
+        <f>IF(Aufwandsplan!B6&lt;&gt;0, Aufwandsplan!B6, "")</f>
+        <v/>
+      </c>
+      <c r="D7" s="34" t="str">
+        <f>IF(Aufwandsplan!C6&lt;&gt;0, Aufwandsplan!C6, "")</f>
+        <v>Serverspezifikation und -beantragung</v>
+      </c>
+      <c r="E7" s="34">
+        <f>IF(Aufwandsplan!D6&lt;&gt;0, Aufwandsplan!D6, "")</f>
+        <v>2</v>
+      </c>
+      <c r="F7" s="34">
+        <f>IF(Aufwandsplan!E6&lt;&gt;0, Aufwandsplan!E6, "")</f>
+        <v>2</v>
+      </c>
+      <c r="G7" s="36" t="str">
+        <f>IF(Aufwandsplan!F6&lt;&gt;0, Aufwandsplan!F6, "")</f>
+        <v/>
+      </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -3554,17 +3700,37 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="9"/>
+      <c r="A8" s="34" t="str">
+        <f>IF(Aufwandsplan!A7&lt;&gt;0, Aufwandsplan!A7, "")</f>
+        <v>A2</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="39" t="str">
+        <f>IF(Aufwandsplan!B7&lt;&gt;0, Aufwandsplan!B7, "")</f>
+        <v>Projektplanung</v>
+      </c>
+      <c r="D8" s="34" t="str">
+        <f>IF(Aufwandsplan!C7&lt;&gt;0, Aufwandsplan!C7, "")</f>
+        <v/>
+      </c>
+      <c r="E8" s="34" t="str">
+        <f>IF(Aufwandsplan!D7&lt;&gt;0, Aufwandsplan!D7, "")</f>
+        <v/>
+      </c>
+      <c r="F8" s="34" t="str">
+        <f>IF(Aufwandsplan!E7&lt;&gt;0, Aufwandsplan!E7, "")</f>
+        <v/>
+      </c>
+      <c r="G8" s="36" t="str">
+        <f>IF(Aufwandsplan!F7&lt;&gt;0, Aufwandsplan!F7, "")</f>
+        <v/>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="K8" s="38"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -3576,17 +3742,41 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="9"/>
+      <c r="A9" s="34" t="str">
+        <f>IF(Aufwandsplan!A8&lt;&gt;0, Aufwandsplan!A8, "")</f>
+        <v>A2.1</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C9" s="34" t="str">
+        <f>IF(Aufwandsplan!B8&lt;&gt;0, Aufwandsplan!B8, "")</f>
+        <v/>
+      </c>
+      <c r="D9" s="34" t="str">
+        <f>IF(Aufwandsplan!C8&lt;&gt;0, Aufwandsplan!C8, "")</f>
+        <v>Grober Struktur-/Aufwandsplan</v>
+      </c>
+      <c r="E9" s="34">
+        <f>IF(Aufwandsplan!D8&lt;&gt;0, Aufwandsplan!D8, "")</f>
+        <v>6</v>
+      </c>
+      <c r="F9" s="34">
+        <f>IF(Aufwandsplan!E8&lt;&gt;0, Aufwandsplan!E8, "")</f>
+        <v>6</v>
+      </c>
+      <c r="G9" s="36" t="str">
+        <f>IF(Aufwandsplan!F8&lt;&gt;0, Aufwandsplan!F8, "")</f>
+        <v/>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -3598,16 +3788,38 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="9"/>
+      <c r="A10" s="34" t="str">
+        <f>IF(Aufwandsplan!A9&lt;&gt;0, Aufwandsplan!A9, "")</f>
+        <v>A2.2</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="34" t="str">
+        <f>IF(Aufwandsplan!B9&lt;&gt;0, Aufwandsplan!B9, "")</f>
+        <v/>
+      </c>
+      <c r="D10" s="34" t="str">
+        <f>IF(Aufwandsplan!C9&lt;&gt;0, Aufwandsplan!C9, "")</f>
+        <v>Risikoliste</v>
+      </c>
+      <c r="E10" s="34">
+        <f>IF(Aufwandsplan!D9&lt;&gt;0, Aufwandsplan!D9, "")</f>
+        <v>5</v>
+      </c>
+      <c r="F10" s="34">
+        <f>IF(Aufwandsplan!E9&lt;&gt;0, Aufwandsplan!E9, "")</f>
+        <v>5</v>
+      </c>
+      <c r="G10" s="36" t="str">
+        <f>IF(Aufwandsplan!F9&lt;&gt;0, Aufwandsplan!F9, "")</f>
+        <v/>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -3620,17 +3832,39 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="9"/>
+      <c r="A11" s="34" t="str">
+        <f>IF(Aufwandsplan!A10&lt;&gt;0, Aufwandsplan!A10, "")</f>
+        <v>A2.3</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="34" t="str">
+        <f>IF(Aufwandsplan!B10&lt;&gt;0, Aufwandsplan!B10, "")</f>
+        <v/>
+      </c>
+      <c r="D11" s="34" t="str">
+        <f>IF(Aufwandsplan!C10&lt;&gt;0, Aufwandsplan!C10, "")</f>
+        <v>Termin- und Meilensteinplanung</v>
+      </c>
+      <c r="E11" s="34">
+        <f>IF(Aufwandsplan!D10&lt;&gt;0, Aufwandsplan!D10, "")</f>
+        <v>6</v>
+      </c>
+      <c r="F11" s="34">
+        <f>IF(Aufwandsplan!E10&lt;&gt;0, Aufwandsplan!E10, "")</f>
+        <v>6</v>
+      </c>
+      <c r="G11" s="36" t="str">
+        <f>IF(Aufwandsplan!F10&lt;&gt;0, Aufwandsplan!F10, "")</f>
+        <v/>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -3642,13 +3876,33 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="9"/>
+      <c r="A12" s="34" t="str">
+        <f>IF(Aufwandsplan!A11&lt;&gt;0, Aufwandsplan!A11, "")</f>
+        <v>A3</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="34" t="str">
+        <f>IF(Aufwandsplan!B11&lt;&gt;0, Aufwandsplan!B11, "")</f>
+        <v>Dokumentation</v>
+      </c>
+      <c r="D12" s="34" t="str">
+        <f>IF(Aufwandsplan!C11&lt;&gt;0, Aufwandsplan!C11, "")</f>
+        <v/>
+      </c>
+      <c r="E12" s="34" t="str">
+        <f>IF(Aufwandsplan!D11&lt;&gt;0, Aufwandsplan!D11, "")</f>
+        <v/>
+      </c>
+      <c r="F12" s="34" t="str">
+        <f>IF(Aufwandsplan!E11&lt;&gt;0, Aufwandsplan!E11, "")</f>
+        <v/>
+      </c>
+      <c r="G12" s="36" t="str">
+        <f>IF(Aufwandsplan!F11&lt;&gt;0, Aufwandsplan!F11, "")</f>
+        <v/>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -3664,17 +3918,41 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="9"/>
+      <c r="A13" s="34" t="str">
+        <f>IF(Aufwandsplan!A12&lt;&gt;0, Aufwandsplan!A12, "")</f>
+        <v>A3.1</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="34" t="str">
+        <f>IF(Aufwandsplan!B12&lt;&gt;0, Aufwandsplan!B12, "")</f>
+        <v/>
+      </c>
+      <c r="D13" s="34" t="str">
+        <f>IF(Aufwandsplan!C12&lt;&gt;0, Aufwandsplan!C12, "")</f>
+        <v>Präsentation 1 erstellen</v>
+      </c>
+      <c r="E13" s="34">
+        <f>IF(Aufwandsplan!D12&lt;&gt;0, Aufwandsplan!D12, "")</f>
+        <v>4</v>
+      </c>
+      <c r="F13" s="34" t="str">
+        <f>IF(Aufwandsplan!E12&lt;&gt;0, Aufwandsplan!E12, "")</f>
+        <v/>
+      </c>
+      <c r="G13" s="36">
+        <f>IF(Aufwandsplan!F12&lt;&gt;0, Aufwandsplan!F12, "")</f>
+        <v>4</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -3686,13 +3964,33 @@
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="9"/>
+      <c r="A14" s="34" t="str">
+        <f>IF(Aufwandsplan!A13&lt;&gt;0, Aufwandsplan!A13, "")</f>
+        <v>A3.2</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="34" t="str">
+        <f>IF(Aufwandsplan!B13&lt;&gt;0, Aufwandsplan!B13, "")</f>
+        <v/>
+      </c>
+      <c r="D14" s="34" t="str">
+        <f>IF(Aufwandsplan!C13&lt;&gt;0, Aufwandsplan!C13, "")</f>
+        <v>Präsentation 2 erstellen</v>
+      </c>
+      <c r="E14" s="34">
+        <f>IF(Aufwandsplan!D13&lt;&gt;0, Aufwandsplan!D13, "")</f>
+        <v>4</v>
+      </c>
+      <c r="F14" s="34" t="str">
+        <f>IF(Aufwandsplan!E13&lt;&gt;0, Aufwandsplan!E13, "")</f>
+        <v/>
+      </c>
+      <c r="G14" s="36">
+        <f>IF(Aufwandsplan!F13&lt;&gt;0, Aufwandsplan!F13, "")</f>
+        <v>4</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -3708,13 +4006,33 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="9"/>
+      <c r="A15" s="34" t="str">
+        <f>IF(Aufwandsplan!A14&lt;&gt;0, Aufwandsplan!A14, "")</f>
+        <v>A3.3</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="34" t="str">
+        <f>IF(Aufwandsplan!B14&lt;&gt;0, Aufwandsplan!B14, "")</f>
+        <v/>
+      </c>
+      <c r="D15" s="34" t="str">
+        <f>IF(Aufwandsplan!C14&lt;&gt;0, Aufwandsplan!C14, "")</f>
+        <v>Präsentation 3 erstellen</v>
+      </c>
+      <c r="E15" s="34">
+        <f>IF(Aufwandsplan!D14&lt;&gt;0, Aufwandsplan!D14, "")</f>
+        <v>4</v>
+      </c>
+      <c r="F15" s="34" t="str">
+        <f>IF(Aufwandsplan!E14&lt;&gt;0, Aufwandsplan!E14, "")</f>
+        <v/>
+      </c>
+      <c r="G15" s="36">
+        <f>IF(Aufwandsplan!F14&lt;&gt;0, Aufwandsplan!F14, "")</f>
+        <v>4</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -3730,19 +4048,39 @@
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="9"/>
+      <c r="A16" s="34" t="str">
+        <f>IF(Aufwandsplan!A15&lt;&gt;0, Aufwandsplan!A15, "")</f>
+        <v>B1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="39" t="str">
+        <f>IF(Aufwandsplan!B15&lt;&gt;0, Aufwandsplan!B15, "")</f>
+        <v>QM-Plan</v>
+      </c>
+      <c r="D16" s="34" t="str">
+        <f>IF(Aufwandsplan!C15&lt;&gt;0, Aufwandsplan!C15, "")</f>
+        <v/>
+      </c>
+      <c r="E16" s="34" t="str">
+        <f>IF(Aufwandsplan!D15&lt;&gt;0, Aufwandsplan!D15, "")</f>
+        <v/>
+      </c>
+      <c r="F16" s="34" t="str">
+        <f>IF(Aufwandsplan!E15&lt;&gt;0, Aufwandsplan!E15, "")</f>
+        <v/>
+      </c>
+      <c r="G16" s="36" t="str">
+        <f>IF(Aufwandsplan!F15&lt;&gt;0, Aufwandsplan!F15, "")</f>
+        <v/>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="M16" s="38"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -3752,16 +4090,38 @@
       <c r="T16" s="1"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="9"/>
+      <c r="A17" s="34" t="str">
+        <f>IF(Aufwandsplan!A16&lt;&gt;0, Aufwandsplan!A16, "")</f>
+        <v>B1.1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="34" t="str">
+        <f>IF(Aufwandsplan!B16&lt;&gt;0, Aufwandsplan!B16, "")</f>
+        <v/>
+      </c>
+      <c r="D17" s="34" t="str">
+        <f>IF(Aufwandsplan!C16&lt;&gt;0, Aufwandsplan!C16, "")</f>
+        <v>Qualitätsziele bestimmen</v>
+      </c>
+      <c r="E17" s="34">
+        <f>IF(Aufwandsplan!D16&lt;&gt;0, Aufwandsplan!D16, "")</f>
+        <v>5</v>
+      </c>
+      <c r="F17" s="34">
+        <f>IF(Aufwandsplan!E16&lt;&gt;0, Aufwandsplan!E16, "")</f>
+        <v>5</v>
+      </c>
+      <c r="G17" s="36" t="str">
+        <f>IF(Aufwandsplan!F16&lt;&gt;0, Aufwandsplan!F16, "")</f>
+        <v/>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -3774,17 +4134,41 @@
       <c r="T17" s="1"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="9"/>
+      <c r="A18" s="34" t="str">
+        <f>IF(Aufwandsplan!A17&lt;&gt;0, Aufwandsplan!A17, "")</f>
+        <v>B1.2</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="34" t="str">
+        <f>IF(Aufwandsplan!B17&lt;&gt;0, Aufwandsplan!B17, "")</f>
+        <v/>
+      </c>
+      <c r="D18" s="34" t="str">
+        <f>IF(Aufwandsplan!C17&lt;&gt;0, Aufwandsplan!C17, "")</f>
+        <v>Qualitätskriterien aufstellen</v>
+      </c>
+      <c r="E18" s="34">
+        <f>IF(Aufwandsplan!D17&lt;&gt;0, Aufwandsplan!D17, "")</f>
+        <v>5</v>
+      </c>
+      <c r="F18" s="34">
+        <f>IF(Aufwandsplan!E17&lt;&gt;0, Aufwandsplan!E17, "")</f>
+        <v>5</v>
+      </c>
+      <c r="G18" s="36" t="str">
+        <f>IF(Aufwandsplan!F17&lt;&gt;0, Aufwandsplan!F17, "")</f>
+        <v/>
+      </c>
       <c r="H18" s="7"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -3796,18 +4180,40 @@
       <c r="T18" s="1"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="9"/>
+      <c r="A19" s="34" t="str">
+        <f>IF(Aufwandsplan!A18&lt;&gt;0, Aufwandsplan!A18, "")</f>
+        <v>B1.3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="34" t="str">
+        <f>IF(Aufwandsplan!B18&lt;&gt;0, Aufwandsplan!B18, "")</f>
+        <v/>
+      </c>
+      <c r="D19" s="34" t="str">
+        <f>IF(Aufwandsplan!C18&lt;&gt;0, Aufwandsplan!C18, "")</f>
+        <v>Qualitätsmaßnahmen bestimmen</v>
+      </c>
+      <c r="E19" s="34">
+        <f>IF(Aufwandsplan!D18&lt;&gt;0, Aufwandsplan!D18, "")</f>
+        <v>8</v>
+      </c>
+      <c r="F19" s="34">
+        <f>IF(Aufwandsplan!E18&lt;&gt;0, Aufwandsplan!E18, "")</f>
+        <v>8</v>
+      </c>
+      <c r="G19" s="36" t="str">
+        <f>IF(Aufwandsplan!F18&lt;&gt;0, Aufwandsplan!F18, "")</f>
+        <v/>
+      </c>
       <c r="H19" s="7"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="L19" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -3818,13 +4224,33 @@
       <c r="T19" s="1"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="9"/>
+      <c r="A20" s="34" t="str">
+        <f>IF(Aufwandsplan!A19&lt;&gt;0, Aufwandsplan!A19, "")</f>
+        <v>B2</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="34" t="str">
+        <f>IF(Aufwandsplan!B19&lt;&gt;0, Aufwandsplan!B19, "")</f>
+        <v>Abnahmekriterien/Testdurchführung</v>
+      </c>
+      <c r="D20" s="34" t="str">
+        <f>IF(Aufwandsplan!C19&lt;&gt;0, Aufwandsplan!C19, "")</f>
+        <v/>
+      </c>
+      <c r="E20" s="34" t="str">
+        <f>IF(Aufwandsplan!D19&lt;&gt;0, Aufwandsplan!D19, "")</f>
+        <v/>
+      </c>
+      <c r="F20" s="34" t="str">
+        <f>IF(Aufwandsplan!E19&lt;&gt;0, Aufwandsplan!E19, "")</f>
+        <v/>
+      </c>
+      <c r="G20" s="36" t="str">
+        <f>IF(Aufwandsplan!F19&lt;&gt;0, Aufwandsplan!F19, "")</f>
+        <v/>
+      </c>
       <c r="H20" s="7"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -3840,13 +4266,33 @@
       <c r="T20" s="1"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="9"/>
+      <c r="A21" s="34" t="str">
+        <f>IF(Aufwandsplan!A20&lt;&gt;0, Aufwandsplan!A20, "")</f>
+        <v>B2.1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="34" t="str">
+        <f>IF(Aufwandsplan!B20&lt;&gt;0, Aufwandsplan!B20, "")</f>
+        <v/>
+      </c>
+      <c r="D21" s="34" t="str">
+        <f>IF(Aufwandsplan!C20&lt;&gt;0, Aufwandsplan!C20, "")</f>
+        <v>Kriterien festlegen</v>
+      </c>
+      <c r="E21" s="34">
+        <f>IF(Aufwandsplan!D20&lt;&gt;0, Aufwandsplan!D20, "")</f>
+        <v>6</v>
+      </c>
+      <c r="F21" s="34" t="str">
+        <f>IF(Aufwandsplan!E20&lt;&gt;0, Aufwandsplan!E20, "")</f>
+        <v/>
+      </c>
+      <c r="G21" s="36">
+        <f>IF(Aufwandsplan!F20&lt;&gt;0, Aufwandsplan!F20, "")</f>
+        <v>6</v>
+      </c>
       <c r="H21" s="7"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -3862,13 +4308,33 @@
       <c r="T21" s="1"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="9"/>
+      <c r="A22" s="34" t="str">
+        <f>IF(Aufwandsplan!A21&lt;&gt;0, Aufwandsplan!A21, "")</f>
+        <v>B2.2</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="34" t="str">
+        <f>IF(Aufwandsplan!B21&lt;&gt;0, Aufwandsplan!B21, "")</f>
+        <v/>
+      </c>
+      <c r="D22" s="34" t="str">
+        <f>IF(Aufwandsplan!C21&lt;&gt;0, Aufwandsplan!C21, "")</f>
+        <v>Testdurchführung ausfüllen</v>
+      </c>
+      <c r="E22" s="34">
+        <f>IF(Aufwandsplan!D21&lt;&gt;0, Aufwandsplan!D21, "")</f>
+        <v>10</v>
+      </c>
+      <c r="F22" s="34" t="str">
+        <f>IF(Aufwandsplan!E21&lt;&gt;0, Aufwandsplan!E21, "")</f>
+        <v/>
+      </c>
+      <c r="G22" s="36">
+        <f>IF(Aufwandsplan!F21&lt;&gt;0, Aufwandsplan!F21, "")</f>
+        <v>10</v>
+      </c>
       <c r="H22" s="7"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -3884,13 +4350,33 @@
       <c r="T22" s="1"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="9"/>
+      <c r="A23" s="34" t="str">
+        <f>IF(Aufwandsplan!A22&lt;&gt;0, Aufwandsplan!A22, "")</f>
+        <v>C1</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="34" t="str">
+        <f>IF(Aufwandsplan!B22&lt;&gt;0, Aufwandsplan!B22, "")</f>
+        <v>Aufgabe analysieren</v>
+      </c>
+      <c r="D23" s="34" t="str">
+        <f>IF(Aufwandsplan!C22&lt;&gt;0, Aufwandsplan!C22, "")</f>
+        <v/>
+      </c>
+      <c r="E23" s="34" t="str">
+        <f>IF(Aufwandsplan!D22&lt;&gt;0, Aufwandsplan!D22, "")</f>
+        <v/>
+      </c>
+      <c r="F23" s="34" t="str">
+        <f>IF(Aufwandsplan!E22&lt;&gt;0, Aufwandsplan!E22, "")</f>
+        <v/>
+      </c>
+      <c r="G23" s="36" t="str">
+        <f>IF(Aufwandsplan!F22&lt;&gt;0, Aufwandsplan!F22, "")</f>
+        <v/>
+      </c>
       <c r="H23" s="7"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -3906,16 +4392,38 @@
       <c r="T23" s="1"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="9"/>
+      <c r="A24" s="34" t="str">
+        <f>IF(Aufwandsplan!A23&lt;&gt;0, Aufwandsplan!A23, "")</f>
+        <v>C1.1</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="34" t="str">
+        <f>IF(Aufwandsplan!B23&lt;&gt;0, Aufwandsplan!B23, "")</f>
+        <v/>
+      </c>
+      <c r="D24" s="34" t="str">
+        <f>IF(Aufwandsplan!C23&lt;&gt;0, Aufwandsplan!C23, "")</f>
+        <v>Geschäftanwendungsfälle definieren</v>
+      </c>
+      <c r="E24" s="34">
+        <f>IF(Aufwandsplan!D23&lt;&gt;0, Aufwandsplan!D23, "")</f>
+        <v>8</v>
+      </c>
+      <c r="F24" s="34" t="str">
+        <f>IF(Aufwandsplan!E23&lt;&gt;0, Aufwandsplan!E23, "")</f>
+        <v/>
+      </c>
+      <c r="G24" s="36">
+        <f>IF(Aufwandsplan!F23&lt;&gt;0, Aufwandsplan!F23, "")</f>
+        <v>8</v>
+      </c>
       <c r="H24" s="7"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="J24" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -3928,17 +4436,39 @@
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="9"/>
+      <c r="A25" s="34" t="str">
+        <f>IF(Aufwandsplan!A24&lt;&gt;0, Aufwandsplan!A24, "")</f>
+        <v>C1.2</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="34" t="str">
+        <f>IF(Aufwandsplan!B24&lt;&gt;0, Aufwandsplan!B24, "")</f>
+        <v/>
+      </c>
+      <c r="D25" s="34" t="str">
+        <f>IF(Aufwandsplan!C24&lt;&gt;0, Aufwandsplan!C24, "")</f>
+        <v>funktionale Anforderungen definieren</v>
+      </c>
+      <c r="E25" s="34">
+        <f>IF(Aufwandsplan!D24&lt;&gt;0, Aufwandsplan!D24, "")</f>
+        <v>6</v>
+      </c>
+      <c r="F25" s="34" t="str">
+        <f>IF(Aufwandsplan!E24&lt;&gt;0, Aufwandsplan!E24, "")</f>
+        <v/>
+      </c>
+      <c r="G25" s="36">
+        <f>IF(Aufwandsplan!F24&lt;&gt;0, Aufwandsplan!F24, "")</f>
+        <v>6</v>
+      </c>
       <c r="H25" s="7"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="K25" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -3950,18 +4480,40 @@
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="9"/>
+      <c r="A26" s="34" t="str">
+        <f>IF(Aufwandsplan!A25&lt;&gt;0, Aufwandsplan!A25, "")</f>
+        <v>C1.3</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="34" t="str">
+        <f>IF(Aufwandsplan!B25&lt;&gt;0, Aufwandsplan!B25, "")</f>
+        <v/>
+      </c>
+      <c r="D26" s="34" t="str">
+        <f>IF(Aufwandsplan!C25&lt;&gt;0, Aufwandsplan!C25, "")</f>
+        <v>(nicht) funktionale Anforderungen definieren</v>
+      </c>
+      <c r="E26" s="34">
+        <f>IF(Aufwandsplan!D25&lt;&gt;0, Aufwandsplan!D25, "")</f>
+        <v>6</v>
+      </c>
+      <c r="F26" s="34" t="str">
+        <f>IF(Aufwandsplan!E25&lt;&gt;0, Aufwandsplan!E25, "")</f>
+        <v/>
+      </c>
+      <c r="G26" s="36">
+        <f>IF(Aufwandsplan!F25&lt;&gt;0, Aufwandsplan!F25, "")</f>
+        <v>6</v>
+      </c>
       <c r="H26" s="7"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
+      <c r="L26" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -3972,17 +4524,39 @@
       <c r="T26" s="1"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="9"/>
+      <c r="A27" s="34" t="str">
+        <f>IF(Aufwandsplan!A26&lt;&gt;0, Aufwandsplan!A26, "")</f>
+        <v>C1.4</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="34" t="str">
+        <f>IF(Aufwandsplan!B26&lt;&gt;0, Aufwandsplan!B26, "")</f>
+        <v/>
+      </c>
+      <c r="D27" s="34" t="str">
+        <f>IF(Aufwandsplan!C26&lt;&gt;0, Aufwandsplan!C26, "")</f>
+        <v>Stakeholderanalyse</v>
+      </c>
+      <c r="E27" s="34">
+        <f>IF(Aufwandsplan!D26&lt;&gt;0, Aufwandsplan!D26, "")</f>
+        <v>2</v>
+      </c>
+      <c r="F27" s="34" t="str">
+        <f>IF(Aufwandsplan!E26&lt;&gt;0, Aufwandsplan!E26, "")</f>
+        <v/>
+      </c>
+      <c r="G27" s="36">
+        <f>IF(Aufwandsplan!F26&lt;&gt;0, Aufwandsplan!F26, "")</f>
+        <v>2</v>
+      </c>
       <c r="H27" s="7"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="K27" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -3994,13 +4568,33 @@
       <c r="T27" s="1"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="9"/>
+      <c r="A28" s="34" t="str">
+        <f>IF(Aufwandsplan!A27&lt;&gt;0, Aufwandsplan!A27, "")</f>
+        <v>D1</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="39" t="str">
+        <f>IF(Aufwandsplan!B27&lt;&gt;0, Aufwandsplan!B27, "")</f>
+        <v>Modelle</v>
+      </c>
+      <c r="D28" s="34" t="str">
+        <f>IF(Aufwandsplan!C27&lt;&gt;0, Aufwandsplan!C27, "")</f>
+        <v/>
+      </c>
+      <c r="E28" s="34" t="str">
+        <f>IF(Aufwandsplan!D27&lt;&gt;0, Aufwandsplan!D27, "")</f>
+        <v/>
+      </c>
+      <c r="F28" s="34" t="str">
+        <f>IF(Aufwandsplan!E27&lt;&gt;0, Aufwandsplan!E27, "")</f>
+        <v/>
+      </c>
+      <c r="G28" s="36" t="str">
+        <f>IF(Aufwandsplan!F27&lt;&gt;0, Aufwandsplan!F27, "")</f>
+        <v/>
+      </c>
       <c r="H28" s="7"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -4009,23 +4603,45 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
+      <c r="P28" s="38"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="9"/>
+      <c r="A29" s="34" t="str">
+        <f>IF(Aufwandsplan!A28&lt;&gt;0, Aufwandsplan!A28, "")</f>
+        <v>D1.1</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="34" t="str">
+        <f>IF(Aufwandsplan!B28&lt;&gt;0, Aufwandsplan!B28, "")</f>
+        <v/>
+      </c>
+      <c r="D29" s="34" t="str">
+        <f>IF(Aufwandsplan!C28&lt;&gt;0, Aufwandsplan!C28, "")</f>
+        <v>Datenmodell erstellen</v>
+      </c>
+      <c r="E29" s="34">
+        <f>IF(Aufwandsplan!D28&lt;&gt;0, Aufwandsplan!D28, "")</f>
+        <v>8</v>
+      </c>
+      <c r="F29" s="34" t="str">
+        <f>IF(Aufwandsplan!E28&lt;&gt;0, Aufwandsplan!E28, "")</f>
+        <v/>
+      </c>
+      <c r="G29" s="36">
+        <f>IF(Aufwandsplan!F28&lt;&gt;0, Aufwandsplan!F28, "")</f>
+        <v>8</v>
+      </c>
       <c r="H29" s="7"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="J29" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -4038,13 +4654,33 @@
       <c r="T29" s="1"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="9"/>
+      <c r="A30" s="34" t="str">
+        <f>IF(Aufwandsplan!A29&lt;&gt;0, Aufwandsplan!A29, "")</f>
+        <v>D1.2</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="34" t="str">
+        <f>IF(Aufwandsplan!B29&lt;&gt;0, Aufwandsplan!B29, "")</f>
+        <v/>
+      </c>
+      <c r="D30" s="34" t="str">
+        <f>IF(Aufwandsplan!C29&lt;&gt;0, Aufwandsplan!C29, "")</f>
+        <v>Komponentenmodell erstellen</v>
+      </c>
+      <c r="E30" s="34">
+        <f>IF(Aufwandsplan!D29&lt;&gt;0, Aufwandsplan!D29, "")</f>
+        <v>10</v>
+      </c>
+      <c r="F30" s="34" t="str">
+        <f>IF(Aufwandsplan!E29&lt;&gt;0, Aufwandsplan!E29, "")</f>
+        <v/>
+      </c>
+      <c r="G30" s="36">
+        <f>IF(Aufwandsplan!F29&lt;&gt;0, Aufwandsplan!F29, "")</f>
+        <v>10</v>
+      </c>
       <c r="H30" s="7"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -4060,18 +4696,40 @@
       <c r="T30" s="1"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="9"/>
+      <c r="A31" s="34" t="str">
+        <f>IF(Aufwandsplan!A30&lt;&gt;0, Aufwandsplan!A30, "")</f>
+        <v>D1.3</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="34" t="str">
+        <f>IF(Aufwandsplan!B30&lt;&gt;0, Aufwandsplan!B30, "")</f>
+        <v/>
+      </c>
+      <c r="D31" s="34" t="str">
+        <f>IF(Aufwandsplan!C30&lt;&gt;0, Aufwandsplan!C30, "")</f>
+        <v>Klassendiagramm für jede Komponente</v>
+      </c>
+      <c r="E31" s="34">
+        <f>IF(Aufwandsplan!D30&lt;&gt;0, Aufwandsplan!D30, "")</f>
+        <v>8</v>
+      </c>
+      <c r="F31" s="34" t="str">
+        <f>IF(Aufwandsplan!E30&lt;&gt;0, Aufwandsplan!E30, "")</f>
+        <v/>
+      </c>
+      <c r="G31" s="36">
+        <f>IF(Aufwandsplan!F30&lt;&gt;0, Aufwandsplan!F30, "")</f>
+        <v>8</v>
+      </c>
       <c r="H31" s="7"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="L31" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -4082,13 +4740,33 @@
       <c r="T31" s="1"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="9"/>
+      <c r="A32" s="34" t="str">
+        <f>IF(Aufwandsplan!A31&lt;&gt;0, Aufwandsplan!A31, "")</f>
+        <v>D2</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="39" t="str">
+        <f>IF(Aufwandsplan!B31&lt;&gt;0, Aufwandsplan!B31, "")</f>
+        <v>Use Cases definieren</v>
+      </c>
+      <c r="D32" s="34" t="str">
+        <f>IF(Aufwandsplan!C31&lt;&gt;0, Aufwandsplan!C31, "")</f>
+        <v/>
+      </c>
+      <c r="E32" s="34" t="str">
+        <f>IF(Aufwandsplan!D31&lt;&gt;0, Aufwandsplan!D31, "")</f>
+        <v/>
+      </c>
+      <c r="F32" s="34" t="str">
+        <f>IF(Aufwandsplan!E31&lt;&gt;0, Aufwandsplan!E31, "")</f>
+        <v/>
+      </c>
+      <c r="G32" s="36" t="str">
+        <f>IF(Aufwandsplan!F31&lt;&gt;0, Aufwandsplan!F31, "")</f>
+        <v/>
+      </c>
       <c r="H32" s="7"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -4097,25 +4775,47 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
+      <c r="P32" s="38"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="9"/>
+      <c r="A33" s="34" t="str">
+        <f>IF(Aufwandsplan!A32&lt;&gt;0, Aufwandsplan!A32, "")</f>
+        <v>D2.1</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="34" t="str">
+        <f>IF(Aufwandsplan!B32&lt;&gt;0, Aufwandsplan!B32, "")</f>
+        <v/>
+      </c>
+      <c r="D33" s="34" t="str">
+        <f>IF(Aufwandsplan!C32&lt;&gt;0, Aufwandsplan!C32, "")</f>
+        <v>Use Case X definieren und spezifzieren</v>
+      </c>
+      <c r="E33" s="34">
+        <f>IF(Aufwandsplan!D32&lt;&gt;0, Aufwandsplan!D32, "")</f>
+        <v>6</v>
+      </c>
+      <c r="F33" s="34" t="str">
+        <f>IF(Aufwandsplan!E32&lt;&gt;0, Aufwandsplan!E32, "")</f>
+        <v/>
+      </c>
+      <c r="G33" s="36">
+        <f>IF(Aufwandsplan!F32&lt;&gt;0, Aufwandsplan!F32, "")</f>
+        <v>6</v>
+      </c>
       <c r="H33" s="7"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
+      <c r="L33" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -4126,19 +4826,41 @@
       <c r="T33" s="1"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="9"/>
+      <c r="A34" s="34" t="str">
+        <f>IF(Aufwandsplan!A33&lt;&gt;0, Aufwandsplan!A33, "")</f>
+        <v>D2.2</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="34" t="str">
+        <f>IF(Aufwandsplan!B33&lt;&gt;0, Aufwandsplan!B33, "")</f>
+        <v/>
+      </c>
+      <c r="D34" s="34" t="str">
+        <f>IF(Aufwandsplan!C33&lt;&gt;0, Aufwandsplan!C33, "")</f>
+        <v>Use Case X definieren und spezifzieren</v>
+      </c>
+      <c r="E34" s="34">
+        <f>IF(Aufwandsplan!D33&lt;&gt;0, Aufwandsplan!D33, "")</f>
+        <v>6</v>
+      </c>
+      <c r="F34" s="34" t="str">
+        <f>IF(Aufwandsplan!E33&lt;&gt;0, Aufwandsplan!E33, "")</f>
+        <v/>
+      </c>
+      <c r="G34" s="36">
+        <f>IF(Aufwandsplan!F33&lt;&gt;0, Aufwandsplan!F33, "")</f>
+        <v>6</v>
+      </c>
       <c r="H34" s="7"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
+      <c r="M34" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -4148,19 +4870,41 @@
       <c r="T34" s="1"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="9"/>
+      <c r="A35" s="34" t="str">
+        <f>IF(Aufwandsplan!A34&lt;&gt;0, Aufwandsplan!A34, "")</f>
+        <v>D2.3</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="34" t="str">
+        <f>IF(Aufwandsplan!B34&lt;&gt;0, Aufwandsplan!B34, "")</f>
+        <v/>
+      </c>
+      <c r="D35" s="34" t="str">
+        <f>IF(Aufwandsplan!C34&lt;&gt;0, Aufwandsplan!C34, "")</f>
+        <v>Use Case X definieren und spezifzieren</v>
+      </c>
+      <c r="E35" s="34">
+        <f>IF(Aufwandsplan!D34&lt;&gt;0, Aufwandsplan!D34, "")</f>
+        <v>6</v>
+      </c>
+      <c r="F35" s="34" t="str">
+        <f>IF(Aufwandsplan!E34&lt;&gt;0, Aufwandsplan!E34, "")</f>
+        <v/>
+      </c>
+      <c r="G35" s="36">
+        <f>IF(Aufwandsplan!F34&lt;&gt;0, Aufwandsplan!F34, "")</f>
+        <v>6</v>
+      </c>
       <c r="H35" s="7"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="M35" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -4170,20 +4914,42 @@
       <c r="T35" s="1"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="9"/>
+      <c r="A36" s="34" t="str">
+        <f>IF(Aufwandsplan!A35&lt;&gt;0, Aufwandsplan!A35, "")</f>
+        <v>D2.4</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="34" t="str">
+        <f>IF(Aufwandsplan!B35&lt;&gt;0, Aufwandsplan!B35, "")</f>
+        <v/>
+      </c>
+      <c r="D36" s="34" t="str">
+        <f>IF(Aufwandsplan!C35&lt;&gt;0, Aufwandsplan!C35, "")</f>
+        <v>Use Case X definieren und spezifzieren</v>
+      </c>
+      <c r="E36" s="34">
+        <f>IF(Aufwandsplan!D35&lt;&gt;0, Aufwandsplan!D35, "")</f>
+        <v>6</v>
+      </c>
+      <c r="F36" s="34" t="str">
+        <f>IF(Aufwandsplan!E35&lt;&gt;0, Aufwandsplan!E35, "")</f>
+        <v/>
+      </c>
+      <c r="G36" s="36">
+        <f>IF(Aufwandsplan!F35&lt;&gt;0, Aufwandsplan!F35, "")</f>
+        <v>6</v>
+      </c>
       <c r="H36" s="7"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
+      <c r="N36" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
@@ -4192,13 +4958,33 @@
       <c r="T36" s="1"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="9"/>
+      <c r="A37" s="34" t="str">
+        <f>IF(Aufwandsplan!A36&lt;&gt;0, Aufwandsplan!A36, "")</f>
+        <v>D3</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="39" t="str">
+        <f>IF(Aufwandsplan!B36&lt;&gt;0, Aufwandsplan!B36, "")</f>
+        <v>Application Functions definieren</v>
+      </c>
+      <c r="D37" s="34" t="str">
+        <f>IF(Aufwandsplan!C36&lt;&gt;0, Aufwandsplan!C36, "")</f>
+        <v/>
+      </c>
+      <c r="E37" s="34" t="str">
+        <f>IF(Aufwandsplan!D36&lt;&gt;0, Aufwandsplan!D36, "")</f>
+        <v/>
+      </c>
+      <c r="F37" s="34" t="str">
+        <f>IF(Aufwandsplan!E36&lt;&gt;0, Aufwandsplan!E36, "")</f>
+        <v/>
+      </c>
+      <c r="G37" s="36" t="str">
+        <f>IF(Aufwandsplan!F36&lt;&gt;0, Aufwandsplan!F36, "")</f>
+        <v/>
+      </c>
       <c r="H37" s="7"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -4207,20 +4993,40 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
+      <c r="P37" s="38"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="9"/>
+      <c r="A38" s="34" t="str">
+        <f>IF(Aufwandsplan!A37&lt;&gt;0, Aufwandsplan!A37, "")</f>
+        <v>D3.1</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="34" t="str">
+        <f>IF(Aufwandsplan!B37&lt;&gt;0, Aufwandsplan!B37, "")</f>
+        <v/>
+      </c>
+      <c r="D38" s="34" t="str">
+        <f>IF(Aufwandsplan!C37&lt;&gt;0, Aufwandsplan!C37, "")</f>
+        <v>Application Function X definieren und spezifizieren</v>
+      </c>
+      <c r="E38" s="34">
+        <f>IF(Aufwandsplan!D37&lt;&gt;0, Aufwandsplan!D37, "")</f>
+        <v>6</v>
+      </c>
+      <c r="F38" s="34" t="str">
+        <f>IF(Aufwandsplan!E37&lt;&gt;0, Aufwandsplan!E37, "")</f>
+        <v/>
+      </c>
+      <c r="G38" s="36">
+        <f>IF(Aufwandsplan!F37&lt;&gt;0, Aufwandsplan!F37, "")</f>
+        <v>6</v>
+      </c>
       <c r="H38" s="7"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -4236,13 +5042,33 @@
       <c r="T38" s="1"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="9"/>
+      <c r="A39" s="34" t="str">
+        <f>IF(Aufwandsplan!A38&lt;&gt;0, Aufwandsplan!A38, "")</f>
+        <v>D3.2</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="34" t="str">
+        <f>IF(Aufwandsplan!B38&lt;&gt;0, Aufwandsplan!B38, "")</f>
+        <v/>
+      </c>
+      <c r="D39" s="34" t="str">
+        <f>IF(Aufwandsplan!C38&lt;&gt;0, Aufwandsplan!C38, "")</f>
+        <v>Application Function X definieren und spezifizieren</v>
+      </c>
+      <c r="E39" s="34">
+        <f>IF(Aufwandsplan!D38&lt;&gt;0, Aufwandsplan!D38, "")</f>
+        <v>6</v>
+      </c>
+      <c r="F39" s="34" t="str">
+        <f>IF(Aufwandsplan!E38&lt;&gt;0, Aufwandsplan!E38, "")</f>
+        <v/>
+      </c>
+      <c r="G39" s="36">
+        <f>IF(Aufwandsplan!F38&lt;&gt;0, Aufwandsplan!F38, "")</f>
+        <v>6</v>
+      </c>
       <c r="H39" s="7"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -4258,13 +5084,33 @@
       <c r="T39" s="1"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="9"/>
+      <c r="A40" s="34" t="str">
+        <f>IF(Aufwandsplan!A39&lt;&gt;0, Aufwandsplan!A39, "")</f>
+        <v>E1</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" s="34" t="str">
+        <f>IF(Aufwandsplan!B39&lt;&gt;0, Aufwandsplan!B39, "")</f>
+        <v>GUI Entwürfe</v>
+      </c>
+      <c r="D40" s="34" t="str">
+        <f>IF(Aufwandsplan!C39&lt;&gt;0, Aufwandsplan!C39, "")</f>
+        <v/>
+      </c>
+      <c r="E40" s="34" t="str">
+        <f>IF(Aufwandsplan!D39&lt;&gt;0, Aufwandsplan!D39, "")</f>
+        <v/>
+      </c>
+      <c r="F40" s="34" t="str">
+        <f>IF(Aufwandsplan!E39&lt;&gt;0, Aufwandsplan!E39, "")</f>
+        <v/>
+      </c>
+      <c r="G40" s="36" t="str">
+        <f>IF(Aufwandsplan!F39&lt;&gt;0, Aufwandsplan!F39, "")</f>
+        <v/>
+      </c>
       <c r="H40" s="7"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -4280,18 +5126,40 @@
       <c r="T40" s="1"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="9"/>
+      <c r="A41" s="34" t="str">
+        <f>IF(Aufwandsplan!A40&lt;&gt;0, Aufwandsplan!A40, "")</f>
+        <v>E1.1</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="34" t="str">
+        <f>IF(Aufwandsplan!B40&lt;&gt;0, Aufwandsplan!B40, "")</f>
+        <v/>
+      </c>
+      <c r="D41" s="34" t="str">
+        <f>IF(Aufwandsplan!C40&lt;&gt;0, Aufwandsplan!C40, "")</f>
+        <v>Entwurf Maske Eingabe Zeiten</v>
+      </c>
+      <c r="E41" s="34">
+        <f>IF(Aufwandsplan!D40&lt;&gt;0, Aufwandsplan!D40, "")</f>
+        <v>8</v>
+      </c>
+      <c r="F41" s="34" t="str">
+        <f>IF(Aufwandsplan!E40&lt;&gt;0, Aufwandsplan!E40, "")</f>
+        <v/>
+      </c>
+      <c r="G41" s="36">
+        <f>IF(Aufwandsplan!F40&lt;&gt;0, Aufwandsplan!F40, "")</f>
+        <v>8</v>
+      </c>
       <c r="H41" s="7"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
+      <c r="L41" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -4302,18 +5170,40 @@
       <c r="T41" s="1"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="9"/>
+      <c r="A42" s="34" t="str">
+        <f>IF(Aufwandsplan!A41&lt;&gt;0, Aufwandsplan!A41, "")</f>
+        <v>E1.2</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="34" t="str">
+        <f>IF(Aufwandsplan!B41&lt;&gt;0, Aufwandsplan!B41, "")</f>
+        <v/>
+      </c>
+      <c r="D42" s="34" t="str">
+        <f>IF(Aufwandsplan!C41&lt;&gt;0, Aufwandsplan!C41, "")</f>
+        <v>Entwurf Maske X</v>
+      </c>
+      <c r="E42" s="34">
+        <f>IF(Aufwandsplan!D41&lt;&gt;0, Aufwandsplan!D41, "")</f>
+        <v>8</v>
+      </c>
+      <c r="F42" s="34" t="str">
+        <f>IF(Aufwandsplan!E41&lt;&gt;0, Aufwandsplan!E41, "")</f>
+        <v/>
+      </c>
+      <c r="G42" s="36">
+        <f>IF(Aufwandsplan!F41&lt;&gt;0, Aufwandsplan!F41, "")</f>
+        <v>8</v>
+      </c>
       <c r="H42" s="7"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
+      <c r="L42" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -4324,19 +5214,41 @@
       <c r="T42" s="1"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="9"/>
+      <c r="A43" s="34" t="str">
+        <f>IF(Aufwandsplan!A42&lt;&gt;0, Aufwandsplan!A42, "")</f>
+        <v>E1.3</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" s="34" t="str">
+        <f>IF(Aufwandsplan!B42&lt;&gt;0, Aufwandsplan!B42, "")</f>
+        <v/>
+      </c>
+      <c r="D43" s="34" t="str">
+        <f>IF(Aufwandsplan!C42&lt;&gt;0, Aufwandsplan!C42, "")</f>
+        <v>Entwurf Maske X</v>
+      </c>
+      <c r="E43" s="34">
+        <f>IF(Aufwandsplan!D42&lt;&gt;0, Aufwandsplan!D42, "")</f>
+        <v>8</v>
+      </c>
+      <c r="F43" s="34" t="str">
+        <f>IF(Aufwandsplan!E42&lt;&gt;0, Aufwandsplan!E42, "")</f>
+        <v/>
+      </c>
+      <c r="G43" s="36">
+        <f>IF(Aufwandsplan!F42&lt;&gt;0, Aufwandsplan!F42, "")</f>
+        <v>8</v>
+      </c>
       <c r="H43" s="7"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+      <c r="M43" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -4346,13 +5258,33 @@
       <c r="T43" s="1"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="9"/>
+      <c r="A44" s="34" t="str">
+        <f>IF(Aufwandsplan!A43&lt;&gt;0, Aufwandsplan!A43, "")</f>
+        <v>F1</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" s="39" t="str">
+        <f>IF(Aufwandsplan!B43&lt;&gt;0, Aufwandsplan!B43, "")</f>
+        <v>Implementierung Datenhaltung</v>
+      </c>
+      <c r="D44" s="34" t="str">
+        <f>IF(Aufwandsplan!C43&lt;&gt;0, Aufwandsplan!C43, "")</f>
+        <v/>
+      </c>
+      <c r="E44" s="34" t="str">
+        <f>IF(Aufwandsplan!D43&lt;&gt;0, Aufwandsplan!D43, "")</f>
+        <v/>
+      </c>
+      <c r="F44" s="34" t="str">
+        <f>IF(Aufwandsplan!E43&lt;&gt;0, Aufwandsplan!E43, "")</f>
+        <v/>
+      </c>
+      <c r="G44" s="36" t="str">
+        <f>IF(Aufwandsplan!F43&lt;&gt;0, Aufwandsplan!F43, "")</f>
+        <v/>
+      </c>
       <c r="H44" s="7"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -4362,26 +5294,48 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
+      <c r="Q44" s="38"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="9"/>
+      <c r="A45" s="34" t="str">
+        <f>IF(Aufwandsplan!A44&lt;&gt;0, Aufwandsplan!A44, "")</f>
+        <v>F1.1</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="34" t="str">
+        <f>IF(Aufwandsplan!B44&lt;&gt;0, Aufwandsplan!B44, "")</f>
+        <v/>
+      </c>
+      <c r="D45" s="34" t="str">
+        <f>IF(Aufwandsplan!C44&lt;&gt;0, Aufwandsplan!C44, "")</f>
+        <v>Datenbank</v>
+      </c>
+      <c r="E45" s="34">
+        <f>IF(Aufwandsplan!D44&lt;&gt;0, Aufwandsplan!D44, "")</f>
+        <v>15</v>
+      </c>
+      <c r="F45" s="34" t="str">
+        <f>IF(Aufwandsplan!E44&lt;&gt;0, Aufwandsplan!E44, "")</f>
+        <v/>
+      </c>
+      <c r="G45" s="36">
+        <f>IF(Aufwandsplan!F44&lt;&gt;0, Aufwandsplan!F44, "")</f>
+        <v>15</v>
+      </c>
       <c r="H45" s="7"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
+      <c r="N45" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
@@ -4390,20 +5344,42 @@
       <c r="T45" s="1"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="9"/>
+      <c r="A46" s="34" t="str">
+        <f>IF(Aufwandsplan!A45&lt;&gt;0, Aufwandsplan!A45, "")</f>
+        <v>F1.2</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="34" t="str">
+        <f>IF(Aufwandsplan!B45&lt;&gt;0, Aufwandsplan!B45, "")</f>
+        <v/>
+      </c>
+      <c r="D46" s="34" t="str">
+        <f>IF(Aufwandsplan!C45&lt;&gt;0, Aufwandsplan!C45, "")</f>
+        <v>Zugriff</v>
+      </c>
+      <c r="E46" s="34">
+        <f>IF(Aufwandsplan!D45&lt;&gt;0, Aufwandsplan!D45, "")</f>
+        <v>34</v>
+      </c>
+      <c r="F46" s="34" t="str">
+        <f>IF(Aufwandsplan!E45&lt;&gt;0, Aufwandsplan!E45, "")</f>
+        <v/>
+      </c>
+      <c r="G46" s="36">
+        <f>IF(Aufwandsplan!F45&lt;&gt;0, Aufwandsplan!F45, "")</f>
+        <v>34</v>
+      </c>
       <c r="H46" s="7"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
+      <c r="N46" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
@@ -4412,13 +5388,33 @@
       <c r="T46" s="1"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="9"/>
+      <c r="A47" s="34" t="str">
+        <f>IF(Aufwandsplan!A46&lt;&gt;0, Aufwandsplan!A46, "")</f>
+        <v>F2</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" s="39" t="str">
+        <f>IF(Aufwandsplan!B46&lt;&gt;0, Aufwandsplan!B46, "")</f>
+        <v>Implementierung Anwendungskern</v>
+      </c>
+      <c r="D47" s="34" t="str">
+        <f>IF(Aufwandsplan!C46&lt;&gt;0, Aufwandsplan!C46, "")</f>
+        <v/>
+      </c>
+      <c r="E47" s="34" t="str">
+        <f>IF(Aufwandsplan!D46&lt;&gt;0, Aufwandsplan!D46, "")</f>
+        <v/>
+      </c>
+      <c r="F47" s="34" t="str">
+        <f>IF(Aufwandsplan!E46&lt;&gt;0, Aufwandsplan!E46, "")</f>
+        <v/>
+      </c>
+      <c r="G47" s="36" t="str">
+        <f>IF(Aufwandsplan!F46&lt;&gt;0, Aufwandsplan!F46, "")</f>
+        <v/>
+      </c>
       <c r="H47" s="7"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -4434,35 +5430,77 @@
       <c r="T47" s="1"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="9"/>
+      <c r="A48" s="34" t="str">
+        <f>IF(Aufwandsplan!A47&lt;&gt;0, Aufwandsplan!A47, "")</f>
+        <v>F2.1</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="34" t="str">
+        <f>IF(Aufwandsplan!B47&lt;&gt;0, Aufwandsplan!B47, "")</f>
+        <v/>
+      </c>
+      <c r="D48" s="34" t="str">
+        <f>IF(Aufwandsplan!C47&lt;&gt;0, Aufwandsplan!C47, "")</f>
+        <v>Implementeirung UseCase Eingabe Zeiten</v>
+      </c>
+      <c r="E48" s="34">
+        <f>IF(Aufwandsplan!D47&lt;&gt;0, Aufwandsplan!D47, "")</f>
+        <v>30</v>
+      </c>
+      <c r="F48" s="34" t="str">
+        <f>IF(Aufwandsplan!E47&lt;&gt;0, Aufwandsplan!E47, "")</f>
+        <v/>
+      </c>
+      <c r="G48" s="36">
+        <f>IF(Aufwandsplan!F47&lt;&gt;0, Aufwandsplan!F47, "")</f>
+        <v>30</v>
+      </c>
       <c r="H48" s="7"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
+      <c r="N48" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
+      <c r="R48" s="38"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="9"/>
+      <c r="A49" s="34" t="str">
+        <f>IF(Aufwandsplan!A48&lt;&gt;0, Aufwandsplan!A48, "")</f>
+        <v>F2.2</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="34" t="str">
+        <f>IF(Aufwandsplan!B48&lt;&gt;0, Aufwandsplan!B48, "")</f>
+        <v/>
+      </c>
+      <c r="D49" s="34" t="str">
+        <f>IF(Aufwandsplan!C48&lt;&gt;0, Aufwandsplan!C48, "")</f>
+        <v>Implementeirung UseCase X</v>
+      </c>
+      <c r="E49" s="34">
+        <f>IF(Aufwandsplan!D48&lt;&gt;0, Aufwandsplan!D48, "")</f>
+        <v>30</v>
+      </c>
+      <c r="F49" s="34" t="str">
+        <f>IF(Aufwandsplan!E48&lt;&gt;0, Aufwandsplan!E48, "")</f>
+        <v/>
+      </c>
+      <c r="G49" s="36">
+        <f>IF(Aufwandsplan!F48&lt;&gt;0, Aufwandsplan!F48, "")</f>
+        <v>30</v>
+      </c>
       <c r="H49" s="7"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -4478,13 +5516,33 @@
       <c r="T49" s="1"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="9"/>
+      <c r="A50" s="34" t="str">
+        <f>IF(Aufwandsplan!A49&lt;&gt;0, Aufwandsplan!A49, "")</f>
+        <v>F2.3</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" s="34" t="str">
+        <f>IF(Aufwandsplan!B49&lt;&gt;0, Aufwandsplan!B49, "")</f>
+        <v/>
+      </c>
+      <c r="D50" s="34" t="str">
+        <f>IF(Aufwandsplan!C49&lt;&gt;0, Aufwandsplan!C49, "")</f>
+        <v>Implementeirung UseCase X</v>
+      </c>
+      <c r="E50" s="34">
+        <f>IF(Aufwandsplan!D49&lt;&gt;0, Aufwandsplan!D49, "")</f>
+        <v>30</v>
+      </c>
+      <c r="F50" s="34" t="str">
+        <f>IF(Aufwandsplan!E49&lt;&gt;0, Aufwandsplan!E49, "")</f>
+        <v/>
+      </c>
+      <c r="G50" s="36">
+        <f>IF(Aufwandsplan!F49&lt;&gt;0, Aufwandsplan!F49, "")</f>
+        <v>30</v>
+      </c>
       <c r="H50" s="7"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -4500,13 +5558,33 @@
       <c r="T50" s="1"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="9"/>
+      <c r="A51" s="34" t="str">
+        <f>IF(Aufwandsplan!A50&lt;&gt;0, Aufwandsplan!A50, "")</f>
+        <v>F2.4</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" s="34" t="str">
+        <f>IF(Aufwandsplan!B50&lt;&gt;0, Aufwandsplan!B50, "")</f>
+        <v/>
+      </c>
+      <c r="D51" s="34" t="str">
+        <f>IF(Aufwandsplan!C50&lt;&gt;0, Aufwandsplan!C50, "")</f>
+        <v>Implementeirung UseCase X</v>
+      </c>
+      <c r="E51" s="34">
+        <f>IF(Aufwandsplan!D50&lt;&gt;0, Aufwandsplan!D50, "")</f>
+        <v>30</v>
+      </c>
+      <c r="F51" s="34" t="str">
+        <f>IF(Aufwandsplan!E50&lt;&gt;0, Aufwandsplan!E50, "")</f>
+        <v/>
+      </c>
+      <c r="G51" s="36">
+        <f>IF(Aufwandsplan!F50&lt;&gt;0, Aufwandsplan!F50, "")</f>
+        <v>30</v>
+      </c>
       <c r="H51" s="7"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -4522,13 +5600,33 @@
       <c r="T51" s="1"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="9"/>
+      <c r="A52" s="34" t="str">
+        <f>IF(Aufwandsplan!A51&lt;&gt;0, Aufwandsplan!A51, "")</f>
+        <v>F2.5</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" s="34" t="str">
+        <f>IF(Aufwandsplan!B51&lt;&gt;0, Aufwandsplan!B51, "")</f>
+        <v/>
+      </c>
+      <c r="D52" s="34" t="str">
+        <f>IF(Aufwandsplan!C51&lt;&gt;0, Aufwandsplan!C51, "")</f>
+        <v>Implementierung Appication Function Stundenplanberechnung</v>
+      </c>
+      <c r="E52" s="34">
+        <f>IF(Aufwandsplan!D51&lt;&gt;0, Aufwandsplan!D51, "")</f>
+        <v>50</v>
+      </c>
+      <c r="F52" s="34" t="str">
+        <f>IF(Aufwandsplan!E51&lt;&gt;0, Aufwandsplan!E51, "")</f>
+        <v/>
+      </c>
+      <c r="G52" s="36">
+        <f>IF(Aufwandsplan!F51&lt;&gt;0, Aufwandsplan!F51, "")</f>
+        <v>50</v>
+      </c>
       <c r="H52" s="7"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -4544,13 +5642,33 @@
       <c r="T52" s="1"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="9"/>
+      <c r="A53" s="34" t="str">
+        <f>IF(Aufwandsplan!A52&lt;&gt;0, Aufwandsplan!A52, "")</f>
+        <v>F2.6</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C53" s="34" t="str">
+        <f>IF(Aufwandsplan!B52&lt;&gt;0, Aufwandsplan!B52, "")</f>
+        <v/>
+      </c>
+      <c r="D53" s="34" t="str">
+        <f>IF(Aufwandsplan!C52&lt;&gt;0, Aufwandsplan!C52, "")</f>
+        <v>Implementierung Appication Function X</v>
+      </c>
+      <c r="E53" s="34">
+        <f>IF(Aufwandsplan!D52&lt;&gt;0, Aufwandsplan!D52, "")</f>
+        <v>30</v>
+      </c>
+      <c r="F53" s="34" t="str">
+        <f>IF(Aufwandsplan!E52&lt;&gt;0, Aufwandsplan!E52, "")</f>
+        <v/>
+      </c>
+      <c r="G53" s="36">
+        <f>IF(Aufwandsplan!F52&lt;&gt;0, Aufwandsplan!F52, "")</f>
+        <v>30</v>
+      </c>
       <c r="H53" s="7"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -4566,13 +5684,33 @@
       <c r="T53" s="1"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="9"/>
+      <c r="A54" s="34" t="str">
+        <f>IF(Aufwandsplan!A53&lt;&gt;0, Aufwandsplan!A53, "")</f>
+        <v>F3</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C54" s="39" t="str">
+        <f>IF(Aufwandsplan!B53&lt;&gt;0, Aufwandsplan!B53, "")</f>
+        <v>Implementierung GUI</v>
+      </c>
+      <c r="D54" s="34" t="str">
+        <f>IF(Aufwandsplan!C53&lt;&gt;0, Aufwandsplan!C53, "")</f>
+        <v/>
+      </c>
+      <c r="E54" s="34" t="str">
+        <f>IF(Aufwandsplan!D53&lt;&gt;0, Aufwandsplan!D53, "")</f>
+        <v/>
+      </c>
+      <c r="F54" s="34" t="str">
+        <f>IF(Aufwandsplan!E53&lt;&gt;0, Aufwandsplan!E53, "")</f>
+        <v/>
+      </c>
+      <c r="G54" s="36" t="str">
+        <f>IF(Aufwandsplan!F53&lt;&gt;0, Aufwandsplan!F53, "")</f>
+        <v/>
+      </c>
       <c r="H54" s="7"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -4584,17 +5722,37 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
+      <c r="S54" s="38"/>
       <c r="T54" s="1"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="9"/>
+      <c r="A55" s="34" t="str">
+        <f>IF(Aufwandsplan!A54&lt;&gt;0, Aufwandsplan!A54, "")</f>
+        <v>F3.1</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C55" s="34" t="str">
+        <f>IF(Aufwandsplan!B54&lt;&gt;0, Aufwandsplan!B54, "")</f>
+        <v/>
+      </c>
+      <c r="D55" s="34" t="str">
+        <f>IF(Aufwandsplan!C54&lt;&gt;0, Aufwandsplan!C54, "")</f>
+        <v>Implementierung Maske Eingabe Zeiten</v>
+      </c>
+      <c r="E55" s="34">
+        <f>IF(Aufwandsplan!D54&lt;&gt;0, Aufwandsplan!D54, "")</f>
+        <v>25</v>
+      </c>
+      <c r="F55" s="34" t="str">
+        <f>IF(Aufwandsplan!E54&lt;&gt;0, Aufwandsplan!E54, "")</f>
+        <v/>
+      </c>
+      <c r="G55" s="36">
+        <f>IF(Aufwandsplan!F54&lt;&gt;0, Aufwandsplan!F54, "")</f>
+        <v>25</v>
+      </c>
       <c r="H55" s="7"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -4610,13 +5768,33 @@
       <c r="T55" s="1"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="9"/>
+      <c r="A56" s="34" t="str">
+        <f>IF(Aufwandsplan!A55&lt;&gt;0, Aufwandsplan!A55, "")</f>
+        <v>F3.2</v>
+      </c>
+      <c r="B56" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" s="34" t="str">
+        <f>IF(Aufwandsplan!B55&lt;&gt;0, Aufwandsplan!B55, "")</f>
+        <v/>
+      </c>
+      <c r="D56" s="34" t="str">
+        <f>IF(Aufwandsplan!C55&lt;&gt;0, Aufwandsplan!C55, "")</f>
+        <v>Implementierung Maske X</v>
+      </c>
+      <c r="E56" s="34">
+        <f>IF(Aufwandsplan!D55&lt;&gt;0, Aufwandsplan!D55, "")</f>
+        <v>25</v>
+      </c>
+      <c r="F56" s="34" t="str">
+        <f>IF(Aufwandsplan!E55&lt;&gt;0, Aufwandsplan!E55, "")</f>
+        <v/>
+      </c>
+      <c r="G56" s="36">
+        <f>IF(Aufwandsplan!F55&lt;&gt;0, Aufwandsplan!F55, "")</f>
+        <v>25</v>
+      </c>
       <c r="H56" s="7"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -4632,13 +5810,33 @@
       <c r="T56" s="1"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="9"/>
+      <c r="A57" s="34" t="str">
+        <f>IF(Aufwandsplan!A56&lt;&gt;0, Aufwandsplan!A56, "")</f>
+        <v>F3.3</v>
+      </c>
+      <c r="B57" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" s="34" t="str">
+        <f>IF(Aufwandsplan!B56&lt;&gt;0, Aufwandsplan!B56, "")</f>
+        <v/>
+      </c>
+      <c r="D57" s="34" t="str">
+        <f>IF(Aufwandsplan!C56&lt;&gt;0, Aufwandsplan!C56, "")</f>
+        <v>Implementierung Maske X</v>
+      </c>
+      <c r="E57" s="34">
+        <f>IF(Aufwandsplan!D56&lt;&gt;0, Aufwandsplan!D56, "")</f>
+        <v>25</v>
+      </c>
+      <c r="F57" s="34" t="str">
+        <f>IF(Aufwandsplan!E56&lt;&gt;0, Aufwandsplan!E56, "")</f>
+        <v/>
+      </c>
+      <c r="G57" s="36">
+        <f>IF(Aufwandsplan!F56&lt;&gt;0, Aufwandsplan!F56, "")</f>
+        <v>25</v>
+      </c>
       <c r="H57" s="7"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -4654,13 +5852,33 @@
       <c r="T57" s="1"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="9"/>
+      <c r="A58" s="34" t="str">
+        <f>IF(Aufwandsplan!A57&lt;&gt;0, Aufwandsplan!A57, "")</f>
+        <v>G1</v>
+      </c>
+      <c r="B58" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="C58" s="34" t="str">
+        <f>IF(Aufwandsplan!B57&lt;&gt;0, Aufwandsplan!B57, "")</f>
+        <v>Test der Anwendung</v>
+      </c>
+      <c r="D58" s="34" t="str">
+        <f>IF(Aufwandsplan!C57&lt;&gt;0, Aufwandsplan!C57, "")</f>
+        <v/>
+      </c>
+      <c r="E58" s="34">
+        <f>IF(Aufwandsplan!D57&lt;&gt;0, Aufwandsplan!D57, "")</f>
+        <v>4</v>
+      </c>
+      <c r="F58" s="34" t="str">
+        <f>IF(Aufwandsplan!E57&lt;&gt;0, Aufwandsplan!E57, "")</f>
+        <v/>
+      </c>
+      <c r="G58" s="36">
+        <f>IF(Aufwandsplan!F57&lt;&gt;0, Aufwandsplan!F57, "")</f>
+        <v>4</v>
+      </c>
       <c r="H58" s="7"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -4676,13 +5894,33 @@
       <c r="T58" s="1"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="9"/>
+      <c r="A59" s="34" t="str">
+        <f>IF(Aufwandsplan!A58&lt;&gt;0, Aufwandsplan!A58, "")</f>
+        <v>G2</v>
+      </c>
+      <c r="B59" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="C59" s="34" t="str">
+        <f>IF(Aufwandsplan!B58&lt;&gt;0, Aufwandsplan!B58, "")</f>
+        <v>Anpassungen/Fehlerbehebung</v>
+      </c>
+      <c r="D59" s="34" t="str">
+        <f>IF(Aufwandsplan!C58&lt;&gt;0, Aufwandsplan!C58, "")</f>
+        <v/>
+      </c>
+      <c r="E59" s="34">
+        <f>IF(Aufwandsplan!D58&lt;&gt;0, Aufwandsplan!D58, "")</f>
+        <v>10</v>
+      </c>
+      <c r="F59" s="34" t="str">
+        <f>IF(Aufwandsplan!E58&lt;&gt;0, Aufwandsplan!E58, "")</f>
+        <v/>
+      </c>
+      <c r="G59" s="36">
+        <f>IF(Aufwandsplan!F58&lt;&gt;0, Aufwandsplan!F58, "")</f>
+        <v>10</v>
+      </c>
       <c r="H59" s="7"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -4698,13 +5936,33 @@
       <c r="T59" s="1"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="9"/>
+      <c r="A60" s="34" t="str">
+        <f>IF(Aufwandsplan!A59&lt;&gt;0, Aufwandsplan!A59, "")</f>
+        <v>G3</v>
+      </c>
+      <c r="B60" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="C60" s="39" t="str">
+        <f>IF(Aufwandsplan!B59&lt;&gt;0, Aufwandsplan!B59, "")</f>
+        <v>interne Abnahme</v>
+      </c>
+      <c r="D60" s="34" t="str">
+        <f>IF(Aufwandsplan!C59&lt;&gt;0, Aufwandsplan!C59, "")</f>
+        <v/>
+      </c>
+      <c r="E60" s="34">
+        <f>IF(Aufwandsplan!D59&lt;&gt;0, Aufwandsplan!D59, "")</f>
+        <v>5</v>
+      </c>
+      <c r="F60" s="34" t="str">
+        <f>IF(Aufwandsplan!E59&lt;&gt;0, Aufwandsplan!E59, "")</f>
+        <v/>
+      </c>
+      <c r="G60" s="36">
+        <f>IF(Aufwandsplan!F59&lt;&gt;0, Aufwandsplan!F59, "")</f>
+        <v>5</v>
+      </c>
       <c r="H60" s="7"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -4717,16 +5975,34 @@
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
-      <c r="T60" s="1"/>
+      <c r="T60" s="38"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="9"/>
+      <c r="A61" s="34" t="str">
+        <f>IF(Aufwandsplan!A60&lt;&gt;0, Aufwandsplan!A60, "")</f>
+        <v/>
+      </c>
+      <c r="B61" s="34"/>
+      <c r="C61" s="34" t="str">
+        <f>IF(Aufwandsplan!B60&lt;&gt;0, Aufwandsplan!B60, "")</f>
+        <v/>
+      </c>
+      <c r="D61" s="34" t="str">
+        <f>IF(Aufwandsplan!C60&lt;&gt;0, Aufwandsplan!C60, "")</f>
+        <v/>
+      </c>
+      <c r="E61" s="34" t="str">
+        <f>IF(Aufwandsplan!D60&lt;&gt;0, Aufwandsplan!D60, "")</f>
+        <v/>
+      </c>
+      <c r="F61" s="34" t="str">
+        <f>IF(Aufwandsplan!E60&lt;&gt;0, Aufwandsplan!E60, "")</f>
+        <v/>
+      </c>
+      <c r="G61" s="36" t="str">
+        <f>IF(Aufwandsplan!F60&lt;&gt;0, Aufwandsplan!F60, "")</f>
+        <v/>
+      </c>
       <c r="H61" s="7"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -4742,13 +6018,31 @@
       <c r="T61" s="1"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="9"/>
+      <c r="A62" s="34" t="str">
+        <f>IF(Aufwandsplan!A61&lt;&gt;0, Aufwandsplan!A61, "")</f>
+        <v/>
+      </c>
+      <c r="B62" s="34"/>
+      <c r="C62" s="34" t="str">
+        <f>IF(Aufwandsplan!B61&lt;&gt;0, Aufwandsplan!B61, "")</f>
+        <v/>
+      </c>
+      <c r="D62" s="34" t="str">
+        <f>IF(Aufwandsplan!C61&lt;&gt;0, Aufwandsplan!C61, "")</f>
+        <v/>
+      </c>
+      <c r="E62" s="34" t="str">
+        <f>IF(Aufwandsplan!D61&lt;&gt;0, Aufwandsplan!D61, "")</f>
+        <v/>
+      </c>
+      <c r="F62" s="34" t="str">
+        <f>IF(Aufwandsplan!E61&lt;&gt;0, Aufwandsplan!E61, "")</f>
+        <v/>
+      </c>
+      <c r="G62" s="36" t="str">
+        <f>IF(Aufwandsplan!F61&lt;&gt;0, Aufwandsplan!F61, "")</f>
+        <v/>
+      </c>
       <c r="H62" s="7"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -4764,13 +6058,31 @@
       <c r="T62" s="1"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="9"/>
+      <c r="A63" s="34" t="str">
+        <f>IF(Aufwandsplan!A62&lt;&gt;0, Aufwandsplan!A62, "")</f>
+        <v/>
+      </c>
+      <c r="B63" s="34"/>
+      <c r="C63" s="34" t="str">
+        <f>IF(Aufwandsplan!B62&lt;&gt;0, Aufwandsplan!B62, "")</f>
+        <v/>
+      </c>
+      <c r="D63" s="34" t="str">
+        <f>IF(Aufwandsplan!C62&lt;&gt;0, Aufwandsplan!C62, "")</f>
+        <v/>
+      </c>
+      <c r="E63" s="34" t="str">
+        <f>IF(Aufwandsplan!D62&lt;&gt;0, Aufwandsplan!D62, "")</f>
+        <v/>
+      </c>
+      <c r="F63" s="34" t="str">
+        <f>IF(Aufwandsplan!E62&lt;&gt;0, Aufwandsplan!E62, "")</f>
+        <v/>
+      </c>
+      <c r="G63" s="36" t="str">
+        <f>IF(Aufwandsplan!F62&lt;&gt;0, Aufwandsplan!F62, "")</f>
+        <v/>
+      </c>
       <c r="H63" s="7"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -4786,13 +6098,31 @@
       <c r="T63" s="1"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="9"/>
+      <c r="A64" s="34" t="str">
+        <f>IF(Aufwandsplan!A63&lt;&gt;0, Aufwandsplan!A63, "")</f>
+        <v/>
+      </c>
+      <c r="B64" s="34"/>
+      <c r="C64" s="34" t="str">
+        <f>IF(Aufwandsplan!B63&lt;&gt;0, Aufwandsplan!B63, "")</f>
+        <v/>
+      </c>
+      <c r="D64" s="34" t="str">
+        <f>IF(Aufwandsplan!C63&lt;&gt;0, Aufwandsplan!C63, "")</f>
+        <v/>
+      </c>
+      <c r="E64" s="34" t="str">
+        <f>IF(Aufwandsplan!D63&lt;&gt;0, Aufwandsplan!D63, "")</f>
+        <v/>
+      </c>
+      <c r="F64" s="34" t="str">
+        <f>IF(Aufwandsplan!E63&lt;&gt;0, Aufwandsplan!E63, "")</f>
+        <v/>
+      </c>
+      <c r="G64" s="36" t="str">
+        <f>IF(Aufwandsplan!F63&lt;&gt;0, Aufwandsplan!F63, "")</f>
+        <v/>
+      </c>
       <c r="H64" s="7"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -4808,13 +6138,31 @@
       <c r="T64" s="1"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="9"/>
+      <c r="A65" s="34" t="str">
+        <f>IF(Aufwandsplan!A64&lt;&gt;0, Aufwandsplan!A64, "")</f>
+        <v/>
+      </c>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34" t="str">
+        <f>IF(Aufwandsplan!B64&lt;&gt;0, Aufwandsplan!B64, "")</f>
+        <v/>
+      </c>
+      <c r="D65" s="34" t="str">
+        <f>IF(Aufwandsplan!C64&lt;&gt;0, Aufwandsplan!C64, "")</f>
+        <v/>
+      </c>
+      <c r="E65" s="34" t="str">
+        <f>IF(Aufwandsplan!D64&lt;&gt;0, Aufwandsplan!D64, "")</f>
+        <v/>
+      </c>
+      <c r="F65" s="34" t="str">
+        <f>IF(Aufwandsplan!E64&lt;&gt;0, Aufwandsplan!E64, "")</f>
+        <v/>
+      </c>
+      <c r="G65" s="36" t="str">
+        <f>IF(Aufwandsplan!F64&lt;&gt;0, Aufwandsplan!F64, "")</f>
+        <v/>
+      </c>
       <c r="H65" s="7"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -4830,13 +6178,31 @@
       <c r="T65" s="1"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="9"/>
+      <c r="A66" s="34" t="str">
+        <f>IF(Aufwandsplan!A65&lt;&gt;0, Aufwandsplan!A65, "")</f>
+        <v/>
+      </c>
+      <c r="B66" s="34"/>
+      <c r="C66" s="34" t="str">
+        <f>IF(Aufwandsplan!B65&lt;&gt;0, Aufwandsplan!B65, "")</f>
+        <v/>
+      </c>
+      <c r="D66" s="34" t="str">
+        <f>IF(Aufwandsplan!C65&lt;&gt;0, Aufwandsplan!C65, "")</f>
+        <v/>
+      </c>
+      <c r="E66" s="34" t="str">
+        <f>IF(Aufwandsplan!D65&lt;&gt;0, Aufwandsplan!D65, "")</f>
+        <v/>
+      </c>
+      <c r="F66" s="34" t="str">
+        <f>IF(Aufwandsplan!E65&lt;&gt;0, Aufwandsplan!E65, "")</f>
+        <v/>
+      </c>
+      <c r="G66" s="36" t="str">
+        <f>IF(Aufwandsplan!F65&lt;&gt;0, Aufwandsplan!F65, "")</f>
+        <v/>
+      </c>
       <c r="H66" s="7"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -4850,6 +6216,297 @@
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B68" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="F68" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H68" s="7">
+        <f>COUNTIF(H4:H66,"SW")+COUNTIF(H4:H66,"alle")</f>
+        <v>0</v>
+      </c>
+      <c r="I68" s="7">
+        <f>COUNTIF(I4:I66,"SW")+COUNTIF(I4:I66,"alle")</f>
+        <v>3</v>
+      </c>
+      <c r="J68" s="7">
+        <f t="shared" ref="J68:T68" si="0">COUNTIF(J4:J66,"SW")+COUNTIF(J4:J66,"alle")</f>
+        <v>2</v>
+      </c>
+      <c r="K68" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L68" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M68" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N68" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O68" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P68" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q68" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R68" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S68" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T68" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G69" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H69" s="7">
+        <f>COUNTIF(H4:H66,"MW")+COUNTIF(H4:H66,"alle")</f>
+        <v>0</v>
+      </c>
+      <c r="I69" s="7">
+        <f t="shared" ref="I69:T69" si="1">COUNTIF(I4:I66,"MW")+COUNTIF(I4:I66,"alle")</f>
+        <v>3</v>
+      </c>
+      <c r="J69" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K69" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L69" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M69" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N69" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O69" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P69" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R69" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S69" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T69" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G70" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="H70" s="7">
+        <f>COUNTIF(H4:H66,"JNK")+COUNTIF(H4:H66,"alle")</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="7">
+        <f t="shared" ref="I70:T70" si="2">COUNTIF(I4:I66,"JNK")+COUNTIF(I4:I66,"alle")</f>
+        <v>3</v>
+      </c>
+      <c r="J70" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K70" s="7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L70" s="7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M70" s="7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N70" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O70" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P70" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R70" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S70" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T70" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G71" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H71" s="7">
+        <f>COUNTIF(H4:H66,"PD")+COUNTIF(H4:H66,"alle")</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="7">
+        <f t="shared" ref="I71:T71" si="3">COUNTIF(I4:I66,"PD")+COUNTIF(I4:I66,"alle")</f>
+        <v>3</v>
+      </c>
+      <c r="J71" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K71" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L71" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M71" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N71" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O71" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P71" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q71" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R71" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S71" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T71" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G72" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H72" s="7">
+        <f>COUNTIF(H4:H66,"MU")+COUNTIF(H4:H66,"alle")</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="7">
+        <f t="shared" ref="I72:T72" si="4">COUNTIF(I4:I66,"MU")+COUNTIF(I4:I66,"alle")</f>
+        <v>3</v>
+      </c>
+      <c r="J72" s="7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K72" s="7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L72" s="7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M72" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N72" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O72" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P72" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q72" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R72" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S72" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T72" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -4876,6 +6533,7 @@
     <mergeCell ref="L2:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4884,7 +6542,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4909,97 +6567,97 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="26" t="s">
+      <c r="J2" s="30"/>
+      <c r="K2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="28" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
       <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>126</v>
+        <v>231</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -5007,50 +6665,74 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>104</v>
+        <v>229</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -5467,19 +7149,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5487,19 +7169,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5507,19 +7189,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -5527,19 +7209,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -5547,19 +7229,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -5567,19 +7249,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -5587,19 +7269,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -5607,19 +7289,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -5627,19 +7309,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -5647,19 +7329,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5667,19 +7349,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -5687,19 +7369,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -5707,19 +7389,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -5727,19 +7409,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">

--- a/Doku/Managementplaene_und_listen.xlsx
+++ b/Doku/Managementplaene_und_listen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="90" windowWidth="13290" windowHeight="12960"/>
+    <workbookView xWindow="-30" yWindow="90" windowWidth="13290" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Strukturplan" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="247">
   <si>
     <t>Risikoliste</t>
   </si>
@@ -164,34 +164,16 @@
     <t>Kapazität</t>
   </si>
   <si>
-    <t>Sven Winkler</t>
-  </si>
-  <si>
     <t>Projektleiter</t>
   </si>
   <si>
     <t>Qualitätsbeauftragter</t>
   </si>
   <si>
-    <t>Markus Wulftange</t>
-  </si>
-  <si>
     <t>Fachlicher Chefdesigner</t>
   </si>
   <si>
-    <t>Jan-Nicklas Klaassen</t>
-  </si>
-  <si>
-    <t>Philip Dauwe</t>
-  </si>
-  <si>
     <t>Technischer Chefdesigner</t>
-  </si>
-  <si>
-    <t>Marc Ufferfilge</t>
-  </si>
-  <si>
-    <t>Entwickler/Spezifizierer/Tester</t>
   </si>
   <si>
     <t>verfügbar bis</t>
@@ -410,9 +392,6 @@
     <t>Dokumentenverwaltung</t>
   </si>
   <si>
-    <t>Wie lösen wir das Vernetzungproblem</t>
-  </si>
-  <si>
     <t>Hoch</t>
   </si>
   <si>
@@ -482,9 +461,6 @@
     <t>Implementierung</t>
   </si>
   <si>
-    <t>Projektvorbereitung</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
@@ -515,9 +491,6 @@
     <t>Qualitätsziele bestimmen</t>
   </si>
   <si>
-    <t>Qualitätskriterien aufstelen</t>
-  </si>
-  <si>
     <t>Qualitätsmaßnahmen bestimmen</t>
   </si>
   <si>
@@ -593,12 +566,6 @@
     <t>Implementierung Anwendungskern</t>
   </si>
   <si>
-    <t>UseCases</t>
-  </si>
-  <si>
-    <t>Appication Functions</t>
-  </si>
-  <si>
     <t>Datenbank</t>
   </si>
   <si>
@@ -623,9 +590,6 @@
     <t>Test/Verifikation/Abnahme</t>
   </si>
   <si>
-    <t>ggf. Fehlerbehebung</t>
-  </si>
-  <si>
     <t>Abnahmekriterien/Testdurchführung</t>
   </si>
   <si>
@@ -635,17 +599,185 @@
     <t>B2.2</t>
   </si>
   <si>
-    <t>Kriterien festlege</t>
-  </si>
-  <si>
     <t>Testdurchführung ausfüllen</t>
+  </si>
+  <si>
+    <t>Serverspezifikation und -beantragung</t>
+  </si>
+  <si>
+    <t>Kriterien festlegen</t>
+  </si>
+  <si>
+    <t>Qualitätskriterien aufstellen</t>
+  </si>
+  <si>
+    <t>A1.3</t>
+  </si>
+  <si>
+    <t>Komponentenmodell erstellen</t>
+  </si>
+  <si>
+    <t>Modelle</t>
+  </si>
+  <si>
+    <t>D1.1</t>
+  </si>
+  <si>
+    <t>D1.2</t>
+  </si>
+  <si>
+    <t>mitte nov</t>
+  </si>
+  <si>
+    <t>beginnt ab mitte nov</t>
+  </si>
+  <si>
+    <t>kw52</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>interne Abnahme</t>
+  </si>
+  <si>
+    <t>60% (8Std./KW)</t>
+  </si>
+  <si>
+    <t>F3.1</t>
+  </si>
+  <si>
+    <t>Implementierung Maske X</t>
+  </si>
+  <si>
+    <t>Implementeirung UseCase X</t>
+  </si>
+  <si>
+    <t>F2.3</t>
+  </si>
+  <si>
+    <t>F2.4</t>
+  </si>
+  <si>
+    <t>F2.5</t>
+  </si>
+  <si>
+    <t>F2.6</t>
+  </si>
+  <si>
+    <t>Implementierung Appication Function X</t>
+  </si>
+  <si>
+    <t>Implementierung Appication Function Stundenplanberechnung</t>
+  </si>
+  <si>
+    <t>F3.2</t>
+  </si>
+  <si>
+    <t>F3.3</t>
+  </si>
+  <si>
+    <t>E1.3</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>A3.1</t>
+  </si>
+  <si>
+    <t>A3.2</t>
+  </si>
+  <si>
+    <t>A3.3</t>
+  </si>
+  <si>
+    <t>Präsentation 1 erstellen</t>
+  </si>
+  <si>
+    <t>Präsentation 2 erstellen</t>
+  </si>
+  <si>
+    <t>Präsentation 3 erstellen</t>
+  </si>
+  <si>
+    <t>Projektvorbereitung/Doku</t>
+  </si>
+  <si>
+    <t>Klassendiagramm je Komponente</t>
+  </si>
+  <si>
+    <t>D1.3</t>
+  </si>
+  <si>
+    <t>Klassendiagramm für jede Komponente</t>
+  </si>
+  <si>
+    <t>Serverspezifikation</t>
+  </si>
+  <si>
+    <t>Mittel</t>
+  </si>
+  <si>
+    <t>Mit Herrn Dallmöller gesprochen. Spezifikationen festgelegt.</t>
+  </si>
+  <si>
+    <t>Wie lösen wir das Vernetzungproblem?</t>
+  </si>
+  <si>
+    <t>Was für Ressourcen braucht der Server?</t>
+  </si>
+  <si>
+    <t>Auslastung</t>
+  </si>
+  <si>
+    <t>Sven Winkler (SW)</t>
+  </si>
+  <si>
+    <t>Markus Wulftange (MW)</t>
+  </si>
+  <si>
+    <t>Jan-Nicklas Klaassen (JNK)</t>
+  </si>
+  <si>
+    <t>Philip Dauwe (PD)</t>
+  </si>
+  <si>
+    <t>Marc Ufferfilge (MU)</t>
+  </si>
+  <si>
+    <t>Doku/Spezifizierer/Tester</t>
+  </si>
+  <si>
+    <t>JNK</t>
+  </si>
+  <si>
+    <t>Entwurf Maske Eingabe Zeiten</t>
+  </si>
+  <si>
+    <t>Implementeirung UseCase Eingabe Zeiten</t>
+  </si>
+  <si>
+    <t>Implementeirung UseCase Eingabe Zeite</t>
+  </si>
+  <si>
+    <t>Anpassungen/Fehlerbehebung</t>
+  </si>
+  <si>
+    <t>Implementierung Maske Eingabe Zeiten</t>
+  </si>
+  <si>
+    <t>Meilenstein</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -668,8 +800,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -682,8 +821,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -813,11 +957,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -845,6 +1001,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -875,8 +1034,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Akzent1" xfId="1" builtinId="29"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1176,10 +1347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,12 +1358,12 @@
     <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1211,525 +1382,704 @@
     </row>
     <row r="3" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>150</v>
+        <v>224</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B5" s="15"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="15" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
       <c r="D6" s="15" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>63</v>
+      <c r="A7" s="19" t="s">
+        <v>193</v>
       </c>
       <c r="B7" s="15"/>
-      <c r="C7" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="19" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="8" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15" t="s">
-        <v>154</v>
-      </c>
+      <c r="C8" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15" t="s">
-        <v>0</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15" t="s">
-        <v>157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>135</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="B11" s="15"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="D11" s="15" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="12" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15" t="s">
-        <v>159</v>
+        <v>217</v>
       </c>
       <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>163</v>
+        <v>218</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15" t="s">
-        <v>160</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>164</v>
+        <v>219</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15" t="s">
-        <v>161</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>165</v>
+        <v>220</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15" t="s">
-        <v>162</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B30" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="1"/>
+      <c r="E30" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C35" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>149</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="B40" s="1"/>
-      <c r="C40" t="s">
-        <v>185</v>
+      <c r="C40" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1" t="s">
-        <v>186</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B46" s="1"/>
-      <c r="C46" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>196</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" t="s">
+        <v>176</v>
+      </c>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1739,22 +2089,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1768,473 +2118,940 @@
         <v>23</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>39</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="A4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <f>D4-E4</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="A5" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:F59" si="0">D5-E5</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="A6" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="15"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="A8" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="A9" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="A10" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="1">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="15"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4</v>
+      </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="A15" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="15"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="A16" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="A17" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="A18" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="1">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="A19" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" s="15"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="A20" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" s="1">
+        <v>6</v>
+      </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="A21" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D21" s="1">
+        <v>10</v>
+      </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="1">
+        <v>8</v>
+      </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="1">
+        <v>6</v>
+      </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="1">
+        <v>6</v>
+      </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="F26" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="1">
+        <v>8</v>
+      </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="F28" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D29" s="1">
+        <v>10</v>
+      </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="F29" s="1">
+        <f t="shared" ref="F29" si="1">D29-E29</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D30" s="1">
+        <v>8</v>
+      </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="F30" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" s="1">
+        <v>6</v>
+      </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="F32" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" s="1">
+        <v>6</v>
+      </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="F33" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" s="1">
+        <v>6</v>
+      </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="F34" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" s="1">
+        <v>6</v>
+      </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="F35" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37" s="1">
+        <v>6</v>
+      </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="F37" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38" s="1">
+        <v>6</v>
+      </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="F38" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D40" s="1">
+        <v>8</v>
+      </c>
       <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="F40" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" s="1">
+        <v>8</v>
+      </c>
       <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="F41" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
+      <c r="A42" s="21" t="s">
+        <v>215</v>
+      </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D42" s="1">
+        <v>8</v>
+      </c>
       <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+      <c r="F42" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B43" t="s">
+        <v>176</v>
+      </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44" s="1">
+        <v>15</v>
+      </c>
       <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="F44" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D45" s="1">
+        <v>34</v>
+      </c>
       <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="F45" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D47" s="1">
+        <v>30</v>
+      </c>
       <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+      <c r="F47" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D48" s="1">
+        <v>30</v>
+      </c>
       <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+      <c r="F48" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
+      <c r="A49" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D49" s="1">
+        <v>30</v>
+      </c>
       <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+      <c r="F49" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
+      <c r="A50" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D50" s="1">
+        <v>30</v>
+      </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
+      <c r="F50" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
+      <c r="A51" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D51" s="1">
+        <v>50</v>
+      </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
+      <c r="F51" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
+      <c r="A52" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D52" s="1">
+        <v>30</v>
+      </c>
       <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+      <c r="F52" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
+      <c r="A53" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
+      <c r="A54" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D54" s="1">
+        <v>25</v>
+      </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+      <c r="F54" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
+      <c r="A55" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="C55" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D55" s="1">
+        <v>25</v>
+      </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
+      <c r="F55" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
+      <c r="A56" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="C56" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D56" s="1">
+        <v>25</v>
+      </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
+      <c r="F56" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
+      <c r="A57" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="D57" s="1">
+        <v>4</v>
+      </c>
       <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
+      <c r="F57" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
+      <c r="A58" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="D58" s="1">
+        <v>10</v>
+      </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
+      <c r="F58" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
+      <c r="A59" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="D59" s="1">
+        <v>5</v>
+      </c>
       <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
+      <c r="F59" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2376,6 +3193,76 @@
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <f>SUM(D3:D84)</f>
+        <v>520</v>
+      </c>
+      <c r="E85">
+        <f>SUM(E3:E84)</f>
+        <v>41</v>
+      </c>
+      <c r="F85">
+        <f>SUM(F3:F84)</f>
+        <v>479</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2393,10 +3280,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
@@ -2415,7 +3303,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>45</v>
@@ -2423,10 +3311,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>27</v>
@@ -2434,16 +3322,16 @@
       <c r="D3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="13">
-        <v>0.6</v>
+      <c r="E3" s="13" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>235</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>25</v>
@@ -2451,16 +3339,16 @@
       <c r="D4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="13">
-        <v>0.6</v>
+      <c r="E4" s="13" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>236</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>25</v>
@@ -2468,16 +3356,16 @@
       <c r="D5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="13">
-        <v>0.6</v>
+      <c r="E5" s="13" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>237</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>25</v>
@@ -2485,16 +3373,16 @@
       <c r="D6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="13">
-        <v>0.6</v>
+      <c r="E6" s="13" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>54</v>
+        <v>238</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>55</v>
+        <v>239</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>25</v>
@@ -2502,8 +3390,8 @@
       <c r="D7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="13">
-        <v>0.6</v>
+      <c r="E7" s="13" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2527,124 +3415,146 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V66"/>
+  <dimension ref="A1:V72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.28515625" style="32" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="35" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="24" t="s">
         <v>40</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="R2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="S2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="T2" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
     </row>
     <row r="3" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="22"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="25"/>
       <c r="H3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="9"/>
+      <c r="A4" s="34" t="str">
+        <f>IF(Aufwandsplan!A3&lt;&gt;0, Aufwandsplan!A3, "")</f>
+        <v>A1</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="34" t="str">
+        <f>IF(Aufwandsplan!B3&lt;&gt;0, Aufwandsplan!B3, "")</f>
+        <v>Kick-Off Meeting</v>
+      </c>
+      <c r="D4" s="34" t="str">
+        <f>IF(Aufwandsplan!C3&lt;&gt;0, Aufwandsplan!C3, "")</f>
+        <v/>
+      </c>
+      <c r="E4" s="34" t="str">
+        <f>IF(Aufwandsplan!D3&lt;&gt;0, Aufwandsplan!D3, "")</f>
+        <v/>
+      </c>
+      <c r="F4" s="34" t="str">
+        <f>IF(Aufwandsplan!E3&lt;&gt;0, Aufwandsplan!E3, "")</f>
+        <v/>
+      </c>
+      <c r="G4" s="36" t="str">
+        <f>IF(Aufwandsplan!F3&lt;&gt;0, Aufwandsplan!F3, "")</f>
+        <v/>
+      </c>
       <c r="H4" s="7"/>
-      <c r="I4" s="1"/>
+      <c r="I4" s="38"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -2658,15 +3568,37 @@
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="9"/>
+      <c r="A5" s="34" t="str">
+        <f>IF(Aufwandsplan!A4&lt;&gt;0, Aufwandsplan!A4, "")</f>
+        <v>A1.1</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="34" t="str">
+        <f>IF(Aufwandsplan!B4&lt;&gt;0, Aufwandsplan!B4, "")</f>
+        <v/>
+      </c>
+      <c r="D5" s="34" t="str">
+        <f>IF(Aufwandsplan!C4&lt;&gt;0, Aufwandsplan!C4, "")</f>
+        <v>Rollen aufteilen/Teamplan</v>
+      </c>
+      <c r="E5" s="34">
+        <f>IF(Aufwandsplan!D4&lt;&gt;0, Aufwandsplan!D4, "")</f>
+        <v>2</v>
+      </c>
+      <c r="F5" s="34">
+        <f>IF(Aufwandsplan!E4&lt;&gt;0, Aufwandsplan!E4, "")</f>
+        <v>2</v>
+      </c>
+      <c r="G5" s="36" t="str">
+        <f>IF(Aufwandsplan!F4&lt;&gt;0, Aufwandsplan!F4, "")</f>
+        <v/>
+      </c>
       <c r="H5" s="7"/>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -2680,15 +3612,37 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="9"/>
+      <c r="A6" s="34" t="str">
+        <f>IF(Aufwandsplan!A5&lt;&gt;0, Aufwandsplan!A5, "")</f>
+        <v>A1.2</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="34" t="str">
+        <f>IF(Aufwandsplan!B5&lt;&gt;0, Aufwandsplan!B5, "")</f>
+        <v/>
+      </c>
+      <c r="D6" s="34" t="str">
+        <f>IF(Aufwandsplan!C5&lt;&gt;0, Aufwandsplan!C5, "")</f>
+        <v>Github Schulung von Philip Dauwe</v>
+      </c>
+      <c r="E6" s="34">
+        <f>IF(Aufwandsplan!D5&lt;&gt;0, Aufwandsplan!D5, "")</f>
+        <v>2</v>
+      </c>
+      <c r="F6" s="34">
+        <f>IF(Aufwandsplan!E5&lt;&gt;0, Aufwandsplan!E5, "")</f>
+        <v>2</v>
+      </c>
+      <c r="G6" s="36" t="str">
+        <f>IF(Aufwandsplan!F5&lt;&gt;0, Aufwandsplan!F5, "")</f>
+        <v/>
+      </c>
       <c r="H6" s="7"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -2702,15 +3656,37 @@
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="9"/>
+      <c r="A7" s="34" t="str">
+        <f>IF(Aufwandsplan!A6&lt;&gt;0, Aufwandsplan!A6, "")</f>
+        <v>A1.3</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="34" t="str">
+        <f>IF(Aufwandsplan!B6&lt;&gt;0, Aufwandsplan!B6, "")</f>
+        <v/>
+      </c>
+      <c r="D7" s="34" t="str">
+        <f>IF(Aufwandsplan!C6&lt;&gt;0, Aufwandsplan!C6, "")</f>
+        <v>Serverspezifikation und -beantragung</v>
+      </c>
+      <c r="E7" s="34">
+        <f>IF(Aufwandsplan!D6&lt;&gt;0, Aufwandsplan!D6, "")</f>
+        <v>2</v>
+      </c>
+      <c r="F7" s="34">
+        <f>IF(Aufwandsplan!E6&lt;&gt;0, Aufwandsplan!E6, "")</f>
+        <v>2</v>
+      </c>
+      <c r="G7" s="36" t="str">
+        <f>IF(Aufwandsplan!F6&lt;&gt;0, Aufwandsplan!F6, "")</f>
+        <v/>
+      </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -2724,17 +3700,37 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="9"/>
+      <c r="A8" s="34" t="str">
+        <f>IF(Aufwandsplan!A7&lt;&gt;0, Aufwandsplan!A7, "")</f>
+        <v>A2</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="39" t="str">
+        <f>IF(Aufwandsplan!B7&lt;&gt;0, Aufwandsplan!B7, "")</f>
+        <v>Projektplanung</v>
+      </c>
+      <c r="D8" s="34" t="str">
+        <f>IF(Aufwandsplan!C7&lt;&gt;0, Aufwandsplan!C7, "")</f>
+        <v/>
+      </c>
+      <c r="E8" s="34" t="str">
+        <f>IF(Aufwandsplan!D7&lt;&gt;0, Aufwandsplan!D7, "")</f>
+        <v/>
+      </c>
+      <c r="F8" s="34" t="str">
+        <f>IF(Aufwandsplan!E7&lt;&gt;0, Aufwandsplan!E7, "")</f>
+        <v/>
+      </c>
+      <c r="G8" s="36" t="str">
+        <f>IF(Aufwandsplan!F7&lt;&gt;0, Aufwandsplan!F7, "")</f>
+        <v/>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="K8" s="38"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -2746,17 +3742,41 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="9"/>
+      <c r="A9" s="34" t="str">
+        <f>IF(Aufwandsplan!A8&lt;&gt;0, Aufwandsplan!A8, "")</f>
+        <v>A2.1</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C9" s="34" t="str">
+        <f>IF(Aufwandsplan!B8&lt;&gt;0, Aufwandsplan!B8, "")</f>
+        <v/>
+      </c>
+      <c r="D9" s="34" t="str">
+        <f>IF(Aufwandsplan!C8&lt;&gt;0, Aufwandsplan!C8, "")</f>
+        <v>Grober Struktur-/Aufwandsplan</v>
+      </c>
+      <c r="E9" s="34">
+        <f>IF(Aufwandsplan!D8&lt;&gt;0, Aufwandsplan!D8, "")</f>
+        <v>6</v>
+      </c>
+      <c r="F9" s="34">
+        <f>IF(Aufwandsplan!E8&lt;&gt;0, Aufwandsplan!E8, "")</f>
+        <v>6</v>
+      </c>
+      <c r="G9" s="36" t="str">
+        <f>IF(Aufwandsplan!F8&lt;&gt;0, Aufwandsplan!F8, "")</f>
+        <v/>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -2768,16 +3788,38 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="9"/>
+      <c r="A10" s="34" t="str">
+        <f>IF(Aufwandsplan!A9&lt;&gt;0, Aufwandsplan!A9, "")</f>
+        <v>A2.2</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="34" t="str">
+        <f>IF(Aufwandsplan!B9&lt;&gt;0, Aufwandsplan!B9, "")</f>
+        <v/>
+      </c>
+      <c r="D10" s="34" t="str">
+        <f>IF(Aufwandsplan!C9&lt;&gt;0, Aufwandsplan!C9, "")</f>
+        <v>Risikoliste</v>
+      </c>
+      <c r="E10" s="34">
+        <f>IF(Aufwandsplan!D9&lt;&gt;0, Aufwandsplan!D9, "")</f>
+        <v>5</v>
+      </c>
+      <c r="F10" s="34">
+        <f>IF(Aufwandsplan!E9&lt;&gt;0, Aufwandsplan!E9, "")</f>
+        <v>5</v>
+      </c>
+      <c r="G10" s="36" t="str">
+        <f>IF(Aufwandsplan!F9&lt;&gt;0, Aufwandsplan!F9, "")</f>
+        <v/>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -2790,17 +3832,39 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="9"/>
+      <c r="A11" s="34" t="str">
+        <f>IF(Aufwandsplan!A10&lt;&gt;0, Aufwandsplan!A10, "")</f>
+        <v>A2.3</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="34" t="str">
+        <f>IF(Aufwandsplan!B10&lt;&gt;0, Aufwandsplan!B10, "")</f>
+        <v/>
+      </c>
+      <c r="D11" s="34" t="str">
+        <f>IF(Aufwandsplan!C10&lt;&gt;0, Aufwandsplan!C10, "")</f>
+        <v>Termin- und Meilensteinplanung</v>
+      </c>
+      <c r="E11" s="34">
+        <f>IF(Aufwandsplan!D10&lt;&gt;0, Aufwandsplan!D10, "")</f>
+        <v>6</v>
+      </c>
+      <c r="F11" s="34">
+        <f>IF(Aufwandsplan!E10&lt;&gt;0, Aufwandsplan!E10, "")</f>
+        <v>6</v>
+      </c>
+      <c r="G11" s="36" t="str">
+        <f>IF(Aufwandsplan!F10&lt;&gt;0, Aufwandsplan!F10, "")</f>
+        <v/>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -2812,13 +3876,33 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="9"/>
+      <c r="A12" s="34" t="str">
+        <f>IF(Aufwandsplan!A11&lt;&gt;0, Aufwandsplan!A11, "")</f>
+        <v>A3</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="34" t="str">
+        <f>IF(Aufwandsplan!B11&lt;&gt;0, Aufwandsplan!B11, "")</f>
+        <v>Dokumentation</v>
+      </c>
+      <c r="D12" s="34" t="str">
+        <f>IF(Aufwandsplan!C11&lt;&gt;0, Aufwandsplan!C11, "")</f>
+        <v/>
+      </c>
+      <c r="E12" s="34" t="str">
+        <f>IF(Aufwandsplan!D11&lt;&gt;0, Aufwandsplan!D11, "")</f>
+        <v/>
+      </c>
+      <c r="F12" s="34" t="str">
+        <f>IF(Aufwandsplan!E11&lt;&gt;0, Aufwandsplan!E11, "")</f>
+        <v/>
+      </c>
+      <c r="G12" s="36" t="str">
+        <f>IF(Aufwandsplan!F11&lt;&gt;0, Aufwandsplan!F11, "")</f>
+        <v/>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -2834,17 +3918,41 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="9"/>
+      <c r="A13" s="34" t="str">
+        <f>IF(Aufwandsplan!A12&lt;&gt;0, Aufwandsplan!A12, "")</f>
+        <v>A3.1</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="34" t="str">
+        <f>IF(Aufwandsplan!B12&lt;&gt;0, Aufwandsplan!B12, "")</f>
+        <v/>
+      </c>
+      <c r="D13" s="34" t="str">
+        <f>IF(Aufwandsplan!C12&lt;&gt;0, Aufwandsplan!C12, "")</f>
+        <v>Präsentation 1 erstellen</v>
+      </c>
+      <c r="E13" s="34">
+        <f>IF(Aufwandsplan!D12&lt;&gt;0, Aufwandsplan!D12, "")</f>
+        <v>4</v>
+      </c>
+      <c r="F13" s="34" t="str">
+        <f>IF(Aufwandsplan!E12&lt;&gt;0, Aufwandsplan!E12, "")</f>
+        <v/>
+      </c>
+      <c r="G13" s="36">
+        <f>IF(Aufwandsplan!F12&lt;&gt;0, Aufwandsplan!F12, "")</f>
+        <v>4</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -2856,13 +3964,33 @@
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="9"/>
+      <c r="A14" s="34" t="str">
+        <f>IF(Aufwandsplan!A13&lt;&gt;0, Aufwandsplan!A13, "")</f>
+        <v>A3.2</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="34" t="str">
+        <f>IF(Aufwandsplan!B13&lt;&gt;0, Aufwandsplan!B13, "")</f>
+        <v/>
+      </c>
+      <c r="D14" s="34" t="str">
+        <f>IF(Aufwandsplan!C13&lt;&gt;0, Aufwandsplan!C13, "")</f>
+        <v>Präsentation 2 erstellen</v>
+      </c>
+      <c r="E14" s="34">
+        <f>IF(Aufwandsplan!D13&lt;&gt;0, Aufwandsplan!D13, "")</f>
+        <v>4</v>
+      </c>
+      <c r="F14" s="34" t="str">
+        <f>IF(Aufwandsplan!E13&lt;&gt;0, Aufwandsplan!E13, "")</f>
+        <v/>
+      </c>
+      <c r="G14" s="36">
+        <f>IF(Aufwandsplan!F13&lt;&gt;0, Aufwandsplan!F13, "")</f>
+        <v>4</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -2878,13 +4006,33 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="9"/>
+      <c r="A15" s="34" t="str">
+        <f>IF(Aufwandsplan!A14&lt;&gt;0, Aufwandsplan!A14, "")</f>
+        <v>A3.3</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="34" t="str">
+        <f>IF(Aufwandsplan!B14&lt;&gt;0, Aufwandsplan!B14, "")</f>
+        <v/>
+      </c>
+      <c r="D15" s="34" t="str">
+        <f>IF(Aufwandsplan!C14&lt;&gt;0, Aufwandsplan!C14, "")</f>
+        <v>Präsentation 3 erstellen</v>
+      </c>
+      <c r="E15" s="34">
+        <f>IF(Aufwandsplan!D14&lt;&gt;0, Aufwandsplan!D14, "")</f>
+        <v>4</v>
+      </c>
+      <c r="F15" s="34" t="str">
+        <f>IF(Aufwandsplan!E14&lt;&gt;0, Aufwandsplan!E14, "")</f>
+        <v/>
+      </c>
+      <c r="G15" s="36">
+        <f>IF(Aufwandsplan!F14&lt;&gt;0, Aufwandsplan!F14, "")</f>
+        <v>4</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -2900,19 +4048,39 @@
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="9"/>
+      <c r="A16" s="34" t="str">
+        <f>IF(Aufwandsplan!A15&lt;&gt;0, Aufwandsplan!A15, "")</f>
+        <v>B1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="39" t="str">
+        <f>IF(Aufwandsplan!B15&lt;&gt;0, Aufwandsplan!B15, "")</f>
+        <v>QM-Plan</v>
+      </c>
+      <c r="D16" s="34" t="str">
+        <f>IF(Aufwandsplan!C15&lt;&gt;0, Aufwandsplan!C15, "")</f>
+        <v/>
+      </c>
+      <c r="E16" s="34" t="str">
+        <f>IF(Aufwandsplan!D15&lt;&gt;0, Aufwandsplan!D15, "")</f>
+        <v/>
+      </c>
+      <c r="F16" s="34" t="str">
+        <f>IF(Aufwandsplan!E15&lt;&gt;0, Aufwandsplan!E15, "")</f>
+        <v/>
+      </c>
+      <c r="G16" s="36" t="str">
+        <f>IF(Aufwandsplan!F15&lt;&gt;0, Aufwandsplan!F15, "")</f>
+        <v/>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="M16" s="38"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -2922,16 +4090,38 @@
       <c r="T16" s="1"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="9"/>
+      <c r="A17" s="34" t="str">
+        <f>IF(Aufwandsplan!A16&lt;&gt;0, Aufwandsplan!A16, "")</f>
+        <v>B1.1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="34" t="str">
+        <f>IF(Aufwandsplan!B16&lt;&gt;0, Aufwandsplan!B16, "")</f>
+        <v/>
+      </c>
+      <c r="D17" s="34" t="str">
+        <f>IF(Aufwandsplan!C16&lt;&gt;0, Aufwandsplan!C16, "")</f>
+        <v>Qualitätsziele bestimmen</v>
+      </c>
+      <c r="E17" s="34">
+        <f>IF(Aufwandsplan!D16&lt;&gt;0, Aufwandsplan!D16, "")</f>
+        <v>5</v>
+      </c>
+      <c r="F17" s="34">
+        <f>IF(Aufwandsplan!E16&lt;&gt;0, Aufwandsplan!E16, "")</f>
+        <v>5</v>
+      </c>
+      <c r="G17" s="36" t="str">
+        <f>IF(Aufwandsplan!F16&lt;&gt;0, Aufwandsplan!F16, "")</f>
+        <v/>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -2944,17 +4134,41 @@
       <c r="T17" s="1"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="9"/>
+      <c r="A18" s="34" t="str">
+        <f>IF(Aufwandsplan!A17&lt;&gt;0, Aufwandsplan!A17, "")</f>
+        <v>B1.2</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="34" t="str">
+        <f>IF(Aufwandsplan!B17&lt;&gt;0, Aufwandsplan!B17, "")</f>
+        <v/>
+      </c>
+      <c r="D18" s="34" t="str">
+        <f>IF(Aufwandsplan!C17&lt;&gt;0, Aufwandsplan!C17, "")</f>
+        <v>Qualitätskriterien aufstellen</v>
+      </c>
+      <c r="E18" s="34">
+        <f>IF(Aufwandsplan!D17&lt;&gt;0, Aufwandsplan!D17, "")</f>
+        <v>5</v>
+      </c>
+      <c r="F18" s="34">
+        <f>IF(Aufwandsplan!E17&lt;&gt;0, Aufwandsplan!E17, "")</f>
+        <v>5</v>
+      </c>
+      <c r="G18" s="36" t="str">
+        <f>IF(Aufwandsplan!F17&lt;&gt;0, Aufwandsplan!F17, "")</f>
+        <v/>
+      </c>
       <c r="H18" s="7"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -2966,18 +4180,40 @@
       <c r="T18" s="1"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="9"/>
+      <c r="A19" s="34" t="str">
+        <f>IF(Aufwandsplan!A18&lt;&gt;0, Aufwandsplan!A18, "")</f>
+        <v>B1.3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="34" t="str">
+        <f>IF(Aufwandsplan!B18&lt;&gt;0, Aufwandsplan!B18, "")</f>
+        <v/>
+      </c>
+      <c r="D19" s="34" t="str">
+        <f>IF(Aufwandsplan!C18&lt;&gt;0, Aufwandsplan!C18, "")</f>
+        <v>Qualitätsmaßnahmen bestimmen</v>
+      </c>
+      <c r="E19" s="34">
+        <f>IF(Aufwandsplan!D18&lt;&gt;0, Aufwandsplan!D18, "")</f>
+        <v>8</v>
+      </c>
+      <c r="F19" s="34">
+        <f>IF(Aufwandsplan!E18&lt;&gt;0, Aufwandsplan!E18, "")</f>
+        <v>8</v>
+      </c>
+      <c r="G19" s="36" t="str">
+        <f>IF(Aufwandsplan!F18&lt;&gt;0, Aufwandsplan!F18, "")</f>
+        <v/>
+      </c>
       <c r="H19" s="7"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="L19" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -2988,13 +4224,33 @@
       <c r="T19" s="1"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="9"/>
+      <c r="A20" s="34" t="str">
+        <f>IF(Aufwandsplan!A19&lt;&gt;0, Aufwandsplan!A19, "")</f>
+        <v>B2</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="34" t="str">
+        <f>IF(Aufwandsplan!B19&lt;&gt;0, Aufwandsplan!B19, "")</f>
+        <v>Abnahmekriterien/Testdurchführung</v>
+      </c>
+      <c r="D20" s="34" t="str">
+        <f>IF(Aufwandsplan!C19&lt;&gt;0, Aufwandsplan!C19, "")</f>
+        <v/>
+      </c>
+      <c r="E20" s="34" t="str">
+        <f>IF(Aufwandsplan!D19&lt;&gt;0, Aufwandsplan!D19, "")</f>
+        <v/>
+      </c>
+      <c r="F20" s="34" t="str">
+        <f>IF(Aufwandsplan!E19&lt;&gt;0, Aufwandsplan!E19, "")</f>
+        <v/>
+      </c>
+      <c r="G20" s="36" t="str">
+        <f>IF(Aufwandsplan!F19&lt;&gt;0, Aufwandsplan!F19, "")</f>
+        <v/>
+      </c>
       <c r="H20" s="7"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -3010,13 +4266,33 @@
       <c r="T20" s="1"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="9"/>
+      <c r="A21" s="34" t="str">
+        <f>IF(Aufwandsplan!A20&lt;&gt;0, Aufwandsplan!A20, "")</f>
+        <v>B2.1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="34" t="str">
+        <f>IF(Aufwandsplan!B20&lt;&gt;0, Aufwandsplan!B20, "")</f>
+        <v/>
+      </c>
+      <c r="D21" s="34" t="str">
+        <f>IF(Aufwandsplan!C20&lt;&gt;0, Aufwandsplan!C20, "")</f>
+        <v>Kriterien festlegen</v>
+      </c>
+      <c r="E21" s="34">
+        <f>IF(Aufwandsplan!D20&lt;&gt;0, Aufwandsplan!D20, "")</f>
+        <v>6</v>
+      </c>
+      <c r="F21" s="34" t="str">
+        <f>IF(Aufwandsplan!E20&lt;&gt;0, Aufwandsplan!E20, "")</f>
+        <v/>
+      </c>
+      <c r="G21" s="36">
+        <f>IF(Aufwandsplan!F20&lt;&gt;0, Aufwandsplan!F20, "")</f>
+        <v>6</v>
+      </c>
       <c r="H21" s="7"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -3032,13 +4308,33 @@
       <c r="T21" s="1"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="9"/>
+      <c r="A22" s="34" t="str">
+        <f>IF(Aufwandsplan!A21&lt;&gt;0, Aufwandsplan!A21, "")</f>
+        <v>B2.2</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="34" t="str">
+        <f>IF(Aufwandsplan!B21&lt;&gt;0, Aufwandsplan!B21, "")</f>
+        <v/>
+      </c>
+      <c r="D22" s="34" t="str">
+        <f>IF(Aufwandsplan!C21&lt;&gt;0, Aufwandsplan!C21, "")</f>
+        <v>Testdurchführung ausfüllen</v>
+      </c>
+      <c r="E22" s="34">
+        <f>IF(Aufwandsplan!D21&lt;&gt;0, Aufwandsplan!D21, "")</f>
+        <v>10</v>
+      </c>
+      <c r="F22" s="34" t="str">
+        <f>IF(Aufwandsplan!E21&lt;&gt;0, Aufwandsplan!E21, "")</f>
+        <v/>
+      </c>
+      <c r="G22" s="36">
+        <f>IF(Aufwandsplan!F21&lt;&gt;0, Aufwandsplan!F21, "")</f>
+        <v>10</v>
+      </c>
       <c r="H22" s="7"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -3054,13 +4350,33 @@
       <c r="T22" s="1"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="9"/>
+      <c r="A23" s="34" t="str">
+        <f>IF(Aufwandsplan!A22&lt;&gt;0, Aufwandsplan!A22, "")</f>
+        <v>C1</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="34" t="str">
+        <f>IF(Aufwandsplan!B22&lt;&gt;0, Aufwandsplan!B22, "")</f>
+        <v>Aufgabe analysieren</v>
+      </c>
+      <c r="D23" s="34" t="str">
+        <f>IF(Aufwandsplan!C22&lt;&gt;0, Aufwandsplan!C22, "")</f>
+        <v/>
+      </c>
+      <c r="E23" s="34" t="str">
+        <f>IF(Aufwandsplan!D22&lt;&gt;0, Aufwandsplan!D22, "")</f>
+        <v/>
+      </c>
+      <c r="F23" s="34" t="str">
+        <f>IF(Aufwandsplan!E22&lt;&gt;0, Aufwandsplan!E22, "")</f>
+        <v/>
+      </c>
+      <c r="G23" s="36" t="str">
+        <f>IF(Aufwandsplan!F22&lt;&gt;0, Aufwandsplan!F22, "")</f>
+        <v/>
+      </c>
       <c r="H23" s="7"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -3076,16 +4392,38 @@
       <c r="T23" s="1"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="9"/>
+      <c r="A24" s="34" t="str">
+        <f>IF(Aufwandsplan!A23&lt;&gt;0, Aufwandsplan!A23, "")</f>
+        <v>C1.1</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="34" t="str">
+        <f>IF(Aufwandsplan!B23&lt;&gt;0, Aufwandsplan!B23, "")</f>
+        <v/>
+      </c>
+      <c r="D24" s="34" t="str">
+        <f>IF(Aufwandsplan!C23&lt;&gt;0, Aufwandsplan!C23, "")</f>
+        <v>Geschäftanwendungsfälle definieren</v>
+      </c>
+      <c r="E24" s="34">
+        <f>IF(Aufwandsplan!D23&lt;&gt;0, Aufwandsplan!D23, "")</f>
+        <v>8</v>
+      </c>
+      <c r="F24" s="34" t="str">
+        <f>IF(Aufwandsplan!E23&lt;&gt;0, Aufwandsplan!E23, "")</f>
+        <v/>
+      </c>
+      <c r="G24" s="36">
+        <f>IF(Aufwandsplan!F23&lt;&gt;0, Aufwandsplan!F23, "")</f>
+        <v>8</v>
+      </c>
       <c r="H24" s="7"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="J24" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -3098,17 +4436,39 @@
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="9"/>
+      <c r="A25" s="34" t="str">
+        <f>IF(Aufwandsplan!A24&lt;&gt;0, Aufwandsplan!A24, "")</f>
+        <v>C1.2</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="34" t="str">
+        <f>IF(Aufwandsplan!B24&lt;&gt;0, Aufwandsplan!B24, "")</f>
+        <v/>
+      </c>
+      <c r="D25" s="34" t="str">
+        <f>IF(Aufwandsplan!C24&lt;&gt;0, Aufwandsplan!C24, "")</f>
+        <v>funktionale Anforderungen definieren</v>
+      </c>
+      <c r="E25" s="34">
+        <f>IF(Aufwandsplan!D24&lt;&gt;0, Aufwandsplan!D24, "")</f>
+        <v>6</v>
+      </c>
+      <c r="F25" s="34" t="str">
+        <f>IF(Aufwandsplan!E24&lt;&gt;0, Aufwandsplan!E24, "")</f>
+        <v/>
+      </c>
+      <c r="G25" s="36">
+        <f>IF(Aufwandsplan!F24&lt;&gt;0, Aufwandsplan!F24, "")</f>
+        <v>6</v>
+      </c>
       <c r="H25" s="7"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="K25" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -3120,18 +4480,40 @@
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="9"/>
+      <c r="A26" s="34" t="str">
+        <f>IF(Aufwandsplan!A25&lt;&gt;0, Aufwandsplan!A25, "")</f>
+        <v>C1.3</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="34" t="str">
+        <f>IF(Aufwandsplan!B25&lt;&gt;0, Aufwandsplan!B25, "")</f>
+        <v/>
+      </c>
+      <c r="D26" s="34" t="str">
+        <f>IF(Aufwandsplan!C25&lt;&gt;0, Aufwandsplan!C25, "")</f>
+        <v>(nicht) funktionale Anforderungen definieren</v>
+      </c>
+      <c r="E26" s="34">
+        <f>IF(Aufwandsplan!D25&lt;&gt;0, Aufwandsplan!D25, "")</f>
+        <v>6</v>
+      </c>
+      <c r="F26" s="34" t="str">
+        <f>IF(Aufwandsplan!E25&lt;&gt;0, Aufwandsplan!E25, "")</f>
+        <v/>
+      </c>
+      <c r="G26" s="36">
+        <f>IF(Aufwandsplan!F25&lt;&gt;0, Aufwandsplan!F25, "")</f>
+        <v>6</v>
+      </c>
       <c r="H26" s="7"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
+      <c r="L26" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -3142,17 +4524,39 @@
       <c r="T26" s="1"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="9"/>
+      <c r="A27" s="34" t="str">
+        <f>IF(Aufwandsplan!A26&lt;&gt;0, Aufwandsplan!A26, "")</f>
+        <v>C1.4</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="34" t="str">
+        <f>IF(Aufwandsplan!B26&lt;&gt;0, Aufwandsplan!B26, "")</f>
+        <v/>
+      </c>
+      <c r="D27" s="34" t="str">
+        <f>IF(Aufwandsplan!C26&lt;&gt;0, Aufwandsplan!C26, "")</f>
+        <v>Stakeholderanalyse</v>
+      </c>
+      <c r="E27" s="34">
+        <f>IF(Aufwandsplan!D26&lt;&gt;0, Aufwandsplan!D26, "")</f>
+        <v>2</v>
+      </c>
+      <c r="F27" s="34" t="str">
+        <f>IF(Aufwandsplan!E26&lt;&gt;0, Aufwandsplan!E26, "")</f>
+        <v/>
+      </c>
+      <c r="G27" s="36">
+        <f>IF(Aufwandsplan!F26&lt;&gt;0, Aufwandsplan!F26, "")</f>
+        <v>2</v>
+      </c>
       <c r="H27" s="7"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="K27" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -3164,13 +4568,33 @@
       <c r="T27" s="1"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="9"/>
+      <c r="A28" s="34" t="str">
+        <f>IF(Aufwandsplan!A27&lt;&gt;0, Aufwandsplan!A27, "")</f>
+        <v>D1</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="39" t="str">
+        <f>IF(Aufwandsplan!B27&lt;&gt;0, Aufwandsplan!B27, "")</f>
+        <v>Modelle</v>
+      </c>
+      <c r="D28" s="34" t="str">
+        <f>IF(Aufwandsplan!C27&lt;&gt;0, Aufwandsplan!C27, "")</f>
+        <v/>
+      </c>
+      <c r="E28" s="34" t="str">
+        <f>IF(Aufwandsplan!D27&lt;&gt;0, Aufwandsplan!D27, "")</f>
+        <v/>
+      </c>
+      <c r="F28" s="34" t="str">
+        <f>IF(Aufwandsplan!E27&lt;&gt;0, Aufwandsplan!E27, "")</f>
+        <v/>
+      </c>
+      <c r="G28" s="36" t="str">
+        <f>IF(Aufwandsplan!F27&lt;&gt;0, Aufwandsplan!F27, "")</f>
+        <v/>
+      </c>
       <c r="H28" s="7"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -3179,23 +4603,45 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
+      <c r="P28" s="38"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="9"/>
+      <c r="A29" s="34" t="str">
+        <f>IF(Aufwandsplan!A28&lt;&gt;0, Aufwandsplan!A28, "")</f>
+        <v>D1.1</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="34" t="str">
+        <f>IF(Aufwandsplan!B28&lt;&gt;0, Aufwandsplan!B28, "")</f>
+        <v/>
+      </c>
+      <c r="D29" s="34" t="str">
+        <f>IF(Aufwandsplan!C28&lt;&gt;0, Aufwandsplan!C28, "")</f>
+        <v>Datenmodell erstellen</v>
+      </c>
+      <c r="E29" s="34">
+        <f>IF(Aufwandsplan!D28&lt;&gt;0, Aufwandsplan!D28, "")</f>
+        <v>8</v>
+      </c>
+      <c r="F29" s="34" t="str">
+        <f>IF(Aufwandsplan!E28&lt;&gt;0, Aufwandsplan!E28, "")</f>
+        <v/>
+      </c>
+      <c r="G29" s="36">
+        <f>IF(Aufwandsplan!F28&lt;&gt;0, Aufwandsplan!F28, "")</f>
+        <v>8</v>
+      </c>
       <c r="H29" s="7"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="J29" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -3208,13 +4654,33 @@
       <c r="T29" s="1"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="9"/>
+      <c r="A30" s="34" t="str">
+        <f>IF(Aufwandsplan!A29&lt;&gt;0, Aufwandsplan!A29, "")</f>
+        <v>D1.2</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="34" t="str">
+        <f>IF(Aufwandsplan!B29&lt;&gt;0, Aufwandsplan!B29, "")</f>
+        <v/>
+      </c>
+      <c r="D30" s="34" t="str">
+        <f>IF(Aufwandsplan!C29&lt;&gt;0, Aufwandsplan!C29, "")</f>
+        <v>Komponentenmodell erstellen</v>
+      </c>
+      <c r="E30" s="34">
+        <f>IF(Aufwandsplan!D29&lt;&gt;0, Aufwandsplan!D29, "")</f>
+        <v>10</v>
+      </c>
+      <c r="F30" s="34" t="str">
+        <f>IF(Aufwandsplan!E29&lt;&gt;0, Aufwandsplan!E29, "")</f>
+        <v/>
+      </c>
+      <c r="G30" s="36">
+        <f>IF(Aufwandsplan!F29&lt;&gt;0, Aufwandsplan!F29, "")</f>
+        <v>10</v>
+      </c>
       <c r="H30" s="7"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -3230,18 +4696,40 @@
       <c r="T30" s="1"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="9"/>
+      <c r="A31" s="34" t="str">
+        <f>IF(Aufwandsplan!A30&lt;&gt;0, Aufwandsplan!A30, "")</f>
+        <v>D1.3</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="34" t="str">
+        <f>IF(Aufwandsplan!B30&lt;&gt;0, Aufwandsplan!B30, "")</f>
+        <v/>
+      </c>
+      <c r="D31" s="34" t="str">
+        <f>IF(Aufwandsplan!C30&lt;&gt;0, Aufwandsplan!C30, "")</f>
+        <v>Klassendiagramm für jede Komponente</v>
+      </c>
+      <c r="E31" s="34">
+        <f>IF(Aufwandsplan!D30&lt;&gt;0, Aufwandsplan!D30, "")</f>
+        <v>8</v>
+      </c>
+      <c r="F31" s="34" t="str">
+        <f>IF(Aufwandsplan!E30&lt;&gt;0, Aufwandsplan!E30, "")</f>
+        <v/>
+      </c>
+      <c r="G31" s="36">
+        <f>IF(Aufwandsplan!F30&lt;&gt;0, Aufwandsplan!F30, "")</f>
+        <v>8</v>
+      </c>
       <c r="H31" s="7"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="L31" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -3252,13 +4740,33 @@
       <c r="T31" s="1"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="9"/>
+      <c r="A32" s="34" t="str">
+        <f>IF(Aufwandsplan!A31&lt;&gt;0, Aufwandsplan!A31, "")</f>
+        <v>D2</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="39" t="str">
+        <f>IF(Aufwandsplan!B31&lt;&gt;0, Aufwandsplan!B31, "")</f>
+        <v>Use Cases definieren</v>
+      </c>
+      <c r="D32" s="34" t="str">
+        <f>IF(Aufwandsplan!C31&lt;&gt;0, Aufwandsplan!C31, "")</f>
+        <v/>
+      </c>
+      <c r="E32" s="34" t="str">
+        <f>IF(Aufwandsplan!D31&lt;&gt;0, Aufwandsplan!D31, "")</f>
+        <v/>
+      </c>
+      <c r="F32" s="34" t="str">
+        <f>IF(Aufwandsplan!E31&lt;&gt;0, Aufwandsplan!E31, "")</f>
+        <v/>
+      </c>
+      <c r="G32" s="36" t="str">
+        <f>IF(Aufwandsplan!F31&lt;&gt;0, Aufwandsplan!F31, "")</f>
+        <v/>
+      </c>
       <c r="H32" s="7"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -3267,25 +4775,47 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
+      <c r="P32" s="38"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="9"/>
+      <c r="A33" s="34" t="str">
+        <f>IF(Aufwandsplan!A32&lt;&gt;0, Aufwandsplan!A32, "")</f>
+        <v>D2.1</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="34" t="str">
+        <f>IF(Aufwandsplan!B32&lt;&gt;0, Aufwandsplan!B32, "")</f>
+        <v/>
+      </c>
+      <c r="D33" s="34" t="str">
+        <f>IF(Aufwandsplan!C32&lt;&gt;0, Aufwandsplan!C32, "")</f>
+        <v>Use Case X definieren und spezifzieren</v>
+      </c>
+      <c r="E33" s="34">
+        <f>IF(Aufwandsplan!D32&lt;&gt;0, Aufwandsplan!D32, "")</f>
+        <v>6</v>
+      </c>
+      <c r="F33" s="34" t="str">
+        <f>IF(Aufwandsplan!E32&lt;&gt;0, Aufwandsplan!E32, "")</f>
+        <v/>
+      </c>
+      <c r="G33" s="36">
+        <f>IF(Aufwandsplan!F32&lt;&gt;0, Aufwandsplan!F32, "")</f>
+        <v>6</v>
+      </c>
       <c r="H33" s="7"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
+      <c r="L33" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -3296,19 +4826,41 @@
       <c r="T33" s="1"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="9"/>
+      <c r="A34" s="34" t="str">
+        <f>IF(Aufwandsplan!A33&lt;&gt;0, Aufwandsplan!A33, "")</f>
+        <v>D2.2</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="34" t="str">
+        <f>IF(Aufwandsplan!B33&lt;&gt;0, Aufwandsplan!B33, "")</f>
+        <v/>
+      </c>
+      <c r="D34" s="34" t="str">
+        <f>IF(Aufwandsplan!C33&lt;&gt;0, Aufwandsplan!C33, "")</f>
+        <v>Use Case X definieren und spezifzieren</v>
+      </c>
+      <c r="E34" s="34">
+        <f>IF(Aufwandsplan!D33&lt;&gt;0, Aufwandsplan!D33, "")</f>
+        <v>6</v>
+      </c>
+      <c r="F34" s="34" t="str">
+        <f>IF(Aufwandsplan!E33&lt;&gt;0, Aufwandsplan!E33, "")</f>
+        <v/>
+      </c>
+      <c r="G34" s="36">
+        <f>IF(Aufwandsplan!F33&lt;&gt;0, Aufwandsplan!F33, "")</f>
+        <v>6</v>
+      </c>
       <c r="H34" s="7"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
+      <c r="M34" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -3318,19 +4870,41 @@
       <c r="T34" s="1"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="9"/>
+      <c r="A35" s="34" t="str">
+        <f>IF(Aufwandsplan!A34&lt;&gt;0, Aufwandsplan!A34, "")</f>
+        <v>D2.3</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="34" t="str">
+        <f>IF(Aufwandsplan!B34&lt;&gt;0, Aufwandsplan!B34, "")</f>
+        <v/>
+      </c>
+      <c r="D35" s="34" t="str">
+        <f>IF(Aufwandsplan!C34&lt;&gt;0, Aufwandsplan!C34, "")</f>
+        <v>Use Case X definieren und spezifzieren</v>
+      </c>
+      <c r="E35" s="34">
+        <f>IF(Aufwandsplan!D34&lt;&gt;0, Aufwandsplan!D34, "")</f>
+        <v>6</v>
+      </c>
+      <c r="F35" s="34" t="str">
+        <f>IF(Aufwandsplan!E34&lt;&gt;0, Aufwandsplan!E34, "")</f>
+        <v/>
+      </c>
+      <c r="G35" s="36">
+        <f>IF(Aufwandsplan!F34&lt;&gt;0, Aufwandsplan!F34, "")</f>
+        <v>6</v>
+      </c>
       <c r="H35" s="7"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="M35" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -3340,20 +4914,42 @@
       <c r="T35" s="1"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="9"/>
+      <c r="A36" s="34" t="str">
+        <f>IF(Aufwandsplan!A35&lt;&gt;0, Aufwandsplan!A35, "")</f>
+        <v>D2.4</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="34" t="str">
+        <f>IF(Aufwandsplan!B35&lt;&gt;0, Aufwandsplan!B35, "")</f>
+        <v/>
+      </c>
+      <c r="D36" s="34" t="str">
+        <f>IF(Aufwandsplan!C35&lt;&gt;0, Aufwandsplan!C35, "")</f>
+        <v>Use Case X definieren und spezifzieren</v>
+      </c>
+      <c r="E36" s="34">
+        <f>IF(Aufwandsplan!D35&lt;&gt;0, Aufwandsplan!D35, "")</f>
+        <v>6</v>
+      </c>
+      <c r="F36" s="34" t="str">
+        <f>IF(Aufwandsplan!E35&lt;&gt;0, Aufwandsplan!E35, "")</f>
+        <v/>
+      </c>
+      <c r="G36" s="36">
+        <f>IF(Aufwandsplan!F35&lt;&gt;0, Aufwandsplan!F35, "")</f>
+        <v>6</v>
+      </c>
       <c r="H36" s="7"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
+      <c r="N36" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
@@ -3362,13 +4958,33 @@
       <c r="T36" s="1"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="9"/>
+      <c r="A37" s="34" t="str">
+        <f>IF(Aufwandsplan!A36&lt;&gt;0, Aufwandsplan!A36, "")</f>
+        <v>D3</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="39" t="str">
+        <f>IF(Aufwandsplan!B36&lt;&gt;0, Aufwandsplan!B36, "")</f>
+        <v>Application Functions definieren</v>
+      </c>
+      <c r="D37" s="34" t="str">
+        <f>IF(Aufwandsplan!C36&lt;&gt;0, Aufwandsplan!C36, "")</f>
+        <v/>
+      </c>
+      <c r="E37" s="34" t="str">
+        <f>IF(Aufwandsplan!D36&lt;&gt;0, Aufwandsplan!D36, "")</f>
+        <v/>
+      </c>
+      <c r="F37" s="34" t="str">
+        <f>IF(Aufwandsplan!E36&lt;&gt;0, Aufwandsplan!E36, "")</f>
+        <v/>
+      </c>
+      <c r="G37" s="36" t="str">
+        <f>IF(Aufwandsplan!F36&lt;&gt;0, Aufwandsplan!F36, "")</f>
+        <v/>
+      </c>
       <c r="H37" s="7"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -3377,20 +4993,40 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
+      <c r="P37" s="38"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="9"/>
+      <c r="A38" s="34" t="str">
+        <f>IF(Aufwandsplan!A37&lt;&gt;0, Aufwandsplan!A37, "")</f>
+        <v>D3.1</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="34" t="str">
+        <f>IF(Aufwandsplan!B37&lt;&gt;0, Aufwandsplan!B37, "")</f>
+        <v/>
+      </c>
+      <c r="D38" s="34" t="str">
+        <f>IF(Aufwandsplan!C37&lt;&gt;0, Aufwandsplan!C37, "")</f>
+        <v>Application Function X definieren und spezifizieren</v>
+      </c>
+      <c r="E38" s="34">
+        <f>IF(Aufwandsplan!D37&lt;&gt;0, Aufwandsplan!D37, "")</f>
+        <v>6</v>
+      </c>
+      <c r="F38" s="34" t="str">
+        <f>IF(Aufwandsplan!E37&lt;&gt;0, Aufwandsplan!E37, "")</f>
+        <v/>
+      </c>
+      <c r="G38" s="36">
+        <f>IF(Aufwandsplan!F37&lt;&gt;0, Aufwandsplan!F37, "")</f>
+        <v>6</v>
+      </c>
       <c r="H38" s="7"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -3406,13 +5042,33 @@
       <c r="T38" s="1"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="9"/>
+      <c r="A39" s="34" t="str">
+        <f>IF(Aufwandsplan!A38&lt;&gt;0, Aufwandsplan!A38, "")</f>
+        <v>D3.2</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="34" t="str">
+        <f>IF(Aufwandsplan!B38&lt;&gt;0, Aufwandsplan!B38, "")</f>
+        <v/>
+      </c>
+      <c r="D39" s="34" t="str">
+        <f>IF(Aufwandsplan!C38&lt;&gt;0, Aufwandsplan!C38, "")</f>
+        <v>Application Function X definieren und spezifizieren</v>
+      </c>
+      <c r="E39" s="34">
+        <f>IF(Aufwandsplan!D38&lt;&gt;0, Aufwandsplan!D38, "")</f>
+        <v>6</v>
+      </c>
+      <c r="F39" s="34" t="str">
+        <f>IF(Aufwandsplan!E38&lt;&gt;0, Aufwandsplan!E38, "")</f>
+        <v/>
+      </c>
+      <c r="G39" s="36">
+        <f>IF(Aufwandsplan!F38&lt;&gt;0, Aufwandsplan!F38, "")</f>
+        <v>6</v>
+      </c>
       <c r="H39" s="7"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -3428,13 +5084,33 @@
       <c r="T39" s="1"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="9"/>
+      <c r="A40" s="34" t="str">
+        <f>IF(Aufwandsplan!A39&lt;&gt;0, Aufwandsplan!A39, "")</f>
+        <v>E1</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" s="34" t="str">
+        <f>IF(Aufwandsplan!B39&lt;&gt;0, Aufwandsplan!B39, "")</f>
+        <v>GUI Entwürfe</v>
+      </c>
+      <c r="D40" s="34" t="str">
+        <f>IF(Aufwandsplan!C39&lt;&gt;0, Aufwandsplan!C39, "")</f>
+        <v/>
+      </c>
+      <c r="E40" s="34" t="str">
+        <f>IF(Aufwandsplan!D39&lt;&gt;0, Aufwandsplan!D39, "")</f>
+        <v/>
+      </c>
+      <c r="F40" s="34" t="str">
+        <f>IF(Aufwandsplan!E39&lt;&gt;0, Aufwandsplan!E39, "")</f>
+        <v/>
+      </c>
+      <c r="G40" s="36" t="str">
+        <f>IF(Aufwandsplan!F39&lt;&gt;0, Aufwandsplan!F39, "")</f>
+        <v/>
+      </c>
       <c r="H40" s="7"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -3450,18 +5126,40 @@
       <c r="T40" s="1"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="9"/>
+      <c r="A41" s="34" t="str">
+        <f>IF(Aufwandsplan!A40&lt;&gt;0, Aufwandsplan!A40, "")</f>
+        <v>E1.1</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="34" t="str">
+        <f>IF(Aufwandsplan!B40&lt;&gt;0, Aufwandsplan!B40, "")</f>
+        <v/>
+      </c>
+      <c r="D41" s="34" t="str">
+        <f>IF(Aufwandsplan!C40&lt;&gt;0, Aufwandsplan!C40, "")</f>
+        <v>Entwurf Maske Eingabe Zeiten</v>
+      </c>
+      <c r="E41" s="34">
+        <f>IF(Aufwandsplan!D40&lt;&gt;0, Aufwandsplan!D40, "")</f>
+        <v>8</v>
+      </c>
+      <c r="F41" s="34" t="str">
+        <f>IF(Aufwandsplan!E40&lt;&gt;0, Aufwandsplan!E40, "")</f>
+        <v/>
+      </c>
+      <c r="G41" s="36">
+        <f>IF(Aufwandsplan!F40&lt;&gt;0, Aufwandsplan!F40, "")</f>
+        <v>8</v>
+      </c>
       <c r="H41" s="7"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
+      <c r="L41" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -3472,18 +5170,40 @@
       <c r="T41" s="1"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="9"/>
+      <c r="A42" s="34" t="str">
+        <f>IF(Aufwandsplan!A41&lt;&gt;0, Aufwandsplan!A41, "")</f>
+        <v>E1.2</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="34" t="str">
+        <f>IF(Aufwandsplan!B41&lt;&gt;0, Aufwandsplan!B41, "")</f>
+        <v/>
+      </c>
+      <c r="D42" s="34" t="str">
+        <f>IF(Aufwandsplan!C41&lt;&gt;0, Aufwandsplan!C41, "")</f>
+        <v>Entwurf Maske X</v>
+      </c>
+      <c r="E42" s="34">
+        <f>IF(Aufwandsplan!D41&lt;&gt;0, Aufwandsplan!D41, "")</f>
+        <v>8</v>
+      </c>
+      <c r="F42" s="34" t="str">
+        <f>IF(Aufwandsplan!E41&lt;&gt;0, Aufwandsplan!E41, "")</f>
+        <v/>
+      </c>
+      <c r="G42" s="36">
+        <f>IF(Aufwandsplan!F41&lt;&gt;0, Aufwandsplan!F41, "")</f>
+        <v>8</v>
+      </c>
       <c r="H42" s="7"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
+      <c r="L42" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -3494,19 +5214,41 @@
       <c r="T42" s="1"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="9"/>
+      <c r="A43" s="34" t="str">
+        <f>IF(Aufwandsplan!A42&lt;&gt;0, Aufwandsplan!A42, "")</f>
+        <v>E1.3</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" s="34" t="str">
+        <f>IF(Aufwandsplan!B42&lt;&gt;0, Aufwandsplan!B42, "")</f>
+        <v/>
+      </c>
+      <c r="D43" s="34" t="str">
+        <f>IF(Aufwandsplan!C42&lt;&gt;0, Aufwandsplan!C42, "")</f>
+        <v>Entwurf Maske X</v>
+      </c>
+      <c r="E43" s="34">
+        <f>IF(Aufwandsplan!D42&lt;&gt;0, Aufwandsplan!D42, "")</f>
+        <v>8</v>
+      </c>
+      <c r="F43" s="34" t="str">
+        <f>IF(Aufwandsplan!E42&lt;&gt;0, Aufwandsplan!E42, "")</f>
+        <v/>
+      </c>
+      <c r="G43" s="36">
+        <f>IF(Aufwandsplan!F42&lt;&gt;0, Aufwandsplan!F42, "")</f>
+        <v>8</v>
+      </c>
       <c r="H43" s="7"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+      <c r="M43" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -3516,13 +5258,33 @@
       <c r="T43" s="1"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="9"/>
+      <c r="A44" s="34" t="str">
+        <f>IF(Aufwandsplan!A43&lt;&gt;0, Aufwandsplan!A43, "")</f>
+        <v>F1</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" s="39" t="str">
+        <f>IF(Aufwandsplan!B43&lt;&gt;0, Aufwandsplan!B43, "")</f>
+        <v>Implementierung Datenhaltung</v>
+      </c>
+      <c r="D44" s="34" t="str">
+        <f>IF(Aufwandsplan!C43&lt;&gt;0, Aufwandsplan!C43, "")</f>
+        <v/>
+      </c>
+      <c r="E44" s="34" t="str">
+        <f>IF(Aufwandsplan!D43&lt;&gt;0, Aufwandsplan!D43, "")</f>
+        <v/>
+      </c>
+      <c r="F44" s="34" t="str">
+        <f>IF(Aufwandsplan!E43&lt;&gt;0, Aufwandsplan!E43, "")</f>
+        <v/>
+      </c>
+      <c r="G44" s="36" t="str">
+        <f>IF(Aufwandsplan!F43&lt;&gt;0, Aufwandsplan!F43, "")</f>
+        <v/>
+      </c>
       <c r="H44" s="7"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -3532,26 +5294,48 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
+      <c r="Q44" s="38"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="9"/>
+      <c r="A45" s="34" t="str">
+        <f>IF(Aufwandsplan!A44&lt;&gt;0, Aufwandsplan!A44, "")</f>
+        <v>F1.1</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="34" t="str">
+        <f>IF(Aufwandsplan!B44&lt;&gt;0, Aufwandsplan!B44, "")</f>
+        <v/>
+      </c>
+      <c r="D45" s="34" t="str">
+        <f>IF(Aufwandsplan!C44&lt;&gt;0, Aufwandsplan!C44, "")</f>
+        <v>Datenbank</v>
+      </c>
+      <c r="E45" s="34">
+        <f>IF(Aufwandsplan!D44&lt;&gt;0, Aufwandsplan!D44, "")</f>
+        <v>15</v>
+      </c>
+      <c r="F45" s="34" t="str">
+        <f>IF(Aufwandsplan!E44&lt;&gt;0, Aufwandsplan!E44, "")</f>
+        <v/>
+      </c>
+      <c r="G45" s="36">
+        <f>IF(Aufwandsplan!F44&lt;&gt;0, Aufwandsplan!F44, "")</f>
+        <v>15</v>
+      </c>
       <c r="H45" s="7"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
+      <c r="N45" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
@@ -3560,20 +5344,42 @@
       <c r="T45" s="1"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="9"/>
+      <c r="A46" s="34" t="str">
+        <f>IF(Aufwandsplan!A45&lt;&gt;0, Aufwandsplan!A45, "")</f>
+        <v>F1.2</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="34" t="str">
+        <f>IF(Aufwandsplan!B45&lt;&gt;0, Aufwandsplan!B45, "")</f>
+        <v/>
+      </c>
+      <c r="D46" s="34" t="str">
+        <f>IF(Aufwandsplan!C45&lt;&gt;0, Aufwandsplan!C45, "")</f>
+        <v>Zugriff</v>
+      </c>
+      <c r="E46" s="34">
+        <f>IF(Aufwandsplan!D45&lt;&gt;0, Aufwandsplan!D45, "")</f>
+        <v>34</v>
+      </c>
+      <c r="F46" s="34" t="str">
+        <f>IF(Aufwandsplan!E45&lt;&gt;0, Aufwandsplan!E45, "")</f>
+        <v/>
+      </c>
+      <c r="G46" s="36">
+        <f>IF(Aufwandsplan!F45&lt;&gt;0, Aufwandsplan!F45, "")</f>
+        <v>34</v>
+      </c>
       <c r="H46" s="7"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
+      <c r="N46" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
@@ -3582,13 +5388,33 @@
       <c r="T46" s="1"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="9"/>
+      <c r="A47" s="34" t="str">
+        <f>IF(Aufwandsplan!A46&lt;&gt;0, Aufwandsplan!A46, "")</f>
+        <v>F2</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" s="39" t="str">
+        <f>IF(Aufwandsplan!B46&lt;&gt;0, Aufwandsplan!B46, "")</f>
+        <v>Implementierung Anwendungskern</v>
+      </c>
+      <c r="D47" s="34" t="str">
+        <f>IF(Aufwandsplan!C46&lt;&gt;0, Aufwandsplan!C46, "")</f>
+        <v/>
+      </c>
+      <c r="E47" s="34" t="str">
+        <f>IF(Aufwandsplan!D46&lt;&gt;0, Aufwandsplan!D46, "")</f>
+        <v/>
+      </c>
+      <c r="F47" s="34" t="str">
+        <f>IF(Aufwandsplan!E46&lt;&gt;0, Aufwandsplan!E46, "")</f>
+        <v/>
+      </c>
+      <c r="G47" s="36" t="str">
+        <f>IF(Aufwandsplan!F46&lt;&gt;0, Aufwandsplan!F46, "")</f>
+        <v/>
+      </c>
       <c r="H47" s="7"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -3604,35 +5430,77 @@
       <c r="T47" s="1"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="9"/>
+      <c r="A48" s="34" t="str">
+        <f>IF(Aufwandsplan!A47&lt;&gt;0, Aufwandsplan!A47, "")</f>
+        <v>F2.1</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="34" t="str">
+        <f>IF(Aufwandsplan!B47&lt;&gt;0, Aufwandsplan!B47, "")</f>
+        <v/>
+      </c>
+      <c r="D48" s="34" t="str">
+        <f>IF(Aufwandsplan!C47&lt;&gt;0, Aufwandsplan!C47, "")</f>
+        <v>Implementeirung UseCase Eingabe Zeiten</v>
+      </c>
+      <c r="E48" s="34">
+        <f>IF(Aufwandsplan!D47&lt;&gt;0, Aufwandsplan!D47, "")</f>
+        <v>30</v>
+      </c>
+      <c r="F48" s="34" t="str">
+        <f>IF(Aufwandsplan!E47&lt;&gt;0, Aufwandsplan!E47, "")</f>
+        <v/>
+      </c>
+      <c r="G48" s="36">
+        <f>IF(Aufwandsplan!F47&lt;&gt;0, Aufwandsplan!F47, "")</f>
+        <v>30</v>
+      </c>
       <c r="H48" s="7"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
+      <c r="N48" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
+      <c r="R48" s="38"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="9"/>
+      <c r="A49" s="34" t="str">
+        <f>IF(Aufwandsplan!A48&lt;&gt;0, Aufwandsplan!A48, "")</f>
+        <v>F2.2</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="34" t="str">
+        <f>IF(Aufwandsplan!B48&lt;&gt;0, Aufwandsplan!B48, "")</f>
+        <v/>
+      </c>
+      <c r="D49" s="34" t="str">
+        <f>IF(Aufwandsplan!C48&lt;&gt;0, Aufwandsplan!C48, "")</f>
+        <v>Implementeirung UseCase X</v>
+      </c>
+      <c r="E49" s="34">
+        <f>IF(Aufwandsplan!D48&lt;&gt;0, Aufwandsplan!D48, "")</f>
+        <v>30</v>
+      </c>
+      <c r="F49" s="34" t="str">
+        <f>IF(Aufwandsplan!E48&lt;&gt;0, Aufwandsplan!E48, "")</f>
+        <v/>
+      </c>
+      <c r="G49" s="36">
+        <f>IF(Aufwandsplan!F48&lt;&gt;0, Aufwandsplan!F48, "")</f>
+        <v>30</v>
+      </c>
       <c r="H49" s="7"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -3648,13 +5516,33 @@
       <c r="T49" s="1"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="9"/>
+      <c r="A50" s="34" t="str">
+        <f>IF(Aufwandsplan!A49&lt;&gt;0, Aufwandsplan!A49, "")</f>
+        <v>F2.3</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" s="34" t="str">
+        <f>IF(Aufwandsplan!B49&lt;&gt;0, Aufwandsplan!B49, "")</f>
+        <v/>
+      </c>
+      <c r="D50" s="34" t="str">
+        <f>IF(Aufwandsplan!C49&lt;&gt;0, Aufwandsplan!C49, "")</f>
+        <v>Implementeirung UseCase X</v>
+      </c>
+      <c r="E50" s="34">
+        <f>IF(Aufwandsplan!D49&lt;&gt;0, Aufwandsplan!D49, "")</f>
+        <v>30</v>
+      </c>
+      <c r="F50" s="34" t="str">
+        <f>IF(Aufwandsplan!E49&lt;&gt;0, Aufwandsplan!E49, "")</f>
+        <v/>
+      </c>
+      <c r="G50" s="36">
+        <f>IF(Aufwandsplan!F49&lt;&gt;0, Aufwandsplan!F49, "")</f>
+        <v>30</v>
+      </c>
       <c r="H50" s="7"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -3670,13 +5558,33 @@
       <c r="T50" s="1"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="9"/>
+      <c r="A51" s="34" t="str">
+        <f>IF(Aufwandsplan!A50&lt;&gt;0, Aufwandsplan!A50, "")</f>
+        <v>F2.4</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" s="34" t="str">
+        <f>IF(Aufwandsplan!B50&lt;&gt;0, Aufwandsplan!B50, "")</f>
+        <v/>
+      </c>
+      <c r="D51" s="34" t="str">
+        <f>IF(Aufwandsplan!C50&lt;&gt;0, Aufwandsplan!C50, "")</f>
+        <v>Implementeirung UseCase X</v>
+      </c>
+      <c r="E51" s="34">
+        <f>IF(Aufwandsplan!D50&lt;&gt;0, Aufwandsplan!D50, "")</f>
+        <v>30</v>
+      </c>
+      <c r="F51" s="34" t="str">
+        <f>IF(Aufwandsplan!E50&lt;&gt;0, Aufwandsplan!E50, "")</f>
+        <v/>
+      </c>
+      <c r="G51" s="36">
+        <f>IF(Aufwandsplan!F50&lt;&gt;0, Aufwandsplan!F50, "")</f>
+        <v>30</v>
+      </c>
       <c r="H51" s="7"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -3692,13 +5600,33 @@
       <c r="T51" s="1"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="9"/>
+      <c r="A52" s="34" t="str">
+        <f>IF(Aufwandsplan!A51&lt;&gt;0, Aufwandsplan!A51, "")</f>
+        <v>F2.5</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" s="34" t="str">
+        <f>IF(Aufwandsplan!B51&lt;&gt;0, Aufwandsplan!B51, "")</f>
+        <v/>
+      </c>
+      <c r="D52" s="34" t="str">
+        <f>IF(Aufwandsplan!C51&lt;&gt;0, Aufwandsplan!C51, "")</f>
+        <v>Implementierung Appication Function Stundenplanberechnung</v>
+      </c>
+      <c r="E52" s="34">
+        <f>IF(Aufwandsplan!D51&lt;&gt;0, Aufwandsplan!D51, "")</f>
+        <v>50</v>
+      </c>
+      <c r="F52" s="34" t="str">
+        <f>IF(Aufwandsplan!E51&lt;&gt;0, Aufwandsplan!E51, "")</f>
+        <v/>
+      </c>
+      <c r="G52" s="36">
+        <f>IF(Aufwandsplan!F51&lt;&gt;0, Aufwandsplan!F51, "")</f>
+        <v>50</v>
+      </c>
       <c r="H52" s="7"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -3714,13 +5642,33 @@
       <c r="T52" s="1"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="9"/>
+      <c r="A53" s="34" t="str">
+        <f>IF(Aufwandsplan!A52&lt;&gt;0, Aufwandsplan!A52, "")</f>
+        <v>F2.6</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C53" s="34" t="str">
+        <f>IF(Aufwandsplan!B52&lt;&gt;0, Aufwandsplan!B52, "")</f>
+        <v/>
+      </c>
+      <c r="D53" s="34" t="str">
+        <f>IF(Aufwandsplan!C52&lt;&gt;0, Aufwandsplan!C52, "")</f>
+        <v>Implementierung Appication Function X</v>
+      </c>
+      <c r="E53" s="34">
+        <f>IF(Aufwandsplan!D52&lt;&gt;0, Aufwandsplan!D52, "")</f>
+        <v>30</v>
+      </c>
+      <c r="F53" s="34" t="str">
+        <f>IF(Aufwandsplan!E52&lt;&gt;0, Aufwandsplan!E52, "")</f>
+        <v/>
+      </c>
+      <c r="G53" s="36">
+        <f>IF(Aufwandsplan!F52&lt;&gt;0, Aufwandsplan!F52, "")</f>
+        <v>30</v>
+      </c>
       <c r="H53" s="7"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -3736,13 +5684,33 @@
       <c r="T53" s="1"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="9"/>
+      <c r="A54" s="34" t="str">
+        <f>IF(Aufwandsplan!A53&lt;&gt;0, Aufwandsplan!A53, "")</f>
+        <v>F3</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C54" s="39" t="str">
+        <f>IF(Aufwandsplan!B53&lt;&gt;0, Aufwandsplan!B53, "")</f>
+        <v>Implementierung GUI</v>
+      </c>
+      <c r="D54" s="34" t="str">
+        <f>IF(Aufwandsplan!C53&lt;&gt;0, Aufwandsplan!C53, "")</f>
+        <v/>
+      </c>
+      <c r="E54" s="34" t="str">
+        <f>IF(Aufwandsplan!D53&lt;&gt;0, Aufwandsplan!D53, "")</f>
+        <v/>
+      </c>
+      <c r="F54" s="34" t="str">
+        <f>IF(Aufwandsplan!E53&lt;&gt;0, Aufwandsplan!E53, "")</f>
+        <v/>
+      </c>
+      <c r="G54" s="36" t="str">
+        <f>IF(Aufwandsplan!F53&lt;&gt;0, Aufwandsplan!F53, "")</f>
+        <v/>
+      </c>
       <c r="H54" s="7"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -3754,17 +5722,37 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
+      <c r="S54" s="38"/>
       <c r="T54" s="1"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="9"/>
+      <c r="A55" s="34" t="str">
+        <f>IF(Aufwandsplan!A54&lt;&gt;0, Aufwandsplan!A54, "")</f>
+        <v>F3.1</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C55" s="34" t="str">
+        <f>IF(Aufwandsplan!B54&lt;&gt;0, Aufwandsplan!B54, "")</f>
+        <v/>
+      </c>
+      <c r="D55" s="34" t="str">
+        <f>IF(Aufwandsplan!C54&lt;&gt;0, Aufwandsplan!C54, "")</f>
+        <v>Implementierung Maske Eingabe Zeiten</v>
+      </c>
+      <c r="E55" s="34">
+        <f>IF(Aufwandsplan!D54&lt;&gt;0, Aufwandsplan!D54, "")</f>
+        <v>25</v>
+      </c>
+      <c r="F55" s="34" t="str">
+        <f>IF(Aufwandsplan!E54&lt;&gt;0, Aufwandsplan!E54, "")</f>
+        <v/>
+      </c>
+      <c r="G55" s="36">
+        <f>IF(Aufwandsplan!F54&lt;&gt;0, Aufwandsplan!F54, "")</f>
+        <v>25</v>
+      </c>
       <c r="H55" s="7"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -3780,13 +5768,33 @@
       <c r="T55" s="1"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="9"/>
+      <c r="A56" s="34" t="str">
+        <f>IF(Aufwandsplan!A55&lt;&gt;0, Aufwandsplan!A55, "")</f>
+        <v>F3.2</v>
+      </c>
+      <c r="B56" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" s="34" t="str">
+        <f>IF(Aufwandsplan!B55&lt;&gt;0, Aufwandsplan!B55, "")</f>
+        <v/>
+      </c>
+      <c r="D56" s="34" t="str">
+        <f>IF(Aufwandsplan!C55&lt;&gt;0, Aufwandsplan!C55, "")</f>
+        <v>Implementierung Maske X</v>
+      </c>
+      <c r="E56" s="34">
+        <f>IF(Aufwandsplan!D55&lt;&gt;0, Aufwandsplan!D55, "")</f>
+        <v>25</v>
+      </c>
+      <c r="F56" s="34" t="str">
+        <f>IF(Aufwandsplan!E55&lt;&gt;0, Aufwandsplan!E55, "")</f>
+        <v/>
+      </c>
+      <c r="G56" s="36">
+        <f>IF(Aufwandsplan!F55&lt;&gt;0, Aufwandsplan!F55, "")</f>
+        <v>25</v>
+      </c>
       <c r="H56" s="7"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -3802,13 +5810,33 @@
       <c r="T56" s="1"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="9"/>
+      <c r="A57" s="34" t="str">
+        <f>IF(Aufwandsplan!A56&lt;&gt;0, Aufwandsplan!A56, "")</f>
+        <v>F3.3</v>
+      </c>
+      <c r="B57" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" s="34" t="str">
+        <f>IF(Aufwandsplan!B56&lt;&gt;0, Aufwandsplan!B56, "")</f>
+        <v/>
+      </c>
+      <c r="D57" s="34" t="str">
+        <f>IF(Aufwandsplan!C56&lt;&gt;0, Aufwandsplan!C56, "")</f>
+        <v>Implementierung Maske X</v>
+      </c>
+      <c r="E57" s="34">
+        <f>IF(Aufwandsplan!D56&lt;&gt;0, Aufwandsplan!D56, "")</f>
+        <v>25</v>
+      </c>
+      <c r="F57" s="34" t="str">
+        <f>IF(Aufwandsplan!E56&lt;&gt;0, Aufwandsplan!E56, "")</f>
+        <v/>
+      </c>
+      <c r="G57" s="36">
+        <f>IF(Aufwandsplan!F56&lt;&gt;0, Aufwandsplan!F56, "")</f>
+        <v>25</v>
+      </c>
       <c r="H57" s="7"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -3824,13 +5852,33 @@
       <c r="T57" s="1"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="9"/>
+      <c r="A58" s="34" t="str">
+        <f>IF(Aufwandsplan!A57&lt;&gt;0, Aufwandsplan!A57, "")</f>
+        <v>G1</v>
+      </c>
+      <c r="B58" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="C58" s="34" t="str">
+        <f>IF(Aufwandsplan!B57&lt;&gt;0, Aufwandsplan!B57, "")</f>
+        <v>Test der Anwendung</v>
+      </c>
+      <c r="D58" s="34" t="str">
+        <f>IF(Aufwandsplan!C57&lt;&gt;0, Aufwandsplan!C57, "")</f>
+        <v/>
+      </c>
+      <c r="E58" s="34">
+        <f>IF(Aufwandsplan!D57&lt;&gt;0, Aufwandsplan!D57, "")</f>
+        <v>4</v>
+      </c>
+      <c r="F58" s="34" t="str">
+        <f>IF(Aufwandsplan!E57&lt;&gt;0, Aufwandsplan!E57, "")</f>
+        <v/>
+      </c>
+      <c r="G58" s="36">
+        <f>IF(Aufwandsplan!F57&lt;&gt;0, Aufwandsplan!F57, "")</f>
+        <v>4</v>
+      </c>
       <c r="H58" s="7"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -3846,13 +5894,33 @@
       <c r="T58" s="1"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="9"/>
+      <c r="A59" s="34" t="str">
+        <f>IF(Aufwandsplan!A58&lt;&gt;0, Aufwandsplan!A58, "")</f>
+        <v>G2</v>
+      </c>
+      <c r="B59" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="C59" s="34" t="str">
+        <f>IF(Aufwandsplan!B58&lt;&gt;0, Aufwandsplan!B58, "")</f>
+        <v>Anpassungen/Fehlerbehebung</v>
+      </c>
+      <c r="D59" s="34" t="str">
+        <f>IF(Aufwandsplan!C58&lt;&gt;0, Aufwandsplan!C58, "")</f>
+        <v/>
+      </c>
+      <c r="E59" s="34">
+        <f>IF(Aufwandsplan!D58&lt;&gt;0, Aufwandsplan!D58, "")</f>
+        <v>10</v>
+      </c>
+      <c r="F59" s="34" t="str">
+        <f>IF(Aufwandsplan!E58&lt;&gt;0, Aufwandsplan!E58, "")</f>
+        <v/>
+      </c>
+      <c r="G59" s="36">
+        <f>IF(Aufwandsplan!F58&lt;&gt;0, Aufwandsplan!F58, "")</f>
+        <v>10</v>
+      </c>
       <c r="H59" s="7"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -3868,13 +5936,33 @@
       <c r="T59" s="1"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="9"/>
+      <c r="A60" s="34" t="str">
+        <f>IF(Aufwandsplan!A59&lt;&gt;0, Aufwandsplan!A59, "")</f>
+        <v>G3</v>
+      </c>
+      <c r="B60" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="C60" s="39" t="str">
+        <f>IF(Aufwandsplan!B59&lt;&gt;0, Aufwandsplan!B59, "")</f>
+        <v>interne Abnahme</v>
+      </c>
+      <c r="D60" s="34" t="str">
+        <f>IF(Aufwandsplan!C59&lt;&gt;0, Aufwandsplan!C59, "")</f>
+        <v/>
+      </c>
+      <c r="E60" s="34">
+        <f>IF(Aufwandsplan!D59&lt;&gt;0, Aufwandsplan!D59, "")</f>
+        <v>5</v>
+      </c>
+      <c r="F60" s="34" t="str">
+        <f>IF(Aufwandsplan!E59&lt;&gt;0, Aufwandsplan!E59, "")</f>
+        <v/>
+      </c>
+      <c r="G60" s="36">
+        <f>IF(Aufwandsplan!F59&lt;&gt;0, Aufwandsplan!F59, "")</f>
+        <v>5</v>
+      </c>
       <c r="H60" s="7"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -3887,16 +5975,34 @@
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
-      <c r="T60" s="1"/>
+      <c r="T60" s="38"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="9"/>
+      <c r="A61" s="34" t="str">
+        <f>IF(Aufwandsplan!A60&lt;&gt;0, Aufwandsplan!A60, "")</f>
+        <v/>
+      </c>
+      <c r="B61" s="34"/>
+      <c r="C61" s="34" t="str">
+        <f>IF(Aufwandsplan!B60&lt;&gt;0, Aufwandsplan!B60, "")</f>
+        <v/>
+      </c>
+      <c r="D61" s="34" t="str">
+        <f>IF(Aufwandsplan!C60&lt;&gt;0, Aufwandsplan!C60, "")</f>
+        <v/>
+      </c>
+      <c r="E61" s="34" t="str">
+        <f>IF(Aufwandsplan!D60&lt;&gt;0, Aufwandsplan!D60, "")</f>
+        <v/>
+      </c>
+      <c r="F61" s="34" t="str">
+        <f>IF(Aufwandsplan!E60&lt;&gt;0, Aufwandsplan!E60, "")</f>
+        <v/>
+      </c>
+      <c r="G61" s="36" t="str">
+        <f>IF(Aufwandsplan!F60&lt;&gt;0, Aufwandsplan!F60, "")</f>
+        <v/>
+      </c>
       <c r="H61" s="7"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -3912,13 +6018,31 @@
       <c r="T61" s="1"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="9"/>
+      <c r="A62" s="34" t="str">
+        <f>IF(Aufwandsplan!A61&lt;&gt;0, Aufwandsplan!A61, "")</f>
+        <v/>
+      </c>
+      <c r="B62" s="34"/>
+      <c r="C62" s="34" t="str">
+        <f>IF(Aufwandsplan!B61&lt;&gt;0, Aufwandsplan!B61, "")</f>
+        <v/>
+      </c>
+      <c r="D62" s="34" t="str">
+        <f>IF(Aufwandsplan!C61&lt;&gt;0, Aufwandsplan!C61, "")</f>
+        <v/>
+      </c>
+      <c r="E62" s="34" t="str">
+        <f>IF(Aufwandsplan!D61&lt;&gt;0, Aufwandsplan!D61, "")</f>
+        <v/>
+      </c>
+      <c r="F62" s="34" t="str">
+        <f>IF(Aufwandsplan!E61&lt;&gt;0, Aufwandsplan!E61, "")</f>
+        <v/>
+      </c>
+      <c r="G62" s="36" t="str">
+        <f>IF(Aufwandsplan!F61&lt;&gt;0, Aufwandsplan!F61, "")</f>
+        <v/>
+      </c>
       <c r="H62" s="7"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -3934,13 +6058,31 @@
       <c r="T62" s="1"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="9"/>
+      <c r="A63" s="34" t="str">
+        <f>IF(Aufwandsplan!A62&lt;&gt;0, Aufwandsplan!A62, "")</f>
+        <v/>
+      </c>
+      <c r="B63" s="34"/>
+      <c r="C63" s="34" t="str">
+        <f>IF(Aufwandsplan!B62&lt;&gt;0, Aufwandsplan!B62, "")</f>
+        <v/>
+      </c>
+      <c r="D63" s="34" t="str">
+        <f>IF(Aufwandsplan!C62&lt;&gt;0, Aufwandsplan!C62, "")</f>
+        <v/>
+      </c>
+      <c r="E63" s="34" t="str">
+        <f>IF(Aufwandsplan!D62&lt;&gt;0, Aufwandsplan!D62, "")</f>
+        <v/>
+      </c>
+      <c r="F63" s="34" t="str">
+        <f>IF(Aufwandsplan!E62&lt;&gt;0, Aufwandsplan!E62, "")</f>
+        <v/>
+      </c>
+      <c r="G63" s="36" t="str">
+        <f>IF(Aufwandsplan!F62&lt;&gt;0, Aufwandsplan!F62, "")</f>
+        <v/>
+      </c>
       <c r="H63" s="7"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -3956,13 +6098,31 @@
       <c r="T63" s="1"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="9"/>
+      <c r="A64" s="34" t="str">
+        <f>IF(Aufwandsplan!A63&lt;&gt;0, Aufwandsplan!A63, "")</f>
+        <v/>
+      </c>
+      <c r="B64" s="34"/>
+      <c r="C64" s="34" t="str">
+        <f>IF(Aufwandsplan!B63&lt;&gt;0, Aufwandsplan!B63, "")</f>
+        <v/>
+      </c>
+      <c r="D64" s="34" t="str">
+        <f>IF(Aufwandsplan!C63&lt;&gt;0, Aufwandsplan!C63, "")</f>
+        <v/>
+      </c>
+      <c r="E64" s="34" t="str">
+        <f>IF(Aufwandsplan!D63&lt;&gt;0, Aufwandsplan!D63, "")</f>
+        <v/>
+      </c>
+      <c r="F64" s="34" t="str">
+        <f>IF(Aufwandsplan!E63&lt;&gt;0, Aufwandsplan!E63, "")</f>
+        <v/>
+      </c>
+      <c r="G64" s="36" t="str">
+        <f>IF(Aufwandsplan!F63&lt;&gt;0, Aufwandsplan!F63, "")</f>
+        <v/>
+      </c>
       <c r="H64" s="7"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -3978,13 +6138,31 @@
       <c r="T64" s="1"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="9"/>
+      <c r="A65" s="34" t="str">
+        <f>IF(Aufwandsplan!A64&lt;&gt;0, Aufwandsplan!A64, "")</f>
+        <v/>
+      </c>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34" t="str">
+        <f>IF(Aufwandsplan!B64&lt;&gt;0, Aufwandsplan!B64, "")</f>
+        <v/>
+      </c>
+      <c r="D65" s="34" t="str">
+        <f>IF(Aufwandsplan!C64&lt;&gt;0, Aufwandsplan!C64, "")</f>
+        <v/>
+      </c>
+      <c r="E65" s="34" t="str">
+        <f>IF(Aufwandsplan!D64&lt;&gt;0, Aufwandsplan!D64, "")</f>
+        <v/>
+      </c>
+      <c r="F65" s="34" t="str">
+        <f>IF(Aufwandsplan!E64&lt;&gt;0, Aufwandsplan!E64, "")</f>
+        <v/>
+      </c>
+      <c r="G65" s="36" t="str">
+        <f>IF(Aufwandsplan!F64&lt;&gt;0, Aufwandsplan!F64, "")</f>
+        <v/>
+      </c>
       <c r="H65" s="7"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -4000,13 +6178,31 @@
       <c r="T65" s="1"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="9"/>
+      <c r="A66" s="34" t="str">
+        <f>IF(Aufwandsplan!A65&lt;&gt;0, Aufwandsplan!A65, "")</f>
+        <v/>
+      </c>
+      <c r="B66" s="34"/>
+      <c r="C66" s="34" t="str">
+        <f>IF(Aufwandsplan!B65&lt;&gt;0, Aufwandsplan!B65, "")</f>
+        <v/>
+      </c>
+      <c r="D66" s="34" t="str">
+        <f>IF(Aufwandsplan!C65&lt;&gt;0, Aufwandsplan!C65, "")</f>
+        <v/>
+      </c>
+      <c r="E66" s="34" t="str">
+        <f>IF(Aufwandsplan!D65&lt;&gt;0, Aufwandsplan!D65, "")</f>
+        <v/>
+      </c>
+      <c r="F66" s="34" t="str">
+        <f>IF(Aufwandsplan!E65&lt;&gt;0, Aufwandsplan!E65, "")</f>
+        <v/>
+      </c>
+      <c r="G66" s="36" t="str">
+        <f>IF(Aufwandsplan!F65&lt;&gt;0, Aufwandsplan!F65, "")</f>
+        <v/>
+      </c>
       <c r="H66" s="7"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -4020,6 +6216,297 @@
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B68" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="F68" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H68" s="7">
+        <f>COUNTIF(H4:H66,"SW")+COUNTIF(H4:H66,"alle")</f>
+        <v>0</v>
+      </c>
+      <c r="I68" s="7">
+        <f>COUNTIF(I4:I66,"SW")+COUNTIF(I4:I66,"alle")</f>
+        <v>3</v>
+      </c>
+      <c r="J68" s="7">
+        <f t="shared" ref="J68:T68" si="0">COUNTIF(J4:J66,"SW")+COUNTIF(J4:J66,"alle")</f>
+        <v>2</v>
+      </c>
+      <c r="K68" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L68" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M68" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N68" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O68" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P68" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q68" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R68" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S68" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T68" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G69" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H69" s="7">
+        <f>COUNTIF(H4:H66,"MW")+COUNTIF(H4:H66,"alle")</f>
+        <v>0</v>
+      </c>
+      <c r="I69" s="7">
+        <f t="shared" ref="I69:T69" si="1">COUNTIF(I4:I66,"MW")+COUNTIF(I4:I66,"alle")</f>
+        <v>3</v>
+      </c>
+      <c r="J69" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K69" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L69" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M69" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N69" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O69" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P69" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R69" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S69" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T69" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G70" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="H70" s="7">
+        <f>COUNTIF(H4:H66,"JNK")+COUNTIF(H4:H66,"alle")</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="7">
+        <f t="shared" ref="I70:T70" si="2">COUNTIF(I4:I66,"JNK")+COUNTIF(I4:I66,"alle")</f>
+        <v>3</v>
+      </c>
+      <c r="J70" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K70" s="7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L70" s="7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M70" s="7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N70" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O70" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P70" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R70" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S70" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T70" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G71" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H71" s="7">
+        <f>COUNTIF(H4:H66,"PD")+COUNTIF(H4:H66,"alle")</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="7">
+        <f t="shared" ref="I71:T71" si="3">COUNTIF(I4:I66,"PD")+COUNTIF(I4:I66,"alle")</f>
+        <v>3</v>
+      </c>
+      <c r="J71" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K71" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L71" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M71" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N71" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O71" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P71" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q71" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R71" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S71" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T71" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G72" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H72" s="7">
+        <f>COUNTIF(H4:H66,"MU")+COUNTIF(H4:H66,"alle")</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="7">
+        <f t="shared" ref="I72:T72" si="4">COUNTIF(I4:I66,"MU")+COUNTIF(I4:I66,"alle")</f>
+        <v>3</v>
+      </c>
+      <c r="J72" s="7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K72" s="7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L72" s="7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M72" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N72" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O72" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P72" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q72" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R72" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S72" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T72" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -4046,6 +6533,7 @@
     <mergeCell ref="L2:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4054,7 +6542,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4079,97 +6567,97 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="24" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="24" t="s">
+      <c r="J2" s="30"/>
+      <c r="K2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="28" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
       <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>126</v>
+        <v>231</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -4177,50 +6665,74 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>104</v>
+        <v>229</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -4637,19 +7149,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4657,19 +7169,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4677,19 +7189,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4697,19 +7209,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4717,19 +7229,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4737,19 +7249,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4757,19 +7269,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4777,19 +7289,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4797,19 +7309,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4817,19 +7329,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4837,19 +7349,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -4857,19 +7369,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -4877,19 +7389,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -4897,19 +7409,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">

--- a/Doku/Managementplaene_und_listen.xlsx
+++ b/Doku/Managementplaene_und_listen.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="278">
   <si>
     <t>Risikoliste</t>
   </si>
@@ -195,9 +195,6 @@
     <t>Strukturplan</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
@@ -226,9 +223,6 @@
   </si>
   <si>
     <t>Stakeholderanalyse</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
   <si>
     <t>Spezifikation</t>
@@ -419,12 +413,6 @@
     <t>Qualitätsmanagement</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
@@ -449,21 +437,12 @@
     <t>C1.4</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>Entwurf</t>
   </si>
   <si>
     <t>Implementierung</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>Projektplanung</t>
   </si>
   <si>
@@ -479,9 +458,6 @@
     <t>Rollen aufteilen/Teamplan</t>
   </si>
   <si>
-    <t>Termin- und Meilensteinplanung</t>
-  </si>
-  <si>
     <t>A2.3</t>
   </si>
   <si>
@@ -509,15 +485,9 @@
     <t>GUI Entwürfe</t>
   </si>
   <si>
-    <t>Entwurf Maske X</t>
-  </si>
-  <si>
     <t>E1.1</t>
   </si>
   <si>
-    <t>Use Case X definieren und spezifzieren</t>
-  </si>
-  <si>
     <t>D2.1</t>
   </si>
   <si>
@@ -530,9 +500,6 @@
     <t>D2.4</t>
   </si>
   <si>
-    <t>Application Function X definieren und spezifizieren</t>
-  </si>
-  <si>
     <t>D3.1</t>
   </si>
   <si>
@@ -626,15 +593,6 @@
     <t>D1.2</t>
   </si>
   <si>
-    <t>mitte nov</t>
-  </si>
-  <si>
-    <t>beginnt ab mitte nov</t>
-  </si>
-  <si>
-    <t>kw52</t>
-  </si>
-  <si>
     <t>G3</t>
   </si>
   <si>
@@ -647,12 +605,6 @@
     <t>F3.1</t>
   </si>
   <si>
-    <t>Implementierung Maske X</t>
-  </si>
-  <si>
-    <t>Implementeirung UseCase X</t>
-  </si>
-  <si>
     <t>F2.3</t>
   </si>
   <si>
@@ -665,12 +617,6 @@
     <t>F2.6</t>
   </si>
   <si>
-    <t>Implementierung Appication Function X</t>
-  </si>
-  <si>
-    <t>Implementierung Appication Function Stundenplanberechnung</t>
-  </si>
-  <si>
     <t>F3.2</t>
   </si>
   <si>
@@ -707,9 +653,6 @@
     <t>Projektvorbereitung/Doku</t>
   </si>
   <si>
-    <t>Klassendiagramm je Komponente</t>
-  </si>
-  <si>
     <t>D1.3</t>
   </si>
   <si>
@@ -755,22 +698,172 @@
     <t>JNK</t>
   </si>
   <si>
-    <t>Entwurf Maske Eingabe Zeiten</t>
-  </si>
-  <si>
-    <t>Implementeirung UseCase Eingabe Zeiten</t>
-  </si>
-  <si>
-    <t>Implementeirung UseCase Eingabe Zeite</t>
-  </si>
-  <si>
     <t>Anpassungen/Fehlerbehebung</t>
   </si>
   <si>
-    <t>Implementierung Maske Eingabe Zeiten</t>
-  </si>
-  <si>
-    <t>Meilenstein</t>
+    <t>Use Case "Stundenplan erstellen" definieren und spezifzieren</t>
+  </si>
+  <si>
+    <t>Use Case "Zeitpraeferenzen der Dozenten erfassen" definieren und spezifzieren</t>
+  </si>
+  <si>
+    <t>Use Case "Stundenplan anzeigen" definieren und spezifzieren</t>
+  </si>
+  <si>
+    <t>Implementierung Maske "Studenplan anzeigen"</t>
+  </si>
+  <si>
+    <t>Implementierung Maske "Eingabe Zeiten"</t>
+  </si>
+  <si>
+    <t>Entwurf Maske "Eingabe Zeiten"</t>
+  </si>
+  <si>
+    <t>Entwurf Maske "Stundenplan anzeigen"</t>
+  </si>
+  <si>
+    <t>Entwurf "restl. Masken" (Anmeldung, Stundenplan erstellen, Laden)</t>
+  </si>
+  <si>
+    <t>Implementierung "restl. Masken" (Anmeldung, Stundenplan erstellen, Laden)</t>
+  </si>
+  <si>
+    <t>Implementierung UseCase "Zeitpraeferenzen der Dozenten erfassen"</t>
+  </si>
+  <si>
+    <t>Use Case "Zeitpraeferenzen angeben" definieren und spezifzieren(nur Ablauf)</t>
+  </si>
+  <si>
+    <t>Implementierung UseCase "Stundenplan erstellen"</t>
+  </si>
+  <si>
+    <t>Implementierung UseCase "Stundenplan anzeigen"</t>
+  </si>
+  <si>
+    <t>D3.3</t>
+  </si>
+  <si>
+    <t>D3.4</t>
+  </si>
+  <si>
+    <t>D3.5</t>
+  </si>
+  <si>
+    <t>D3.6</t>
+  </si>
+  <si>
+    <t>D3.7</t>
+  </si>
+  <si>
+    <t>D3.8</t>
+  </si>
+  <si>
+    <t>D3.9</t>
+  </si>
+  <si>
+    <t>D3.10</t>
+  </si>
+  <si>
+    <t>D3.11</t>
+  </si>
+  <si>
+    <t>Application Function "Zeiten Speichern" definieren und spezifizieren</t>
+  </si>
+  <si>
+    <t>Application Function "Zeitpraeferenzen bereitstellen" definieren und spezifizieren</t>
+  </si>
+  <si>
+    <t>Application Function "Dozentenliste anzeigen" definieren und spezifizieren</t>
+  </si>
+  <si>
+    <t>Application Function "Vergleich Raumgroesse mit Teilnehmer" definieren und spezifizieren</t>
+  </si>
+  <si>
+    <t>Application Function "Stundenplan speichern" definieren und spezifizieren</t>
+  </si>
+  <si>
+    <t>Application Function "Stundenplan berechnen" definieren und spezifizieren</t>
+  </si>
+  <si>
+    <t>Application Function "Stundenplan anzeigen" definieren und spezifizieren</t>
+  </si>
+  <si>
+    <t>Application Function "Studiengaenge bereitstellen" definieren und spezifizieren</t>
+  </si>
+  <si>
+    <t>Application Function "Raeume bereitstellen" definieren und spezifizieren</t>
+  </si>
+  <si>
+    <t>Application Function "Module bereitstellen" definieren und spezifizieren</t>
+  </si>
+  <si>
+    <t>Application Function "Dozenten bereitstellen" definieren und spezifizieren</t>
+  </si>
+  <si>
+    <t>F2.7</t>
+  </si>
+  <si>
+    <t>F2.8</t>
+  </si>
+  <si>
+    <t>F2.9</t>
+  </si>
+  <si>
+    <t>F2.10</t>
+  </si>
+  <si>
+    <t>F2.11</t>
+  </si>
+  <si>
+    <t>F2.12</t>
+  </si>
+  <si>
+    <t>F2.13</t>
+  </si>
+  <si>
+    <t>F2.14</t>
+  </si>
+  <si>
+    <t>Implementierung Application Function "Stundenplan berechnen"</t>
+  </si>
+  <si>
+    <t>Implementierung Application Function "Stundenplan anzeigen"</t>
+  </si>
+  <si>
+    <t>Implementierung Application Function "Studiengaenge bereitstellen"</t>
+  </si>
+  <si>
+    <t>Implementierung Application Function "Raeume bereitstellen"</t>
+  </si>
+  <si>
+    <t>Implementierung Application Function "Module bereitstellen"</t>
+  </si>
+  <si>
+    <t>Implementierung Application Function "Dozenten bereitstellen"</t>
+  </si>
+  <si>
+    <t>Implementierung Application Function "Stundenplan speichern"</t>
+  </si>
+  <si>
+    <t>Implementierung Application Function "Zeiten Speichern"</t>
+  </si>
+  <si>
+    <t>Implementierung Application Function "Zeitpraeferenzen bereitstellen"</t>
+  </si>
+  <si>
+    <t>Implementierung Application Function "Dozentenliste anzeigen"</t>
+  </si>
+  <si>
+    <t>Implementierung Application Function "Vergleich Raumgroesse mit Teilnehmer"</t>
+  </si>
+  <si>
+    <t>Termin- und Meilensteinplanung (samt Aktualisierungen)</t>
+  </si>
+  <si>
+    <t>erreichter Meilenstein</t>
+  </si>
+  <si>
+    <t>Meilenstein (Planung)</t>
   </si>
 </sst>
 </file>
@@ -808,7 +901,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -824,6 +917,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
       </patternFill>
     </fill>
   </fills>
@@ -969,11 +1067,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1002,9 +1101,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1034,20 +1143,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Akzent1" xfId="1" builtinId="29"/>
+    <cellStyle name="Akzent3" xfId="2" builtinId="37"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1347,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1358,7 +1461,7 @@
     <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="83.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
@@ -1385,701 +1488,747 @@
         <v>55</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="17"/>
+        <v>206</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B4" s="15"/>
-      <c r="C4" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="15" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="5" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" s="15"/>
-      <c r="C5" s="17"/>
       <c r="D5" s="15" t="s">
-        <v>148</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>63</v>
+      <c r="A6" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="B6" s="15"/>
-      <c r="D6" s="15" t="s">
-        <v>73</v>
+      <c r="C6" s="15"/>
+      <c r="D6" s="19" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>193</v>
+      <c r="A7" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="19" t="s">
-        <v>190</v>
-      </c>
+      <c r="C7" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="9" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15" t="s">
-        <v>146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15" t="s">
-        <v>0</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15" t="s">
-        <v>149</v>
-      </c>
+      <c r="C11" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="B12" s="15"/>
-      <c r="C12" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="D12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="13" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15" t="s">
-        <v>223</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="B17" s="15"/>
-      <c r="C17" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="15"/>
+      <c r="D17" s="15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>155</v>
+        <v>67</v>
       </c>
       <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>69</v>
+        <v>177</v>
       </c>
       <c r="B21" s="15"/>
-      <c r="C21" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="D21" s="15"/>
-    </row>
-    <row r="22" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>188</v>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>195</v>
+        <v>68</v>
       </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>226</v>
+        <v>154</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>165</v>
+        <v>236</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>133</v>
+        <v>237</v>
       </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>167</v>
+        <v>238</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>141</v>
+        <v>240</v>
       </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D43" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>157</v>
+        <v>241</v>
       </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>160</v>
+        <v>242</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>169</v>
+        <v>243</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C48" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="D48" s="1"/>
-      <c r="E48" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="B49" s="1"/>
-      <c r="C49" t="s">
-        <v>176</v>
-      </c>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>181</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="s">
+        <v>197</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1" t="s">
-        <v>177</v>
+        <v>162</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" t="s">
+        <v>165</v>
       </c>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C55" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="B59" s="1"/>
-      <c r="C59" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>185</v>
+        <v>257</v>
       </c>
       <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D63" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>170</v>
+        <v>258</v>
       </c>
       <c r="B64" s="1"/>
-      <c r="C64" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>184</v>
+        <v>259</v>
       </c>
       <c r="B65" s="1"/>
-      <c r="C65" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>201</v>
+        <v>260</v>
       </c>
       <c r="B66" s="1"/>
-      <c r="C66" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
+      <c r="A67" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
+      <c r="D67" s="1" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
+      <c r="A68" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+      <c r="D68" s="1" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
+      <c r="A69" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+      <c r="D69" s="1" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
+      <c r="A70" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
+      <c r="C70" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="D70" s="1"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
+      <c r="A71" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
+      <c r="D71" s="1" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
+      <c r="A72" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+      <c r="D72" s="1" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
+      <c r="A73" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+      <c r="D73" s="1" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
+      <c r="A74" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D76" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2089,17 +2238,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -2129,10 +2278,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2141,11 +2290,11 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="15" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -2160,11 +2309,11 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -2173,17 +2322,17 @@
         <v>2</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" ref="F5:F59" si="0">D5-E5</f>
+        <f t="shared" ref="F5:F76" si="0">D5-E5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="19" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -2198,10 +2347,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="1"/>
@@ -2210,11 +2359,11 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D8" s="1">
         <v>6</v>
@@ -2229,7 +2378,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15" t="s">
@@ -2248,11 +2397,11 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15" t="s">
-        <v>149</v>
+        <v>275</v>
       </c>
       <c r="D10" s="1">
         <v>6</v>
@@ -2267,10 +2416,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="1"/>
@@ -2279,28 +2428,30 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="D12" s="1">
         <v>4</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <v>4</v>
+      </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="D13" s="1">
         <v>4</v>
@@ -2313,11 +2464,11 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="D14" s="1">
         <v>4</v>
@@ -2330,10 +2481,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="1"/>
@@ -2342,11 +2493,11 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D16" s="1">
         <v>5</v>
@@ -2361,11 +2512,11 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D17" s="1">
         <v>5</v>
@@ -2380,11 +2531,11 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D18" s="1">
         <v>8</v>
@@ -2399,10 +2550,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="1"/>
@@ -2414,28 +2565,30 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D20" s="1">
         <v>6</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <v>6</v>
+      </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D21" s="1">
         <v>10</v>
@@ -2448,10 +2601,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2460,78 +2613,86 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23" s="1">
         <v>8</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1">
+        <v>8</v>
+      </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24" s="1">
         <v>6</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1">
+        <v>6</v>
+      </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25" s="1">
         <v>6</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1">
+        <v>6</v>
+      </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2540,28 +2701,30 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D28" s="1">
         <v>8</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1">
+        <v>8</v>
+      </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D29" s="1">
         <v>10</v>
@@ -2574,10 +2737,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="D30" s="1">
         <v>8</v>
@@ -2590,10 +2753,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2602,78 +2765,86 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="D32" s="1">
-        <v>6</v>
-      </c>
-      <c r="E32" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E32" s="1">
+        <v>4</v>
+      </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c r="D33" s="1">
-        <v>6</v>
-      </c>
-      <c r="E33" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="D34" s="1">
-        <v>6</v>
-      </c>
-      <c r="E34" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E34" s="1">
+        <v>4</v>
+      </c>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>161</v>
+        <v>225</v>
       </c>
       <c r="D35" s="1">
-        <v>6</v>
-      </c>
-      <c r="E35" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E35" s="1">
+        <v>4</v>
+      </c>
       <c r="F35" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2682,512 +2853,689 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>166</v>
+        <v>245</v>
       </c>
       <c r="D37" s="1">
-        <v>6</v>
-      </c>
-      <c r="E37" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E37" s="1">
+        <v>4</v>
+      </c>
       <c r="F37" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>166</v>
+        <v>246</v>
       </c>
       <c r="D38" s="1">
-        <v>6</v>
-      </c>
-      <c r="E38" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E38" s="1">
+        <v>4</v>
+      </c>
       <c r="F38" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+        <v>236</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D39" s="1">
+        <v>4</v>
+      </c>
+      <c r="E39" s="1">
+        <v>4</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>160</v>
+        <v>237</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D40" s="1">
-        <v>8</v>
-      </c>
-      <c r="E40" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E40" s="1">
+        <v>4</v>
+      </c>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>169</v>
+        <v>238</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>159</v>
+        <v>249</v>
       </c>
       <c r="D41" s="1">
-        <v>8</v>
-      </c>
-      <c r="E41" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E41" s="1">
+        <v>4</v>
+      </c>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
-        <v>215</v>
+      <c r="A42" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>159</v>
+        <v>250</v>
       </c>
       <c r="D42" s="1">
-        <v>8</v>
-      </c>
-      <c r="E42" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E42" s="1">
+        <v>4</v>
+      </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B43" t="s">
-        <v>176</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+        <v>240</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D43" s="1">
+        <v>4</v>
+      </c>
+      <c r="E43" s="1">
+        <v>4</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>178</v>
+        <v>252</v>
       </c>
       <c r="D44" s="1">
-        <v>15</v>
-      </c>
-      <c r="E44" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E44" s="1">
+        <v>4</v>
+      </c>
       <c r="F44" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>181</v>
+        <v>242</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="D45" s="1">
-        <v>34</v>
-      </c>
-      <c r="E45" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E45" s="1">
+        <v>4</v>
+      </c>
       <c r="F45" s="1">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+        <v>243</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D46" s="1">
+        <v>4</v>
+      </c>
+      <c r="E46" s="1">
+        <v>4</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>182</v>
+        <v>244</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="D47" s="1">
-        <v>30</v>
-      </c>
-      <c r="E47" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E47" s="1">
+        <v>4</v>
+      </c>
       <c r="F47" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D48" s="1">
-        <v>30</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
+      <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="D49" s="1">
-        <v>30</v>
-      </c>
-      <c r="E49" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="E49" s="1">
+        <v>8</v>
+      </c>
       <c r="F49" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>208</v>
+        <v>158</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="D50" s="1">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>209</v>
+      <c r="A51" s="20" t="s">
+        <v>197</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="D51" s="1">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D52" s="1">
-        <v>30</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="B52" t="s">
+        <v>165</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
+      <c r="F52" s="1"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+        <v>169</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" s="1">
+        <v>15</v>
+      </c>
       <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
+      <c r="F53" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>245</v>
+        <v>168</v>
       </c>
       <c r="D54" s="1">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D55" s="1">
-        <v>25</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="1">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
+      <c r="F55" s="1"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>214</v>
+        <v>171</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="D56" s="1">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C57" s="1"/>
+        <v>172</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1" t="s">
+        <v>234</v>
+      </c>
       <c r="D57" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C58" s="1"/>
+        <v>191</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="D58" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C59" s="1"/>
+        <v>192</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="D59" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="C60" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D60" s="1">
+        <v>12</v>
+      </c>
       <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
+      <c r="F60" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
+      <c r="A61" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+      <c r="C61" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D61" s="1">
+        <v>12</v>
+      </c>
       <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
+      <c r="F61" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
+      <c r="A62" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+      <c r="C62" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D62" s="1">
+        <v>12</v>
+      </c>
       <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
+      <c r="F62" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
+      <c r="A63" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+      <c r="C63" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D63" s="1">
+        <v>12</v>
+      </c>
       <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
+      <c r="F63" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
+      <c r="A64" s="1" t="s">
+        <v>258</v>
+      </c>
       <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+      <c r="C64" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D64" s="1">
+        <v>20</v>
+      </c>
       <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
+      <c r="F64" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
+      <c r="A65" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
+      <c r="C65" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D65" s="1">
+        <v>12</v>
+      </c>
       <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
+      <c r="F65" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
+      <c r="A66" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+      <c r="C66" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D66" s="1">
+        <v>12</v>
+      </c>
       <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
+      <c r="F66" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
+      <c r="A67" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
+      <c r="C67" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D67" s="1">
+        <v>12</v>
+      </c>
       <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
+      <c r="F67" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
+      <c r="A68" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+      <c r="C68" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D68" s="1">
+        <v>12</v>
+      </c>
       <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
+      <c r="F68" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
+      <c r="A69" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+      <c r="C69" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D69" s="1">
+        <v>12</v>
+      </c>
       <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
+      <c r="F69" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
+      <c r="A70" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
+      <c r="A71" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
+      <c r="C71" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D71" s="1">
+        <v>25</v>
+      </c>
       <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
+      <c r="F71" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
+      <c r="A72" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+      <c r="C72" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D72" s="1">
+        <v>25</v>
+      </c>
       <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
+      <c r="F72" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
+      <c r="A73" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+      <c r="C73" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D73" s="1">
+        <v>25</v>
+      </c>
       <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
+      <c r="F73" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
+      <c r="A74" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
+      <c r="D74" s="1">
+        <v>4</v>
+      </c>
       <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
+      <c r="F74" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
+      <c r="A75" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
+      <c r="D75" s="1">
+        <v>10</v>
+      </c>
       <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
+      <c r="F75" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
+      <c r="A76" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+      <c r="D76" s="1">
+        <v>5</v>
+      </c>
       <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
+      <c r="F76" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3251,17 +3599,153 @@
       <c r="F84" s="1"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D85">
-        <f>SUM(D3:D84)</f>
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <f>SUM(D3:D101)</f>
         <v>520</v>
       </c>
-      <c r="E85">
-        <f>SUM(E3:E84)</f>
-        <v>41</v>
-      </c>
-      <c r="F85">
-        <f>SUM(F3:F84)</f>
-        <v>479</v>
+      <c r="E102">
+        <f>SUM(E3:E101)</f>
+        <v>146</v>
+      </c>
+      <c r="F102">
+        <f>SUM(F3:F101)</f>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -3311,7 +3795,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>46</v>
@@ -3323,12 +3807,12 @@
         <v>37</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>47</v>
@@ -3340,12 +3824,12 @@
         <v>37</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>48</v>
@@ -3357,12 +3841,12 @@
         <v>37</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>49</v>
@@ -3374,15 +3858,15 @@
         <v>37</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>25</v>
@@ -3391,7 +3875,7 @@
         <v>37</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3415,146 +3899,146 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V72"/>
+  <dimension ref="A1:V83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="32" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="83.85546875" style="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="32" t="s">
         <v>40</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="P2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="22" t="s">
+      <c r="Q2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="R2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="22" t="s">
+      <c r="S2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="22" t="s">
+      <c r="T2" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
     </row>
     <row r="3" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="25"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="33"/>
       <c r="H3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="str">
+      <c r="A4" s="22" t="str">
         <f>IF(Aufwandsplan!A3&lt;&gt;0, Aufwandsplan!A3, "")</f>
         <v>A1</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="C4" s="34" t="str">
+      <c r="B4" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="22" t="str">
         <f>IF(Aufwandsplan!B3&lt;&gt;0, Aufwandsplan!B3, "")</f>
         <v>Kick-Off Meeting</v>
       </c>
-      <c r="D4" s="34" t="str">
+      <c r="D4" s="22" t="str">
         <f>IF(Aufwandsplan!C3&lt;&gt;0, Aufwandsplan!C3, "")</f>
         <v/>
       </c>
-      <c r="E4" s="34" t="str">
+      <c r="E4" s="22" t="str">
         <f>IF(Aufwandsplan!D3&lt;&gt;0, Aufwandsplan!D3, "")</f>
         <v/>
       </c>
-      <c r="F4" s="34" t="str">
+      <c r="F4" s="22" t="str">
         <f>IF(Aufwandsplan!E3&lt;&gt;0, Aufwandsplan!E3, "")</f>
         <v/>
       </c>
-      <c r="G4" s="36" t="str">
+      <c r="G4" s="24" t="str">
         <f>IF(Aufwandsplan!F3&lt;&gt;0, Aufwandsplan!F3, "")</f>
         <v/>
       </c>
       <c r="H4" s="7"/>
-      <c r="I4" s="38"/>
+      <c r="I4" s="40"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -3568,36 +4052,36 @@
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="str">
+      <c r="A5" s="22" t="str">
         <f>IF(Aufwandsplan!A4&lt;&gt;0, Aufwandsplan!A4, "")</f>
         <v>A1.1</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="C5" s="34" t="str">
+      <c r="B5" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="22" t="str">
         <f>IF(Aufwandsplan!B4&lt;&gt;0, Aufwandsplan!B4, "")</f>
         <v/>
       </c>
-      <c r="D5" s="34" t="str">
+      <c r="D5" s="22" t="str">
         <f>IF(Aufwandsplan!C4&lt;&gt;0, Aufwandsplan!C4, "")</f>
         <v>Rollen aufteilen/Teamplan</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="22">
         <f>IF(Aufwandsplan!D4&lt;&gt;0, Aufwandsplan!D4, "")</f>
         <v>2</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="22">
         <f>IF(Aufwandsplan!E4&lt;&gt;0, Aufwandsplan!E4, "")</f>
         <v>2</v>
       </c>
-      <c r="G5" s="36" t="str">
+      <c r="G5" s="24" t="str">
         <f>IF(Aufwandsplan!F4&lt;&gt;0, Aufwandsplan!F4, "")</f>
         <v/>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -3612,36 +4096,36 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="str">
+      <c r="A6" s="22" t="str">
         <f>IF(Aufwandsplan!A5&lt;&gt;0, Aufwandsplan!A5, "")</f>
         <v>A1.2</v>
       </c>
-      <c r="B6" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="C6" s="34" t="str">
+      <c r="B6" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="22" t="str">
         <f>IF(Aufwandsplan!B5&lt;&gt;0, Aufwandsplan!B5, "")</f>
         <v/>
       </c>
-      <c r="D6" s="34" t="str">
+      <c r="D6" s="22" t="str">
         <f>IF(Aufwandsplan!C5&lt;&gt;0, Aufwandsplan!C5, "")</f>
         <v>Github Schulung von Philip Dauwe</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="22">
         <f>IF(Aufwandsplan!D5&lt;&gt;0, Aufwandsplan!D5, "")</f>
         <v>2</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="22">
         <f>IF(Aufwandsplan!E5&lt;&gt;0, Aufwandsplan!E5, "")</f>
         <v>2</v>
       </c>
-      <c r="G6" s="36" t="str">
+      <c r="G6" s="24" t="str">
         <f>IF(Aufwandsplan!F5&lt;&gt;0, Aufwandsplan!F5, "")</f>
         <v/>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -3656,36 +4140,36 @@
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="str">
+      <c r="A7" s="22" t="str">
         <f>IF(Aufwandsplan!A6&lt;&gt;0, Aufwandsplan!A6, "")</f>
         <v>A1.3</v>
       </c>
-      <c r="B7" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="C7" s="34" t="str">
+      <c r="B7" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="22" t="str">
         <f>IF(Aufwandsplan!B6&lt;&gt;0, Aufwandsplan!B6, "")</f>
         <v/>
       </c>
-      <c r="D7" s="34" t="str">
+      <c r="D7" s="22" t="str">
         <f>IF(Aufwandsplan!C6&lt;&gt;0, Aufwandsplan!C6, "")</f>
         <v>Serverspezifikation und -beantragung</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="22">
         <f>IF(Aufwandsplan!D6&lt;&gt;0, Aufwandsplan!D6, "")</f>
         <v>2</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="22">
         <f>IF(Aufwandsplan!E6&lt;&gt;0, Aufwandsplan!E6, "")</f>
         <v>2</v>
       </c>
-      <c r="G7" s="36" t="str">
+      <c r="G7" s="24" t="str">
         <f>IF(Aufwandsplan!F6&lt;&gt;0, Aufwandsplan!F6, "")</f>
         <v/>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -3700,37 +4184,37 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="str">
+      <c r="A8" s="22" t="str">
         <f>IF(Aufwandsplan!A7&lt;&gt;0, Aufwandsplan!A7, "")</f>
         <v>A2</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="C8" s="39" t="str">
+      <c r="B8" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="43" t="str">
         <f>IF(Aufwandsplan!B7&lt;&gt;0, Aufwandsplan!B7, "")</f>
         <v>Projektplanung</v>
       </c>
-      <c r="D8" s="34" t="str">
+      <c r="D8" s="22" t="str">
         <f>IF(Aufwandsplan!C7&lt;&gt;0, Aufwandsplan!C7, "")</f>
         <v/>
       </c>
-      <c r="E8" s="34" t="str">
+      <c r="E8" s="22" t="str">
         <f>IF(Aufwandsplan!D7&lt;&gt;0, Aufwandsplan!D7, "")</f>
         <v/>
       </c>
-      <c r="F8" s="34" t="str">
+      <c r="F8" s="22" t="str">
         <f>IF(Aufwandsplan!E7&lt;&gt;0, Aufwandsplan!E7, "")</f>
         <v/>
       </c>
-      <c r="G8" s="36" t="str">
+      <c r="G8" s="24" t="str">
         <f>IF(Aufwandsplan!F7&lt;&gt;0, Aufwandsplan!F7, "")</f>
         <v/>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="38"/>
+      <c r="K8" s="42"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -3742,40 +4226,40 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="str">
+      <c r="A9" s="22" t="str">
         <f>IF(Aufwandsplan!A8&lt;&gt;0, Aufwandsplan!A8, "")</f>
         <v>A2.1</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="C9" s="34" t="str">
+      <c r="B9" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="22" t="str">
         <f>IF(Aufwandsplan!B8&lt;&gt;0, Aufwandsplan!B8, "")</f>
         <v/>
       </c>
-      <c r="D9" s="34" t="str">
+      <c r="D9" s="22" t="str">
         <f>IF(Aufwandsplan!C8&lt;&gt;0, Aufwandsplan!C8, "")</f>
         <v>Grober Struktur-/Aufwandsplan</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="22">
         <f>IF(Aufwandsplan!D8&lt;&gt;0, Aufwandsplan!D8, "")</f>
         <v>6</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="22">
         <f>IF(Aufwandsplan!E8&lt;&gt;0, Aufwandsplan!E8, "")</f>
         <v>6</v>
       </c>
-      <c r="G9" s="36" t="str">
+      <c r="G9" s="24" t="str">
         <f>IF(Aufwandsplan!F8&lt;&gt;0, Aufwandsplan!F8, "")</f>
         <v/>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -3788,37 +4272,37 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="str">
+      <c r="A10" s="22" t="str">
         <f>IF(Aufwandsplan!A9&lt;&gt;0, Aufwandsplan!A9, "")</f>
         <v>A2.2</v>
       </c>
-      <c r="B10" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="C10" s="34" t="str">
+      <c r="B10" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="22" t="str">
         <f>IF(Aufwandsplan!B9&lt;&gt;0, Aufwandsplan!B9, "")</f>
         <v/>
       </c>
-      <c r="D10" s="34" t="str">
+      <c r="D10" s="22" t="str">
         <f>IF(Aufwandsplan!C9&lt;&gt;0, Aufwandsplan!C9, "")</f>
         <v>Risikoliste</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="22">
         <f>IF(Aufwandsplan!D9&lt;&gt;0, Aufwandsplan!D9, "")</f>
         <v>5</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="22">
         <f>IF(Aufwandsplan!E9&lt;&gt;0, Aufwandsplan!E9, "")</f>
         <v>5</v>
       </c>
-      <c r="G10" s="36" t="str">
+      <c r="G10" s="24" t="str">
         <f>IF(Aufwandsplan!F9&lt;&gt;0, Aufwandsplan!F9, "")</f>
         <v/>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -3832,30 +4316,30 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="str">
+      <c r="A11" s="22" t="str">
         <f>IF(Aufwandsplan!A10&lt;&gt;0, Aufwandsplan!A10, "")</f>
         <v>A2.3</v>
       </c>
-      <c r="B11" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="C11" s="34" t="str">
+      <c r="B11" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11" s="22" t="str">
         <f>IF(Aufwandsplan!B10&lt;&gt;0, Aufwandsplan!B10, "")</f>
         <v/>
       </c>
-      <c r="D11" s="34" t="str">
+      <c r="D11" s="22" t="str">
         <f>IF(Aufwandsplan!C10&lt;&gt;0, Aufwandsplan!C10, "")</f>
-        <v>Termin- und Meilensteinplanung</v>
-      </c>
-      <c r="E11" s="34">
+        <v>Termin- und Meilensteinplanung (samt Aktualisierungen)</v>
+      </c>
+      <c r="E11" s="22">
         <f>IF(Aufwandsplan!D10&lt;&gt;0, Aufwandsplan!D10, "")</f>
         <v>6</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="22">
         <f>IF(Aufwandsplan!E10&lt;&gt;0, Aufwandsplan!E10, "")</f>
         <v>6</v>
       </c>
-      <c r="G11" s="36" t="str">
+      <c r="G11" s="24" t="str">
         <f>IF(Aufwandsplan!F10&lt;&gt;0, Aufwandsplan!F10, "")</f>
         <v/>
       </c>
@@ -3863,7 +4347,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -3876,30 +4360,30 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="str">
+      <c r="A12" s="22" t="str">
         <f>IF(Aufwandsplan!A11&lt;&gt;0, Aufwandsplan!A11, "")</f>
         <v>A3</v>
       </c>
-      <c r="B12" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="C12" s="34" t="str">
+      <c r="B12" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="C12" s="22" t="str">
         <f>IF(Aufwandsplan!B11&lt;&gt;0, Aufwandsplan!B11, "")</f>
         <v>Dokumentation</v>
       </c>
-      <c r="D12" s="34" t="str">
+      <c r="D12" s="22" t="str">
         <f>IF(Aufwandsplan!C11&lt;&gt;0, Aufwandsplan!C11, "")</f>
         <v/>
       </c>
-      <c r="E12" s="34" t="str">
+      <c r="E12" s="22" t="str">
         <f>IF(Aufwandsplan!D11&lt;&gt;0, Aufwandsplan!D11, "")</f>
         <v/>
       </c>
-      <c r="F12" s="34" t="str">
+      <c r="F12" s="22" t="str">
         <f>IF(Aufwandsplan!E11&lt;&gt;0, Aufwandsplan!E11, "")</f>
         <v/>
       </c>
-      <c r="G12" s="36" t="str">
+      <c r="G12" s="24" t="str">
         <f>IF(Aufwandsplan!F11&lt;&gt;0, Aufwandsplan!F11, "")</f>
         <v/>
       </c>
@@ -3918,44 +4402,46 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="str">
+      <c r="A13" s="22" t="str">
         <f>IF(Aufwandsplan!A12&lt;&gt;0, Aufwandsplan!A12, "")</f>
         <v>A3.1</v>
       </c>
-      <c r="B13" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="C13" s="34" t="str">
+      <c r="B13" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="22" t="str">
         <f>IF(Aufwandsplan!B12&lt;&gt;0, Aufwandsplan!B12, "")</f>
         <v/>
       </c>
-      <c r="D13" s="34" t="str">
+      <c r="D13" s="22" t="str">
         <f>IF(Aufwandsplan!C12&lt;&gt;0, Aufwandsplan!C12, "")</f>
         <v>Präsentation 1 erstellen</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="22">
         <f>IF(Aufwandsplan!D12&lt;&gt;0, Aufwandsplan!D12, "")</f>
         <v>4</v>
       </c>
-      <c r="F13" s="34" t="str">
+      <c r="F13" s="22">
         <f>IF(Aufwandsplan!E12&lt;&gt;0, Aufwandsplan!E12, "")</f>
-        <v/>
-      </c>
-      <c r="G13" s="36">
+        <v>4</v>
+      </c>
+      <c r="G13" s="24" t="str">
         <f>IF(Aufwandsplan!F12&lt;&gt;0, Aufwandsplan!F12, "")</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="N13" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -3964,30 +4450,30 @@
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="str">
+      <c r="A14" s="22" t="str">
         <f>IF(Aufwandsplan!A13&lt;&gt;0, Aufwandsplan!A13, "")</f>
         <v>A3.2</v>
       </c>
-      <c r="B14" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="C14" s="34" t="str">
+      <c r="B14" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="C14" s="22" t="str">
         <f>IF(Aufwandsplan!B13&lt;&gt;0, Aufwandsplan!B13, "")</f>
         <v/>
       </c>
-      <c r="D14" s="34" t="str">
+      <c r="D14" s="22" t="str">
         <f>IF(Aufwandsplan!C13&lt;&gt;0, Aufwandsplan!C13, "")</f>
         <v>Präsentation 2 erstellen</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="22">
         <f>IF(Aufwandsplan!D13&lt;&gt;0, Aufwandsplan!D13, "")</f>
         <v>4</v>
       </c>
-      <c r="F14" s="34" t="str">
+      <c r="F14" s="22" t="str">
         <f>IF(Aufwandsplan!E13&lt;&gt;0, Aufwandsplan!E13, "")</f>
         <v/>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="24">
         <f>IF(Aufwandsplan!F13&lt;&gt;0, Aufwandsplan!F13, "")</f>
         <v>4</v>
       </c>
@@ -4006,30 +4492,30 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="str">
+      <c r="A15" s="22" t="str">
         <f>IF(Aufwandsplan!A14&lt;&gt;0, Aufwandsplan!A14, "")</f>
         <v>A3.3</v>
       </c>
-      <c r="B15" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="C15" s="34" t="str">
+      <c r="B15" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" s="22" t="str">
         <f>IF(Aufwandsplan!B14&lt;&gt;0, Aufwandsplan!B14, "")</f>
         <v/>
       </c>
-      <c r="D15" s="34" t="str">
+      <c r="D15" s="22" t="str">
         <f>IF(Aufwandsplan!C14&lt;&gt;0, Aufwandsplan!C14, "")</f>
         <v>Präsentation 3 erstellen</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="22">
         <f>IF(Aufwandsplan!D14&lt;&gt;0, Aufwandsplan!D14, "")</f>
         <v>4</v>
       </c>
-      <c r="F15" s="34" t="str">
+      <c r="F15" s="22" t="str">
         <f>IF(Aufwandsplan!E14&lt;&gt;0, Aufwandsplan!E14, "")</f>
         <v/>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="24">
         <f>IF(Aufwandsplan!F14&lt;&gt;0, Aufwandsplan!F14, "")</f>
         <v>4</v>
       </c>
@@ -4048,30 +4534,30 @@
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="str">
+      <c r="A16" s="22" t="str">
         <f>IF(Aufwandsplan!A15&lt;&gt;0, Aufwandsplan!A15, "")</f>
         <v>B1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="39" t="str">
+        <v>126</v>
+      </c>
+      <c r="C16" s="43" t="str">
         <f>IF(Aufwandsplan!B15&lt;&gt;0, Aufwandsplan!B15, "")</f>
         <v>QM-Plan</v>
       </c>
-      <c r="D16" s="34" t="str">
+      <c r="D16" s="22" t="str">
         <f>IF(Aufwandsplan!C15&lt;&gt;0, Aufwandsplan!C15, "")</f>
         <v/>
       </c>
-      <c r="E16" s="34" t="str">
+      <c r="E16" s="22" t="str">
         <f>IF(Aufwandsplan!D15&lt;&gt;0, Aufwandsplan!D15, "")</f>
         <v/>
       </c>
-      <c r="F16" s="34" t="str">
+      <c r="F16" s="22" t="str">
         <f>IF(Aufwandsplan!E15&lt;&gt;0, Aufwandsplan!E15, "")</f>
         <v/>
       </c>
-      <c r="G16" s="36" t="str">
+      <c r="G16" s="24" t="str">
         <f>IF(Aufwandsplan!F15&lt;&gt;0, Aufwandsplan!F15, "")</f>
         <v/>
       </c>
@@ -4080,7 +4566,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="38"/>
+      <c r="M16" s="42"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -4090,37 +4576,37 @@
       <c r="T16" s="1"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="str">
+      <c r="A17" s="22" t="str">
         <f>IF(Aufwandsplan!A16&lt;&gt;0, Aufwandsplan!A16, "")</f>
         <v>B1.1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="34" t="str">
+        <v>126</v>
+      </c>
+      <c r="C17" s="22" t="str">
         <f>IF(Aufwandsplan!B16&lt;&gt;0, Aufwandsplan!B16, "")</f>
         <v/>
       </c>
-      <c r="D17" s="34" t="str">
+      <c r="D17" s="22" t="str">
         <f>IF(Aufwandsplan!C16&lt;&gt;0, Aufwandsplan!C16, "")</f>
         <v>Qualitätsziele bestimmen</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="22">
         <f>IF(Aufwandsplan!D16&lt;&gt;0, Aufwandsplan!D16, "")</f>
         <v>5</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="22">
         <f>IF(Aufwandsplan!E16&lt;&gt;0, Aufwandsplan!E16, "")</f>
         <v>5</v>
       </c>
-      <c r="G17" s="36" t="str">
+      <c r="G17" s="24" t="str">
         <f>IF(Aufwandsplan!F16&lt;&gt;0, Aufwandsplan!F16, "")</f>
         <v/>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -4134,40 +4620,40 @@
       <c r="T17" s="1"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="str">
+      <c r="A18" s="22" t="str">
         <f>IF(Aufwandsplan!A17&lt;&gt;0, Aufwandsplan!A17, "")</f>
         <v>B1.2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="34" t="str">
+        <v>126</v>
+      </c>
+      <c r="C18" s="22" t="str">
         <f>IF(Aufwandsplan!B17&lt;&gt;0, Aufwandsplan!B17, "")</f>
         <v/>
       </c>
-      <c r="D18" s="34" t="str">
+      <c r="D18" s="22" t="str">
         <f>IF(Aufwandsplan!C17&lt;&gt;0, Aufwandsplan!C17, "")</f>
         <v>Qualitätskriterien aufstellen</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="22">
         <f>IF(Aufwandsplan!D17&lt;&gt;0, Aufwandsplan!D17, "")</f>
         <v>5</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="22">
         <f>IF(Aufwandsplan!E17&lt;&gt;0, Aufwandsplan!E17, "")</f>
         <v>5</v>
       </c>
-      <c r="G18" s="36" t="str">
+      <c r="G18" s="24" t="str">
         <f>IF(Aufwandsplan!F17&lt;&gt;0, Aufwandsplan!F17, "")</f>
         <v/>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -4180,30 +4666,30 @@
       <c r="T18" s="1"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="str">
+      <c r="A19" s="22" t="str">
         <f>IF(Aufwandsplan!A18&lt;&gt;0, Aufwandsplan!A18, "")</f>
         <v>B1.3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" s="34" t="str">
+        <v>126</v>
+      </c>
+      <c r="C19" s="22" t="str">
         <f>IF(Aufwandsplan!B18&lt;&gt;0, Aufwandsplan!B18, "")</f>
         <v/>
       </c>
-      <c r="D19" s="34" t="str">
+      <c r="D19" s="22" t="str">
         <f>IF(Aufwandsplan!C18&lt;&gt;0, Aufwandsplan!C18, "")</f>
         <v>Qualitätsmaßnahmen bestimmen</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="22">
         <f>IF(Aufwandsplan!D18&lt;&gt;0, Aufwandsplan!D18, "")</f>
         <v>8</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="22">
         <f>IF(Aufwandsplan!E18&lt;&gt;0, Aufwandsplan!E18, "")</f>
         <v>8</v>
       </c>
-      <c r="G19" s="36" t="str">
+      <c r="G19" s="24" t="str">
         <f>IF(Aufwandsplan!F18&lt;&gt;0, Aufwandsplan!F18, "")</f>
         <v/>
       </c>
@@ -4212,7 +4698,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -4224,30 +4710,30 @@
       <c r="T19" s="1"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="str">
+      <c r="A20" s="22" t="str">
         <f>IF(Aufwandsplan!A19&lt;&gt;0, Aufwandsplan!A19, "")</f>
         <v>B2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="34" t="str">
+        <v>126</v>
+      </c>
+      <c r="C20" s="22" t="str">
         <f>IF(Aufwandsplan!B19&lt;&gt;0, Aufwandsplan!B19, "")</f>
         <v>Abnahmekriterien/Testdurchführung</v>
       </c>
-      <c r="D20" s="34" t="str">
+      <c r="D20" s="22" t="str">
         <f>IF(Aufwandsplan!C19&lt;&gt;0, Aufwandsplan!C19, "")</f>
         <v/>
       </c>
-      <c r="E20" s="34" t="str">
+      <c r="E20" s="22" t="str">
         <f>IF(Aufwandsplan!D19&lt;&gt;0, Aufwandsplan!D19, "")</f>
         <v/>
       </c>
-      <c r="F20" s="34" t="str">
+      <c r="F20" s="22" t="str">
         <f>IF(Aufwandsplan!E19&lt;&gt;0, Aufwandsplan!E19, "")</f>
         <v/>
       </c>
-      <c r="G20" s="36" t="str">
+      <c r="G20" s="24" t="str">
         <f>IF(Aufwandsplan!F19&lt;&gt;0, Aufwandsplan!F19, "")</f>
         <v/>
       </c>
@@ -4266,32 +4752,32 @@
       <c r="T20" s="1"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="str">
+      <c r="A21" s="22" t="str">
         <f>IF(Aufwandsplan!A20&lt;&gt;0, Aufwandsplan!A20, "")</f>
         <v>B2.1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" s="34" t="str">
+        <v>126</v>
+      </c>
+      <c r="C21" s="22" t="str">
         <f>IF(Aufwandsplan!B20&lt;&gt;0, Aufwandsplan!B20, "")</f>
         <v/>
       </c>
-      <c r="D21" s="34" t="str">
+      <c r="D21" s="22" t="str">
         <f>IF(Aufwandsplan!C20&lt;&gt;0, Aufwandsplan!C20, "")</f>
         <v>Kriterien festlegen</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="22">
         <f>IF(Aufwandsplan!D20&lt;&gt;0, Aufwandsplan!D20, "")</f>
         <v>6</v>
       </c>
-      <c r="F21" s="34" t="str">
+      <c r="F21" s="22">
         <f>IF(Aufwandsplan!E20&lt;&gt;0, Aufwandsplan!E20, "")</f>
-        <v/>
-      </c>
-      <c r="G21" s="36">
+        <v>6</v>
+      </c>
+      <c r="G21" s="24" t="str">
         <f>IF(Aufwandsplan!F20&lt;&gt;0, Aufwandsplan!F20, "")</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="1"/>
@@ -4308,30 +4794,30 @@
       <c r="T21" s="1"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="str">
+      <c r="A22" s="22" t="str">
         <f>IF(Aufwandsplan!A21&lt;&gt;0, Aufwandsplan!A21, "")</f>
         <v>B2.2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="34" t="str">
+        <v>126</v>
+      </c>
+      <c r="C22" s="22" t="str">
         <f>IF(Aufwandsplan!B21&lt;&gt;0, Aufwandsplan!B21, "")</f>
         <v/>
       </c>
-      <c r="D22" s="34" t="str">
+      <c r="D22" s="22" t="str">
         <f>IF(Aufwandsplan!C21&lt;&gt;0, Aufwandsplan!C21, "")</f>
         <v>Testdurchführung ausfüllen</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="22">
         <f>IF(Aufwandsplan!D21&lt;&gt;0, Aufwandsplan!D21, "")</f>
         <v>10</v>
       </c>
-      <c r="F22" s="34" t="str">
+      <c r="F22" s="22" t="str">
         <f>IF(Aufwandsplan!E21&lt;&gt;0, Aufwandsplan!E21, "")</f>
         <v/>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="24">
         <f>IF(Aufwandsplan!F21&lt;&gt;0, Aufwandsplan!F21, "")</f>
         <v>10</v>
       </c>
@@ -4350,30 +4836,30 @@
       <c r="T22" s="1"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="str">
+      <c r="A23" s="22" t="str">
         <f>IF(Aufwandsplan!A22&lt;&gt;0, Aufwandsplan!A22, "")</f>
         <v>C1</v>
       </c>
-      <c r="B23" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="34" t="str">
+      <c r="B23" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="22" t="str">
         <f>IF(Aufwandsplan!B22&lt;&gt;0, Aufwandsplan!B22, "")</f>
         <v>Aufgabe analysieren</v>
       </c>
-      <c r="D23" s="34" t="str">
+      <c r="D23" s="22" t="str">
         <f>IF(Aufwandsplan!C22&lt;&gt;0, Aufwandsplan!C22, "")</f>
         <v/>
       </c>
-      <c r="E23" s="34" t="str">
+      <c r="E23" s="22" t="str">
         <f>IF(Aufwandsplan!D22&lt;&gt;0, Aufwandsplan!D22, "")</f>
         <v/>
       </c>
-      <c r="F23" s="34" t="str">
+      <c r="F23" s="22" t="str">
         <f>IF(Aufwandsplan!E22&lt;&gt;0, Aufwandsplan!E22, "")</f>
         <v/>
       </c>
-      <c r="G23" s="36" t="str">
+      <c r="G23" s="24" t="str">
         <f>IF(Aufwandsplan!F22&lt;&gt;0, Aufwandsplan!F22, "")</f>
         <v/>
       </c>
@@ -4392,37 +4878,37 @@
       <c r="T23" s="1"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="str">
+      <c r="A24" s="22" t="str">
         <f>IF(Aufwandsplan!A23&lt;&gt;0, Aufwandsplan!A23, "")</f>
         <v>C1.1</v>
       </c>
-      <c r="B24" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="34" t="str">
+      <c r="B24" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="22" t="str">
         <f>IF(Aufwandsplan!B23&lt;&gt;0, Aufwandsplan!B23, "")</f>
         <v/>
       </c>
-      <c r="D24" s="34" t="str">
+      <c r="D24" s="22" t="str">
         <f>IF(Aufwandsplan!C23&lt;&gt;0, Aufwandsplan!C23, "")</f>
         <v>Geschäftanwendungsfälle definieren</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E24" s="22">
         <f>IF(Aufwandsplan!D23&lt;&gt;0, Aufwandsplan!D23, "")</f>
         <v>8</v>
       </c>
-      <c r="F24" s="34" t="str">
+      <c r="F24" s="22">
         <f>IF(Aufwandsplan!E23&lt;&gt;0, Aufwandsplan!E23, "")</f>
-        <v/>
-      </c>
-      <c r="G24" s="36">
+        <v>8</v>
+      </c>
+      <c r="G24" s="24" t="str">
         <f>IF(Aufwandsplan!F23&lt;&gt;0, Aufwandsplan!F23, "")</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -4436,38 +4922,38 @@
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="str">
+      <c r="A25" s="22" t="str">
         <f>IF(Aufwandsplan!A24&lt;&gt;0, Aufwandsplan!A24, "")</f>
         <v>C1.2</v>
       </c>
-      <c r="B25" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="34" t="str">
+      <c r="B25" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="22" t="str">
         <f>IF(Aufwandsplan!B24&lt;&gt;0, Aufwandsplan!B24, "")</f>
         <v/>
       </c>
-      <c r="D25" s="34" t="str">
+      <c r="D25" s="22" t="str">
         <f>IF(Aufwandsplan!C24&lt;&gt;0, Aufwandsplan!C24, "")</f>
         <v>funktionale Anforderungen definieren</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E25" s="22">
         <f>IF(Aufwandsplan!D24&lt;&gt;0, Aufwandsplan!D24, "")</f>
         <v>6</v>
       </c>
-      <c r="F25" s="34" t="str">
+      <c r="F25" s="22">
         <f>IF(Aufwandsplan!E24&lt;&gt;0, Aufwandsplan!E24, "")</f>
-        <v/>
-      </c>
-      <c r="G25" s="36">
+        <v>6</v>
+      </c>
+      <c r="G25" s="24" t="str">
         <f>IF(Aufwandsplan!F24&lt;&gt;0, Aufwandsplan!F24, "")</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -4480,39 +4966,39 @@
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="str">
+      <c r="A26" s="22" t="str">
         <f>IF(Aufwandsplan!A25&lt;&gt;0, Aufwandsplan!A25, "")</f>
         <v>C1.3</v>
       </c>
-      <c r="B26" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="34" t="str">
+      <c r="B26" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="22" t="str">
         <f>IF(Aufwandsplan!B25&lt;&gt;0, Aufwandsplan!B25, "")</f>
         <v/>
       </c>
-      <c r="D26" s="34" t="str">
+      <c r="D26" s="22" t="str">
         <f>IF(Aufwandsplan!C25&lt;&gt;0, Aufwandsplan!C25, "")</f>
         <v>(nicht) funktionale Anforderungen definieren</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="22">
         <f>IF(Aufwandsplan!D25&lt;&gt;0, Aufwandsplan!D25, "")</f>
         <v>6</v>
       </c>
-      <c r="F26" s="34" t="str">
+      <c r="F26" s="22">
         <f>IF(Aufwandsplan!E25&lt;&gt;0, Aufwandsplan!E25, "")</f>
-        <v/>
-      </c>
-      <c r="G26" s="36">
+        <v>6</v>
+      </c>
+      <c r="G26" s="24" t="str">
         <f>IF(Aufwandsplan!F25&lt;&gt;0, Aufwandsplan!F25, "")</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -4524,38 +5010,38 @@
       <c r="T26" s="1"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="str">
+      <c r="A27" s="22" t="str">
         <f>IF(Aufwandsplan!A26&lt;&gt;0, Aufwandsplan!A26, "")</f>
         <v>C1.4</v>
       </c>
-      <c r="B27" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="34" t="str">
+      <c r="B27" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="22" t="str">
         <f>IF(Aufwandsplan!B26&lt;&gt;0, Aufwandsplan!B26, "")</f>
         <v/>
       </c>
-      <c r="D27" s="34" t="str">
+      <c r="D27" s="22" t="str">
         <f>IF(Aufwandsplan!C26&lt;&gt;0, Aufwandsplan!C26, "")</f>
         <v>Stakeholderanalyse</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="22">
         <f>IF(Aufwandsplan!D26&lt;&gt;0, Aufwandsplan!D26, "")</f>
         <v>2</v>
       </c>
-      <c r="F27" s="34" t="str">
+      <c r="F27" s="22">
         <f>IF(Aufwandsplan!E26&lt;&gt;0, Aufwandsplan!E26, "")</f>
-        <v/>
-      </c>
-      <c r="G27" s="36">
+        <v>2</v>
+      </c>
+      <c r="G27" s="24" t="str">
         <f>IF(Aufwandsplan!F26&lt;&gt;0, Aufwandsplan!F26, "")</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -4568,30 +5054,30 @@
       <c r="T27" s="1"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="str">
+      <c r="A28" s="22" t="str">
         <f>IF(Aufwandsplan!A27&lt;&gt;0, Aufwandsplan!A27, "")</f>
         <v>D1</v>
       </c>
-      <c r="B28" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="39" t="str">
+      <c r="B28" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="27" t="str">
         <f>IF(Aufwandsplan!B27&lt;&gt;0, Aufwandsplan!B27, "")</f>
         <v>Modelle</v>
       </c>
-      <c r="D28" s="34" t="str">
+      <c r="D28" s="22" t="str">
         <f>IF(Aufwandsplan!C27&lt;&gt;0, Aufwandsplan!C27, "")</f>
         <v/>
       </c>
-      <c r="E28" s="34" t="str">
+      <c r="E28" s="22" t="str">
         <f>IF(Aufwandsplan!D27&lt;&gt;0, Aufwandsplan!D27, "")</f>
         <v/>
       </c>
-      <c r="F28" s="34" t="str">
+      <c r="F28" s="22" t="str">
         <f>IF(Aufwandsplan!E27&lt;&gt;0, Aufwandsplan!E27, "")</f>
         <v/>
       </c>
-      <c r="G28" s="36" t="str">
+      <c r="G28" s="24" t="str">
         <f>IF(Aufwandsplan!F27&lt;&gt;0, Aufwandsplan!F27, "")</f>
         <v/>
       </c>
@@ -4603,44 +5089,44 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="P28" s="38"/>
+      <c r="P28" s="26"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="str">
+      <c r="A29" s="22" t="str">
         <f>IF(Aufwandsplan!A28&lt;&gt;0, Aufwandsplan!A28, "")</f>
         <v>D1.1</v>
       </c>
-      <c r="B29" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="34" t="str">
+      <c r="B29" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="22" t="str">
         <f>IF(Aufwandsplan!B28&lt;&gt;0, Aufwandsplan!B28, "")</f>
         <v/>
       </c>
-      <c r="D29" s="34" t="str">
+      <c r="D29" s="22" t="str">
         <f>IF(Aufwandsplan!C28&lt;&gt;0, Aufwandsplan!C28, "")</f>
         <v>Datenmodell erstellen</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E29" s="22">
         <f>IF(Aufwandsplan!D28&lt;&gt;0, Aufwandsplan!D28, "")</f>
         <v>8</v>
       </c>
-      <c r="F29" s="34" t="str">
+      <c r="F29" s="22">
         <f>IF(Aufwandsplan!E28&lt;&gt;0, Aufwandsplan!E28, "")</f>
-        <v/>
-      </c>
-      <c r="G29" s="36">
+        <v>8</v>
+      </c>
+      <c r="G29" s="24" t="str">
         <f>IF(Aufwandsplan!F28&lt;&gt;0, Aufwandsplan!F28, "")</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -4654,30 +5140,30 @@
       <c r="T29" s="1"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="str">
+      <c r="A30" s="22" t="str">
         <f>IF(Aufwandsplan!A29&lt;&gt;0, Aufwandsplan!A29, "")</f>
         <v>D1.2</v>
       </c>
-      <c r="B30" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="34" t="str">
+      <c r="B30" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="22" t="str">
         <f>IF(Aufwandsplan!B29&lt;&gt;0, Aufwandsplan!B29, "")</f>
         <v/>
       </c>
-      <c r="D30" s="34" t="str">
+      <c r="D30" s="22" t="str">
         <f>IF(Aufwandsplan!C29&lt;&gt;0, Aufwandsplan!C29, "")</f>
         <v>Komponentenmodell erstellen</v>
       </c>
-      <c r="E30" s="34">
+      <c r="E30" s="22">
         <f>IF(Aufwandsplan!D29&lt;&gt;0, Aufwandsplan!D29, "")</f>
         <v>10</v>
       </c>
-      <c r="F30" s="34" t="str">
+      <c r="F30" s="22" t="str">
         <f>IF(Aufwandsplan!E29&lt;&gt;0, Aufwandsplan!E29, "")</f>
         <v/>
       </c>
-      <c r="G30" s="36">
+      <c r="G30" s="24">
         <f>IF(Aufwandsplan!F29&lt;&gt;0, Aufwandsplan!F29, "")</f>
         <v>10</v>
       </c>
@@ -4685,7 +5171,9 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
+      <c r="L30" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -4696,30 +5184,30 @@
       <c r="T30" s="1"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="str">
+      <c r="A31" s="22" t="str">
         <f>IF(Aufwandsplan!A30&lt;&gt;0, Aufwandsplan!A30, "")</f>
         <v>D1.3</v>
       </c>
-      <c r="B31" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="34" t="str">
+      <c r="B31" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="22" t="str">
         <f>IF(Aufwandsplan!B30&lt;&gt;0, Aufwandsplan!B30, "")</f>
         <v/>
       </c>
-      <c r="D31" s="34" t="str">
+      <c r="D31" s="22" t="str">
         <f>IF(Aufwandsplan!C30&lt;&gt;0, Aufwandsplan!C30, "")</f>
         <v>Klassendiagramm für jede Komponente</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31" s="22">
         <f>IF(Aufwandsplan!D30&lt;&gt;0, Aufwandsplan!D30, "")</f>
         <v>8</v>
       </c>
-      <c r="F31" s="34" t="str">
+      <c r="F31" s="22" t="str">
         <f>IF(Aufwandsplan!E30&lt;&gt;0, Aufwandsplan!E30, "")</f>
         <v/>
       </c>
-      <c r="G31" s="36">
+      <c r="G31" s="24">
         <f>IF(Aufwandsplan!F30&lt;&gt;0, Aufwandsplan!F30, "")</f>
         <v>8</v>
       </c>
@@ -4728,7 +5216,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -4740,30 +5228,30 @@
       <c r="T31" s="1"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="34" t="str">
+      <c r="A32" s="22" t="str">
         <f>IF(Aufwandsplan!A31&lt;&gt;0, Aufwandsplan!A31, "")</f>
         <v>D2</v>
       </c>
-      <c r="B32" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="39" t="str">
+      <c r="B32" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="43" t="str">
         <f>IF(Aufwandsplan!B31&lt;&gt;0, Aufwandsplan!B31, "")</f>
         <v>Use Cases definieren</v>
       </c>
-      <c r="D32" s="34" t="str">
+      <c r="D32" s="22" t="str">
         <f>IF(Aufwandsplan!C31&lt;&gt;0, Aufwandsplan!C31, "")</f>
         <v/>
       </c>
-      <c r="E32" s="34" t="str">
+      <c r="E32" s="22" t="str">
         <f>IF(Aufwandsplan!D31&lt;&gt;0, Aufwandsplan!D31, "")</f>
         <v/>
       </c>
-      <c r="F32" s="34" t="str">
+      <c r="F32" s="22" t="str">
         <f>IF(Aufwandsplan!E31&lt;&gt;0, Aufwandsplan!E31, "")</f>
         <v/>
       </c>
-      <c r="G32" s="36" t="str">
+      <c r="G32" s="24" t="str">
         <f>IF(Aufwandsplan!F31&lt;&gt;0, Aufwandsplan!F31, "")</f>
         <v/>
       </c>
@@ -4773,48 +5261,48 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
+      <c r="N32" s="42"/>
       <c r="O32" s="1"/>
-      <c r="P32" s="38"/>
+      <c r="P32" s="26"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="str">
+      <c r="A33" s="22" t="str">
         <f>IF(Aufwandsplan!A32&lt;&gt;0, Aufwandsplan!A32, "")</f>
         <v>D2.1</v>
       </c>
-      <c r="B33" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="34" t="str">
+      <c r="B33" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="22" t="str">
         <f>IF(Aufwandsplan!B32&lt;&gt;0, Aufwandsplan!B32, "")</f>
         <v/>
       </c>
-      <c r="D33" s="34" t="str">
+      <c r="D33" s="22" t="str">
         <f>IF(Aufwandsplan!C32&lt;&gt;0, Aufwandsplan!C32, "")</f>
-        <v>Use Case X definieren und spezifzieren</v>
-      </c>
-      <c r="E33" s="34">
+        <v>Use Case "Zeitpraeferenzen der Dozenten erfassen" definieren und spezifzieren</v>
+      </c>
+      <c r="E33" s="22">
         <f>IF(Aufwandsplan!D32&lt;&gt;0, Aufwandsplan!D32, "")</f>
-        <v>6</v>
-      </c>
-      <c r="F33" s="34" t="str">
+        <v>4</v>
+      </c>
+      <c r="F33" s="22">
         <f>IF(Aufwandsplan!E32&lt;&gt;0, Aufwandsplan!E32, "")</f>
-        <v/>
-      </c>
-      <c r="G33" s="36">
+        <v>4</v>
+      </c>
+      <c r="G33" s="24" t="str">
         <f>IF(Aufwandsplan!F32&lt;&gt;0, Aufwandsplan!F32, "")</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1" t="s">
-        <v>240</v>
+        <v>89</v>
       </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -4826,32 +5314,32 @@
       <c r="T33" s="1"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="str">
+      <c r="A34" s="22" t="str">
         <f>IF(Aufwandsplan!A33&lt;&gt;0, Aufwandsplan!A33, "")</f>
         <v>D2.2</v>
       </c>
-      <c r="B34" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="34" t="str">
+      <c r="B34" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="22" t="str">
         <f>IF(Aufwandsplan!B33&lt;&gt;0, Aufwandsplan!B33, "")</f>
         <v/>
       </c>
-      <c r="D34" s="34" t="str">
+      <c r="D34" s="22" t="str">
         <f>IF(Aufwandsplan!C33&lt;&gt;0, Aufwandsplan!C33, "")</f>
-        <v>Use Case X definieren und spezifzieren</v>
-      </c>
-      <c r="E34" s="34">
+        <v>Use Case "Zeitpraeferenzen angeben" definieren und spezifzieren(nur Ablauf)</v>
+      </c>
+      <c r="E34" s="22">
         <f>IF(Aufwandsplan!D33&lt;&gt;0, Aufwandsplan!D33, "")</f>
-        <v>6</v>
-      </c>
-      <c r="F34" s="34" t="str">
+        <v>4</v>
+      </c>
+      <c r="F34" s="22">
         <f>IF(Aufwandsplan!E33&lt;&gt;0, Aufwandsplan!E33, "")</f>
-        <v/>
-      </c>
-      <c r="G34" s="36">
+        <v>1</v>
+      </c>
+      <c r="G34" s="24">
         <f>IF(Aufwandsplan!F33&lt;&gt;0, Aufwandsplan!F33, "")</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="1"/>
@@ -4859,7 +5347,7 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -4870,32 +5358,32 @@
       <c r="T34" s="1"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="str">
+      <c r="A35" s="22" t="str">
         <f>IF(Aufwandsplan!A34&lt;&gt;0, Aufwandsplan!A34, "")</f>
         <v>D2.3</v>
       </c>
-      <c r="B35" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="34" t="str">
+      <c r="B35" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="22" t="str">
         <f>IF(Aufwandsplan!B34&lt;&gt;0, Aufwandsplan!B34, "")</f>
         <v/>
       </c>
-      <c r="D35" s="34" t="str">
+      <c r="D35" s="22" t="str">
         <f>IF(Aufwandsplan!C34&lt;&gt;0, Aufwandsplan!C34, "")</f>
-        <v>Use Case X definieren und spezifzieren</v>
-      </c>
-      <c r="E35" s="34">
+        <v>Use Case "Stundenplan erstellen" definieren und spezifzieren</v>
+      </c>
+      <c r="E35" s="22">
         <f>IF(Aufwandsplan!D34&lt;&gt;0, Aufwandsplan!D34, "")</f>
-        <v>6</v>
-      </c>
-      <c r="F35" s="34" t="str">
+        <v>4</v>
+      </c>
+      <c r="F35" s="22">
         <f>IF(Aufwandsplan!E34&lt;&gt;0, Aufwandsplan!E34, "")</f>
-        <v/>
-      </c>
-      <c r="G35" s="36">
+        <v>4</v>
+      </c>
+      <c r="G35" s="24" t="str">
         <f>IF(Aufwandsplan!F34&lt;&gt;0, Aufwandsplan!F34, "")</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="1"/>
@@ -4903,7 +5391,7 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -4914,32 +5402,32 @@
       <c r="T35" s="1"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="str">
+      <c r="A36" s="22" t="str">
         <f>IF(Aufwandsplan!A35&lt;&gt;0, Aufwandsplan!A35, "")</f>
         <v>D2.4</v>
       </c>
-      <c r="B36" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="34" t="str">
+      <c r="B36" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="22" t="str">
         <f>IF(Aufwandsplan!B35&lt;&gt;0, Aufwandsplan!B35, "")</f>
         <v/>
       </c>
-      <c r="D36" s="34" t="str">
+      <c r="D36" s="22" t="str">
         <f>IF(Aufwandsplan!C35&lt;&gt;0, Aufwandsplan!C35, "")</f>
-        <v>Use Case X definieren und spezifzieren</v>
-      </c>
-      <c r="E36" s="34">
+        <v>Use Case "Stundenplan anzeigen" definieren und spezifzieren</v>
+      </c>
+      <c r="E36" s="22">
         <f>IF(Aufwandsplan!D35&lt;&gt;0, Aufwandsplan!D35, "")</f>
-        <v>6</v>
-      </c>
-      <c r="F36" s="34" t="str">
+        <v>4</v>
+      </c>
+      <c r="F36" s="22">
         <f>IF(Aufwandsplan!E35&lt;&gt;0, Aufwandsplan!E35, "")</f>
-        <v/>
-      </c>
-      <c r="G36" s="36">
+        <v>4</v>
+      </c>
+      <c r="G36" s="24" t="str">
         <f>IF(Aufwandsplan!F35&lt;&gt;0, Aufwandsplan!F35, "")</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="1"/>
@@ -4948,7 +5436,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -4958,30 +5446,30 @@
       <c r="T36" s="1"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="str">
+      <c r="A37" s="22" t="str">
         <f>IF(Aufwandsplan!A36&lt;&gt;0, Aufwandsplan!A36, "")</f>
         <v>D3</v>
       </c>
-      <c r="B37" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="39" t="str">
+      <c r="B37" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="43" t="str">
         <f>IF(Aufwandsplan!B36&lt;&gt;0, Aufwandsplan!B36, "")</f>
         <v>Application Functions definieren</v>
       </c>
-      <c r="D37" s="34" t="str">
+      <c r="D37" s="22" t="str">
         <f>IF(Aufwandsplan!C36&lt;&gt;0, Aufwandsplan!C36, "")</f>
         <v/>
       </c>
-      <c r="E37" s="34" t="str">
+      <c r="E37" s="22" t="str">
         <f>IF(Aufwandsplan!D36&lt;&gt;0, Aufwandsplan!D36, "")</f>
         <v/>
       </c>
-      <c r="F37" s="34" t="str">
+      <c r="F37" s="22" t="str">
         <f>IF(Aufwandsplan!E36&lt;&gt;0, Aufwandsplan!E36, "")</f>
         <v/>
       </c>
-      <c r="G37" s="36" t="str">
+      <c r="G37" s="24" t="str">
         <f>IF(Aufwandsplan!F36&lt;&gt;0, Aufwandsplan!F36, "")</f>
         <v/>
       </c>
@@ -4991,41 +5479,41 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
+      <c r="N37" s="42"/>
       <c r="O37" s="1"/>
-      <c r="P37" s="38"/>
+      <c r="P37" s="26"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="34" t="str">
+      <c r="A38" s="22" t="str">
         <f>IF(Aufwandsplan!A37&lt;&gt;0, Aufwandsplan!A37, "")</f>
         <v>D3.1</v>
       </c>
-      <c r="B38" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="34" t="str">
+      <c r="B38" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="22" t="str">
         <f>IF(Aufwandsplan!B37&lt;&gt;0, Aufwandsplan!B37, "")</f>
         <v/>
       </c>
-      <c r="D38" s="34" t="str">
+      <c r="D38" s="22" t="str">
         <f>IF(Aufwandsplan!C37&lt;&gt;0, Aufwandsplan!C37, "")</f>
-        <v>Application Function X definieren und spezifizieren</v>
-      </c>
-      <c r="E38" s="34">
+        <v>Application Function "Zeiten Speichern" definieren und spezifizieren</v>
+      </c>
+      <c r="E38" s="22">
         <f>IF(Aufwandsplan!D37&lt;&gt;0, Aufwandsplan!D37, "")</f>
-        <v>6</v>
-      </c>
-      <c r="F38" s="34" t="str">
+        <v>4</v>
+      </c>
+      <c r="F38" s="22">
         <f>IF(Aufwandsplan!E37&lt;&gt;0, Aufwandsplan!E37, "")</f>
-        <v/>
-      </c>
-      <c r="G38" s="36">
+        <v>4</v>
+      </c>
+      <c r="G38" s="24" t="str">
         <f>IF(Aufwandsplan!F37&lt;&gt;0, Aufwandsplan!F37, "")</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="1"/>
@@ -5042,32 +5530,32 @@
       <c r="T38" s="1"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="34" t="str">
+      <c r="A39" s="22" t="str">
         <f>IF(Aufwandsplan!A38&lt;&gt;0, Aufwandsplan!A38, "")</f>
         <v>D3.2</v>
       </c>
-      <c r="B39" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="34" t="str">
+      <c r="B39" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="22" t="str">
         <f>IF(Aufwandsplan!B38&lt;&gt;0, Aufwandsplan!B38, "")</f>
         <v/>
       </c>
-      <c r="D39" s="34" t="str">
+      <c r="D39" s="22" t="str">
         <f>IF(Aufwandsplan!C38&lt;&gt;0, Aufwandsplan!C38, "")</f>
-        <v>Application Function X definieren und spezifizieren</v>
-      </c>
-      <c r="E39" s="34">
+        <v>Application Function "Zeitpraeferenzen bereitstellen" definieren und spezifizieren</v>
+      </c>
+      <c r="E39" s="22">
         <f>IF(Aufwandsplan!D38&lt;&gt;0, Aufwandsplan!D38, "")</f>
-        <v>6</v>
-      </c>
-      <c r="F39" s="34" t="str">
+        <v>4</v>
+      </c>
+      <c r="F39" s="22">
         <f>IF(Aufwandsplan!E38&lt;&gt;0, Aufwandsplan!E38, "")</f>
-        <v/>
-      </c>
-      <c r="G39" s="36">
+        <v>4</v>
+      </c>
+      <c r="G39" s="24" t="str">
         <f>IF(Aufwandsplan!F38&lt;&gt;0, Aufwandsplan!F38, "")</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="1"/>
@@ -5084,30 +5572,30 @@
       <c r="T39" s="1"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="34" t="str">
+      <c r="A40" s="22" t="str">
         <f>IF(Aufwandsplan!A39&lt;&gt;0, Aufwandsplan!A39, "")</f>
-        <v>E1</v>
-      </c>
-      <c r="B40" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="C40" s="34" t="str">
+        <v>D3.3</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="22" t="str">
         <f>IF(Aufwandsplan!B39&lt;&gt;0, Aufwandsplan!B39, "")</f>
-        <v>GUI Entwürfe</v>
-      </c>
-      <c r="D40" s="34" t="str">
+        <v/>
+      </c>
+      <c r="D40" s="22" t="str">
         <f>IF(Aufwandsplan!C39&lt;&gt;0, Aufwandsplan!C39, "")</f>
-        <v/>
-      </c>
-      <c r="E40" s="34" t="str">
+        <v>Application Function "Dozentenliste anzeigen" definieren und spezifizieren</v>
+      </c>
+      <c r="E40" s="22">
         <f>IF(Aufwandsplan!D39&lt;&gt;0, Aufwandsplan!D39, "")</f>
-        <v/>
-      </c>
-      <c r="F40" s="34" t="str">
+        <v>4</v>
+      </c>
+      <c r="F40" s="22">
         <f>IF(Aufwandsplan!E39&lt;&gt;0, Aufwandsplan!E39, "")</f>
-        <v/>
-      </c>
-      <c r="G40" s="36" t="str">
+        <v>4</v>
+      </c>
+      <c r="G40" s="24" t="str">
         <f>IF(Aufwandsplan!F39&lt;&gt;0, Aufwandsplan!F39, "")</f>
         <v/>
       </c>
@@ -5126,39 +5614,39 @@
       <c r="T40" s="1"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="34" t="str">
+      <c r="A41" s="22" t="str">
         <f>IF(Aufwandsplan!A40&lt;&gt;0, Aufwandsplan!A40, "")</f>
-        <v>E1.1</v>
-      </c>
-      <c r="B41" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="C41" s="34" t="str">
+        <v>D3.4</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="22" t="str">
         <f>IF(Aufwandsplan!B40&lt;&gt;0, Aufwandsplan!B40, "")</f>
         <v/>
       </c>
-      <c r="D41" s="34" t="str">
+      <c r="D41" s="22" t="str">
         <f>IF(Aufwandsplan!C40&lt;&gt;0, Aufwandsplan!C40, "")</f>
-        <v>Entwurf Maske Eingabe Zeiten</v>
-      </c>
-      <c r="E41" s="34">
+        <v>Application Function "Vergleich Raumgroesse mit Teilnehmer" definieren und spezifizieren</v>
+      </c>
+      <c r="E41" s="22">
         <f>IF(Aufwandsplan!D40&lt;&gt;0, Aufwandsplan!D40, "")</f>
-        <v>8</v>
-      </c>
-      <c r="F41" s="34" t="str">
+        <v>4</v>
+      </c>
+      <c r="F41" s="22">
         <f>IF(Aufwandsplan!E40&lt;&gt;0, Aufwandsplan!E40, "")</f>
-        <v/>
-      </c>
-      <c r="G41" s="36">
+        <v>4</v>
+      </c>
+      <c r="G41" s="24" t="str">
         <f>IF(Aufwandsplan!F40&lt;&gt;0, Aufwandsplan!F40, "")</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
@@ -5170,41 +5658,41 @@
       <c r="T41" s="1"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="34" t="str">
+      <c r="A42" s="22" t="str">
         <f>IF(Aufwandsplan!A41&lt;&gt;0, Aufwandsplan!A41, "")</f>
-        <v>E1.2</v>
-      </c>
-      <c r="B42" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="C42" s="34" t="str">
+        <v>D3.5</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="22" t="str">
         <f>IF(Aufwandsplan!B41&lt;&gt;0, Aufwandsplan!B41, "")</f>
         <v/>
       </c>
-      <c r="D42" s="34" t="str">
+      <c r="D42" s="22" t="str">
         <f>IF(Aufwandsplan!C41&lt;&gt;0, Aufwandsplan!C41, "")</f>
-        <v>Entwurf Maske X</v>
-      </c>
-      <c r="E42" s="34">
+        <v>Application Function "Stundenplan speichern" definieren und spezifizieren</v>
+      </c>
+      <c r="E42" s="22">
         <f>IF(Aufwandsplan!D41&lt;&gt;0, Aufwandsplan!D41, "")</f>
-        <v>8</v>
-      </c>
-      <c r="F42" s="34" t="str">
+        <v>4</v>
+      </c>
+      <c r="F42" s="22">
         <f>IF(Aufwandsplan!E41&lt;&gt;0, Aufwandsplan!E41, "")</f>
-        <v/>
-      </c>
-      <c r="G42" s="36">
+        <v>4</v>
+      </c>
+      <c r="G42" s="24" t="str">
         <f>IF(Aufwandsplan!F41&lt;&gt;0, Aufwandsplan!F41, "")</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="M42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -5214,32 +5702,32 @@
       <c r="T42" s="1"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="34" t="str">
+      <c r="A43" s="22" t="str">
         <f>IF(Aufwandsplan!A42&lt;&gt;0, Aufwandsplan!A42, "")</f>
-        <v>E1.3</v>
-      </c>
-      <c r="B43" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="C43" s="34" t="str">
+        <v>D3.6</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="22" t="str">
         <f>IF(Aufwandsplan!B42&lt;&gt;0, Aufwandsplan!B42, "")</f>
         <v/>
       </c>
-      <c r="D43" s="34" t="str">
+      <c r="D43" s="22" t="str">
         <f>IF(Aufwandsplan!C42&lt;&gt;0, Aufwandsplan!C42, "")</f>
-        <v>Entwurf Maske X</v>
-      </c>
-      <c r="E43" s="34">
+        <v>Application Function "Stundenplan berechnen" definieren und spezifizieren</v>
+      </c>
+      <c r="E43" s="22">
         <f>IF(Aufwandsplan!D42&lt;&gt;0, Aufwandsplan!D42, "")</f>
-        <v>8</v>
-      </c>
-      <c r="F43" s="34" t="str">
+        <v>4</v>
+      </c>
+      <c r="F43" s="22">
         <f>IF(Aufwandsplan!E42&lt;&gt;0, Aufwandsplan!E42, "")</f>
-        <v/>
-      </c>
-      <c r="G43" s="36">
+        <v>4</v>
+      </c>
+      <c r="G43" s="24" t="str">
         <f>IF(Aufwandsplan!F42&lt;&gt;0, Aufwandsplan!F42, "")</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="1"/>
@@ -5247,7 +5735,7 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -5258,30 +5746,30 @@
       <c r="T43" s="1"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="34" t="str">
+      <c r="A44" s="22" t="str">
         <f>IF(Aufwandsplan!A43&lt;&gt;0, Aufwandsplan!A43, "")</f>
-        <v>F1</v>
-      </c>
-      <c r="B44" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="C44" s="39" t="str">
+        <v>D3.7</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="22" t="str">
         <f>IF(Aufwandsplan!B43&lt;&gt;0, Aufwandsplan!B43, "")</f>
-        <v>Implementierung Datenhaltung</v>
-      </c>
-      <c r="D44" s="34" t="str">
+        <v/>
+      </c>
+      <c r="D44" s="22" t="str">
         <f>IF(Aufwandsplan!C43&lt;&gt;0, Aufwandsplan!C43, "")</f>
-        <v/>
-      </c>
-      <c r="E44" s="34" t="str">
+        <v>Application Function "Stundenplan anzeigen" definieren und spezifizieren</v>
+      </c>
+      <c r="E44" s="22">
         <f>IF(Aufwandsplan!D43&lt;&gt;0, Aufwandsplan!D43, "")</f>
-        <v/>
-      </c>
-      <c r="F44" s="34" t="str">
+        <v>4</v>
+      </c>
+      <c r="F44" s="22">
         <f>IF(Aufwandsplan!E43&lt;&gt;0, Aufwandsplan!E43, "")</f>
-        <v/>
-      </c>
-      <c r="G44" s="36" t="str">
+        <v>4</v>
+      </c>
+      <c r="G44" s="24" t="str">
         <f>IF(Aufwandsplan!F43&lt;&gt;0, Aufwandsplan!F43, "")</f>
         <v/>
       </c>
@@ -5294,38 +5782,38 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
-      <c r="Q44" s="38"/>
+      <c r="Q44" s="40"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="34" t="str">
+      <c r="A45" s="22" t="str">
         <f>IF(Aufwandsplan!A44&lt;&gt;0, Aufwandsplan!A44, "")</f>
-        <v>F1.1</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="C45" s="34" t="str">
+        <v>D3.8</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="22" t="str">
         <f>IF(Aufwandsplan!B44&lt;&gt;0, Aufwandsplan!B44, "")</f>
         <v/>
       </c>
-      <c r="D45" s="34" t="str">
+      <c r="D45" s="22" t="str">
         <f>IF(Aufwandsplan!C44&lt;&gt;0, Aufwandsplan!C44, "")</f>
-        <v>Datenbank</v>
-      </c>
-      <c r="E45" s="34">
+        <v>Application Function "Studiengaenge bereitstellen" definieren und spezifizieren</v>
+      </c>
+      <c r="E45" s="22">
         <f>IF(Aufwandsplan!D44&lt;&gt;0, Aufwandsplan!D44, "")</f>
-        <v>15</v>
-      </c>
-      <c r="F45" s="34" t="str">
+        <v>4</v>
+      </c>
+      <c r="F45" s="22">
         <f>IF(Aufwandsplan!E44&lt;&gt;0, Aufwandsplan!E44, "")</f>
-        <v/>
-      </c>
-      <c r="G45" s="36">
+        <v>4</v>
+      </c>
+      <c r="G45" s="24" t="str">
         <f>IF(Aufwandsplan!F44&lt;&gt;0, Aufwandsplan!F44, "")</f>
-        <v>15</v>
+        <v/>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="1"/>
@@ -5334,7 +5822,7 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -5344,32 +5832,32 @@
       <c r="T45" s="1"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="34" t="str">
+      <c r="A46" s="22" t="str">
         <f>IF(Aufwandsplan!A45&lt;&gt;0, Aufwandsplan!A45, "")</f>
-        <v>F1.2</v>
-      </c>
-      <c r="B46" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="C46" s="34" t="str">
+        <v>D3.9</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="22" t="str">
         <f>IF(Aufwandsplan!B45&lt;&gt;0, Aufwandsplan!B45, "")</f>
         <v/>
       </c>
-      <c r="D46" s="34" t="str">
+      <c r="D46" s="22" t="str">
         <f>IF(Aufwandsplan!C45&lt;&gt;0, Aufwandsplan!C45, "")</f>
-        <v>Zugriff</v>
-      </c>
-      <c r="E46" s="34">
+        <v>Application Function "Raeume bereitstellen" definieren und spezifizieren</v>
+      </c>
+      <c r="E46" s="22">
         <f>IF(Aufwandsplan!D45&lt;&gt;0, Aufwandsplan!D45, "")</f>
-        <v>34</v>
-      </c>
-      <c r="F46" s="34" t="str">
+        <v>4</v>
+      </c>
+      <c r="F46" s="22">
         <f>IF(Aufwandsplan!E45&lt;&gt;0, Aufwandsplan!E45, "")</f>
-        <v/>
-      </c>
-      <c r="G46" s="36">
+        <v>4</v>
+      </c>
+      <c r="G46" s="24" t="str">
         <f>IF(Aufwandsplan!F45&lt;&gt;0, Aufwandsplan!F45, "")</f>
-        <v>34</v>
+        <v/>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="1"/>
@@ -5378,7 +5866,7 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
@@ -5388,30 +5876,30 @@
       <c r="T46" s="1"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="34" t="str">
+      <c r="A47" s="22" t="str">
         <f>IF(Aufwandsplan!A46&lt;&gt;0, Aufwandsplan!A46, "")</f>
-        <v>F2</v>
-      </c>
-      <c r="B47" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="C47" s="39" t="str">
+        <v>D3.10</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="22" t="str">
         <f>IF(Aufwandsplan!B46&lt;&gt;0, Aufwandsplan!B46, "")</f>
-        <v>Implementierung Anwendungskern</v>
-      </c>
-      <c r="D47" s="34" t="str">
+        <v/>
+      </c>
+      <c r="D47" s="22" t="str">
         <f>IF(Aufwandsplan!C46&lt;&gt;0, Aufwandsplan!C46, "")</f>
-        <v/>
-      </c>
-      <c r="E47" s="34" t="str">
+        <v>Application Function "Module bereitstellen" definieren und spezifizieren</v>
+      </c>
+      <c r="E47" s="22">
         <f>IF(Aufwandsplan!D46&lt;&gt;0, Aufwandsplan!D46, "")</f>
-        <v/>
-      </c>
-      <c r="F47" s="34" t="str">
+        <v>4</v>
+      </c>
+      <c r="F47" s="22">
         <f>IF(Aufwandsplan!E46&lt;&gt;0, Aufwandsplan!E46, "")</f>
-        <v/>
-      </c>
-      <c r="G47" s="36" t="str">
+        <v>4</v>
+      </c>
+      <c r="G47" s="24" t="str">
         <f>IF(Aufwandsplan!F46&lt;&gt;0, Aufwandsplan!F46, "")</f>
         <v/>
       </c>
@@ -5430,32 +5918,32 @@
       <c r="T47" s="1"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="34" t="str">
+      <c r="A48" s="22" t="str">
         <f>IF(Aufwandsplan!A47&lt;&gt;0, Aufwandsplan!A47, "")</f>
-        <v>F2.1</v>
-      </c>
-      <c r="B48" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="C48" s="34" t="str">
+        <v>D3.11</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="22" t="str">
         <f>IF(Aufwandsplan!B47&lt;&gt;0, Aufwandsplan!B47, "")</f>
         <v/>
       </c>
-      <c r="D48" s="34" t="str">
+      <c r="D48" s="22" t="str">
         <f>IF(Aufwandsplan!C47&lt;&gt;0, Aufwandsplan!C47, "")</f>
-        <v>Implementeirung UseCase Eingabe Zeiten</v>
-      </c>
-      <c r="E48" s="34">
+        <v>Application Function "Dozenten bereitstellen" definieren und spezifizieren</v>
+      </c>
+      <c r="E48" s="22">
         <f>IF(Aufwandsplan!D47&lt;&gt;0, Aufwandsplan!D47, "")</f>
-        <v>30</v>
-      </c>
-      <c r="F48" s="34" t="str">
+        <v>4</v>
+      </c>
+      <c r="F48" s="22">
         <f>IF(Aufwandsplan!E47&lt;&gt;0, Aufwandsplan!E47, "")</f>
-        <v/>
-      </c>
-      <c r="G48" s="36">
+        <v>4</v>
+      </c>
+      <c r="G48" s="24" t="str">
         <f>IF(Aufwandsplan!F47&lt;&gt;0, Aufwandsplan!F47, "")</f>
-        <v>30</v>
+        <v/>
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="1"/>
@@ -5463,43 +5951,41 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-      <c r="N48" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
-      <c r="R48" s="38"/>
+      <c r="R48" s="40"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="34" t="str">
+      <c r="A49" s="22" t="str">
         <f>IF(Aufwandsplan!A48&lt;&gt;0, Aufwandsplan!A48, "")</f>
-        <v>F2.2</v>
-      </c>
-      <c r="B49" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="C49" s="34" t="str">
+        <v>E1</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" s="22" t="str">
         <f>IF(Aufwandsplan!B48&lt;&gt;0, Aufwandsplan!B48, "")</f>
-        <v/>
-      </c>
-      <c r="D49" s="34" t="str">
+        <v>GUI Entwürfe</v>
+      </c>
+      <c r="D49" s="22" t="str">
         <f>IF(Aufwandsplan!C48&lt;&gt;0, Aufwandsplan!C48, "")</f>
-        <v>Implementeirung UseCase X</v>
-      </c>
-      <c r="E49" s="34">
+        <v/>
+      </c>
+      <c r="E49" s="22" t="str">
         <f>IF(Aufwandsplan!D48&lt;&gt;0, Aufwandsplan!D48, "")</f>
-        <v>30</v>
-      </c>
-      <c r="F49" s="34" t="str">
+        <v/>
+      </c>
+      <c r="F49" s="22" t="str">
         <f>IF(Aufwandsplan!E48&lt;&gt;0, Aufwandsplan!E48, "")</f>
         <v/>
       </c>
-      <c r="G49" s="36">
+      <c r="G49" s="24" t="str">
         <f>IF(Aufwandsplan!F48&lt;&gt;0, Aufwandsplan!F48, "")</f>
-        <v>30</v>
+        <v/>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="1"/>
@@ -5516,32 +6002,32 @@
       <c r="T49" s="1"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="34" t="str">
+      <c r="A50" s="22" t="str">
         <f>IF(Aufwandsplan!A49&lt;&gt;0, Aufwandsplan!A49, "")</f>
-        <v>F2.3</v>
-      </c>
-      <c r="B50" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="C50" s="34" t="str">
+        <v>E1.1</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="22" t="str">
         <f>IF(Aufwandsplan!B49&lt;&gt;0, Aufwandsplan!B49, "")</f>
         <v/>
       </c>
-      <c r="D50" s="34" t="str">
+      <c r="D50" s="22" t="str">
         <f>IF(Aufwandsplan!C49&lt;&gt;0, Aufwandsplan!C49, "")</f>
-        <v>Implementeirung UseCase X</v>
-      </c>
-      <c r="E50" s="34">
+        <v>Entwurf Maske "Eingabe Zeiten"</v>
+      </c>
+      <c r="E50" s="22">
         <f>IF(Aufwandsplan!D49&lt;&gt;0, Aufwandsplan!D49, "")</f>
-        <v>30</v>
-      </c>
-      <c r="F50" s="34" t="str">
+        <v>8</v>
+      </c>
+      <c r="F50" s="22">
         <f>IF(Aufwandsplan!E49&lt;&gt;0, Aufwandsplan!E49, "")</f>
-        <v/>
-      </c>
-      <c r="G50" s="36">
+        <v>8</v>
+      </c>
+      <c r="G50" s="24" t="str">
         <f>IF(Aufwandsplan!F49&lt;&gt;0, Aufwandsplan!F49, "")</f>
-        <v>30</v>
+        <v/>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="1"/>
@@ -5558,32 +6044,32 @@
       <c r="T50" s="1"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="34" t="str">
+      <c r="A51" s="22" t="str">
         <f>IF(Aufwandsplan!A50&lt;&gt;0, Aufwandsplan!A50, "")</f>
-        <v>F2.4</v>
-      </c>
-      <c r="B51" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="C51" s="34" t="str">
+        <v>E1.2</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="22" t="str">
         <f>IF(Aufwandsplan!B50&lt;&gt;0, Aufwandsplan!B50, "")</f>
         <v/>
       </c>
-      <c r="D51" s="34" t="str">
+      <c r="D51" s="22" t="str">
         <f>IF(Aufwandsplan!C50&lt;&gt;0, Aufwandsplan!C50, "")</f>
-        <v>Implementeirung UseCase X</v>
-      </c>
-      <c r="E51" s="34">
+        <v>Entwurf Maske "Stundenplan anzeigen"</v>
+      </c>
+      <c r="E51" s="22">
         <f>IF(Aufwandsplan!D50&lt;&gt;0, Aufwandsplan!D50, "")</f>
-        <v>30</v>
-      </c>
-      <c r="F51" s="34" t="str">
+        <v>8</v>
+      </c>
+      <c r="F51" s="22" t="str">
         <f>IF(Aufwandsplan!E50&lt;&gt;0, Aufwandsplan!E50, "")</f>
         <v/>
       </c>
-      <c r="G51" s="36">
+      <c r="G51" s="24">
         <f>IF(Aufwandsplan!F50&lt;&gt;0, Aufwandsplan!F50, "")</f>
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="1"/>
@@ -5600,32 +6086,32 @@
       <c r="T51" s="1"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="34" t="str">
+      <c r="A52" s="22" t="str">
         <f>IF(Aufwandsplan!A51&lt;&gt;0, Aufwandsplan!A51, "")</f>
-        <v>F2.5</v>
-      </c>
-      <c r="B52" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="C52" s="34" t="str">
+        <v>E1.3</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" s="22" t="str">
         <f>IF(Aufwandsplan!B51&lt;&gt;0, Aufwandsplan!B51, "")</f>
         <v/>
       </c>
-      <c r="D52" s="34" t="str">
+      <c r="D52" s="22" t="str">
         <f>IF(Aufwandsplan!C51&lt;&gt;0, Aufwandsplan!C51, "")</f>
-        <v>Implementierung Appication Function Stundenplanberechnung</v>
-      </c>
-      <c r="E52" s="34">
+        <v>Entwurf "restl. Masken" (Anmeldung, Stundenplan erstellen, Laden)</v>
+      </c>
+      <c r="E52" s="22">
         <f>IF(Aufwandsplan!D51&lt;&gt;0, Aufwandsplan!D51, "")</f>
-        <v>50</v>
-      </c>
-      <c r="F52" s="34" t="str">
+        <v>8</v>
+      </c>
+      <c r="F52" s="22" t="str">
         <f>IF(Aufwandsplan!E51&lt;&gt;0, Aufwandsplan!E51, "")</f>
         <v/>
       </c>
-      <c r="G52" s="36">
+      <c r="G52" s="24">
         <f>IF(Aufwandsplan!F51&lt;&gt;0, Aufwandsplan!F51, "")</f>
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="1"/>
@@ -5642,32 +6128,32 @@
       <c r="T52" s="1"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="34" t="str">
+      <c r="A53" s="22" t="str">
         <f>IF(Aufwandsplan!A52&lt;&gt;0, Aufwandsplan!A52, "")</f>
-        <v>F2.6</v>
-      </c>
-      <c r="B53" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="C53" s="34" t="str">
+        <v>F1</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="27" t="str">
         <f>IF(Aufwandsplan!B52&lt;&gt;0, Aufwandsplan!B52, "")</f>
-        <v/>
-      </c>
-      <c r="D53" s="34" t="str">
+        <v>Implementierung Datenhaltung</v>
+      </c>
+      <c r="D53" s="22" t="str">
         <f>IF(Aufwandsplan!C52&lt;&gt;0, Aufwandsplan!C52, "")</f>
-        <v>Implementierung Appication Function X</v>
-      </c>
-      <c r="E53" s="34">
+        <v/>
+      </c>
+      <c r="E53" s="22" t="str">
         <f>IF(Aufwandsplan!D52&lt;&gt;0, Aufwandsplan!D52, "")</f>
-        <v>30</v>
-      </c>
-      <c r="F53" s="34" t="str">
+        <v/>
+      </c>
+      <c r="F53" s="22" t="str">
         <f>IF(Aufwandsplan!E52&lt;&gt;0, Aufwandsplan!E52, "")</f>
         <v/>
       </c>
-      <c r="G53" s="36">
+      <c r="G53" s="24" t="str">
         <f>IF(Aufwandsplan!F52&lt;&gt;0, Aufwandsplan!F52, "")</f>
-        <v>30</v>
+        <v/>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="1"/>
@@ -5678,38 +6164,38 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
+      <c r="Q53" s="26"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="34" t="str">
+      <c r="A54" s="22" t="str">
         <f>IF(Aufwandsplan!A53&lt;&gt;0, Aufwandsplan!A53, "")</f>
-        <v>F3</v>
-      </c>
-      <c r="B54" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="C54" s="39" t="str">
+        <v>F1.1</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="22" t="str">
         <f>IF(Aufwandsplan!B53&lt;&gt;0, Aufwandsplan!B53, "")</f>
-        <v>Implementierung GUI</v>
-      </c>
-      <c r="D54" s="34" t="str">
+        <v/>
+      </c>
+      <c r="D54" s="22" t="str">
         <f>IF(Aufwandsplan!C53&lt;&gt;0, Aufwandsplan!C53, "")</f>
-        <v/>
-      </c>
-      <c r="E54" s="34" t="str">
+        <v>Datenbank</v>
+      </c>
+      <c r="E54" s="22">
         <f>IF(Aufwandsplan!D53&lt;&gt;0, Aufwandsplan!D53, "")</f>
-        <v/>
-      </c>
-      <c r="F54" s="34" t="str">
+        <v>15</v>
+      </c>
+      <c r="F54" s="22" t="str">
         <f>IF(Aufwandsplan!E53&lt;&gt;0, Aufwandsplan!E53, "")</f>
         <v/>
       </c>
-      <c r="G54" s="36" t="str">
+      <c r="G54" s="24">
         <f>IF(Aufwandsplan!F53&lt;&gt;0, Aufwandsplan!F53, "")</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="1"/>
@@ -5722,36 +6208,36 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
-      <c r="S54" s="38"/>
+      <c r="S54" s="40"/>
       <c r="T54" s="1"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="34" t="str">
+      <c r="A55" s="22" t="str">
         <f>IF(Aufwandsplan!A54&lt;&gt;0, Aufwandsplan!A54, "")</f>
-        <v>F3.1</v>
-      </c>
-      <c r="B55" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="C55" s="34" t="str">
+        <v>F1.2</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C55" s="22" t="str">
         <f>IF(Aufwandsplan!B54&lt;&gt;0, Aufwandsplan!B54, "")</f>
         <v/>
       </c>
-      <c r="D55" s="34" t="str">
+      <c r="D55" s="22" t="str">
         <f>IF(Aufwandsplan!C54&lt;&gt;0, Aufwandsplan!C54, "")</f>
-        <v>Implementierung Maske Eingabe Zeiten</v>
-      </c>
-      <c r="E55" s="34">
+        <v>Zugriff</v>
+      </c>
+      <c r="E55" s="22">
         <f>IF(Aufwandsplan!D54&lt;&gt;0, Aufwandsplan!D54, "")</f>
-        <v>25</v>
-      </c>
-      <c r="F55" s="34" t="str">
+        <v>34</v>
+      </c>
+      <c r="F55" s="22" t="str">
         <f>IF(Aufwandsplan!E54&lt;&gt;0, Aufwandsplan!E54, "")</f>
         <v/>
       </c>
-      <c r="G55" s="36">
+      <c r="G55" s="24">
         <f>IF(Aufwandsplan!F54&lt;&gt;0, Aufwandsplan!F54, "")</f>
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="1"/>
@@ -5768,32 +6254,32 @@
       <c r="T55" s="1"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="34" t="str">
+      <c r="A56" s="22" t="str">
         <f>IF(Aufwandsplan!A55&lt;&gt;0, Aufwandsplan!A55, "")</f>
-        <v>F3.2</v>
-      </c>
-      <c r="B56" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="C56" s="34" t="str">
+        <v>F2</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="27" t="str">
         <f>IF(Aufwandsplan!B55&lt;&gt;0, Aufwandsplan!B55, "")</f>
-        <v/>
-      </c>
-      <c r="D56" s="34" t="str">
+        <v>Implementierung Anwendungskern</v>
+      </c>
+      <c r="D56" s="22" t="str">
         <f>IF(Aufwandsplan!C55&lt;&gt;0, Aufwandsplan!C55, "")</f>
-        <v>Implementierung Maske X</v>
-      </c>
-      <c r="E56" s="34">
+        <v/>
+      </c>
+      <c r="E56" s="22" t="str">
         <f>IF(Aufwandsplan!D55&lt;&gt;0, Aufwandsplan!D55, "")</f>
-        <v>25</v>
-      </c>
-      <c r="F56" s="34" t="str">
+        <v/>
+      </c>
+      <c r="F56" s="22" t="str">
         <f>IF(Aufwandsplan!E55&lt;&gt;0, Aufwandsplan!E55, "")</f>
         <v/>
       </c>
-      <c r="G56" s="36">
+      <c r="G56" s="24" t="str">
         <f>IF(Aufwandsplan!F55&lt;&gt;0, Aufwandsplan!F55, "")</f>
-        <v>25</v>
+        <v/>
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="1"/>
@@ -5805,37 +6291,37 @@
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
+      <c r="R56" s="26"/>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="34" t="str">
+      <c r="A57" s="22" t="str">
         <f>IF(Aufwandsplan!A56&lt;&gt;0, Aufwandsplan!A56, "")</f>
-        <v>F3.3</v>
-      </c>
-      <c r="B57" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="C57" s="34" t="str">
+        <v>F2.1</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" s="22" t="str">
         <f>IF(Aufwandsplan!B56&lt;&gt;0, Aufwandsplan!B56, "")</f>
         <v/>
       </c>
-      <c r="D57" s="34" t="str">
+      <c r="D57" s="22" t="str">
         <f>IF(Aufwandsplan!C56&lt;&gt;0, Aufwandsplan!C56, "")</f>
-        <v>Implementierung Maske X</v>
-      </c>
-      <c r="E57" s="34">
+        <v>Implementierung UseCase "Zeitpraeferenzen der Dozenten erfassen"</v>
+      </c>
+      <c r="E57" s="22">
         <f>IF(Aufwandsplan!D56&lt;&gt;0, Aufwandsplan!D56, "")</f>
-        <v>25</v>
-      </c>
-      <c r="F57" s="34" t="str">
+        <v>12</v>
+      </c>
+      <c r="F57" s="22" t="str">
         <f>IF(Aufwandsplan!E56&lt;&gt;0, Aufwandsplan!E56, "")</f>
         <v/>
       </c>
-      <c r="G57" s="36">
+      <c r="G57" s="24">
         <f>IF(Aufwandsplan!F56&lt;&gt;0, Aufwandsplan!F56, "")</f>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="1"/>
@@ -5852,32 +6338,32 @@
       <c r="T57" s="1"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="34" t="str">
+      <c r="A58" s="22" t="str">
         <f>IF(Aufwandsplan!A57&lt;&gt;0, Aufwandsplan!A57, "")</f>
-        <v>G1</v>
-      </c>
-      <c r="B58" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="C58" s="34" t="str">
+        <v>F2.2</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" s="22" t="str">
         <f>IF(Aufwandsplan!B57&lt;&gt;0, Aufwandsplan!B57, "")</f>
-        <v>Test der Anwendung</v>
-      </c>
-      <c r="D58" s="34" t="str">
+        <v/>
+      </c>
+      <c r="D58" s="22" t="str">
         <f>IF(Aufwandsplan!C57&lt;&gt;0, Aufwandsplan!C57, "")</f>
-        <v/>
-      </c>
-      <c r="E58" s="34">
+        <v>Implementierung UseCase "Stundenplan erstellen"</v>
+      </c>
+      <c r="E58" s="22">
         <f>IF(Aufwandsplan!D57&lt;&gt;0, Aufwandsplan!D57, "")</f>
-        <v>4</v>
-      </c>
-      <c r="F58" s="34" t="str">
+        <v>12</v>
+      </c>
+      <c r="F58" s="22" t="str">
         <f>IF(Aufwandsplan!E57&lt;&gt;0, Aufwandsplan!E57, "")</f>
         <v/>
       </c>
-      <c r="G58" s="36">
+      <c r="G58" s="24">
         <f>IF(Aufwandsplan!F57&lt;&gt;0, Aufwandsplan!F57, "")</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="1"/>
@@ -5894,32 +6380,32 @@
       <c r="T58" s="1"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="34" t="str">
+      <c r="A59" s="22" t="str">
         <f>IF(Aufwandsplan!A58&lt;&gt;0, Aufwandsplan!A58, "")</f>
-        <v>G2</v>
-      </c>
-      <c r="B59" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="C59" s="34" t="str">
+        <v>F2.3</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" s="22" t="str">
         <f>IF(Aufwandsplan!B58&lt;&gt;0, Aufwandsplan!B58, "")</f>
-        <v>Anpassungen/Fehlerbehebung</v>
-      </c>
-      <c r="D59" s="34" t="str">
+        <v/>
+      </c>
+      <c r="D59" s="22" t="str">
         <f>IF(Aufwandsplan!C58&lt;&gt;0, Aufwandsplan!C58, "")</f>
-        <v/>
-      </c>
-      <c r="E59" s="34">
+        <v>Implementierung UseCase "Stundenplan anzeigen"</v>
+      </c>
+      <c r="E59" s="22">
         <f>IF(Aufwandsplan!D58&lt;&gt;0, Aufwandsplan!D58, "")</f>
-        <v>10</v>
-      </c>
-      <c r="F59" s="34" t="str">
+        <v>12</v>
+      </c>
+      <c r="F59" s="22" t="str">
         <f>IF(Aufwandsplan!E58&lt;&gt;0, Aufwandsplan!E58, "")</f>
         <v/>
       </c>
-      <c r="G59" s="36">
+      <c r="G59" s="24">
         <f>IF(Aufwandsplan!F58&lt;&gt;0, Aufwandsplan!F58, "")</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H59" s="7"/>
       <c r="I59" s="1"/>
@@ -5936,32 +6422,32 @@
       <c r="T59" s="1"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="34" t="str">
+      <c r="A60" s="22" t="str">
         <f>IF(Aufwandsplan!A59&lt;&gt;0, Aufwandsplan!A59, "")</f>
-        <v>G3</v>
-      </c>
-      <c r="B60" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="C60" s="39" t="str">
+        <v>F2.4</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" s="22" t="str">
         <f>IF(Aufwandsplan!B59&lt;&gt;0, Aufwandsplan!B59, "")</f>
-        <v>interne Abnahme</v>
-      </c>
-      <c r="D60" s="34" t="str">
+        <v/>
+      </c>
+      <c r="D60" s="22" t="str">
         <f>IF(Aufwandsplan!C59&lt;&gt;0, Aufwandsplan!C59, "")</f>
-        <v/>
-      </c>
-      <c r="E60" s="34">
+        <v>Implementierung Application Function "Zeiten Speichern"</v>
+      </c>
+      <c r="E60" s="22">
         <f>IF(Aufwandsplan!D59&lt;&gt;0, Aufwandsplan!D59, "")</f>
-        <v>5</v>
-      </c>
-      <c r="F60" s="34" t="str">
+        <v>12</v>
+      </c>
+      <c r="F60" s="22" t="str">
         <f>IF(Aufwandsplan!E59&lt;&gt;0, Aufwandsplan!E59, "")</f>
         <v/>
       </c>
-      <c r="G60" s="36">
+      <c r="G60" s="24">
         <f>IF(Aufwandsplan!F59&lt;&gt;0, Aufwandsplan!F59, "")</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="1"/>
@@ -5975,33 +6461,35 @@
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
-      <c r="T60" s="38"/>
+      <c r="T60" s="40"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="34" t="str">
+      <c r="A61" s="22" t="str">
         <f>IF(Aufwandsplan!A60&lt;&gt;0, Aufwandsplan!A60, "")</f>
-        <v/>
-      </c>
-      <c r="B61" s="34"/>
-      <c r="C61" s="34" t="str">
+        <v>F2.5</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" s="22" t="str">
         <f>IF(Aufwandsplan!B60&lt;&gt;0, Aufwandsplan!B60, "")</f>
         <v/>
       </c>
-      <c r="D61" s="34" t="str">
+      <c r="D61" s="22" t="str">
         <f>IF(Aufwandsplan!C60&lt;&gt;0, Aufwandsplan!C60, "")</f>
-        <v/>
-      </c>
-      <c r="E61" s="34" t="str">
+        <v>Implementierung Application Function "Zeitpraeferenzen bereitstellen"</v>
+      </c>
+      <c r="E61" s="22">
         <f>IF(Aufwandsplan!D60&lt;&gt;0, Aufwandsplan!D60, "")</f>
-        <v/>
-      </c>
-      <c r="F61" s="34" t="str">
+        <v>12</v>
+      </c>
+      <c r="F61" s="22" t="str">
         <f>IF(Aufwandsplan!E60&lt;&gt;0, Aufwandsplan!E60, "")</f>
         <v/>
       </c>
-      <c r="G61" s="36" t="str">
+      <c r="G61" s="24">
         <f>IF(Aufwandsplan!F60&lt;&gt;0, Aufwandsplan!F60, "")</f>
-        <v/>
+        <v>12</v>
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="1"/>
@@ -6018,30 +6506,32 @@
       <c r="T61" s="1"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="34" t="str">
+      <c r="A62" s="22" t="str">
         <f>IF(Aufwandsplan!A61&lt;&gt;0, Aufwandsplan!A61, "")</f>
-        <v/>
-      </c>
-      <c r="B62" s="34"/>
-      <c r="C62" s="34" t="str">
+        <v>F2.6</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" s="22" t="str">
         <f>IF(Aufwandsplan!B61&lt;&gt;0, Aufwandsplan!B61, "")</f>
         <v/>
       </c>
-      <c r="D62" s="34" t="str">
+      <c r="D62" s="22" t="str">
         <f>IF(Aufwandsplan!C61&lt;&gt;0, Aufwandsplan!C61, "")</f>
-        <v/>
-      </c>
-      <c r="E62" s="34" t="str">
+        <v>Implementierung Application Function "Dozentenliste anzeigen"</v>
+      </c>
+      <c r="E62" s="22">
         <f>IF(Aufwandsplan!D61&lt;&gt;0, Aufwandsplan!D61, "")</f>
-        <v/>
-      </c>
-      <c r="F62" s="34" t="str">
+        <v>12</v>
+      </c>
+      <c r="F62" s="22" t="str">
         <f>IF(Aufwandsplan!E61&lt;&gt;0, Aufwandsplan!E61, "")</f>
         <v/>
       </c>
-      <c r="G62" s="36" t="str">
+      <c r="G62" s="24">
         <f>IF(Aufwandsplan!F61&lt;&gt;0, Aufwandsplan!F61, "")</f>
-        <v/>
+        <v>12</v>
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="1"/>
@@ -6058,30 +6548,32 @@
       <c r="T62" s="1"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="34" t="str">
+      <c r="A63" s="22" t="str">
         <f>IF(Aufwandsplan!A62&lt;&gt;0, Aufwandsplan!A62, "")</f>
-        <v/>
-      </c>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34" t="str">
+        <v>F2.7</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" s="22" t="str">
         <f>IF(Aufwandsplan!B62&lt;&gt;0, Aufwandsplan!B62, "")</f>
         <v/>
       </c>
-      <c r="D63" s="34" t="str">
+      <c r="D63" s="22" t="str">
         <f>IF(Aufwandsplan!C62&lt;&gt;0, Aufwandsplan!C62, "")</f>
-        <v/>
-      </c>
-      <c r="E63" s="34" t="str">
+        <v>Implementierung Application Function "Vergleich Raumgroesse mit Teilnehmer"</v>
+      </c>
+      <c r="E63" s="22">
         <f>IF(Aufwandsplan!D62&lt;&gt;0, Aufwandsplan!D62, "")</f>
-        <v/>
-      </c>
-      <c r="F63" s="34" t="str">
+        <v>12</v>
+      </c>
+      <c r="F63" s="22" t="str">
         <f>IF(Aufwandsplan!E62&lt;&gt;0, Aufwandsplan!E62, "")</f>
         <v/>
       </c>
-      <c r="G63" s="36" t="str">
+      <c r="G63" s="24">
         <f>IF(Aufwandsplan!F62&lt;&gt;0, Aufwandsplan!F62, "")</f>
-        <v/>
+        <v>12</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="1"/>
@@ -6098,30 +6590,32 @@
       <c r="T63" s="1"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" s="34" t="str">
+      <c r="A64" s="22" t="str">
         <f>IF(Aufwandsplan!A63&lt;&gt;0, Aufwandsplan!A63, "")</f>
-        <v/>
-      </c>
-      <c r="B64" s="34"/>
-      <c r="C64" s="34" t="str">
+        <v>F2.8</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" s="22" t="str">
         <f>IF(Aufwandsplan!B63&lt;&gt;0, Aufwandsplan!B63, "")</f>
         <v/>
       </c>
-      <c r="D64" s="34" t="str">
+      <c r="D64" s="22" t="str">
         <f>IF(Aufwandsplan!C63&lt;&gt;0, Aufwandsplan!C63, "")</f>
-        <v/>
-      </c>
-      <c r="E64" s="34" t="str">
+        <v>Implementierung Application Function "Stundenplan speichern"</v>
+      </c>
+      <c r="E64" s="22">
         <f>IF(Aufwandsplan!D63&lt;&gt;0, Aufwandsplan!D63, "")</f>
-        <v/>
-      </c>
-      <c r="F64" s="34" t="str">
+        <v>12</v>
+      </c>
+      <c r="F64" s="22" t="str">
         <f>IF(Aufwandsplan!E63&lt;&gt;0, Aufwandsplan!E63, "")</f>
         <v/>
       </c>
-      <c r="G64" s="36" t="str">
+      <c r="G64" s="24">
         <f>IF(Aufwandsplan!F63&lt;&gt;0, Aufwandsplan!F63, "")</f>
-        <v/>
+        <v>12</v>
       </c>
       <c r="H64" s="7"/>
       <c r="I64" s="1"/>
@@ -6138,30 +6632,32 @@
       <c r="T64" s="1"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65" s="34" t="str">
+      <c r="A65" s="22" t="str">
         <f>IF(Aufwandsplan!A64&lt;&gt;0, Aufwandsplan!A64, "")</f>
-        <v/>
-      </c>
-      <c r="B65" s="34"/>
-      <c r="C65" s="34" t="str">
+        <v>F2.9</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" s="22" t="str">
         <f>IF(Aufwandsplan!B64&lt;&gt;0, Aufwandsplan!B64, "")</f>
         <v/>
       </c>
-      <c r="D65" s="34" t="str">
+      <c r="D65" s="22" t="str">
         <f>IF(Aufwandsplan!C64&lt;&gt;0, Aufwandsplan!C64, "")</f>
-        <v/>
-      </c>
-      <c r="E65" s="34" t="str">
+        <v>Implementierung Application Function "Stundenplan berechnen"</v>
+      </c>
+      <c r="E65" s="22">
         <f>IF(Aufwandsplan!D64&lt;&gt;0, Aufwandsplan!D64, "")</f>
-        <v/>
-      </c>
-      <c r="F65" s="34" t="str">
+        <v>20</v>
+      </c>
+      <c r="F65" s="22" t="str">
         <f>IF(Aufwandsplan!E64&lt;&gt;0, Aufwandsplan!E64, "")</f>
         <v/>
       </c>
-      <c r="G65" s="36" t="str">
+      <c r="G65" s="24">
         <f>IF(Aufwandsplan!F64&lt;&gt;0, Aufwandsplan!F64, "")</f>
-        <v/>
+        <v>20</v>
       </c>
       <c r="H65" s="7"/>
       <c r="I65" s="1"/>
@@ -6178,30 +6674,32 @@
       <c r="T65" s="1"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A66" s="34" t="str">
+      <c r="A66" s="22" t="str">
         <f>IF(Aufwandsplan!A65&lt;&gt;0, Aufwandsplan!A65, "")</f>
-        <v/>
-      </c>
-      <c r="B66" s="34"/>
-      <c r="C66" s="34" t="str">
+        <v>F2.10</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" s="22" t="str">
         <f>IF(Aufwandsplan!B65&lt;&gt;0, Aufwandsplan!B65, "")</f>
         <v/>
       </c>
-      <c r="D66" s="34" t="str">
+      <c r="D66" s="22" t="str">
         <f>IF(Aufwandsplan!C65&lt;&gt;0, Aufwandsplan!C65, "")</f>
-        <v/>
-      </c>
-      <c r="E66" s="34" t="str">
+        <v>Implementierung Application Function "Stundenplan anzeigen"</v>
+      </c>
+      <c r="E66" s="22">
         <f>IF(Aufwandsplan!D65&lt;&gt;0, Aufwandsplan!D65, "")</f>
-        <v/>
-      </c>
-      <c r="F66" s="34" t="str">
+        <v>12</v>
+      </c>
+      <c r="F66" s="22" t="str">
         <f>IF(Aufwandsplan!E65&lt;&gt;0, Aufwandsplan!E65, "")</f>
         <v/>
       </c>
-      <c r="G66" s="36" t="str">
+      <c r="G66" s="24">
         <f>IF(Aufwandsplan!F65&lt;&gt;0, Aufwandsplan!F65, "")</f>
-        <v/>
+        <v>12</v>
       </c>
       <c r="H66" s="7"/>
       <c r="I66" s="1"/>
@@ -6217,293 +6715,758 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" s="22" t="str">
+        <f>IF(Aufwandsplan!A66&lt;&gt;0, Aufwandsplan!A66, "")</f>
+        <v>F2.11</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" s="22" t="str">
+        <f>IF(Aufwandsplan!B66&lt;&gt;0, Aufwandsplan!B66, "")</f>
+        <v/>
+      </c>
+      <c r="D67" s="22" t="str">
+        <f>IF(Aufwandsplan!C66&lt;&gt;0, Aufwandsplan!C66, "")</f>
+        <v>Implementierung Application Function "Studiengaenge bereitstellen"</v>
+      </c>
+      <c r="E67" s="22">
+        <f>IF(Aufwandsplan!D66&lt;&gt;0, Aufwandsplan!D66, "")</f>
+        <v>12</v>
+      </c>
+      <c r="F67" s="22" t="str">
+        <f>IF(Aufwandsplan!E66&lt;&gt;0, Aufwandsplan!E66, "")</f>
+        <v/>
+      </c>
+      <c r="G67" s="24">
+        <f>IF(Aufwandsplan!F66&lt;&gt;0, Aufwandsplan!F66, "")</f>
+        <v>12</v>
+      </c>
+      <c r="H67" s="7"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+    </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B68" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="F68" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H68" s="7">
-        <f>COUNTIF(H4:H66,"SW")+COUNTIF(H4:H66,"alle")</f>
+      <c r="A68" s="22" t="str">
+        <f>IF(Aufwandsplan!A67&lt;&gt;0, Aufwandsplan!A67, "")</f>
+        <v>F2.12</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" s="22" t="str">
+        <f>IF(Aufwandsplan!B67&lt;&gt;0, Aufwandsplan!B67, "")</f>
+        <v/>
+      </c>
+      <c r="D68" s="22" t="str">
+        <f>IF(Aufwandsplan!C67&lt;&gt;0, Aufwandsplan!C67, "")</f>
+        <v>Implementierung Application Function "Raeume bereitstellen"</v>
+      </c>
+      <c r="E68" s="22">
+        <f>IF(Aufwandsplan!D67&lt;&gt;0, Aufwandsplan!D67, "")</f>
+        <v>12</v>
+      </c>
+      <c r="F68" s="22" t="str">
+        <f>IF(Aufwandsplan!E67&lt;&gt;0, Aufwandsplan!E67, "")</f>
+        <v/>
+      </c>
+      <c r="G68" s="24">
+        <f>IF(Aufwandsplan!F67&lt;&gt;0, Aufwandsplan!F67, "")</f>
+        <v>12</v>
+      </c>
+      <c r="H68" s="7"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" s="22" t="str">
+        <f>IF(Aufwandsplan!A68&lt;&gt;0, Aufwandsplan!A68, "")</f>
+        <v>F2.13</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" s="22" t="str">
+        <f>IF(Aufwandsplan!B68&lt;&gt;0, Aufwandsplan!B68, "")</f>
+        <v/>
+      </c>
+      <c r="D69" s="22" t="str">
+        <f>IF(Aufwandsplan!C68&lt;&gt;0, Aufwandsplan!C68, "")</f>
+        <v>Implementierung Application Function "Module bereitstellen"</v>
+      </c>
+      <c r="E69" s="22">
+        <f>IF(Aufwandsplan!D68&lt;&gt;0, Aufwandsplan!D68, "")</f>
+        <v>12</v>
+      </c>
+      <c r="F69" s="22" t="str">
+        <f>IF(Aufwandsplan!E68&lt;&gt;0, Aufwandsplan!E68, "")</f>
+        <v/>
+      </c>
+      <c r="G69" s="24">
+        <f>IF(Aufwandsplan!F68&lt;&gt;0, Aufwandsplan!F68, "")</f>
+        <v>12</v>
+      </c>
+      <c r="H69" s="7"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" s="22" t="str">
+        <f>IF(Aufwandsplan!A69&lt;&gt;0, Aufwandsplan!A69, "")</f>
+        <v>F2.14</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" s="22" t="str">
+        <f>IF(Aufwandsplan!B69&lt;&gt;0, Aufwandsplan!B69, "")</f>
+        <v/>
+      </c>
+      <c r="D70" s="22" t="str">
+        <f>IF(Aufwandsplan!C69&lt;&gt;0, Aufwandsplan!C69, "")</f>
+        <v>Implementierung Application Function "Dozenten bereitstellen"</v>
+      </c>
+      <c r="E70" s="22">
+        <f>IF(Aufwandsplan!D69&lt;&gt;0, Aufwandsplan!D69, "")</f>
+        <v>12</v>
+      </c>
+      <c r="F70" s="22" t="str">
+        <f>IF(Aufwandsplan!E69&lt;&gt;0, Aufwandsplan!E69, "")</f>
+        <v/>
+      </c>
+      <c r="G70" s="24">
+        <f>IF(Aufwandsplan!F69&lt;&gt;0, Aufwandsplan!F69, "")</f>
+        <v>12</v>
+      </c>
+      <c r="H70" s="7"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" s="22" t="str">
+        <f>IF(Aufwandsplan!A70&lt;&gt;0, Aufwandsplan!A70, "")</f>
+        <v>F3</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" s="27" t="str">
+        <f>IF(Aufwandsplan!B70&lt;&gt;0, Aufwandsplan!B70, "")</f>
+        <v>Implementierung GUI</v>
+      </c>
+      <c r="D71" s="22" t="str">
+        <f>IF(Aufwandsplan!C70&lt;&gt;0, Aufwandsplan!C70, "")</f>
+        <v/>
+      </c>
+      <c r="E71" s="22" t="str">
+        <f>IF(Aufwandsplan!D70&lt;&gt;0, Aufwandsplan!D70, "")</f>
+        <v/>
+      </c>
+      <c r="F71" s="22" t="str">
+        <f>IF(Aufwandsplan!E70&lt;&gt;0, Aufwandsplan!E70, "")</f>
+        <v/>
+      </c>
+      <c r="G71" s="24" t="str">
+        <f>IF(Aufwandsplan!F70&lt;&gt;0, Aufwandsplan!F70, "")</f>
+        <v/>
+      </c>
+      <c r="H71" s="7"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="26"/>
+      <c r="T71" s="1"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" s="22" t="str">
+        <f>IF(Aufwandsplan!A71&lt;&gt;0, Aufwandsplan!A71, "")</f>
+        <v>F3.1</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C72" s="22" t="str">
+        <f>IF(Aufwandsplan!B71&lt;&gt;0, Aufwandsplan!B71, "")</f>
+        <v/>
+      </c>
+      <c r="D72" s="22" t="str">
+        <f>IF(Aufwandsplan!C71&lt;&gt;0, Aufwandsplan!C71, "")</f>
+        <v>Implementierung Maske "Eingabe Zeiten"</v>
+      </c>
+      <c r="E72" s="22">
+        <f>IF(Aufwandsplan!D71&lt;&gt;0, Aufwandsplan!D71, "")</f>
+        <v>25</v>
+      </c>
+      <c r="F72" s="22" t="str">
+        <f>IF(Aufwandsplan!E71&lt;&gt;0, Aufwandsplan!E71, "")</f>
+        <v/>
+      </c>
+      <c r="G72" s="24">
+        <f>IF(Aufwandsplan!F71&lt;&gt;0, Aufwandsplan!F71, "")</f>
+        <v>25</v>
+      </c>
+      <c r="H72" s="7"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" s="22" t="str">
+        <f>IF(Aufwandsplan!A72&lt;&gt;0, Aufwandsplan!A72, "")</f>
+        <v>F3.2</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C73" s="22" t="str">
+        <f>IF(Aufwandsplan!B72&lt;&gt;0, Aufwandsplan!B72, "")</f>
+        <v/>
+      </c>
+      <c r="D73" s="22" t="str">
+        <f>IF(Aufwandsplan!C72&lt;&gt;0, Aufwandsplan!C72, "")</f>
+        <v>Implementierung Maske "Studenplan anzeigen"</v>
+      </c>
+      <c r="E73" s="22">
+        <f>IF(Aufwandsplan!D72&lt;&gt;0, Aufwandsplan!D72, "")</f>
+        <v>25</v>
+      </c>
+      <c r="F73" s="22" t="str">
+        <f>IF(Aufwandsplan!E72&lt;&gt;0, Aufwandsplan!E72, "")</f>
+        <v/>
+      </c>
+      <c r="G73" s="24">
+        <f>IF(Aufwandsplan!F72&lt;&gt;0, Aufwandsplan!F72, "")</f>
+        <v>25</v>
+      </c>
+      <c r="H73" s="7"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" s="22" t="str">
+        <f>IF(Aufwandsplan!A73&lt;&gt;0, Aufwandsplan!A73, "")</f>
+        <v>F3.3</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C74" s="22" t="str">
+        <f>IF(Aufwandsplan!B73&lt;&gt;0, Aufwandsplan!B73, "")</f>
+        <v/>
+      </c>
+      <c r="D74" s="22" t="str">
+        <f>IF(Aufwandsplan!C73&lt;&gt;0, Aufwandsplan!C73, "")</f>
+        <v>Implementierung "restl. Masken" (Anmeldung, Stundenplan erstellen, Laden)</v>
+      </c>
+      <c r="E74" s="22">
+        <f>IF(Aufwandsplan!D73&lt;&gt;0, Aufwandsplan!D73, "")</f>
+        <v>25</v>
+      </c>
+      <c r="F74" s="22" t="str">
+        <f>IF(Aufwandsplan!E73&lt;&gt;0, Aufwandsplan!E73, "")</f>
+        <v/>
+      </c>
+      <c r="G74" s="24">
+        <f>IF(Aufwandsplan!F73&lt;&gt;0, Aufwandsplan!F73, "")</f>
+        <v>25</v>
+      </c>
+      <c r="H74" s="7"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" s="22" t="str">
+        <f>IF(Aufwandsplan!A74&lt;&gt;0, Aufwandsplan!A74, "")</f>
+        <v>G1</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C75" s="22" t="str">
+        <f>IF(Aufwandsplan!B74&lt;&gt;0, Aufwandsplan!B74, "")</f>
+        <v>Test der Anwendung</v>
+      </c>
+      <c r="D75" s="22" t="str">
+        <f>IF(Aufwandsplan!C74&lt;&gt;0, Aufwandsplan!C74, "")</f>
+        <v/>
+      </c>
+      <c r="E75" s="22">
+        <f>IF(Aufwandsplan!D74&lt;&gt;0, Aufwandsplan!D74, "")</f>
+        <v>4</v>
+      </c>
+      <c r="F75" s="22" t="str">
+        <f>IF(Aufwandsplan!E74&lt;&gt;0, Aufwandsplan!E74, "")</f>
+        <v/>
+      </c>
+      <c r="G75" s="24">
+        <f>IF(Aufwandsplan!F74&lt;&gt;0, Aufwandsplan!F74, "")</f>
+        <v>4</v>
+      </c>
+      <c r="H75" s="7"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" s="22" t="str">
+        <f>IF(Aufwandsplan!A75&lt;&gt;0, Aufwandsplan!A75, "")</f>
+        <v>G2</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C76" s="22" t="str">
+        <f>IF(Aufwandsplan!B75&lt;&gt;0, Aufwandsplan!B75, "")</f>
+        <v>Anpassungen/Fehlerbehebung</v>
+      </c>
+      <c r="D76" s="22" t="str">
+        <f>IF(Aufwandsplan!C75&lt;&gt;0, Aufwandsplan!C75, "")</f>
+        <v/>
+      </c>
+      <c r="E76" s="22">
+        <f>IF(Aufwandsplan!D75&lt;&gt;0, Aufwandsplan!D75, "")</f>
+        <v>10</v>
+      </c>
+      <c r="F76" s="22" t="str">
+        <f>IF(Aufwandsplan!E75&lt;&gt;0, Aufwandsplan!E75, "")</f>
+        <v/>
+      </c>
+      <c r="G76" s="24">
+        <f>IF(Aufwandsplan!F75&lt;&gt;0, Aufwandsplan!F75, "")</f>
+        <v>10</v>
+      </c>
+      <c r="H76" s="7"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" s="22" t="str">
+        <f>IF(Aufwandsplan!A76&lt;&gt;0, Aufwandsplan!A76, "")</f>
+        <v>G3</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C77" s="27" t="str">
+        <f>IF(Aufwandsplan!B76&lt;&gt;0, Aufwandsplan!B76, "")</f>
+        <v>interne Abnahme</v>
+      </c>
+      <c r="D77" s="22" t="str">
+        <f>IF(Aufwandsplan!C76&lt;&gt;0, Aufwandsplan!C76, "")</f>
+        <v/>
+      </c>
+      <c r="E77" s="22">
+        <f>IF(Aufwandsplan!D76&lt;&gt;0, Aufwandsplan!D76, "")</f>
+        <v>5</v>
+      </c>
+      <c r="F77" s="22" t="str">
+        <f>IF(Aufwandsplan!E76&lt;&gt;0, Aufwandsplan!E76, "")</f>
+        <v/>
+      </c>
+      <c r="G77" s="24">
+        <f>IF(Aufwandsplan!F76&lt;&gt;0, Aufwandsplan!F76, "")</f>
+        <v>5</v>
+      </c>
+      <c r="H77" s="7"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="26"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B79" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="F79" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H79" s="7">
+        <f>COUNTIF(H4:H77,"SW")+COUNTIF(H4:H77,"alle")</f>
         <v>0</v>
       </c>
-      <c r="I68" s="7">
-        <f>COUNTIF(I4:I66,"SW")+COUNTIF(I4:I66,"alle")</f>
+      <c r="I79" s="7">
+        <f t="shared" ref="I79:T79" si="0">COUNTIF(I4:I77,"SW")+COUNTIF(I4:I77,"alle")</f>
         <v>3</v>
       </c>
-      <c r="J68" s="7">
-        <f t="shared" ref="J68:T68" si="0">COUNTIF(J4:J66,"SW")+COUNTIF(J4:J66,"alle")</f>
-        <v>2</v>
-      </c>
-      <c r="K68" s="7">
+      <c r="J79" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="L68" s="7">
+      <c r="K79" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L79" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M68" s="7">
+      <c r="M79" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N68" s="7">
+      <c r="N79" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O68" s="7">
+      <c r="O79" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P68" s="7">
+      <c r="P79" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q68" s="7">
+      <c r="Q79" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R68" s="7">
+      <c r="R79" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S68" s="7">
+      <c r="S79" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T68" s="7">
+      <c r="T79" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G69" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="H69" s="7">
-        <f>COUNTIF(H4:H66,"MW")+COUNTIF(H4:H66,"alle")</f>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B80" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H80" s="7">
+        <f>COUNTIF(H4:H77,"MW")+COUNTIF(H4:H77,"alle")</f>
         <v>0</v>
       </c>
-      <c r="I69" s="7">
-        <f t="shared" ref="I69:T69" si="1">COUNTIF(I4:I66,"MW")+COUNTIF(I4:I66,"alle")</f>
+      <c r="I80" s="7">
+        <f t="shared" ref="I80:T80" si="1">COUNTIF(I4:I77,"MW")+COUNTIF(I4:I77,"alle")</f>
         <v>3</v>
       </c>
-      <c r="J69" s="7">
+      <c r="J80" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K69" s="7">
+      <c r="K80" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L69" s="7">
+      <c r="L80" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M69" s="7">
+      <c r="M80" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N69" s="7">
+      <c r="N80" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O69" s="7">
+      <c r="O80" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P69" s="7">
+      <c r="P80" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q69" s="7">
+      <c r="Q80" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R69" s="7">
+      <c r="R80" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S69" s="7">
+      <c r="S80" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T69" s="7">
+      <c r="T80" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G70" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="H70" s="7">
-        <f>COUNTIF(H4:H66,"JNK")+COUNTIF(H4:H66,"alle")</f>
+    <row r="81" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G81" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H81" s="7">
+        <f>COUNTIF(H4:H77,"JNK")+COUNTIF(H4:H77,"alle")</f>
         <v>0</v>
       </c>
-      <c r="I70" s="7">
-        <f t="shared" ref="I70:T70" si="2">COUNTIF(I4:I66,"JNK")+COUNTIF(I4:I66,"alle")</f>
+      <c r="I81" s="7">
+        <f t="shared" ref="I81:T81" si="2">COUNTIF(I4:I77,"JNK")+COUNTIF(I4:I77,"alle")</f>
         <v>3</v>
       </c>
-      <c r="J70" s="7">
+      <c r="J81" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K70" s="7">
+      <c r="K81" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L70" s="7">
+      <c r="L81" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M70" s="7">
+      <c r="M81" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="N70" s="7">
+      <c r="N81" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O70" s="7">
+      <c r="O81" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P70" s="7">
+      <c r="P81" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q70" s="7">
+      <c r="Q81" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R70" s="7">
+      <c r="R81" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S70" s="7">
+      <c r="S81" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T70" s="7">
+      <c r="T81" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G71" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="H71" s="7">
-        <f>COUNTIF(H4:H66,"PD")+COUNTIF(H4:H66,"alle")</f>
+    <row r="82" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G82" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H82" s="7">
+        <f>COUNTIF(H4:H77,"PD")+COUNTIF(H4:H77,"alle")</f>
         <v>0</v>
       </c>
-      <c r="I71" s="7">
-        <f t="shared" ref="I71:T71" si="3">COUNTIF(I4:I66,"PD")+COUNTIF(I4:I66,"alle")</f>
+      <c r="I82" s="7">
+        <f t="shared" ref="I82:T82" si="3">COUNTIF(I4:I77,"PD")+COUNTIF(I4:I77,"alle")</f>
         <v>3</v>
       </c>
-      <c r="J71" s="7">
+      <c r="J82" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K71" s="7">
+      <c r="K82" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L71" s="7">
+      <c r="L82" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M71" s="7">
+      <c r="M82" s="7">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="N82" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="N71" s="7">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="O71" s="7">
+      <c r="O82" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P71" s="7">
+      <c r="P82" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q71" s="7">
+      <c r="Q82" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R71" s="7">
+      <c r="R82" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S71" s="7">
+      <c r="S82" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T71" s="7">
+      <c r="T82" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G72" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="H72" s="7">
-        <f>COUNTIF(H4:H66,"MU")+COUNTIF(H4:H66,"alle")</f>
+    <row r="83" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G83" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H83" s="7">
+        <f>COUNTIF(H4:H77,"MU")+COUNTIF(H4:H77,"alle")</f>
         <v>0</v>
       </c>
-      <c r="I72" s="7">
-        <f t="shared" ref="I72:T72" si="4">COUNTIF(I4:I66,"MU")+COUNTIF(I4:I66,"alle")</f>
+      <c r="I83" s="7">
+        <f t="shared" ref="I83:T83" si="4">COUNTIF(I4:I77,"MU")+COUNTIF(I4:I77,"alle")</f>
         <v>3</v>
       </c>
-      <c r="J72" s="7">
+      <c r="J83" s="7">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K72" s="7">
+      <c r="K83" s="7">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L72" s="7">
+      <c r="L83" s="7">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M72" s="7">
+      <c r="M83" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N72" s="7">
+      <c r="N83" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O72" s="7">
+      <c r="O83" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P72" s="7">
+      <c r="P83" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q72" s="7">
+      <c r="Q83" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R72" s="7">
+      <c r="R83" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S72" s="7">
+      <c r="S83" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T72" s="7">
+      <c r="T83" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -6567,97 +7530,97 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="27" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="27" t="s">
+      <c r="J2" s="38"/>
+      <c r="K2" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="36" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
       <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -6665,35 +7628,35 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -6701,37 +7664,37 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -7149,19 +8112,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7169,19 +8132,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7189,19 +8152,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7209,19 +8172,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7229,19 +8192,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7249,19 +8212,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -7269,19 +8232,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -7289,19 +8252,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -7309,19 +8272,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -7329,19 +8292,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -7349,19 +8312,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -7369,19 +8332,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7389,19 +8352,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -7409,19 +8372,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">

--- a/Doku/Managementplaene_und_listen.xlsx
+++ b/Doku/Managementplaene_und_listen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="90" windowWidth="13290" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="-30" yWindow="90" windowWidth="13290" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Strukturplan" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="278">
   <si>
     <t>Risikoliste</t>
   </si>
@@ -380,9 +380,6 @@
     <t>Planung mit Terminen als Motivationshilfe, Motivation durch die Gruppe insgesamt</t>
   </si>
   <si>
-    <t>Ist zum Einen durch Github automatisiert, zum anderen durch regelmäßigen Geuppentreffen.</t>
-  </si>
-  <si>
     <t>Dokumentenverwaltung</t>
   </si>
   <si>
@@ -864,6 +861,9 @@
   </si>
   <si>
     <t>Meilenstein (Planung)</t>
+  </si>
+  <si>
+    <t>Ist zum Einen durch Github automatisiert, zum anderen durch regelmäßigen Gruppentreffen.</t>
   </si>
 </sst>
 </file>
@@ -1110,6 +1110,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1143,10 +1147,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Akzent1" xfId="1" builtinId="29"/>
@@ -1452,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,7 +1488,7 @@
         <v>55</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>57</v>
@@ -1502,7 +1502,7 @@
       <c r="B4" s="15"/>
       <c r="C4" s="17"/>
       <c r="D4" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1516,12 +1516,12 @@
     </row>
     <row r="6" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1530,23 +1530,23 @@
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -1556,52 +1556,52 @@
     </row>
     <row r="10" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1609,40 +1609,40 @@
         <v>66</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1651,33 +1651,33 @@
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D19" s="15"/>
     </row>
     <row r="20" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>72</v>
@@ -1689,7 +1689,7 @@
     </row>
     <row r="23" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="1"/>
@@ -1699,7 +1699,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
@@ -1708,7 +1708,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1718,7 +1718,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1728,19 +1728,19 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>65</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1750,25 +1750,25 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
@@ -1778,47 +1778,47 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
@@ -1828,405 +1828,405 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="D48" s="1"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D52" s="1"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D70" s="1"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="B74" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="D74" s="1"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D75" s="1"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D76" s="1"/>
     </row>
@@ -2240,8 +2240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -2328,11 +2328,11 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -2350,7 +2350,7 @@
         <v>56</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="1"/>
@@ -2359,11 +2359,11 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D8" s="1">
         <v>6</v>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15" t="s">
@@ -2397,11 +2397,11 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D10" s="1">
         <v>6</v>
@@ -2416,10 +2416,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>199</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="1"/>
@@ -2428,11 +2428,11 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D12" s="1">
         <v>4</v>
@@ -2447,11 +2447,11 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D13" s="1">
         <v>4</v>
@@ -2464,11 +2464,11 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D14" s="1">
         <v>4</v>
@@ -2484,7 +2484,7 @@
         <v>66</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="1"/>
@@ -2493,11 +2493,11 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D16" s="1">
         <v>5</v>
@@ -2512,11 +2512,11 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D17" s="1">
         <v>5</v>
@@ -2531,11 +2531,11 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D18" s="1">
         <v>8</v>
@@ -2553,7 +2553,7 @@
         <v>67</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="1"/>
@@ -2565,11 +2565,11 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D20" s="1">
         <v>6</v>
@@ -2584,24 +2584,26 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D21" s="1">
         <v>10</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1">
+        <v>10</v>
+      </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>58</v>
@@ -2613,7 +2615,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
@@ -2632,7 +2634,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
@@ -2651,7 +2653,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
@@ -2670,7 +2672,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
@@ -2689,10 +2691,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2701,7 +2703,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
@@ -2720,40 +2722,44 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D29" s="1">
         <v>10</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1">
+        <v>10</v>
+      </c>
       <c r="F29" s="1">
         <f t="shared" ref="F29" si="1">D29-E29</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="D30" s="1">
         <v>8</v>
       </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1">
+        <v>8</v>
+      </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>68</v>
@@ -2765,11 +2771,11 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D32" s="1">
         <v>4</v>
@@ -2784,11 +2790,11 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D33" s="1">
         <v>4</v>
@@ -2803,11 +2809,11 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D34" s="1">
         <v>4</v>
@@ -2822,11 +2828,11 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D35" s="1">
         <v>4</v>
@@ -2841,7 +2847,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>69</v>
@@ -2853,11 +2859,11 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D37" s="1">
         <v>4</v>
@@ -2872,11 +2878,11 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D38" s="1">
         <v>4</v>
@@ -2891,11 +2897,11 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D39" s="1">
         <v>4</v>
@@ -2910,11 +2916,11 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D40" s="1">
         <v>4</v>
@@ -2929,11 +2935,11 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D41" s="1">
         <v>4</v>
@@ -2948,11 +2954,11 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D42" s="1">
         <v>4</v>
@@ -2967,11 +2973,11 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D43" s="1">
         <v>4</v>
@@ -2986,11 +2992,11 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D44" s="1">
         <v>4</v>
@@ -3005,11 +3011,11 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D45" s="1">
         <v>4</v>
@@ -3024,11 +3030,11 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D46" s="1">
         <v>4</v>
@@ -3043,11 +3049,11 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D47" s="1">
         <v>4</v>
@@ -3062,10 +3068,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -3074,11 +3080,11 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D49" s="1">
         <v>8</v>
@@ -3093,28 +3099,30 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D50" s="1">
         <v>8</v>
       </c>
-      <c r="E50" s="1"/>
+      <c r="E50" s="1">
+        <v>8</v>
+      </c>
       <c r="F50" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D51" s="1">
         <v>8</v>
@@ -3127,10 +3135,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -3139,11 +3147,11 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D53" s="1">
         <v>15</v>
@@ -3156,11 +3164,11 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" s="1">
         <v>34</v>
@@ -3173,10 +3181,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -3185,11 +3193,11 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D56" s="1">
         <v>12</v>
@@ -3202,11 +3210,11 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D57" s="1">
         <v>12</v>
@@ -3219,11 +3227,11 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D58" s="1">
         <v>12</v>
@@ -3236,11 +3244,11 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D59" s="1">
         <v>12</v>
@@ -3253,11 +3261,11 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D60" s="1">
         <v>12</v>
@@ -3270,11 +3278,11 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D61" s="1">
         <v>12</v>
@@ -3287,11 +3295,11 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D62" s="1">
         <v>12</v>
@@ -3304,11 +3312,11 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D63" s="1">
         <v>12</v>
@@ -3321,11 +3329,11 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D64" s="1">
         <v>20</v>
@@ -3338,11 +3346,11 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D65" s="1">
         <v>12</v>
@@ -3355,11 +3363,11 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D66" s="1">
         <v>12</v>
@@ -3372,11 +3380,11 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D67" s="1">
         <v>12</v>
@@ -3389,11 +3397,11 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D68" s="1">
         <v>12</v>
@@ -3406,11 +3414,11 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D69" s="1">
         <v>12</v>
@@ -3423,10 +3431,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -3435,11 +3443,11 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D71" s="1">
         <v>25</v>
@@ -3452,11 +3460,11 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D72" s="1">
         <v>25</v>
@@ -3469,11 +3477,11 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D73" s="1">
         <v>25</v>
@@ -3486,10 +3494,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1">
@@ -3503,10 +3511,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1">
@@ -3520,10 +3528,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1">
@@ -3741,11 +3749,11 @@
       </c>
       <c r="E102">
         <f>SUM(E3:E101)</f>
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="F102">
         <f>SUM(F3:F101)</f>
-        <v>374</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -3795,7 +3803,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>46</v>
@@ -3807,12 +3815,12 @@
         <v>37</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>47</v>
@@ -3824,12 +3832,12 @@
         <v>37</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>48</v>
@@ -3841,12 +3849,12 @@
         <v>37</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>49</v>
@@ -3858,15 +3866,15 @@
         <v>37</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>219</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>220</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>25</v>
@@ -3875,7 +3883,7 @@
         <v>37</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3901,8 +3909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3920,94 +3928,94 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="36" t="s">
         <v>40</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="O2" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="P2" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="Q2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="R2" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="S2" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="29" t="s">
+      <c r="T2" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
     </row>
     <row r="3" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="33"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="37"/>
       <c r="H3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="str">
@@ -4015,7 +4023,7 @@
         <v>A1</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C4" s="22" t="str">
         <f>IF(Aufwandsplan!B3&lt;&gt;0, Aufwandsplan!B3, "")</f>
@@ -4038,7 +4046,7 @@
         <v/>
       </c>
       <c r="H4" s="7"/>
-      <c r="I4" s="40"/>
+      <c r="I4" s="29"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -4057,7 +4065,7 @@
         <v>A1.1</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C5" s="22" t="str">
         <f>IF(Aufwandsplan!B4&lt;&gt;0, Aufwandsplan!B4, "")</f>
@@ -4101,7 +4109,7 @@
         <v>A1.2</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C6" s="22" t="str">
         <f>IF(Aufwandsplan!B5&lt;&gt;0, Aufwandsplan!B5, "")</f>
@@ -4145,7 +4153,7 @@
         <v>A1.3</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C7" s="22" t="str">
         <f>IF(Aufwandsplan!B6&lt;&gt;0, Aufwandsplan!B6, "")</f>
@@ -4189,9 +4197,9 @@
         <v>A2</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="C8" s="43" t="str">
+        <v>205</v>
+      </c>
+      <c r="C8" s="32" t="str">
         <f>IF(Aufwandsplan!B7&lt;&gt;0, Aufwandsplan!B7, "")</f>
         <v>Projektplanung</v>
       </c>
@@ -4214,7 +4222,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="42"/>
+      <c r="K8" s="31"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -4231,7 +4239,7 @@
         <v>A2.1</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C9" s="22" t="str">
         <f>IF(Aufwandsplan!B8&lt;&gt;0, Aufwandsplan!B8, "")</f>
@@ -4277,7 +4285,7 @@
         <v>A2.2</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C10" s="22" t="str">
         <f>IF(Aufwandsplan!B9&lt;&gt;0, Aufwandsplan!B9, "")</f>
@@ -4321,7 +4329,7 @@
         <v>A2.3</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C11" s="22" t="str">
         <f>IF(Aufwandsplan!B10&lt;&gt;0, Aufwandsplan!B10, "")</f>
@@ -4365,7 +4373,7 @@
         <v>A3</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C12" s="22" t="str">
         <f>IF(Aufwandsplan!B11&lt;&gt;0, Aufwandsplan!B11, "")</f>
@@ -4407,7 +4415,7 @@
         <v>A3.1</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C13" s="22" t="str">
         <f>IF(Aufwandsplan!B12&lt;&gt;0, Aufwandsplan!B12, "")</f>
@@ -4432,10 +4440,10 @@
       <c r="H13" s="7"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -4455,7 +4463,7 @@
         <v>A3.2</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="22" t="str">
         <f>IF(Aufwandsplan!B13&lt;&gt;0, Aufwandsplan!B13, "")</f>
@@ -4497,7 +4505,7 @@
         <v>A3.3</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C15" s="22" t="str">
         <f>IF(Aufwandsplan!B14&lt;&gt;0, Aufwandsplan!B14, "")</f>
@@ -4539,9 +4547,9 @@
         <v>B1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="43" t="str">
+        <v>125</v>
+      </c>
+      <c r="C16" s="32" t="str">
         <f>IF(Aufwandsplan!B15&lt;&gt;0, Aufwandsplan!B15, "")</f>
         <v>QM-Plan</v>
       </c>
@@ -4566,7 +4574,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="42"/>
+      <c r="M16" s="31"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -4581,7 +4589,7 @@
         <v>B1.1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C17" s="22" t="str">
         <f>IF(Aufwandsplan!B16&lt;&gt;0, Aufwandsplan!B16, "")</f>
@@ -4625,7 +4633,7 @@
         <v>B1.2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" s="22" t="str">
         <f>IF(Aufwandsplan!B17&lt;&gt;0, Aufwandsplan!B17, "")</f>
@@ -4671,7 +4679,7 @@
         <v>B1.3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C19" s="22" t="str">
         <f>IF(Aufwandsplan!B18&lt;&gt;0, Aufwandsplan!B18, "")</f>
@@ -4715,7 +4723,7 @@
         <v>B2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C20" s="22" t="str">
         <f>IF(Aufwandsplan!B19&lt;&gt;0, Aufwandsplan!B19, "")</f>
@@ -4757,7 +4765,7 @@
         <v>B2.1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C21" s="22" t="str">
         <f>IF(Aufwandsplan!B20&lt;&gt;0, Aufwandsplan!B20, "")</f>
@@ -4799,7 +4807,7 @@
         <v>B2.2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C22" s="22" t="str">
         <f>IF(Aufwandsplan!B21&lt;&gt;0, Aufwandsplan!B21, "")</f>
@@ -4813,13 +4821,13 @@
         <f>IF(Aufwandsplan!D21&lt;&gt;0, Aufwandsplan!D21, "")</f>
         <v>10</v>
       </c>
-      <c r="F22" s="22" t="str">
+      <c r="F22" s="22">
         <f>IF(Aufwandsplan!E21&lt;&gt;0, Aufwandsplan!E21, "")</f>
-        <v/>
-      </c>
-      <c r="G22" s="24">
+        <v>10</v>
+      </c>
+      <c r="G22" s="24" t="str">
         <f>IF(Aufwandsplan!F21&lt;&gt;0, Aufwandsplan!F21, "")</f>
-        <v>10</v>
+        <v/>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="1"/>
@@ -4908,7 +4916,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -4953,7 +4961,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -4998,7 +5006,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -5041,7 +5049,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -5126,7 +5134,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -5159,20 +5167,20 @@
         <f>IF(Aufwandsplan!D29&lt;&gt;0, Aufwandsplan!D29, "")</f>
         <v>10</v>
       </c>
-      <c r="F30" s="22" t="str">
+      <c r="F30" s="22">
         <f>IF(Aufwandsplan!E29&lt;&gt;0, Aufwandsplan!E29, "")</f>
-        <v/>
-      </c>
-      <c r="G30" s="24">
+        <v>10</v>
+      </c>
+      <c r="G30" s="24" t="str">
         <f>IF(Aufwandsplan!F29&lt;&gt;0, Aufwandsplan!F29, "")</f>
-        <v>10</v>
+        <v/>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -5203,20 +5211,20 @@
         <f>IF(Aufwandsplan!D30&lt;&gt;0, Aufwandsplan!D30, "")</f>
         <v>8</v>
       </c>
-      <c r="F31" s="22" t="str">
+      <c r="F31" s="22">
         <f>IF(Aufwandsplan!E30&lt;&gt;0, Aufwandsplan!E30, "")</f>
-        <v/>
-      </c>
-      <c r="G31" s="24">
+        <v>8</v>
+      </c>
+      <c r="G31" s="24" t="str">
         <f>IF(Aufwandsplan!F30&lt;&gt;0, Aufwandsplan!F30, "")</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -5235,7 +5243,7 @@
       <c r="B32" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="43" t="str">
+      <c r="C32" s="32" t="str">
         <f>IF(Aufwandsplan!B31&lt;&gt;0, Aufwandsplan!B31, "")</f>
         <v>Use Cases definieren</v>
       </c>
@@ -5261,7 +5269,7 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="42"/>
+      <c r="N32" s="31"/>
       <c r="O32" s="1"/>
       <c r="P32" s="26"/>
       <c r="Q32" s="1"/>
@@ -5347,7 +5355,7 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -5391,7 +5399,7 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -5436,7 +5444,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -5453,7 +5461,7 @@
       <c r="B37" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="43" t="str">
+      <c r="C37" s="32" t="str">
         <f>IF(Aufwandsplan!B36&lt;&gt;0, Aufwandsplan!B36, "")</f>
         <v>Application Functions definieren</v>
       </c>
@@ -5479,7 +5487,7 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-      <c r="N37" s="42"/>
+      <c r="N37" s="31"/>
       <c r="O37" s="1"/>
       <c r="P37" s="26"/>
       <c r="Q37" s="1"/>
@@ -5646,7 +5654,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
@@ -5691,7 +5699,7 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -5735,7 +5743,7 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -5782,7 +5790,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
-      <c r="Q44" s="40"/>
+      <c r="Q44" s="29"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
@@ -5866,7 +5874,7 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
@@ -5955,7 +5963,7 @@
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
-      <c r="R48" s="40"/>
+      <c r="R48" s="29"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
@@ -5965,7 +5973,7 @@
         <v>E1</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C49" s="22" t="str">
         <f>IF(Aufwandsplan!B48&lt;&gt;0, Aufwandsplan!B48, "")</f>
@@ -6007,7 +6015,7 @@
         <v>E1.1</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C50" s="22" t="str">
         <f>IF(Aufwandsplan!B49&lt;&gt;0, Aufwandsplan!B49, "")</f>
@@ -6035,7 +6043,9 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
+      <c r="N50" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
@@ -6049,7 +6059,7 @@
         <v>E1.2</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C51" s="22" t="str">
         <f>IF(Aufwandsplan!B50&lt;&gt;0, Aufwandsplan!B50, "")</f>
@@ -6063,13 +6073,13 @@
         <f>IF(Aufwandsplan!D50&lt;&gt;0, Aufwandsplan!D50, "")</f>
         <v>8</v>
       </c>
-      <c r="F51" s="22" t="str">
+      <c r="F51" s="22">
         <f>IF(Aufwandsplan!E50&lt;&gt;0, Aufwandsplan!E50, "")</f>
-        <v/>
-      </c>
-      <c r="G51" s="24">
+        <v>8</v>
+      </c>
+      <c r="G51" s="24" t="str">
         <f>IF(Aufwandsplan!F50&lt;&gt;0, Aufwandsplan!F50, "")</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="1"/>
@@ -6091,7 +6101,7 @@
         <v>E1.3</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C52" s="22" t="str">
         <f>IF(Aufwandsplan!B51&lt;&gt;0, Aufwandsplan!B51, "")</f>
@@ -6133,7 +6143,7 @@
         <v>F1</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C53" s="27" t="str">
         <f>IF(Aufwandsplan!B52&lt;&gt;0, Aufwandsplan!B52, "")</f>
@@ -6175,7 +6185,7 @@
         <v>F1.1</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C54" s="22" t="str">
         <f>IF(Aufwandsplan!B53&lt;&gt;0, Aufwandsplan!B53, "")</f>
@@ -6203,12 +6213,16 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
+      <c r="N54" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
-      <c r="S54" s="40"/>
+      <c r="S54" s="29"/>
       <c r="T54" s="1"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
@@ -6217,7 +6231,7 @@
         <v>F1.2</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C55" s="22" t="str">
         <f>IF(Aufwandsplan!B54&lt;&gt;0, Aufwandsplan!B54, "")</f>
@@ -6259,7 +6273,7 @@
         <v>F2</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C56" s="27" t="str">
         <f>IF(Aufwandsplan!B55&lt;&gt;0, Aufwandsplan!B55, "")</f>
@@ -6301,7 +6315,7 @@
         <v>F2.1</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C57" s="22" t="str">
         <f>IF(Aufwandsplan!B56&lt;&gt;0, Aufwandsplan!B56, "")</f>
@@ -6343,7 +6357,7 @@
         <v>F2.2</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C58" s="22" t="str">
         <f>IF(Aufwandsplan!B57&lt;&gt;0, Aufwandsplan!B57, "")</f>
@@ -6385,7 +6399,7 @@
         <v>F2.3</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C59" s="22" t="str">
         <f>IF(Aufwandsplan!B58&lt;&gt;0, Aufwandsplan!B58, "")</f>
@@ -6427,7 +6441,7 @@
         <v>F2.4</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C60" s="22" t="str">
         <f>IF(Aufwandsplan!B59&lt;&gt;0, Aufwandsplan!B59, "")</f>
@@ -6461,7 +6475,7 @@
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
-      <c r="T60" s="40"/>
+      <c r="T60" s="29"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="str">
@@ -6469,7 +6483,7 @@
         <v>F2.5</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C61" s="22" t="str">
         <f>IF(Aufwandsplan!B60&lt;&gt;0, Aufwandsplan!B60, "")</f>
@@ -6511,7 +6525,7 @@
         <v>F2.6</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C62" s="22" t="str">
         <f>IF(Aufwandsplan!B61&lt;&gt;0, Aufwandsplan!B61, "")</f>
@@ -6553,7 +6567,7 @@
         <v>F2.7</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="22" t="str">
         <f>IF(Aufwandsplan!B62&lt;&gt;0, Aufwandsplan!B62, "")</f>
@@ -6595,7 +6609,7 @@
         <v>F2.8</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C64" s="22" t="str">
         <f>IF(Aufwandsplan!B63&lt;&gt;0, Aufwandsplan!B63, "")</f>
@@ -6637,7 +6651,7 @@
         <v>F2.9</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C65" s="22" t="str">
         <f>IF(Aufwandsplan!B64&lt;&gt;0, Aufwandsplan!B64, "")</f>
@@ -6679,7 +6693,7 @@
         <v>F2.10</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C66" s="22" t="str">
         <f>IF(Aufwandsplan!B65&lt;&gt;0, Aufwandsplan!B65, "")</f>
@@ -6721,7 +6735,7 @@
         <v>F2.11</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C67" s="22" t="str">
         <f>IF(Aufwandsplan!B66&lt;&gt;0, Aufwandsplan!B66, "")</f>
@@ -6763,7 +6777,7 @@
         <v>F2.12</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="22" t="str">
         <f>IF(Aufwandsplan!B67&lt;&gt;0, Aufwandsplan!B67, "")</f>
@@ -6805,7 +6819,7 @@
         <v>F2.13</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C69" s="22" t="str">
         <f>IF(Aufwandsplan!B68&lt;&gt;0, Aufwandsplan!B68, "")</f>
@@ -6847,7 +6861,7 @@
         <v>F2.14</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C70" s="22" t="str">
         <f>IF(Aufwandsplan!B69&lt;&gt;0, Aufwandsplan!B69, "")</f>
@@ -6889,7 +6903,7 @@
         <v>F3</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C71" s="27" t="str">
         <f>IF(Aufwandsplan!B70&lt;&gt;0, Aufwandsplan!B70, "")</f>
@@ -6931,7 +6945,7 @@
         <v>F3.1</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C72" s="22" t="str">
         <f>IF(Aufwandsplan!B71&lt;&gt;0, Aufwandsplan!B71, "")</f>
@@ -6973,7 +6987,7 @@
         <v>F3.2</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C73" s="22" t="str">
         <f>IF(Aufwandsplan!B72&lt;&gt;0, Aufwandsplan!B72, "")</f>
@@ -7015,7 +7029,7 @@
         <v>F3.3</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C74" s="22" t="str">
         <f>IF(Aufwandsplan!B73&lt;&gt;0, Aufwandsplan!B73, "")</f>
@@ -7057,7 +7071,7 @@
         <v>G1</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C75" s="22" t="str">
         <f>IF(Aufwandsplan!B74&lt;&gt;0, Aufwandsplan!B74, "")</f>
@@ -7099,7 +7113,7 @@
         <v>G2</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C76" s="22" t="str">
         <f>IF(Aufwandsplan!B75&lt;&gt;0, Aufwandsplan!B75, "")</f>
@@ -7141,7 +7155,7 @@
         <v>G3</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C77" s="27" t="str">
         <f>IF(Aufwandsplan!B76&lt;&gt;0, Aufwandsplan!B76, "")</f>
@@ -7179,10 +7193,10 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B79" s="28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F79" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G79" s="9" t="s">
         <v>89</v>
@@ -7217,7 +7231,7 @@
       </c>
       <c r="O79" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P79" s="7">
         <f t="shared" si="0"/>
@@ -7241,8 +7255,8 @@
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B80" s="41" t="s">
-        <v>276</v>
+      <c r="B80" s="30" t="s">
+        <v>275</v>
       </c>
       <c r="G80" s="9" t="s">
         <v>91</v>
@@ -7273,7 +7287,7 @@
       </c>
       <c r="N80" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O80" s="7">
         <f t="shared" si="1"/>
@@ -7302,7 +7316,7 @@
     </row>
     <row r="81" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G81" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H81" s="7">
         <f>COUNTIF(H4:H77,"JNK")+COUNTIF(H4:H77,"alle")</f>
@@ -7359,7 +7373,7 @@
     </row>
     <row r="82" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G82" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H82" s="7">
         <f>COUNTIF(H4:H77,"PD")+COUNTIF(H4:H77,"alle")</f>
@@ -7416,7 +7430,7 @@
     </row>
     <row r="83" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G83" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H83" s="7">
         <f>COUNTIF(H4:H77,"MU")+COUNTIF(H4:H77,"alle")</f>
@@ -7444,7 +7458,7 @@
       </c>
       <c r="N83" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O83" s="7">
         <f t="shared" si="4"/>
@@ -7530,97 +7544,97 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="35" t="s">
+      <c r="F2" s="42"/>
+      <c r="G2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="35" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="L2" s="40" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
       <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -7628,35 +7642,35 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -7664,13 +7678,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>92</v>
@@ -7691,10 +7705,10 @@
         <v>27</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -8069,7 +8083,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8344,7 +8358,7 @@
         <v>92</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>116</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">

--- a/Doku/Managementplaene_und_listen.xlsx
+++ b/Doku/Managementplaene_und_listen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="90" windowWidth="13290" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="-30" yWindow="90" windowWidth="13290" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Strukturplan" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="LOP" sheetId="5" r:id="rId5"/>
     <sheet name="Risikoliste" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="323">
   <si>
     <t>Risikoliste</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>Quelle</t>
-  </si>
-  <si>
-    <t>Kritikalität</t>
   </si>
   <si>
     <t>Eigentümer</t>
@@ -270,9 +267,6 @@
     <t>Technische Anforderungen zu hoch</t>
   </si>
   <si>
-    <t>Versionsrisiko Prorammierung</t>
-  </si>
-  <si>
     <t>Konflikt innerhalb der Gruppe</t>
   </si>
   <si>
@@ -864,6 +858,147 @@
   </si>
   <si>
     <t>Ist zum Einen durch Github automatisiert, zum anderen durch regelmäßigen Gruppentreffen.</t>
+  </si>
+  <si>
+    <t>Eintrittswahrscheinlichkeit</t>
+  </si>
+  <si>
+    <t>Entstehender Schaden</t>
+  </si>
+  <si>
+    <t>Versionsrisiko Programmierung</t>
+  </si>
+  <si>
+    <t>Application Function "Dozentenmodule bereitstellen" definieren und spezifizieren</t>
+  </si>
+  <si>
+    <t>Application Function "Räume bereitstellen" definieren und spezifizieren</t>
+  </si>
+  <si>
+    <t>Application Function "Dozentenliste bereitstellen" definieren und spezifizieren</t>
+  </si>
+  <si>
+    <t>Application Function "Dozent bereitstellen" definieren und spezifizieren</t>
+  </si>
+  <si>
+    <t>D3.12</t>
+  </si>
+  <si>
+    <t>D3.13</t>
+  </si>
+  <si>
+    <t>D3.14</t>
+  </si>
+  <si>
+    <t>D3.15</t>
+  </si>
+  <si>
+    <t>Application Function "Zufälligen Dozent mit Zeitpräferenz laden" definieren und spezifizieren</t>
+  </si>
+  <si>
+    <t>Application Function "Zufälliges Modul des Dozenten laden" definieren und spezifizieren</t>
+  </si>
+  <si>
+    <t>Application Function "Zeitslotinformationen speichern" definieren und spezifizieren</t>
+  </si>
+  <si>
+    <t>Application Function "Zeitslot des Dozenten sperren" definieren und spezifizieren</t>
+  </si>
+  <si>
+    <t>Application Function "Modul als verplant speichern" definieren und spezifizieren</t>
+  </si>
+  <si>
+    <t>D3.16</t>
+  </si>
+  <si>
+    <t>Application Function "Zufälligen Dozent ohne Zeitpräferenz laden" definieren und spezifizieren</t>
+  </si>
+  <si>
+    <t>Entwurf "restl. Masken" (Menü, Stundenplan berechnen)</t>
+  </si>
+  <si>
+    <t>D3.17</t>
+  </si>
+  <si>
+    <t>Application Function "Stundenplan optimieren" definieren und spezifizieren</t>
+  </si>
+  <si>
+    <t>Summen:</t>
+  </si>
+  <si>
+    <t>Application Function "Zeiten Speichern" implementieren</t>
+  </si>
+  <si>
+    <t>Application Function "Zeitpraeferenzen bereitstellen" implementieren</t>
+  </si>
+  <si>
+    <t>Application Function "Dozentenliste bereitstellen"  implementieren</t>
+  </si>
+  <si>
+    <t>Application Function "Dozent bereitstellen" d implementieren</t>
+  </si>
+  <si>
+    <t>Application Function "Stundenplan speichern" implementieren</t>
+  </si>
+  <si>
+    <t>Application Function "Stundenplan berechnen" implementieren</t>
+  </si>
+  <si>
+    <t>Application Function "Stundenplan optimieren" implementieren</t>
+  </si>
+  <si>
+    <t>Application Function "Stundenplan anzeigen"  implementieren</t>
+  </si>
+  <si>
+    <t>Application Function "Studiengaenge bereitstellen" implementieren</t>
+  </si>
+  <si>
+    <t>Application Function "Dozentenmodule bereitstellen" implementieren</t>
+  </si>
+  <si>
+    <t>Application Function "Räume bereitstellen" implementieren</t>
+  </si>
+  <si>
+    <t>Application Function "Zufälligen Dozent mit Zeitpräferenz laden" implementieren</t>
+  </si>
+  <si>
+    <t>Application Function "Zufälliges Modul des Dozenten laden" implementieren</t>
+  </si>
+  <si>
+    <t>Application Function "Zeitslotinformationen speichern" implementieren</t>
+  </si>
+  <si>
+    <t>Application Function "Zeitslot des Dozenten sperren" implementieren</t>
+  </si>
+  <si>
+    <t>Application Function "Modul als verplant speichern" implementieren</t>
+  </si>
+  <si>
+    <t>Application Function "Zufälligen Dozent ohne Zeitpräferenz laden" implementieren</t>
+  </si>
+  <si>
+    <t>F2.15</t>
+  </si>
+  <si>
+    <t>F2.16</t>
+  </si>
+  <si>
+    <t>F2.17</t>
+  </si>
+  <si>
+    <t>F2.18</t>
+  </si>
+  <si>
+    <t>F2.19</t>
+  </si>
+  <si>
+    <t>F2.20</t>
+  </si>
+  <si>
+    <t>KW1</t>
+  </si>
+  <si>
+    <t>KW2</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1207,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1108,12 +1243,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1127,9 +1260,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1146,6 +1276,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1466,7 +1599,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1474,79 +1607,79 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="17"/>
       <c r="D4" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="15"/>
       <c r="D5" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -1556,677 +1689,677 @@
     </row>
     <row r="10" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D19" s="15"/>
     </row>
     <row r="20" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D48" s="1"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C52" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D52" s="1"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D70" s="1"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D74" s="1"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D75" s="1"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D76" s="1"/>
     </row>
@@ -2238,22 +2371,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="83.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2261,27 +2394,27 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2290,11 +2423,11 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -2309,11 +2442,11 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -2322,17 +2455,17 @@
         <v>2</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" ref="F5:F76" si="0">D5-E5</f>
+        <f t="shared" ref="F5:F88" si="0">D5-E5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -2347,10 +2480,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="1"/>
@@ -2359,11 +2492,11 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D8" s="1">
         <v>6</v>
@@ -2378,7 +2511,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15" t="s">
@@ -2397,11 +2530,11 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D10" s="1">
         <v>6</v>
@@ -2416,10 +2549,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="1"/>
@@ -2428,11 +2561,11 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D12" s="1">
         <v>4</v>
@@ -2447,11 +2580,11 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D13" s="1">
         <v>4</v>
@@ -2464,11 +2597,11 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D14" s="1">
         <v>4</v>
@@ -2481,10 +2614,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="1"/>
@@ -2493,11 +2626,11 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D16" s="1">
         <v>5</v>
@@ -2512,11 +2645,11 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D17" s="1">
         <v>5</v>
@@ -2531,11 +2664,11 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D18" s="1">
         <v>8</v>
@@ -2550,10 +2683,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="1"/>
@@ -2565,11 +2698,11 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D20" s="1">
         <v>6</v>
@@ -2584,11 +2717,11 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D21" s="1">
         <v>10</v>
@@ -2603,10 +2736,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2615,11 +2748,11 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23" s="1">
         <v>8</v>
@@ -2634,11 +2767,11 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24" s="1">
         <v>6</v>
@@ -2653,11 +2786,11 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" s="1">
         <v>6</v>
@@ -2672,11 +2805,11 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
@@ -2691,10 +2824,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2703,11 +2836,11 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="1">
         <v>8</v>
@@ -2722,11 +2855,11 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D29" s="1">
         <v>10</v>
@@ -2741,10 +2874,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D30" s="1">
         <v>8</v>
@@ -2759,10 +2892,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2771,11 +2904,11 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D32" s="1">
         <v>4</v>
@@ -2790,11 +2923,11 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D33" s="1">
         <v>4</v>
@@ -2809,30 +2942,30 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D34" s="1">
         <v>4</v>
       </c>
       <c r="E34" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D35" s="1">
         <v>4</v>
@@ -2847,10 +2980,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2859,17 +2992,17 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D37" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E37" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="0"/>
@@ -2878,17 +3011,17 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D38" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E38" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="0"/>
@@ -2897,17 +3030,17 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="D39" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E39" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
@@ -2916,17 +3049,17 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="D40" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E40" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
@@ -2935,17 +3068,17 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D41" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E41" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
@@ -2954,55 +3087,53 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D42" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E42" s="1">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="D43" s="1">
-        <v>4</v>
-      </c>
-      <c r="E43" s="1">
-        <v>4</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E43" s="1"/>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D44" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E44" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="0"/>
@@ -3011,17 +3142,17 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D45" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E45" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="0"/>
@@ -3030,17 +3161,17 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="D46" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E46" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="0"/>
@@ -3049,257 +3180,253 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D47" s="1">
-        <v>4</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="D47" s="1"/>
       <c r="E47" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C48" s="1"/>
+        <v>283</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>287</v>
+      </c>
       <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+      <c r="E48" s="1">
+        <v>3</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>150</v>
+        <v>284</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D49" s="1">
-        <v>8</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="D49" s="1"/>
       <c r="E49" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>157</v>
+        <v>285</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D50" s="1">
-        <v>8</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="D50" s="1"/>
       <c r="E50" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="20" t="s">
-        <v>196</v>
+      <c r="A51" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D51" s="1">
-        <v>8</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B52" t="s">
-        <v>164</v>
-      </c>
-      <c r="C52" s="1"/>
+        <v>292</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+      <c r="F52" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>168</v>
+        <v>295</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D53" s="1">
-        <v>15</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D54" s="1">
-        <v>34</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="1">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
+      <c r="F54" s="1"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
+        <v>148</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D55" s="1">
+        <v>8</v>
+      </c>
+      <c r="E55" s="1">
+        <v>8</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D56" s="1">
-        <v>12</v>
-      </c>
-      <c r="E56" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="E56" s="1">
+        <v>8</v>
+      </c>
       <c r="F56" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>171</v>
+      <c r="A57" s="20" t="s">
+        <v>194</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>233</v>
+        <v>294</v>
       </c>
       <c r="D57" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D58" s="1">
-        <v>12</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="B58" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
+      <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>270</v>
+        <v>164</v>
       </c>
       <c r="D59" s="1">
-        <v>12</v>
-      </c>
-      <c r="E59" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="E59" s="1">
+        <v>15</v>
+      </c>
       <c r="F59" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>271</v>
+        <v>165</v>
       </c>
       <c r="D60" s="1">
+        <v>34</v>
+      </c>
+      <c r="E60" s="1">
         <v>12</v>
       </c>
-      <c r="E60" s="1"/>
       <c r="F60" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D61" s="1">
-        <v>12</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
+      <c r="F61" s="1"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>255</v>
+        <v>168</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="D62" s="1">
         <v>12</v>
@@ -3312,11 +3439,11 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>256</v>
+        <v>169</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
       <c r="D63" s="1">
         <v>12</v>
@@ -3329,28 +3456,28 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>257</v>
+        <v>188</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="D64" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>258</v>
+        <v>189</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="D65" s="1">
         <v>12</v>
@@ -3363,11 +3490,11 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>259</v>
+        <v>190</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="D66" s="1">
         <v>12</v>
@@ -3380,11 +3507,11 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>260</v>
+        <v>191</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="D67" s="1">
         <v>12</v>
@@ -3397,11 +3524,11 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="D68" s="1">
         <v>12</v>
@@ -3414,11 +3541,11 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="D69" s="1">
         <v>12</v>
@@ -3431,215 +3558,314 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
+        <v>255</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D70" s="1">
+        <v>22</v>
+      </c>
+      <c r="E70" s="1">
+        <v>12</v>
+      </c>
+      <c r="F70" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>189</v>
+        <v>256</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>226</v>
+        <v>304</v>
       </c>
       <c r="D71" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>194</v>
+        <v>257</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
-        <v>225</v>
+        <v>305</v>
       </c>
       <c r="D72" s="1">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>195</v>
+        <v>258</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
-        <v>230</v>
+        <v>306</v>
       </c>
       <c r="D73" s="1">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C74" s="1"/>
+        <v>259</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1" t="s">
+        <v>307</v>
+      </c>
       <c r="D74" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1">
-        <v>10</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1">
-        <v>5</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>316</v>
+      </c>
       <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
+      <c r="C77" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
+      <c r="F77" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
+      <c r="A78" s="1" t="s">
+        <v>317</v>
+      </c>
       <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
+      <c r="C78" s="1" t="s">
+        <v>311</v>
+      </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
+      <c r="F78" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
+      <c r="A79" s="1" t="s">
+        <v>318</v>
+      </c>
       <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
+      <c r="C79" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
+      <c r="F79" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
+      <c r="A80" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
+      <c r="C80" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
+      <c r="F80" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
+      <c r="A81" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
+      <c r="C81" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
+      <c r="F81" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
+      <c r="A82" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
+      <c r="F82" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
+      <c r="A83" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
+      <c r="C83" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D83" s="1">
+        <v>25</v>
+      </c>
       <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
+      <c r="F83" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
+      <c r="A84" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
+      <c r="C84" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D84" s="1">
+        <v>25</v>
+      </c>
       <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
+      <c r="F84" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
+      <c r="A85" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
+      <c r="C85" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D85" s="1">
+        <v>25</v>
+      </c>
       <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
+      <c r="F85" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
+      <c r="A86" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
+      <c r="D86" s="1">
+        <v>4</v>
+      </c>
       <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
+      <c r="F86" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
+      <c r="A87" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>219</v>
+      </c>
       <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
+      <c r="D87" s="1">
+        <v>10</v>
+      </c>
       <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
+      <c r="F87" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
+      <c r="A88" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
+      <c r="D88" s="1">
+        <v>5</v>
+      </c>
       <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
+      <c r="F88" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3743,17 +3969,116 @@
       <c r="F101" s="1"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D102">
-        <f>SUM(D3:D101)</f>
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C114" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="D114" s="2">
+        <f>SUM(D3:D113)</f>
         <v>520</v>
       </c>
-      <c r="E102">
-        <f>SUM(E3:E101)</f>
-        <v>182</v>
-      </c>
-      <c r="F102">
-        <f>SUM(F3:F101)</f>
-        <v>338</v>
+      <c r="E114" s="2">
+        <f>SUM(E3:E113)</f>
+        <v>233</v>
+      </c>
+      <c r="F114" s="2">
+        <f>SUM(F3:F113)</f>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -3781,109 +4106,109 @@
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3907,10 +4232,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V83"/>
+  <dimension ref="A1:V95"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H67" sqref="H67:H200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3924,98 +4250,102 @@
   <sheetData>
     <row r="1" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="34" t="s">
+      <c r="C2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="D2" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="E2" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="J2" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="V2" s="31" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-    </row>
-    <row r="3" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="str">
@@ -4023,7 +4353,7 @@
         <v>A1</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C4" s="22" t="str">
         <f>IF(Aufwandsplan!B3&lt;&gt;0, Aufwandsplan!B3, "")</f>
@@ -4046,7 +4376,7 @@
         <v/>
       </c>
       <c r="H4" s="7"/>
-      <c r="I4" s="29"/>
+      <c r="I4" s="28"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -4058,6 +4388,8 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="str">
@@ -4065,7 +4397,7 @@
         <v>A1.1</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C5" s="22" t="str">
         <f>IF(Aufwandsplan!B4&lt;&gt;0, Aufwandsplan!B4, "")</f>
@@ -4089,7 +4421,7 @@
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -4102,6 +4434,8 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="str">
@@ -4109,7 +4443,7 @@
         <v>A1.2</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C6" s="22" t="str">
         <f>IF(Aufwandsplan!B5&lt;&gt;0, Aufwandsplan!B5, "")</f>
@@ -4133,7 +4467,7 @@
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -4146,6 +4480,8 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="str">
@@ -4153,7 +4489,7 @@
         <v>A1.3</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C7" s="22" t="str">
         <f>IF(Aufwandsplan!B6&lt;&gt;0, Aufwandsplan!B6, "")</f>
@@ -4177,7 +4513,7 @@
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -4190,6 +4526,8 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="str">
@@ -4197,9 +4535,9 @@
         <v>A2</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="C8" s="32" t="str">
+        <v>203</v>
+      </c>
+      <c r="C8" s="22" t="str">
         <f>IF(Aufwandsplan!B7&lt;&gt;0, Aufwandsplan!B7, "")</f>
         <v>Projektplanung</v>
       </c>
@@ -4222,7 +4560,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="31"/>
+      <c r="K8" s="30"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -4232,6 +4570,8 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="str">
@@ -4239,7 +4579,7 @@
         <v>A2.1</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C9" s="22" t="str">
         <f>IF(Aufwandsplan!B8&lt;&gt;0, Aufwandsplan!B8, "")</f>
@@ -4264,10 +4604,10 @@
       <c r="H9" s="7"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -4278,6 +4618,8 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="str">
@@ -4285,7 +4627,7 @@
         <v>A2.2</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C10" s="22" t="str">
         <f>IF(Aufwandsplan!B9&lt;&gt;0, Aufwandsplan!B9, "")</f>
@@ -4310,7 +4652,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -4322,6 +4664,8 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="str">
@@ -4329,7 +4673,7 @@
         <v>A2.3</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C11" s="22" t="str">
         <f>IF(Aufwandsplan!B10&lt;&gt;0, Aufwandsplan!B10, "")</f>
@@ -4355,7 +4699,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -4366,6 +4710,8 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="str">
@@ -4373,7 +4719,7 @@
         <v>A3</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C12" s="22" t="str">
         <f>IF(Aufwandsplan!B11&lt;&gt;0, Aufwandsplan!B11, "")</f>
@@ -4408,6 +4754,8 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="str">
@@ -4415,7 +4763,7 @@
         <v>A3.1</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C13" s="22" t="str">
         <f>IF(Aufwandsplan!B12&lt;&gt;0, Aufwandsplan!B12, "")</f>
@@ -4440,15 +4788,15 @@
       <c r="H13" s="7"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -4456,6 +4804,8 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="str">
@@ -4463,7 +4813,7 @@
         <v>A3.2</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C14" s="22" t="str">
         <f>IF(Aufwandsplan!B13&lt;&gt;0, Aufwandsplan!B13, "")</f>
@@ -4498,6 +4848,8 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="str">
@@ -4505,7 +4857,7 @@
         <v>A3.3</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C15" s="22" t="str">
         <f>IF(Aufwandsplan!B14&lt;&gt;0, Aufwandsplan!B14, "")</f>
@@ -4540,6 +4892,8 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="str">
@@ -4547,9 +4901,9 @@
         <v>B1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" s="32" t="str">
+        <v>123</v>
+      </c>
+      <c r="C16" s="22" t="str">
         <f>IF(Aufwandsplan!B15&lt;&gt;0, Aufwandsplan!B15, "")</f>
         <v>QM-Plan</v>
       </c>
@@ -4574,7 +4928,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="31"/>
+      <c r="M16" s="30"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -4582,14 +4936,16 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="str">
         <f>IF(Aufwandsplan!A16&lt;&gt;0, Aufwandsplan!A16, "")</f>
         <v>B1.1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C17" s="22" t="str">
         <f>IF(Aufwandsplan!B16&lt;&gt;0, Aufwandsplan!B16, "")</f>
@@ -4614,7 +4970,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -4626,14 +4982,16 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="str">
         <f>IF(Aufwandsplan!A17&lt;&gt;0, Aufwandsplan!A17, "")</f>
         <v>B1.2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C18" s="22" t="str">
         <f>IF(Aufwandsplan!B17&lt;&gt;0, Aufwandsplan!B17, "")</f>
@@ -4658,10 +5016,10 @@
       <c r="H18" s="7"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -4672,14 +5030,16 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="str">
         <f>IF(Aufwandsplan!A18&lt;&gt;0, Aufwandsplan!A18, "")</f>
         <v>B1.3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C19" s="22" t="str">
         <f>IF(Aufwandsplan!B18&lt;&gt;0, Aufwandsplan!B18, "")</f>
@@ -4706,7 +5066,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -4716,14 +5076,16 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="str">
         <f>IF(Aufwandsplan!A19&lt;&gt;0, Aufwandsplan!A19, "")</f>
         <v>B2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C20" s="22" t="str">
         <f>IF(Aufwandsplan!B19&lt;&gt;0, Aufwandsplan!B19, "")</f>
@@ -4758,14 +5120,16 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="str">
         <f>IF(Aufwandsplan!A20&lt;&gt;0, Aufwandsplan!A20, "")</f>
         <v>B2.1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C21" s="22" t="str">
         <f>IF(Aufwandsplan!B20&lt;&gt;0, Aufwandsplan!B20, "")</f>
@@ -4800,14 +5164,16 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="str">
         <f>IF(Aufwandsplan!A21&lt;&gt;0, Aufwandsplan!A21, "")</f>
         <v>B2.2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C22" s="22" t="str">
         <f>IF(Aufwandsplan!B21&lt;&gt;0, Aufwandsplan!B21, "")</f>
@@ -4842,14 +5208,16 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="str">
         <f>IF(Aufwandsplan!A22&lt;&gt;0, Aufwandsplan!A22, "")</f>
         <v>C1</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C23" s="22" t="str">
         <f>IF(Aufwandsplan!B22&lt;&gt;0, Aufwandsplan!B22, "")</f>
@@ -4884,14 +5252,16 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="str">
         <f>IF(Aufwandsplan!A23&lt;&gt;0, Aufwandsplan!A23, "")</f>
         <v>C1.1</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" s="22" t="str">
         <f>IF(Aufwandsplan!B23&lt;&gt;0, Aufwandsplan!B23, "")</f>
@@ -4916,7 +5286,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -4928,14 +5298,16 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="str">
         <f>IF(Aufwandsplan!A24&lt;&gt;0, Aufwandsplan!A24, "")</f>
         <v>C1.2</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" s="22" t="str">
         <f>IF(Aufwandsplan!B24&lt;&gt;0, Aufwandsplan!B24, "")</f>
@@ -4961,7 +5333,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -4972,14 +5344,16 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="str">
         <f>IF(Aufwandsplan!A25&lt;&gt;0, Aufwandsplan!A25, "")</f>
         <v>C1.3</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="22" t="str">
         <f>IF(Aufwandsplan!B25&lt;&gt;0, Aufwandsplan!B25, "")</f>
@@ -5006,7 +5380,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -5016,14 +5390,16 @@
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="str">
         <f>IF(Aufwandsplan!A26&lt;&gt;0, Aufwandsplan!A26, "")</f>
         <v>C1.4</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" s="22" t="str">
         <f>IF(Aufwandsplan!B26&lt;&gt;0, Aufwandsplan!B26, "")</f>
@@ -5049,7 +5425,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -5060,16 +5436,18 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="str">
         <f>IF(Aufwandsplan!A27&lt;&gt;0, Aufwandsplan!A27, "")</f>
         <v>D1</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="27" t="str">
+        <v>64</v>
+      </c>
+      <c r="C28" s="22" t="str">
         <f>IF(Aufwandsplan!B27&lt;&gt;0, Aufwandsplan!B27, "")</f>
         <v>Modelle</v>
       </c>
@@ -5095,21 +5473,22 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
+      <c r="N28" s="30"/>
       <c r="O28" s="1"/>
-      <c r="P28" s="26"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="str">
         <f>IF(Aufwandsplan!A28&lt;&gt;0, Aufwandsplan!A28, "")</f>
         <v>D1.1</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="22" t="str">
         <f>IF(Aufwandsplan!B28&lt;&gt;0, Aufwandsplan!B28, "")</f>
@@ -5134,7 +5513,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -5146,14 +5525,16 @@
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="str">
         <f>IF(Aufwandsplan!A29&lt;&gt;0, Aufwandsplan!A29, "")</f>
         <v>D1.2</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C30" s="22" t="str">
         <f>IF(Aufwandsplan!B29&lt;&gt;0, Aufwandsplan!B29, "")</f>
@@ -5180,7 +5561,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -5190,14 +5571,16 @@
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="str">
         <f>IF(Aufwandsplan!A30&lt;&gt;0, Aufwandsplan!A30, "")</f>
         <v>D1.3</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" s="22" t="str">
         <f>IF(Aufwandsplan!B30&lt;&gt;0, Aufwandsplan!B30, "")</f>
@@ -5223,27 +5606,31 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="str">
         <f>IF(Aufwandsplan!A31&lt;&gt;0, Aufwandsplan!A31, "")</f>
         <v>D2</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="32" t="str">
+        <v>64</v>
+      </c>
+      <c r="C32" s="22" t="str">
         <f>IF(Aufwandsplan!B31&lt;&gt;0, Aufwandsplan!B31, "")</f>
         <v>Use Cases definieren</v>
       </c>
@@ -5269,21 +5656,21 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="26"/>
+      <c r="N32" s="30"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="str">
         <f>IF(Aufwandsplan!A32&lt;&gt;0, Aufwandsplan!A32, "")</f>
         <v>D2.1</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" s="22" t="str">
         <f>IF(Aufwandsplan!B32&lt;&gt;0, Aufwandsplan!B32, "")</f>
@@ -5310,7 +5697,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -5320,14 +5707,16 @@
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="str">
         <f>IF(Aufwandsplan!A33&lt;&gt;0, Aufwandsplan!A33, "")</f>
         <v>D2.2</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" s="22" t="str">
         <f>IF(Aufwandsplan!B33&lt;&gt;0, Aufwandsplan!B33, "")</f>
@@ -5355,7 +5744,7 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -5364,14 +5753,16 @@
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="str">
         <f>IF(Aufwandsplan!A34&lt;&gt;0, Aufwandsplan!A34, "")</f>
         <v>D2.3</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C35" s="22" t="str">
         <f>IF(Aufwandsplan!B34&lt;&gt;0, Aufwandsplan!B34, "")</f>
@@ -5387,11 +5778,11 @@
       </c>
       <c r="F35" s="22">
         <f>IF(Aufwandsplan!E34&lt;&gt;0, Aufwandsplan!E34, "")</f>
-        <v>4</v>
-      </c>
-      <c r="G35" s="24" t="str">
+        <v>7</v>
+      </c>
+      <c r="G35" s="24">
         <f>IF(Aufwandsplan!F34&lt;&gt;0, Aufwandsplan!F34, "")</f>
-        <v/>
+        <v>-3</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="1"/>
@@ -5399,7 +5790,7 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -5408,14 +5799,16 @@
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="str">
         <f>IF(Aufwandsplan!A35&lt;&gt;0, Aufwandsplan!A35, "")</f>
         <v>D2.4</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C36" s="22" t="str">
         <f>IF(Aufwandsplan!B35&lt;&gt;0, Aufwandsplan!B35, "")</f>
@@ -5444,7 +5837,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -5452,16 +5845,18 @@
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="str">
         <f>IF(Aufwandsplan!A36&lt;&gt;0, Aufwandsplan!A36, "")</f>
         <v>D3</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="32" t="str">
+        <v>64</v>
+      </c>
+      <c r="C37" s="22" t="str">
         <f>IF(Aufwandsplan!B36&lt;&gt;0, Aufwandsplan!B36, "")</f>
         <v>Application Functions definieren</v>
       </c>
@@ -5487,21 +5882,20 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="1"/>
       <c r="P37" s="26"/>
       <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
+      <c r="R37" s="30"/>
       <c r="T37" s="1"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="str">
         <f>IF(Aufwandsplan!A37&lt;&gt;0, Aufwandsplan!A37, "")</f>
         <v>D3.1</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C38" s="22" t="str">
         <f>IF(Aufwandsplan!B37&lt;&gt;0, Aufwandsplan!B37, "")</f>
@@ -5513,11 +5907,11 @@
       </c>
       <c r="E38" s="22">
         <f>IF(Aufwandsplan!D37&lt;&gt;0, Aufwandsplan!D37, "")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F38" s="22">
         <f>IF(Aufwandsplan!E37&lt;&gt;0, Aufwandsplan!E37, "")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G38" s="24" t="str">
         <f>IF(Aufwandsplan!F37&lt;&gt;0, Aufwandsplan!F37, "")</f>
@@ -5529,21 +5923,25 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
+      <c r="N38" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="str">
         <f>IF(Aufwandsplan!A38&lt;&gt;0, Aufwandsplan!A38, "")</f>
         <v>D3.2</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C39" s="22" t="str">
         <f>IF(Aufwandsplan!B38&lt;&gt;0, Aufwandsplan!B38, "")</f>
@@ -5555,11 +5953,11 @@
       </c>
       <c r="E39" s="22">
         <f>IF(Aufwandsplan!D38&lt;&gt;0, Aufwandsplan!D38, "")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F39" s="22">
         <f>IF(Aufwandsplan!E38&lt;&gt;0, Aufwandsplan!E38, "")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G39" s="24" t="str">
         <f>IF(Aufwandsplan!F38&lt;&gt;0, Aufwandsplan!F38, "")</f>
@@ -5571,21 +5969,25 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
+      <c r="N39" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="str">
         <f>IF(Aufwandsplan!A39&lt;&gt;0, Aufwandsplan!A39, "")</f>
         <v>D3.3</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C40" s="22" t="str">
         <f>IF(Aufwandsplan!B39&lt;&gt;0, Aufwandsplan!B39, "")</f>
@@ -5593,15 +5995,15 @@
       </c>
       <c r="D40" s="22" t="str">
         <f>IF(Aufwandsplan!C39&lt;&gt;0, Aufwandsplan!C39, "")</f>
-        <v>Application Function "Dozentenliste anzeigen" definieren und spezifizieren</v>
+        <v>Application Function "Dozentenliste bereitstellen" definieren und spezifizieren</v>
       </c>
       <c r="E40" s="22">
         <f>IF(Aufwandsplan!D39&lt;&gt;0, Aufwandsplan!D39, "")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F40" s="22">
         <f>IF(Aufwandsplan!E39&lt;&gt;0, Aufwandsplan!E39, "")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G40" s="24" t="str">
         <f>IF(Aufwandsplan!F39&lt;&gt;0, Aufwandsplan!F39, "")</f>
@@ -5613,21 +6015,25 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
+      <c r="N40" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="str">
         <f>IF(Aufwandsplan!A40&lt;&gt;0, Aufwandsplan!A40, "")</f>
         <v>D3.4</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C41" s="22" t="str">
         <f>IF(Aufwandsplan!B40&lt;&gt;0, Aufwandsplan!B40, "")</f>
@@ -5635,15 +6041,15 @@
       </c>
       <c r="D41" s="22" t="str">
         <f>IF(Aufwandsplan!C40&lt;&gt;0, Aufwandsplan!C40, "")</f>
-        <v>Application Function "Vergleich Raumgroesse mit Teilnehmer" definieren und spezifizieren</v>
+        <v>Application Function "Dozent bereitstellen" definieren und spezifizieren</v>
       </c>
       <c r="E41" s="22">
         <f>IF(Aufwandsplan!D40&lt;&gt;0, Aufwandsplan!D40, "")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F41" s="22">
         <f>IF(Aufwandsplan!E40&lt;&gt;0, Aufwandsplan!E40, "")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G41" s="24" t="str">
         <f>IF(Aufwandsplan!F40&lt;&gt;0, Aufwandsplan!F40, "")</f>
@@ -5653,25 +6059,27 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
+      <c r="O41" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="str">
         <f>IF(Aufwandsplan!A41&lt;&gt;0, Aufwandsplan!A41, "")</f>
         <v>D3.5</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C42" s="22" t="str">
         <f>IF(Aufwandsplan!B41&lt;&gt;0, Aufwandsplan!B41, "")</f>
@@ -5683,11 +6091,11 @@
       </c>
       <c r="E42" s="22">
         <f>IF(Aufwandsplan!D41&lt;&gt;0, Aufwandsplan!D41, "")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F42" s="22">
         <f>IF(Aufwandsplan!E41&lt;&gt;0, Aufwandsplan!E41, "")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G42" s="24" t="str">
         <f>IF(Aufwandsplan!F41&lt;&gt;0, Aufwandsplan!F41, "")</f>
@@ -5698,24 +6106,28 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="str">
         <f>IF(Aufwandsplan!A42&lt;&gt;0, Aufwandsplan!A42, "")</f>
         <v>D3.6</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C43" s="22" t="str">
         <f>IF(Aufwandsplan!B42&lt;&gt;0, Aufwandsplan!B42, "")</f>
@@ -5727,39 +6139,45 @@
       </c>
       <c r="E43" s="22">
         <f>IF(Aufwandsplan!D42&lt;&gt;0, Aufwandsplan!D42, "")</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F43" s="22">
         <f>IF(Aufwandsplan!E42&lt;&gt;0, Aufwandsplan!E42, "")</f>
-        <v>4</v>
-      </c>
-      <c r="G43" s="24" t="str">
+        <v>17</v>
+      </c>
+      <c r="G43" s="24">
         <f>IF(Aufwandsplan!F42&lt;&gt;0, Aufwandsplan!F42, "")</f>
-        <v/>
+        <v>-7</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="1" t="s">
-        <v>118</v>
-      </c>
+      <c r="M43" s="1"/>
       <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
+      <c r="O43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="str">
         <f>IF(Aufwandsplan!A43&lt;&gt;0, Aufwandsplan!A43, "")</f>
         <v>D3.7</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" s="22" t="str">
         <f>IF(Aufwandsplan!B43&lt;&gt;0, Aufwandsplan!B43, "")</f>
@@ -5767,19 +6185,19 @@
       </c>
       <c r="D44" s="22" t="str">
         <f>IF(Aufwandsplan!C43&lt;&gt;0, Aufwandsplan!C43, "")</f>
-        <v>Application Function "Stundenplan anzeigen" definieren und spezifizieren</v>
+        <v>Application Function "Stundenplan optimieren" definieren und spezifizieren</v>
       </c>
       <c r="E44" s="22">
         <f>IF(Aufwandsplan!D43&lt;&gt;0, Aufwandsplan!D43, "")</f>
-        <v>4</v>
-      </c>
-      <c r="F44" s="22">
+        <v>10</v>
+      </c>
+      <c r="F44" s="22" t="str">
         <f>IF(Aufwandsplan!E43&lt;&gt;0, Aufwandsplan!E43, "")</f>
-        <v>4</v>
-      </c>
-      <c r="G44" s="24" t="str">
+        <v/>
+      </c>
+      <c r="G44" s="24">
         <f>IF(Aufwandsplan!F43&lt;&gt;0, Aufwandsplan!F43, "")</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="1"/>
@@ -5788,20 +6206,24 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
+      <c r="O44" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="P44" s="1"/>
-      <c r="Q44" s="29"/>
+      <c r="Q44" s="28"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="str">
         <f>IF(Aufwandsplan!A44&lt;&gt;0, Aufwandsplan!A44, "")</f>
         <v>D3.8</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C45" s="22" t="str">
         <f>IF(Aufwandsplan!B44&lt;&gt;0, Aufwandsplan!B44, "")</f>
@@ -5809,15 +6231,15 @@
       </c>
       <c r="D45" s="22" t="str">
         <f>IF(Aufwandsplan!C44&lt;&gt;0, Aufwandsplan!C44, "")</f>
-        <v>Application Function "Studiengaenge bereitstellen" definieren und spezifizieren</v>
+        <v>Application Function "Stundenplan anzeigen" definieren und spezifizieren</v>
       </c>
       <c r="E45" s="22">
         <f>IF(Aufwandsplan!D44&lt;&gt;0, Aufwandsplan!D44, "")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F45" s="22">
         <f>IF(Aufwandsplan!E44&lt;&gt;0, Aufwandsplan!E44, "")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G45" s="24" t="str">
         <f>IF(Aufwandsplan!F44&lt;&gt;0, Aufwandsplan!F44, "")</f>
@@ -5829,23 +6251,25 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-      <c r="N45" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="O45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="str">
         <f>IF(Aufwandsplan!A45&lt;&gt;0, Aufwandsplan!A45, "")</f>
         <v>D3.9</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C46" s="22" t="str">
         <f>IF(Aufwandsplan!B45&lt;&gt;0, Aufwandsplan!B45, "")</f>
@@ -5853,15 +6277,15 @@
       </c>
       <c r="D46" s="22" t="str">
         <f>IF(Aufwandsplan!C45&lt;&gt;0, Aufwandsplan!C45, "")</f>
-        <v>Application Function "Raeume bereitstellen" definieren und spezifizieren</v>
+        <v>Application Function "Studiengaenge bereitstellen" definieren und spezifizieren</v>
       </c>
       <c r="E46" s="22">
         <f>IF(Aufwandsplan!D45&lt;&gt;0, Aufwandsplan!D45, "")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F46" s="22">
         <f>IF(Aufwandsplan!E45&lt;&gt;0, Aufwandsplan!E45, "")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G46" s="24" t="str">
         <f>IF(Aufwandsplan!F45&lt;&gt;0, Aufwandsplan!F45, "")</f>
@@ -5874,7 +6298,7 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
@@ -5882,14 +6306,16 @@
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="str">
         <f>IF(Aufwandsplan!A46&lt;&gt;0, Aufwandsplan!A46, "")</f>
         <v>D3.10</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C47" s="22" t="str">
         <f>IF(Aufwandsplan!B46&lt;&gt;0, Aufwandsplan!B46, "")</f>
@@ -5897,15 +6323,15 @@
       </c>
       <c r="D47" s="22" t="str">
         <f>IF(Aufwandsplan!C46&lt;&gt;0, Aufwandsplan!C46, "")</f>
-        <v>Application Function "Module bereitstellen" definieren und spezifizieren</v>
+        <v>Application Function "Dozentenmodule bereitstellen" definieren und spezifizieren</v>
       </c>
       <c r="E47" s="22">
         <f>IF(Aufwandsplan!D46&lt;&gt;0, Aufwandsplan!D46, "")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F47" s="22">
         <f>IF(Aufwandsplan!E46&lt;&gt;0, Aufwandsplan!E46, "")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G47" s="24" t="str">
         <f>IF(Aufwandsplan!F46&lt;&gt;0, Aufwandsplan!F46, "")</f>
@@ -5918,20 +6344,24 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
+      <c r="O47" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="str">
         <f>IF(Aufwandsplan!A47&lt;&gt;0, Aufwandsplan!A47, "")</f>
         <v>D3.11</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C48" s="22" t="str">
         <f>IF(Aufwandsplan!B47&lt;&gt;0, Aufwandsplan!B47, "")</f>
@@ -5939,19 +6369,19 @@
       </c>
       <c r="D48" s="22" t="str">
         <f>IF(Aufwandsplan!C47&lt;&gt;0, Aufwandsplan!C47, "")</f>
-        <v>Application Function "Dozenten bereitstellen" definieren und spezifizieren</v>
-      </c>
-      <c r="E48" s="22">
+        <v>Application Function "Räume bereitstellen" definieren und spezifizieren</v>
+      </c>
+      <c r="E48" s="22" t="str">
         <f>IF(Aufwandsplan!D47&lt;&gt;0, Aufwandsplan!D47, "")</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="F48" s="22">
         <f>IF(Aufwandsplan!E47&lt;&gt;0, Aufwandsplan!E47, "")</f>
-        <v>4</v>
-      </c>
-      <c r="G48" s="24" t="str">
+        <v>3</v>
+      </c>
+      <c r="G48" s="24">
         <f>IF(Aufwandsplan!F47&lt;&gt;0, Aufwandsplan!F47, "")</f>
-        <v/>
+        <v>-3</v>
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="1"/>
@@ -5960,40 +6390,46 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
+      <c r="O48" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="Q48" s="1"/>
-      <c r="R48" s="29"/>
+      <c r="R48" s="28"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="str">
         <f>IF(Aufwandsplan!A48&lt;&gt;0, Aufwandsplan!A48, "")</f>
-        <v>E1</v>
+        <v>D3.12</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="C49" s="22" t="str">
         <f>IF(Aufwandsplan!B48&lt;&gt;0, Aufwandsplan!B48, "")</f>
-        <v>GUI Entwürfe</v>
+        <v/>
       </c>
       <c r="D49" s="22" t="str">
         <f>IF(Aufwandsplan!C48&lt;&gt;0, Aufwandsplan!C48, "")</f>
-        <v/>
+        <v>Application Function "Zufälligen Dozent mit Zeitpräferenz laden" definieren und spezifizieren</v>
       </c>
       <c r="E49" s="22" t="str">
         <f>IF(Aufwandsplan!D48&lt;&gt;0, Aufwandsplan!D48, "")</f>
         <v/>
       </c>
-      <c r="F49" s="22" t="str">
+      <c r="F49" s="22">
         <f>IF(Aufwandsplan!E48&lt;&gt;0, Aufwandsplan!E48, "")</f>
-        <v/>
-      </c>
-      <c r="G49" s="24" t="str">
+        <v>3</v>
+      </c>
+      <c r="G49" s="24">
         <f>IF(Aufwandsplan!F48&lt;&gt;0, Aufwandsplan!F48, "")</f>
-        <v/>
+        <v>-3</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="1"/>
@@ -6004,18 +6440,22 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
+      <c r="Q49" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="str">
         <f>IF(Aufwandsplan!A49&lt;&gt;0, Aufwandsplan!A49, "")</f>
-        <v>E1.1</v>
+        <v>D3.13</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="C50" s="22" t="str">
         <f>IF(Aufwandsplan!B49&lt;&gt;0, Aufwandsplan!B49, "")</f>
@@ -6023,19 +6463,19 @@
       </c>
       <c r="D50" s="22" t="str">
         <f>IF(Aufwandsplan!C49&lt;&gt;0, Aufwandsplan!C49, "")</f>
-        <v>Entwurf Maske "Eingabe Zeiten"</v>
-      </c>
-      <c r="E50" s="22">
+        <v>Application Function "Zufälliges Modul des Dozenten laden" definieren und spezifizieren</v>
+      </c>
+      <c r="E50" s="22" t="str">
         <f>IF(Aufwandsplan!D49&lt;&gt;0, Aufwandsplan!D49, "")</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="F50" s="22">
         <f>IF(Aufwandsplan!E49&lt;&gt;0, Aufwandsplan!E49, "")</f>
-        <v>8</v>
-      </c>
-      <c r="G50" s="24" t="str">
+        <v>3</v>
+      </c>
+      <c r="G50" s="24">
         <f>IF(Aufwandsplan!F49&lt;&gt;0, Aufwandsplan!F49, "")</f>
-        <v/>
+        <v>-3</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="1"/>
@@ -6043,23 +6483,25 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
-      <c r="N50" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
+      <c r="Q50" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="str">
         <f>IF(Aufwandsplan!A50&lt;&gt;0, Aufwandsplan!A50, "")</f>
-        <v>E1.2</v>
+        <v>D3.14</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="C51" s="22" t="str">
         <f>IF(Aufwandsplan!B50&lt;&gt;0, Aufwandsplan!B50, "")</f>
@@ -6067,19 +6509,19 @@
       </c>
       <c r="D51" s="22" t="str">
         <f>IF(Aufwandsplan!C50&lt;&gt;0, Aufwandsplan!C50, "")</f>
-        <v>Entwurf Maske "Stundenplan anzeigen"</v>
-      </c>
-      <c r="E51" s="22">
+        <v>Application Function "Zeitslotinformationen speichern" definieren und spezifizieren</v>
+      </c>
+      <c r="E51" s="22" t="str">
         <f>IF(Aufwandsplan!D50&lt;&gt;0, Aufwandsplan!D50, "")</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="F51" s="22">
         <f>IF(Aufwandsplan!E50&lt;&gt;0, Aufwandsplan!E50, "")</f>
-        <v>8</v>
-      </c>
-      <c r="G51" s="24" t="str">
+        <v>3</v>
+      </c>
+      <c r="G51" s="24">
         <f>IF(Aufwandsplan!F50&lt;&gt;0, Aufwandsplan!F50, "")</f>
-        <v/>
+        <v>-3</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="1"/>
@@ -6090,18 +6532,22 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
+      <c r="Q51" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="str">
         <f>IF(Aufwandsplan!A51&lt;&gt;0, Aufwandsplan!A51, "")</f>
-        <v>E1.3</v>
+        <v>D3.15</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="C52" s="22" t="str">
         <f>IF(Aufwandsplan!B51&lt;&gt;0, Aufwandsplan!B51, "")</f>
@@ -6109,19 +6555,19 @@
       </c>
       <c r="D52" s="22" t="str">
         <f>IF(Aufwandsplan!C51&lt;&gt;0, Aufwandsplan!C51, "")</f>
-        <v>Entwurf "restl. Masken" (Anmeldung, Stundenplan erstellen, Laden)</v>
-      </c>
-      <c r="E52" s="22">
+        <v>Application Function "Zeitslot des Dozenten sperren" definieren und spezifizieren</v>
+      </c>
+      <c r="E52" s="22" t="str">
         <f>IF(Aufwandsplan!D51&lt;&gt;0, Aufwandsplan!D51, "")</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="F52" s="22" t="str">
         <f>IF(Aufwandsplan!E51&lt;&gt;0, Aufwandsplan!E51, "")</f>
         <v/>
       </c>
-      <c r="G52" s="24">
+      <c r="G52" s="24" t="str">
         <f>IF(Aufwandsplan!F51&lt;&gt;0, Aufwandsplan!F51, "")</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="1"/>
@@ -6133,25 +6579,29 @@
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
+      <c r="R52" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="str">
         <f>IF(Aufwandsplan!A52&lt;&gt;0, Aufwandsplan!A52, "")</f>
-        <v>F1</v>
+        <v>D3.16</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="C53" s="27" t="str">
+        <v>64</v>
+      </c>
+      <c r="C53" s="22" t="str">
         <f>IF(Aufwandsplan!B52&lt;&gt;0, Aufwandsplan!B52, "")</f>
-        <v>Implementierung Datenhaltung</v>
+        <v/>
       </c>
       <c r="D53" s="22" t="str">
         <f>IF(Aufwandsplan!C52&lt;&gt;0, Aufwandsplan!C52, "")</f>
-        <v/>
+        <v>Application Function "Modul als verplant speichern" definieren und spezifizieren</v>
       </c>
       <c r="E53" s="22" t="str">
         <f>IF(Aufwandsplan!D52&lt;&gt;0, Aufwandsplan!D52, "")</f>
@@ -6174,18 +6624,21 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
-      <c r="Q53" s="26"/>
-      <c r="R53" s="1"/>
+      <c r="R53" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="str">
         <f>IF(Aufwandsplan!A53&lt;&gt;0, Aufwandsplan!A53, "")</f>
-        <v>F1.1</v>
+        <v>D3.17</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="C54" s="22" t="str">
         <f>IF(Aufwandsplan!B53&lt;&gt;0, Aufwandsplan!B53, "")</f>
@@ -6193,19 +6646,19 @@
       </c>
       <c r="D54" s="22" t="str">
         <f>IF(Aufwandsplan!C53&lt;&gt;0, Aufwandsplan!C53, "")</f>
-        <v>Datenbank</v>
-      </c>
-      <c r="E54" s="22">
+        <v>Application Function "Zufälligen Dozent ohne Zeitpräferenz laden" definieren und spezifizieren</v>
+      </c>
+      <c r="E54" s="22" t="str">
         <f>IF(Aufwandsplan!D53&lt;&gt;0, Aufwandsplan!D53, "")</f>
-        <v>15</v>
+        <v/>
       </c>
       <c r="F54" s="22" t="str">
         <f>IF(Aufwandsplan!E53&lt;&gt;0, Aufwandsplan!E53, "")</f>
         <v/>
       </c>
-      <c r="G54" s="24">
+      <c r="G54" s="24" t="str">
         <f>IF(Aufwandsplan!F53&lt;&gt;0, Aufwandsplan!F53, "")</f>
-        <v>15</v>
+        <v/>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="1"/>
@@ -6213,45 +6666,45 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
-      <c r="N54" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="29"/>
+      <c r="R54" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="S54" s="28"/>
       <c r="T54" s="1"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="str">
         <f>IF(Aufwandsplan!A54&lt;&gt;0, Aufwandsplan!A54, "")</f>
-        <v>F1.2</v>
+        <v>E1</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C55" s="22" t="str">
         <f>IF(Aufwandsplan!B54&lt;&gt;0, Aufwandsplan!B54, "")</f>
-        <v/>
+        <v>GUI Entwürfe</v>
       </c>
       <c r="D55" s="22" t="str">
         <f>IF(Aufwandsplan!C54&lt;&gt;0, Aufwandsplan!C54, "")</f>
-        <v>Zugriff</v>
-      </c>
-      <c r="E55" s="22">
+        <v/>
+      </c>
+      <c r="E55" s="22" t="str">
         <f>IF(Aufwandsplan!D54&lt;&gt;0, Aufwandsplan!D54, "")</f>
-        <v>34</v>
+        <v/>
       </c>
       <c r="F55" s="22" t="str">
         <f>IF(Aufwandsplan!E54&lt;&gt;0, Aufwandsplan!E54, "")</f>
         <v/>
       </c>
-      <c r="G55" s="24">
+      <c r="G55" s="24" t="str">
         <f>IF(Aufwandsplan!F54&lt;&gt;0, Aufwandsplan!F54, "")</f>
-        <v>34</v>
+        <v/>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="1"/>
@@ -6266,30 +6719,32 @@
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="str">
         <f>IF(Aufwandsplan!A55&lt;&gt;0, Aufwandsplan!A55, "")</f>
-        <v>F2</v>
+        <v>E1.1</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="C56" s="27" t="str">
+        <v>132</v>
+      </c>
+      <c r="C56" s="22" t="str">
         <f>IF(Aufwandsplan!B55&lt;&gt;0, Aufwandsplan!B55, "")</f>
-        <v>Implementierung Anwendungskern</v>
+        <v/>
       </c>
       <c r="D56" s="22" t="str">
         <f>IF(Aufwandsplan!C55&lt;&gt;0, Aufwandsplan!C55, "")</f>
-        <v/>
-      </c>
-      <c r="E56" s="22" t="str">
+        <v>Entwurf Maske "Eingabe Zeiten"</v>
+      </c>
+      <c r="E56" s="22">
         <f>IF(Aufwandsplan!D55&lt;&gt;0, Aufwandsplan!D55, "")</f>
-        <v/>
-      </c>
-      <c r="F56" s="22" t="str">
+        <v>8</v>
+      </c>
+      <c r="F56" s="22">
         <f>IF(Aufwandsplan!E55&lt;&gt;0, Aufwandsplan!E55, "")</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G56" s="24" t="str">
         <f>IF(Aufwandsplan!F55&lt;&gt;0, Aufwandsplan!F55, "")</f>
@@ -6301,21 +6756,26 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
+      <c r="N56" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
-      <c r="R56" s="26"/>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="str">
         <f>IF(Aufwandsplan!A56&lt;&gt;0, Aufwandsplan!A56, "")</f>
-        <v>F2.1</v>
+        <v>E1.2</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C57" s="22" t="str">
         <f>IF(Aufwandsplan!B56&lt;&gt;0, Aufwandsplan!B56, "")</f>
@@ -6323,19 +6783,18 @@
       </c>
       <c r="D57" s="22" t="str">
         <f>IF(Aufwandsplan!C56&lt;&gt;0, Aufwandsplan!C56, "")</f>
-        <v>Implementierung UseCase "Zeitpraeferenzen der Dozenten erfassen"</v>
+        <v>Entwurf Maske "Stundenplan anzeigen"</v>
       </c>
       <c r="E57" s="22">
         <f>IF(Aufwandsplan!D56&lt;&gt;0, Aufwandsplan!D56, "")</f>
+        <v>8</v>
+      </c>
+      <c r="F57" s="22">
         <v>12</v>
       </c>
-      <c r="F57" s="22" t="str">
-        <f>IF(Aufwandsplan!E56&lt;&gt;0, Aufwandsplan!E56, "")</f>
-        <v/>
-      </c>
-      <c r="G57" s="24">
+      <c r="G57" s="24" t="str">
         <f>IF(Aufwandsplan!F56&lt;&gt;0, Aufwandsplan!F56, "")</f>
-        <v>12</v>
+        <v/>
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="1"/>
@@ -6345,19 +6804,23 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
+      <c r="P57" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="str">
         <f>IF(Aufwandsplan!A57&lt;&gt;0, Aufwandsplan!A57, "")</f>
-        <v>F2.2</v>
+        <v>E1.3</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C58" s="22" t="str">
         <f>IF(Aufwandsplan!B57&lt;&gt;0, Aufwandsplan!B57, "")</f>
@@ -6365,19 +6828,18 @@
       </c>
       <c r="D58" s="22" t="str">
         <f>IF(Aufwandsplan!C57&lt;&gt;0, Aufwandsplan!C57, "")</f>
-        <v>Implementierung UseCase "Stundenplan erstellen"</v>
+        <v>Entwurf "restl. Masken" (Menü, Stundenplan berechnen)</v>
       </c>
       <c r="E58" s="22">
         <f>IF(Aufwandsplan!D57&lt;&gt;0, Aufwandsplan!D57, "")</f>
-        <v>12</v>
-      </c>
-      <c r="F58" s="22" t="str">
-        <f>IF(Aufwandsplan!E57&lt;&gt;0, Aufwandsplan!E57, "")</f>
-        <v/>
+        <v>8</v>
+      </c>
+      <c r="F58" s="22">
+        <v>13</v>
       </c>
       <c r="G58" s="24">
         <f>IF(Aufwandsplan!F57&lt;&gt;0, Aufwandsplan!F57, "")</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="1"/>
@@ -6388,38 +6850,44 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
+      <c r="Q58" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="str">
         <f>IF(Aufwandsplan!A58&lt;&gt;0, Aufwandsplan!A58, "")</f>
-        <v>F2.3</v>
+        <v>F1</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C59" s="22" t="str">
         <f>IF(Aufwandsplan!B58&lt;&gt;0, Aufwandsplan!B58, "")</f>
-        <v/>
+        <v>Implementierung Datenhaltung</v>
       </c>
       <c r="D59" s="22" t="str">
         <f>IF(Aufwandsplan!C58&lt;&gt;0, Aufwandsplan!C58, "")</f>
-        <v>Implementierung UseCase "Stundenplan anzeigen"</v>
-      </c>
-      <c r="E59" s="22">
+        <v/>
+      </c>
+      <c r="E59" s="22" t="str">
         <f>IF(Aufwandsplan!D58&lt;&gt;0, Aufwandsplan!D58, "")</f>
-        <v>12</v>
+        <v/>
       </c>
       <c r="F59" s="22" t="str">
         <f>IF(Aufwandsplan!E58&lt;&gt;0, Aufwandsplan!E58, "")</f>
         <v/>
       </c>
-      <c r="G59" s="24">
+      <c r="G59" s="24" t="str">
         <f>IF(Aufwandsplan!F58&lt;&gt;0, Aufwandsplan!F58, "")</f>
-        <v>12</v>
+        <v/>
       </c>
       <c r="H59" s="7"/>
       <c r="I59" s="1"/>
@@ -6429,19 +6897,20 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
+      <c r="P59" s="26"/>
+      <c r="R59" s="30"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="str">
         <f>IF(Aufwandsplan!A59&lt;&gt;0, Aufwandsplan!A59, "")</f>
-        <v>F2.4</v>
+        <v>F1.1</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C60" s="22" t="str">
         <f>IF(Aufwandsplan!B59&lt;&gt;0, Aufwandsplan!B59, "")</f>
@@ -6449,19 +6918,19 @@
       </c>
       <c r="D60" s="22" t="str">
         <f>IF(Aufwandsplan!C59&lt;&gt;0, Aufwandsplan!C59, "")</f>
-        <v>Implementierung Application Function "Zeiten Speichern"</v>
+        <v>Datenbank</v>
       </c>
       <c r="E60" s="22">
         <f>IF(Aufwandsplan!D59&lt;&gt;0, Aufwandsplan!D59, "")</f>
-        <v>12</v>
-      </c>
-      <c r="F60" s="22" t="str">
+        <v>15</v>
+      </c>
+      <c r="F60" s="22">
         <f>IF(Aufwandsplan!E59&lt;&gt;0, Aufwandsplan!E59, "")</f>
-        <v/>
-      </c>
-      <c r="G60" s="24">
+        <v>15</v>
+      </c>
+      <c r="G60" s="24" t="str">
         <f>IF(Aufwandsplan!F59&lt;&gt;0, Aufwandsplan!F59, "")</f>
-        <v>12</v>
+        <v/>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="1"/>
@@ -6469,21 +6938,27 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
+      <c r="N60" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
+      <c r="P60" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
-      <c r="T60" s="29"/>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T60" s="28"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="str">
         <f>IF(Aufwandsplan!A60&lt;&gt;0, Aufwandsplan!A60, "")</f>
-        <v>F2.5</v>
+        <v>F1.2</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C61" s="22" t="str">
         <f>IF(Aufwandsplan!B60&lt;&gt;0, Aufwandsplan!B60, "")</f>
@@ -6491,19 +6966,19 @@
       </c>
       <c r="D61" s="22" t="str">
         <f>IF(Aufwandsplan!C60&lt;&gt;0, Aufwandsplan!C60, "")</f>
-        <v>Implementierung Application Function "Zeitpraeferenzen bereitstellen"</v>
+        <v>Zugriff</v>
       </c>
       <c r="E61" s="22">
         <f>IF(Aufwandsplan!D60&lt;&gt;0, Aufwandsplan!D60, "")</f>
+        <v>34</v>
+      </c>
+      <c r="F61" s="22">
+        <f>IF(Aufwandsplan!E60&lt;&gt;0, Aufwandsplan!E60, "")</f>
         <v>12</v>
-      </c>
-      <c r="F61" s="22" t="str">
-        <f>IF(Aufwandsplan!E60&lt;&gt;0, Aufwandsplan!E60, "")</f>
-        <v/>
       </c>
       <c r="G61" s="24">
         <f>IF(Aufwandsplan!F60&lt;&gt;0, Aufwandsplan!F60, "")</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="1"/>
@@ -6514,38 +6989,42 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
+      <c r="Q61" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="str">
         <f>IF(Aufwandsplan!A61&lt;&gt;0, Aufwandsplan!A61, "")</f>
-        <v>F2.6</v>
+        <v>F2</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C62" s="22" t="str">
         <f>IF(Aufwandsplan!B61&lt;&gt;0, Aufwandsplan!B61, "")</f>
-        <v/>
+        <v>Implementierung Anwendungskern</v>
       </c>
       <c r="D62" s="22" t="str">
         <f>IF(Aufwandsplan!C61&lt;&gt;0, Aufwandsplan!C61, "")</f>
-        <v>Implementierung Application Function "Dozentenliste anzeigen"</v>
-      </c>
-      <c r="E62" s="22">
+        <v/>
+      </c>
+      <c r="E62" s="22" t="str">
         <f>IF(Aufwandsplan!D61&lt;&gt;0, Aufwandsplan!D61, "")</f>
-        <v>12</v>
+        <v/>
       </c>
       <c r="F62" s="22" t="str">
         <f>IF(Aufwandsplan!E61&lt;&gt;0, Aufwandsplan!E61, "")</f>
         <v/>
       </c>
-      <c r="G62" s="24">
+      <c r="G62" s="24" t="str">
         <f>IF(Aufwandsplan!F61&lt;&gt;0, Aufwandsplan!F61, "")</f>
-        <v>12</v>
+        <v/>
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="1"/>
@@ -6556,18 +7035,19 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
+      <c r="R62" s="26"/>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="str">
         <f>IF(Aufwandsplan!A62&lt;&gt;0, Aufwandsplan!A62, "")</f>
-        <v>F2.7</v>
+        <v>F2.1</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C63" s="22" t="str">
         <f>IF(Aufwandsplan!B62&lt;&gt;0, Aufwandsplan!B62, "")</f>
@@ -6575,7 +7055,7 @@
       </c>
       <c r="D63" s="22" t="str">
         <f>IF(Aufwandsplan!C62&lt;&gt;0, Aufwandsplan!C62, "")</f>
-        <v>Implementierung Application Function "Vergleich Raumgroesse mit Teilnehmer"</v>
+        <v>Implementierung UseCase "Zeitpraeferenzen der Dozenten erfassen"</v>
       </c>
       <c r="E63" s="22">
         <f>IF(Aufwandsplan!D62&lt;&gt;0, Aufwandsplan!D62, "")</f>
@@ -6599,17 +7079,21 @@
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
+      <c r="R63" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="str">
         <f>IF(Aufwandsplan!A63&lt;&gt;0, Aufwandsplan!A63, "")</f>
-        <v>F2.8</v>
+        <v>F2.2</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C64" s="22" t="str">
         <f>IF(Aufwandsplan!B63&lt;&gt;0, Aufwandsplan!B63, "")</f>
@@ -6617,7 +7101,7 @@
       </c>
       <c r="D64" s="22" t="str">
         <f>IF(Aufwandsplan!C63&lt;&gt;0, Aufwandsplan!C63, "")</f>
-        <v>Implementierung Application Function "Stundenplan speichern"</v>
+        <v>Implementierung UseCase "Stundenplan erstellen"</v>
       </c>
       <c r="E64" s="22">
         <f>IF(Aufwandsplan!D63&lt;&gt;0, Aufwandsplan!D63, "")</f>
@@ -6641,17 +7125,21 @@
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
-      <c r="R64" s="1"/>
+      <c r="R64" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="str">
         <f>IF(Aufwandsplan!A64&lt;&gt;0, Aufwandsplan!A64, "")</f>
-        <v>F2.9</v>
+        <v>F2.3</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C65" s="22" t="str">
         <f>IF(Aufwandsplan!B64&lt;&gt;0, Aufwandsplan!B64, "")</f>
@@ -6659,11 +7147,11 @@
       </c>
       <c r="D65" s="22" t="str">
         <f>IF(Aufwandsplan!C64&lt;&gt;0, Aufwandsplan!C64, "")</f>
-        <v>Implementierung Application Function "Stundenplan berechnen"</v>
+        <v>Implementierung UseCase "Stundenplan anzeigen"</v>
       </c>
       <c r="E65" s="22">
         <f>IF(Aufwandsplan!D64&lt;&gt;0, Aufwandsplan!D64, "")</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F65" s="22" t="str">
         <f>IF(Aufwandsplan!E64&lt;&gt;0, Aufwandsplan!E64, "")</f>
@@ -6671,7 +7159,7 @@
       </c>
       <c r="G65" s="24">
         <f>IF(Aufwandsplan!F64&lt;&gt;0, Aufwandsplan!F64, "")</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H65" s="7"/>
       <c r="I65" s="1"/>
@@ -6684,16 +7172,20 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
-      <c r="S65" s="1"/>
+      <c r="S65" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="T65" s="1"/>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="str">
         <f>IF(Aufwandsplan!A65&lt;&gt;0, Aufwandsplan!A65, "")</f>
-        <v>F2.10</v>
+        <v>F2.4</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C66" s="22" t="str">
         <f>IF(Aufwandsplan!B65&lt;&gt;0, Aufwandsplan!B65, "")</f>
@@ -6701,7 +7193,7 @@
       </c>
       <c r="D66" s="22" t="str">
         <f>IF(Aufwandsplan!C65&lt;&gt;0, Aufwandsplan!C65, "")</f>
-        <v>Implementierung Application Function "Stundenplan anzeigen"</v>
+        <v>Application Function "Zeiten Speichern" implementieren</v>
       </c>
       <c r="E66" s="22">
         <f>IF(Aufwandsplan!D65&lt;&gt;0, Aufwandsplan!D65, "")</f>
@@ -6726,16 +7218,20 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
-      <c r="S66" s="1"/>
+      <c r="S66" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="T66" s="1"/>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="str">
         <f>IF(Aufwandsplan!A66&lt;&gt;0, Aufwandsplan!A66, "")</f>
-        <v>F2.11</v>
+        <v>F2.5</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C67" s="22" t="str">
         <f>IF(Aufwandsplan!B66&lt;&gt;0, Aufwandsplan!B66, "")</f>
@@ -6743,7 +7239,7 @@
       </c>
       <c r="D67" s="22" t="str">
         <f>IF(Aufwandsplan!C66&lt;&gt;0, Aufwandsplan!C66, "")</f>
-        <v>Implementierung Application Function "Studiengaenge bereitstellen"</v>
+        <v>Application Function "Zeitpraeferenzen bereitstellen" implementieren</v>
       </c>
       <c r="E67" s="22">
         <f>IF(Aufwandsplan!D66&lt;&gt;0, Aufwandsplan!D66, "")</f>
@@ -6768,16 +7264,20 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
+      <c r="S67" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="T67" s="1"/>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="str">
         <f>IF(Aufwandsplan!A67&lt;&gt;0, Aufwandsplan!A67, "")</f>
-        <v>F2.12</v>
+        <v>F2.6</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C68" s="22" t="str">
         <f>IF(Aufwandsplan!B67&lt;&gt;0, Aufwandsplan!B67, "")</f>
@@ -6785,7 +7285,7 @@
       </c>
       <c r="D68" s="22" t="str">
         <f>IF(Aufwandsplan!C67&lt;&gt;0, Aufwandsplan!C67, "")</f>
-        <v>Implementierung Application Function "Raeume bereitstellen"</v>
+        <v>Application Function "Dozentenliste bereitstellen"  implementieren</v>
       </c>
       <c r="E68" s="22">
         <f>IF(Aufwandsplan!D67&lt;&gt;0, Aufwandsplan!D67, "")</f>
@@ -6811,15 +7311,19 @@
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
-      <c r="T68" s="1"/>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T68" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="str">
         <f>IF(Aufwandsplan!A68&lt;&gt;0, Aufwandsplan!A68, "")</f>
-        <v>F2.13</v>
+        <v>F2.7</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C69" s="22" t="str">
         <f>IF(Aufwandsplan!B68&lt;&gt;0, Aufwandsplan!B68, "")</f>
@@ -6827,7 +7331,7 @@
       </c>
       <c r="D69" s="22" t="str">
         <f>IF(Aufwandsplan!C68&lt;&gt;0, Aufwandsplan!C68, "")</f>
-        <v>Implementierung Application Function "Module bereitstellen"</v>
+        <v>Application Function "Dozent bereitstellen" d implementieren</v>
       </c>
       <c r="E69" s="22">
         <f>IF(Aufwandsplan!D68&lt;&gt;0, Aufwandsplan!D68, "")</f>
@@ -6853,15 +7357,19 @@
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
-      <c r="T69" s="1"/>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T69" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="str">
         <f>IF(Aufwandsplan!A69&lt;&gt;0, Aufwandsplan!A69, "")</f>
-        <v>F2.14</v>
+        <v>F2.8</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C70" s="22" t="str">
         <f>IF(Aufwandsplan!B69&lt;&gt;0, Aufwandsplan!B69, "")</f>
@@ -6869,7 +7377,7 @@
       </c>
       <c r="D70" s="22" t="str">
         <f>IF(Aufwandsplan!C69&lt;&gt;0, Aufwandsplan!C69, "")</f>
-        <v>Implementierung Application Function "Dozenten bereitstellen"</v>
+        <v>Application Function "Stundenplan speichern" implementieren</v>
       </c>
       <c r="E70" s="22">
         <f>IF(Aufwandsplan!D69&lt;&gt;0, Aufwandsplan!D69, "")</f>
@@ -6895,35 +7403,39 @@
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
-      <c r="T70" s="1"/>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T70" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="str">
         <f>IF(Aufwandsplan!A70&lt;&gt;0, Aufwandsplan!A70, "")</f>
-        <v>F3</v>
+        <v>F2.9</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="C71" s="27" t="str">
+        <v>133</v>
+      </c>
+      <c r="C71" s="22" t="str">
         <f>IF(Aufwandsplan!B70&lt;&gt;0, Aufwandsplan!B70, "")</f>
-        <v>Implementierung GUI</v>
+        <v/>
       </c>
       <c r="D71" s="22" t="str">
         <f>IF(Aufwandsplan!C70&lt;&gt;0, Aufwandsplan!C70, "")</f>
-        <v/>
-      </c>
-      <c r="E71" s="22" t="str">
+        <v>Application Function "Stundenplan berechnen" implementieren</v>
+      </c>
+      <c r="E71" s="22">
         <f>IF(Aufwandsplan!D70&lt;&gt;0, Aufwandsplan!D70, "")</f>
-        <v/>
-      </c>
-      <c r="F71" s="22" t="str">
+        <v>22</v>
+      </c>
+      <c r="F71" s="22">
         <f>IF(Aufwandsplan!E70&lt;&gt;0, Aufwandsplan!E70, "")</f>
-        <v/>
-      </c>
-      <c r="G71" s="24" t="str">
+        <v>12</v>
+      </c>
+      <c r="G71" s="24">
         <f>IF(Aufwandsplan!F70&lt;&gt;0, Aufwandsplan!F70, "")</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="1"/>
@@ -6935,17 +7447,23 @@
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
-      <c r="S71" s="26"/>
+      <c r="R71" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S71" t="s">
+        <v>116</v>
+      </c>
       <c r="T71" s="1"/>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="str">
         <f>IF(Aufwandsplan!A71&lt;&gt;0, Aufwandsplan!A71, "")</f>
-        <v>F3.1</v>
+        <v>F2.10</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C72" s="22" t="str">
         <f>IF(Aufwandsplan!B71&lt;&gt;0, Aufwandsplan!B71, "")</f>
@@ -6953,11 +7471,11 @@
       </c>
       <c r="D72" s="22" t="str">
         <f>IF(Aufwandsplan!C71&lt;&gt;0, Aufwandsplan!C71, "")</f>
-        <v>Implementierung Maske "Eingabe Zeiten"</v>
+        <v>Application Function "Stundenplan optimieren" implementieren</v>
       </c>
       <c r="E72" s="22">
         <f>IF(Aufwandsplan!D71&lt;&gt;0, Aufwandsplan!D71, "")</f>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F72" s="22" t="str">
         <f>IF(Aufwandsplan!E71&lt;&gt;0, Aufwandsplan!E71, "")</f>
@@ -6965,7 +7483,7 @@
       </c>
       <c r="G72" s="24">
         <f>IF(Aufwandsplan!F71&lt;&gt;0, Aufwandsplan!F71, "")</f>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H72" s="7"/>
       <c r="I72" s="1"/>
@@ -6980,14 +7498,16 @@
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="str">
         <f>IF(Aufwandsplan!A72&lt;&gt;0, Aufwandsplan!A72, "")</f>
-        <v>F3.2</v>
+        <v>F2.11</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C73" s="22" t="str">
         <f>IF(Aufwandsplan!B72&lt;&gt;0, Aufwandsplan!B72, "")</f>
@@ -6995,11 +7515,11 @@
       </c>
       <c r="D73" s="22" t="str">
         <f>IF(Aufwandsplan!C72&lt;&gt;0, Aufwandsplan!C72, "")</f>
-        <v>Implementierung Maske "Studenplan anzeigen"</v>
+        <v>Application Function "Stundenplan anzeigen"  implementieren</v>
       </c>
       <c r="E73" s="22">
         <f>IF(Aufwandsplan!D72&lt;&gt;0, Aufwandsplan!D72, "")</f>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F73" s="22" t="str">
         <f>IF(Aufwandsplan!E72&lt;&gt;0, Aufwandsplan!E72, "")</f>
@@ -7007,7 +7527,7 @@
       </c>
       <c r="G73" s="24">
         <f>IF(Aufwandsplan!F72&lt;&gt;0, Aufwandsplan!F72, "")</f>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H73" s="7"/>
       <c r="I73" s="1"/>
@@ -7021,15 +7541,19 @@
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
-      <c r="T73" s="1"/>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T73" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="str">
         <f>IF(Aufwandsplan!A73&lt;&gt;0, Aufwandsplan!A73, "")</f>
-        <v>F3.3</v>
+        <v>F2.12</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C74" s="22" t="str">
         <f>IF(Aufwandsplan!B73&lt;&gt;0, Aufwandsplan!B73, "")</f>
@@ -7037,11 +7561,11 @@
       </c>
       <c r="D74" s="22" t="str">
         <f>IF(Aufwandsplan!C73&lt;&gt;0, Aufwandsplan!C73, "")</f>
-        <v>Implementierung "restl. Masken" (Anmeldung, Stundenplan erstellen, Laden)</v>
+        <v>Application Function "Studiengaenge bereitstellen" implementieren</v>
       </c>
       <c r="E74" s="22">
         <f>IF(Aufwandsplan!D73&lt;&gt;0, Aufwandsplan!D73, "")</f>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F74" s="22" t="str">
         <f>IF(Aufwandsplan!E73&lt;&gt;0, Aufwandsplan!E73, "")</f>
@@ -7049,7 +7573,7 @@
       </c>
       <c r="G74" s="24">
         <f>IF(Aufwandsplan!F73&lt;&gt;0, Aufwandsplan!F73, "")</f>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H74" s="7"/>
       <c r="I74" s="1"/>
@@ -7064,26 +7588,28 @@
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="str">
         <f>IF(Aufwandsplan!A74&lt;&gt;0, Aufwandsplan!A74, "")</f>
-        <v>G1</v>
+        <v>F2.13</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="C75" s="22" t="str">
         <f>IF(Aufwandsplan!B74&lt;&gt;0, Aufwandsplan!B74, "")</f>
-        <v>Test der Anwendung</v>
+        <v/>
       </c>
       <c r="D75" s="22" t="str">
         <f>IF(Aufwandsplan!C74&lt;&gt;0, Aufwandsplan!C74, "")</f>
-        <v/>
+        <v>Application Function "Dozentenmodule bereitstellen" implementieren</v>
       </c>
       <c r="E75" s="22">
         <f>IF(Aufwandsplan!D74&lt;&gt;0, Aufwandsplan!D74, "")</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F75" s="22" t="str">
         <f>IF(Aufwandsplan!E74&lt;&gt;0, Aufwandsplan!E74, "")</f>
@@ -7091,7 +7617,7 @@
       </c>
       <c r="G75" s="24">
         <f>IF(Aufwandsplan!F74&lt;&gt;0, Aufwandsplan!F74, "")</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H75" s="7"/>
       <c r="I75" s="1"/>
@@ -7106,34 +7632,36 @@
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="str">
         <f>IF(Aufwandsplan!A75&lt;&gt;0, Aufwandsplan!A75, "")</f>
-        <v>G2</v>
+        <v>F2.14</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="C76" s="22" t="str">
         <f>IF(Aufwandsplan!B75&lt;&gt;0, Aufwandsplan!B75, "")</f>
-        <v>Anpassungen/Fehlerbehebung</v>
+        <v/>
       </c>
       <c r="D76" s="22" t="str">
         <f>IF(Aufwandsplan!C75&lt;&gt;0, Aufwandsplan!C75, "")</f>
-        <v/>
-      </c>
-      <c r="E76" s="22">
+        <v>Application Function "Räume bereitstellen" implementieren</v>
+      </c>
+      <c r="E76" s="22" t="str">
         <f>IF(Aufwandsplan!D75&lt;&gt;0, Aufwandsplan!D75, "")</f>
-        <v>10</v>
+        <v/>
       </c>
       <c r="F76" s="22" t="str">
         <f>IF(Aufwandsplan!E75&lt;&gt;0, Aufwandsplan!E75, "")</f>
         <v/>
       </c>
-      <c r="G76" s="24">
+      <c r="G76" s="24" t="str">
         <f>IF(Aufwandsplan!F75&lt;&gt;0, Aufwandsplan!F75, "")</f>
-        <v>10</v>
+        <v/>
       </c>
       <c r="H76" s="7"/>
       <c r="I76" s="1"/>
@@ -7148,34 +7676,36 @@
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="str">
         <f>IF(Aufwandsplan!A76&lt;&gt;0, Aufwandsplan!A76, "")</f>
-        <v>G3</v>
+        <v>F2.15</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="C77" s="27" t="str">
+        <v>133</v>
+      </c>
+      <c r="C77" s="22" t="str">
         <f>IF(Aufwandsplan!B76&lt;&gt;0, Aufwandsplan!B76, "")</f>
-        <v>interne Abnahme</v>
+        <v/>
       </c>
       <c r="D77" s="22" t="str">
         <f>IF(Aufwandsplan!C76&lt;&gt;0, Aufwandsplan!C76, "")</f>
-        <v/>
-      </c>
-      <c r="E77" s="22">
+        <v>Application Function "Zufälligen Dozent mit Zeitpräferenz laden" implementieren</v>
+      </c>
+      <c r="E77" s="22" t="str">
         <f>IF(Aufwandsplan!D76&lt;&gt;0, Aufwandsplan!D76, "")</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="F77" s="22" t="str">
         <f>IF(Aufwandsplan!E76&lt;&gt;0, Aufwandsplan!E76, "")</f>
         <v/>
       </c>
-      <c r="G77" s="24">
+      <c r="G77" s="24" t="str">
         <f>IF(Aufwandsplan!F76&lt;&gt;0, Aufwandsplan!F76, "")</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="H77" s="7"/>
       <c r="I77" s="1"/>
@@ -7188,299 +7718,868 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
-      <c r="S77" s="1"/>
-      <c r="T77" s="26"/>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B79" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="F79" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="H79" s="7">
-        <f>COUNTIF(H4:H77,"SW")+COUNTIF(H4:H77,"alle")</f>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A78" s="22" t="str">
+        <f>IF(Aufwandsplan!A77&lt;&gt;0, Aufwandsplan!A77, "")</f>
+        <v>F2.16</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C78" s="22" t="str">
+        <f>IF(Aufwandsplan!B77&lt;&gt;0, Aufwandsplan!B77, "")</f>
+        <v/>
+      </c>
+      <c r="D78" s="22" t="str">
+        <f>IF(Aufwandsplan!C77&lt;&gt;0, Aufwandsplan!C77, "")</f>
+        <v>Application Function "Zufälliges Modul des Dozenten laden" implementieren</v>
+      </c>
+      <c r="E78" s="22" t="str">
+        <f>IF(Aufwandsplan!D77&lt;&gt;0, Aufwandsplan!D77, "")</f>
+        <v/>
+      </c>
+      <c r="F78" s="22" t="str">
+        <f>IF(Aufwandsplan!E77&lt;&gt;0, Aufwandsplan!E77, "")</f>
+        <v/>
+      </c>
+      <c r="G78" s="24" t="str">
+        <f>IF(Aufwandsplan!F77&lt;&gt;0, Aufwandsplan!F77, "")</f>
+        <v/>
+      </c>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A79" s="22" t="str">
+        <f>IF(Aufwandsplan!A78&lt;&gt;0, Aufwandsplan!A78, "")</f>
+        <v>F2.17</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C79" s="22" t="str">
+        <f>IF(Aufwandsplan!B78&lt;&gt;0, Aufwandsplan!B78, "")</f>
+        <v/>
+      </c>
+      <c r="D79" s="22" t="str">
+        <f>IF(Aufwandsplan!C78&lt;&gt;0, Aufwandsplan!C78, "")</f>
+        <v>Application Function "Zeitslotinformationen speichern" implementieren</v>
+      </c>
+      <c r="E79" s="22" t="str">
+        <f>IF(Aufwandsplan!D78&lt;&gt;0, Aufwandsplan!D78, "")</f>
+        <v/>
+      </c>
+      <c r="F79" s="22" t="str">
+        <f>IF(Aufwandsplan!E78&lt;&gt;0, Aufwandsplan!E78, "")</f>
+        <v/>
+      </c>
+      <c r="G79" s="24" t="str">
+        <f>IF(Aufwandsplan!F78&lt;&gt;0, Aufwandsplan!F78, "")</f>
+        <v/>
+      </c>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A80" s="22" t="str">
+        <f>IF(Aufwandsplan!A79&lt;&gt;0, Aufwandsplan!A79, "")</f>
+        <v>F2.18</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C80" s="22" t="str">
+        <f>IF(Aufwandsplan!B79&lt;&gt;0, Aufwandsplan!B79, "")</f>
+        <v/>
+      </c>
+      <c r="D80" s="22" t="str">
+        <f>IF(Aufwandsplan!C79&lt;&gt;0, Aufwandsplan!C79, "")</f>
+        <v>Application Function "Zeitslot des Dozenten sperren" implementieren</v>
+      </c>
+      <c r="E80" s="22" t="str">
+        <f>IF(Aufwandsplan!D79&lt;&gt;0, Aufwandsplan!D79, "")</f>
+        <v/>
+      </c>
+      <c r="F80" s="22" t="str">
+        <f>IF(Aufwandsplan!E79&lt;&gt;0, Aufwandsplan!E79, "")</f>
+        <v/>
+      </c>
+      <c r="G80" s="24" t="str">
+        <f>IF(Aufwandsplan!F79&lt;&gt;0, Aufwandsplan!F79, "")</f>
+        <v/>
+      </c>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A81" s="22" t="str">
+        <f>IF(Aufwandsplan!A80&lt;&gt;0, Aufwandsplan!A80, "")</f>
+        <v>F2.19</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C81" s="22" t="str">
+        <f>IF(Aufwandsplan!B80&lt;&gt;0, Aufwandsplan!B80, "")</f>
+        <v/>
+      </c>
+      <c r="D81" s="22" t="str">
+        <f>IF(Aufwandsplan!C80&lt;&gt;0, Aufwandsplan!C80, "")</f>
+        <v>Application Function "Modul als verplant speichern" implementieren</v>
+      </c>
+      <c r="E81" s="22" t="str">
+        <f>IF(Aufwandsplan!D80&lt;&gt;0, Aufwandsplan!D80, "")</f>
+        <v/>
+      </c>
+      <c r="F81" s="22" t="str">
+        <f>IF(Aufwandsplan!E80&lt;&gt;0, Aufwandsplan!E80, "")</f>
+        <v/>
+      </c>
+      <c r="G81" s="24" t="str">
+        <f>IF(Aufwandsplan!F80&lt;&gt;0, Aufwandsplan!F80, "")</f>
+        <v/>
+      </c>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A82" s="22" t="str">
+        <f>IF(Aufwandsplan!A81&lt;&gt;0, Aufwandsplan!A81, "")</f>
+        <v>F2.20</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C82" s="22" t="str">
+        <f>IF(Aufwandsplan!B81&lt;&gt;0, Aufwandsplan!B81, "")</f>
+        <v/>
+      </c>
+      <c r="D82" s="22" t="str">
+        <f>IF(Aufwandsplan!C81&lt;&gt;0, Aufwandsplan!C81, "")</f>
+        <v>Application Function "Zufälligen Dozent ohne Zeitpräferenz laden" implementieren</v>
+      </c>
+      <c r="E82" s="22" t="str">
+        <f>IF(Aufwandsplan!D81&lt;&gt;0, Aufwandsplan!D81, "")</f>
+        <v/>
+      </c>
+      <c r="F82" s="22" t="str">
+        <f>IF(Aufwandsplan!E81&lt;&gt;0, Aufwandsplan!E81, "")</f>
+        <v/>
+      </c>
+      <c r="G82" s="24" t="str">
+        <f>IF(Aufwandsplan!F81&lt;&gt;0, Aufwandsplan!F81, "")</f>
+        <v/>
+      </c>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A83" s="22" t="str">
+        <f>IF(Aufwandsplan!A82&lt;&gt;0, Aufwandsplan!A82, "")</f>
+        <v>F3</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C83" s="22" t="str">
+        <f>IF(Aufwandsplan!B82&lt;&gt;0, Aufwandsplan!B82, "")</f>
+        <v>Implementierung GUI</v>
+      </c>
+      <c r="D83" s="22" t="str">
+        <f>IF(Aufwandsplan!C82&lt;&gt;0, Aufwandsplan!C82, "")</f>
+        <v/>
+      </c>
+      <c r="E83" s="22" t="str">
+        <f>IF(Aufwandsplan!D82&lt;&gt;0, Aufwandsplan!D82, "")</f>
+        <v/>
+      </c>
+      <c r="F83" s="22" t="str">
+        <f>IF(Aufwandsplan!E82&lt;&gt;0, Aufwandsplan!E82, "")</f>
+        <v/>
+      </c>
+      <c r="G83" s="24" t="str">
+        <f>IF(Aufwandsplan!F82&lt;&gt;0, Aufwandsplan!F82, "")</f>
+        <v/>
+      </c>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="26"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A84" s="22" t="str">
+        <f>IF(Aufwandsplan!A83&lt;&gt;0, Aufwandsplan!A83, "")</f>
+        <v>F3.1</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C84" s="22" t="str">
+        <f>IF(Aufwandsplan!B83&lt;&gt;0, Aufwandsplan!B83, "")</f>
+        <v/>
+      </c>
+      <c r="D84" s="22" t="str">
+        <f>IF(Aufwandsplan!C83&lt;&gt;0, Aufwandsplan!C83, "")</f>
+        <v>Implementierung Maske "Eingabe Zeiten"</v>
+      </c>
+      <c r="E84" s="22">
+        <f>IF(Aufwandsplan!D83&lt;&gt;0, Aufwandsplan!D83, "")</f>
+        <v>25</v>
+      </c>
+      <c r="F84" s="22" t="str">
+        <f>IF(Aufwandsplan!E83&lt;&gt;0, Aufwandsplan!E83, "")</f>
+        <v/>
+      </c>
+      <c r="G84" s="24">
+        <f>IF(Aufwandsplan!F83&lt;&gt;0, Aufwandsplan!F83, "")</f>
+        <v>25</v>
+      </c>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="1"/>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A85" s="22" t="str">
+        <f>IF(Aufwandsplan!A84&lt;&gt;0, Aufwandsplan!A84, "")</f>
+        <v>F3.2</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C85" s="22" t="str">
+        <f>IF(Aufwandsplan!B84&lt;&gt;0, Aufwandsplan!B84, "")</f>
+        <v/>
+      </c>
+      <c r="D85" s="22" t="str">
+        <f>IF(Aufwandsplan!C84&lt;&gt;0, Aufwandsplan!C84, "")</f>
+        <v>Implementierung Maske "Studenplan anzeigen"</v>
+      </c>
+      <c r="E85" s="22">
+        <f>IF(Aufwandsplan!D84&lt;&gt;0, Aufwandsplan!D84, "")</f>
+        <v>25</v>
+      </c>
+      <c r="F85" s="22" t="str">
+        <f>IF(Aufwandsplan!E84&lt;&gt;0, Aufwandsplan!E84, "")</f>
+        <v/>
+      </c>
+      <c r="G85" s="24">
+        <f>IF(Aufwandsplan!F84&lt;&gt;0, Aufwandsplan!F84, "")</f>
+        <v>25</v>
+      </c>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A86" s="22" t="str">
+        <f>IF(Aufwandsplan!A85&lt;&gt;0, Aufwandsplan!A85, "")</f>
+        <v>F3.3</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C86" s="22" t="str">
+        <f>IF(Aufwandsplan!B85&lt;&gt;0, Aufwandsplan!B85, "")</f>
+        <v/>
+      </c>
+      <c r="D86" s="22" t="str">
+        <f>IF(Aufwandsplan!C85&lt;&gt;0, Aufwandsplan!C85, "")</f>
+        <v>Implementierung "restl. Masken" (Anmeldung, Stundenplan erstellen, Laden)</v>
+      </c>
+      <c r="E86" s="22">
+        <f>IF(Aufwandsplan!D85&lt;&gt;0, Aufwandsplan!D85, "")</f>
+        <v>25</v>
+      </c>
+      <c r="F86" s="22" t="str">
+        <f>IF(Aufwandsplan!E85&lt;&gt;0, Aufwandsplan!E85, "")</f>
+        <v/>
+      </c>
+      <c r="G86" s="24">
+        <f>IF(Aufwandsplan!F85&lt;&gt;0, Aufwandsplan!F85, "")</f>
+        <v>25</v>
+      </c>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A87" s="22" t="str">
+        <f>IF(Aufwandsplan!A86&lt;&gt;0, Aufwandsplan!A86, "")</f>
+        <v>G1</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C87" s="22" t="str">
+        <f>IF(Aufwandsplan!B86&lt;&gt;0, Aufwandsplan!B86, "")</f>
+        <v>Test der Anwendung</v>
+      </c>
+      <c r="D87" s="22" t="str">
+        <f>IF(Aufwandsplan!C86&lt;&gt;0, Aufwandsplan!C86, "")</f>
+        <v/>
+      </c>
+      <c r="E87" s="22">
+        <f>IF(Aufwandsplan!D86&lt;&gt;0, Aufwandsplan!D86, "")</f>
+        <v>4</v>
+      </c>
+      <c r="F87" s="22" t="str">
+        <f>IF(Aufwandsplan!E86&lt;&gt;0, Aufwandsplan!E86, "")</f>
+        <v/>
+      </c>
+      <c r="G87" s="24">
+        <f>IF(Aufwandsplan!F86&lt;&gt;0, Aufwandsplan!F86, "")</f>
+        <v>4</v>
+      </c>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A88" s="22" t="str">
+        <f>IF(Aufwandsplan!A87&lt;&gt;0, Aufwandsplan!A87, "")</f>
+        <v>G2</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C88" s="22" t="str">
+        <f>IF(Aufwandsplan!B87&lt;&gt;0, Aufwandsplan!B87, "")</f>
+        <v>Anpassungen/Fehlerbehebung</v>
+      </c>
+      <c r="D88" s="22" t="str">
+        <f>IF(Aufwandsplan!C87&lt;&gt;0, Aufwandsplan!C87, "")</f>
+        <v/>
+      </c>
+      <c r="E88" s="22">
+        <f>IF(Aufwandsplan!D87&lt;&gt;0, Aufwandsplan!D87, "")</f>
+        <v>10</v>
+      </c>
+      <c r="F88" s="22" t="str">
+        <f>IF(Aufwandsplan!E87&lt;&gt;0, Aufwandsplan!E87, "")</f>
+        <v/>
+      </c>
+      <c r="G88" s="24">
+        <f>IF(Aufwandsplan!F87&lt;&gt;0, Aufwandsplan!F87, "")</f>
+        <v>10</v>
+      </c>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A89" s="22" t="str">
+        <f>IF(Aufwandsplan!A88&lt;&gt;0, Aufwandsplan!A88, "")</f>
+        <v>G3</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C89" s="22" t="str">
+        <f>IF(Aufwandsplan!B88&lt;&gt;0, Aufwandsplan!B88, "")</f>
+        <v>interne Abnahme</v>
+      </c>
+      <c r="D89" s="22" t="str">
+        <f>IF(Aufwandsplan!C88&lt;&gt;0, Aufwandsplan!C88, "")</f>
+        <v/>
+      </c>
+      <c r="E89" s="22">
+        <f>IF(Aufwandsplan!D88&lt;&gt;0, Aufwandsplan!D88, "")</f>
+        <v>5</v>
+      </c>
+      <c r="F89" s="22" t="str">
+        <f>IF(Aufwandsplan!E88&lt;&gt;0, Aufwandsplan!E88, "")</f>
+        <v/>
+      </c>
+      <c r="G89" s="24">
+        <f>IF(Aufwandsplan!F88&lt;&gt;0, Aufwandsplan!F88, "")</f>
+        <v>5</v>
+      </c>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="26"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B91" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="F91" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H91" s="7">
+        <f>COUNTIF(H4:H89,"SW")+COUNTIF(H4:H89,"alle")</f>
         <v>0</v>
       </c>
-      <c r="I79" s="7">
-        <f t="shared" ref="I79:T79" si="0">COUNTIF(I4:I77,"SW")+COUNTIF(I4:I77,"alle")</f>
+      <c r="I91" s="7">
+        <f t="shared" ref="I91:V91" si="0">COUNTIF(I4:I89,"SW")+COUNTIF(I4:I89,"alle")</f>
         <v>3</v>
       </c>
-      <c r="J79" s="7">
+      <c r="J91" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K79" s="7">
+      <c r="K91" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="L79" s="7">
+      <c r="L91" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M79" s="7">
+      <c r="M91" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N79" s="7">
+      <c r="N91" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O91" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P91" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q91" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O79" s="7">
+      <c r="R91" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P79" s="7">
+      <c r="S91" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T91" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U91" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q79" s="7">
+      <c r="V91" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R79" s="7">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B92" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H92" s="7">
+        <f>COUNTIF(H4:H89,"MW")+COUNTIF(H4:H89,"alle")</f>
         <v>0</v>
       </c>
-      <c r="S79" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T79" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B80" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H80" s="7">
-        <f>COUNTIF(H4:H77,"MW")+COUNTIF(H4:H77,"alle")</f>
-        <v>0</v>
-      </c>
-      <c r="I80" s="7">
-        <f t="shared" ref="I80:T80" si="1">COUNTIF(I4:I77,"MW")+COUNTIF(I4:I77,"alle")</f>
+      <c r="I92" s="7">
+        <f t="shared" ref="I92:V92" si="1">COUNTIF(I4:I89,"MW")+COUNTIF(I4:I89,"alle")</f>
         <v>3</v>
       </c>
-      <c r="J80" s="7">
+      <c r="J92" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K80" s="7">
+      <c r="K92" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L80" s="7">
+      <c r="L92" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M80" s="7">
+      <c r="M92" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N80" s="7">
+      <c r="N92" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O80" s="7">
+      <c r="O92" s="7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="P92" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q92" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R92" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S92" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T92" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U92" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P80" s="7">
+      <c r="V92" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q80" s="7">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G93" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="H93" s="7">
+        <f>COUNTIF(H4:H89,"JNK")+COUNTIF(H4:H89,"alle")</f>
         <v>0</v>
       </c>
-      <c r="R80" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S80" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T80" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G81" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="H81" s="7">
-        <f>COUNTIF(H4:H77,"JNK")+COUNTIF(H4:H77,"alle")</f>
-        <v>0</v>
-      </c>
-      <c r="I81" s="7">
-        <f t="shared" ref="I81:T81" si="2">COUNTIF(I4:I77,"JNK")+COUNTIF(I4:I77,"alle")</f>
+      <c r="I93" s="7">
+        <f t="shared" ref="I93:V93" si="2">COUNTIF(I4:I89,"JNK")+COUNTIF(I4:I89,"alle")</f>
         <v>3</v>
       </c>
-      <c r="J81" s="7">
+      <c r="J93" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K81" s="7">
+      <c r="K93" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L81" s="7">
+      <c r="L93" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M81" s="7">
+      <c r="M93" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="N81" s="7">
+      <c r="N93" s="7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O93" s="7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P93" s="7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q93" s="7">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="R93" s="7">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="S93" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O81" s="7">
+      <c r="T93" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U93" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P81" s="7">
+      <c r="V93" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q81" s="7">
-        <f t="shared" si="2"/>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G94" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H94" s="7">
+        <f>COUNTIF(H4:H89,"PD")+COUNTIF(H4:H89,"alle")</f>
         <v>0</v>
       </c>
-      <c r="R81" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S81" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T81" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G82" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="H82" s="7">
-        <f>COUNTIF(H4:H77,"PD")+COUNTIF(H4:H77,"alle")</f>
-        <v>0</v>
-      </c>
-      <c r="I82" s="7">
-        <f t="shared" ref="I82:T82" si="3">COUNTIF(I4:I77,"PD")+COUNTIF(I4:I77,"alle")</f>
+      <c r="I94" s="7">
+        <f t="shared" ref="I94:V94" si="3">COUNTIF(I4:I89,"PD")+COUNTIF(I4:I89,"alle")</f>
         <v>3</v>
       </c>
-      <c r="J82" s="7">
+      <c r="J94" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K82" s="7">
+      <c r="K94" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L82" s="7">
+      <c r="L94" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M94" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M82" s="7">
+      <c r="N94" s="7">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="O94" s="7">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="P94" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q94" s="7">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="N82" s="7">
+      <c r="R94" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O82" s="7">
+      <c r="S94" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T94" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U94" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P82" s="7">
+      <c r="V94" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q82" s="7">
-        <f t="shared" si="3"/>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G95" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H95" s="7">
+        <f>COUNTIF(H4:H89,"MU")+COUNTIF(H4:H89,"alle")</f>
         <v>0</v>
       </c>
-      <c r="R82" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S82" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T82" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G83" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="H83" s="7">
-        <f>COUNTIF(H4:H77,"MU")+COUNTIF(H4:H77,"alle")</f>
-        <v>0</v>
-      </c>
-      <c r="I83" s="7">
-        <f t="shared" ref="I83:T83" si="4">COUNTIF(I4:I77,"MU")+COUNTIF(I4:I77,"alle")</f>
+      <c r="I95" s="7">
+        <f t="shared" ref="I95:V95" si="4">COUNTIF(I4:I89,"MU")+COUNTIF(I4:I89,"alle")</f>
         <v>3</v>
       </c>
-      <c r="J83" s="7">
+      <c r="J95" s="7">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K83" s="7">
+      <c r="K95" s="7">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L83" s="7">
+      <c r="L95" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M95" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N95" s="7">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M83" s="7">
+      <c r="O95" s="7">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="P95" s="7">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Q95" s="7">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="R95" s="7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S95" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N83" s="7">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="O83" s="7">
+      <c r="T95" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P83" s="7">
+      <c r="U95" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q83" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R83" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S83" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T83" s="7">
+      <c r="V95" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7540,101 +8639,101 @@
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="B2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="C2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="D2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="E2" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="39"/>
+      <c r="G2" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="39"/>
+      <c r="K2" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="40" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
       <c r="I3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -7642,35 +8741,35 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -7678,37 +8777,37 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -8080,10 +9179,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8091,17 +9190,18 @@
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="85.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="85.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -8112,334 +9212,384 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="D5" s="13">
+        <v>0.3</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0.5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>278</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0.25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0.3</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>96</v>
+      <c r="D11" s="13">
+        <v>0.2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="D13" s="13">
+        <v>0.05</v>
+      </c>
       <c r="E13" s="1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0.1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="D15" s="13">
+        <v>0.15</v>
+      </c>
       <c r="E15" s="1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0.05</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Doku/Managementplaene_und_listen.xlsx
+++ b/Doku/Managementplaene_und_listen.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="323">
   <si>
     <t>Risikoliste</t>
   </si>
@@ -1248,6 +1248,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1276,9 +1279,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2373,8 +2373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+    <sheetView topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3255,10 +3255,12 @@
         <v>290</v>
       </c>
       <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="E51" s="1">
+        <v>3</v>
+      </c>
       <c r="F51" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -3270,10 +3272,12 @@
         <v>291</v>
       </c>
       <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
+      <c r="E52" s="1">
+        <v>3</v>
+      </c>
       <c r="F52" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -3285,10 +3289,12 @@
         <v>293</v>
       </c>
       <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+      <c r="E53" s="1">
+        <v>3</v>
+      </c>
       <c r="F53" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -3431,10 +3437,12 @@
       <c r="D62" s="1">
         <v>12</v>
       </c>
-      <c r="E62" s="1"/>
+      <c r="E62" s="1">
+        <v>12</v>
+      </c>
       <c r="F62" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -3448,10 +3456,12 @@
       <c r="D63" s="1">
         <v>12</v>
       </c>
-      <c r="E63" s="1"/>
+      <c r="E63" s="1">
+        <v>12</v>
+      </c>
       <c r="F63" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -3465,10 +3475,12 @@
       <c r="D64" s="1">
         <v>12</v>
       </c>
-      <c r="E64" s="1"/>
+      <c r="E64" s="1">
+        <v>12</v>
+      </c>
       <c r="F64" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -3482,10 +3494,12 @@
       <c r="D65" s="1">
         <v>12</v>
       </c>
-      <c r="E65" s="1"/>
+      <c r="E65" s="1">
+        <v>12</v>
+      </c>
       <c r="F65" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -3499,10 +3513,12 @@
       <c r="D66" s="1">
         <v>12</v>
       </c>
-      <c r="E66" s="1"/>
+      <c r="E66" s="1">
+        <v>12</v>
+      </c>
       <c r="F66" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -3516,10 +3532,12 @@
       <c r="D67" s="1">
         <v>12</v>
       </c>
-      <c r="E67" s="1"/>
+      <c r="E67" s="1">
+        <v>2</v>
+      </c>
       <c r="F67" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -3568,11 +3586,11 @@
         <v>22</v>
       </c>
       <c r="E70" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F70" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -4065,7 +4083,7 @@
       <c r="F113" s="1"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C114" s="41" t="s">
+      <c r="C114" s="31" t="s">
         <v>297</v>
       </c>
       <c r="D114" s="2">
@@ -4074,11 +4092,11 @@
       </c>
       <c r="E114" s="2">
         <f>SUM(E3:E113)</f>
-        <v>233</v>
+        <v>312</v>
       </c>
       <c r="F114" s="2">
         <f>SUM(F3:F113)</f>
-        <v>287</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -4235,8 +4253,8 @@
   <dimension ref="A1:V95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H67" sqref="H67:H200"/>
+      <pane ySplit="3" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S74" sqref="S74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4254,98 +4272,98 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="35" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="N2" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="O2" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="31" t="s">
+      <c r="P2" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="31" t="s">
+      <c r="Q2" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="31" t="s">
+      <c r="R2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="31" t="s">
+      <c r="S2" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="31" t="s">
+      <c r="T2" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="31" t="s">
+      <c r="U2" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="V2" s="31" t="s">
+      <c r="V2" s="32" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="35"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="str">
@@ -4827,9 +4845,8 @@
         <f>IF(Aufwandsplan!D13&lt;&gt;0, Aufwandsplan!D13, "")</f>
         <v>4</v>
       </c>
-      <c r="F14" s="22" t="str">
-        <f>IF(Aufwandsplan!E13&lt;&gt;0, Aufwandsplan!E13, "")</f>
-        <v/>
+      <c r="F14" s="22">
+        <v>4</v>
       </c>
       <c r="G14" s="24">
         <f>IF(Aufwandsplan!F13&lt;&gt;0, Aufwandsplan!F13, "")</f>
@@ -4846,7 +4863,9 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
+      <c r="S14" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
@@ -6561,13 +6580,13 @@
         <f>IF(Aufwandsplan!D51&lt;&gt;0, Aufwandsplan!D51, "")</f>
         <v/>
       </c>
-      <c r="F52" s="22" t="str">
+      <c r="F52" s="22">
         <f>IF(Aufwandsplan!E51&lt;&gt;0, Aufwandsplan!E51, "")</f>
-        <v/>
-      </c>
-      <c r="G52" s="24" t="str">
+        <v>3</v>
+      </c>
+      <c r="G52" s="24">
         <f>IF(Aufwandsplan!F51&lt;&gt;0, Aufwandsplan!F51, "")</f>
-        <v/>
+        <v>-3</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="1"/>
@@ -6607,13 +6626,13 @@
         <f>IF(Aufwandsplan!D52&lt;&gt;0, Aufwandsplan!D52, "")</f>
         <v/>
       </c>
-      <c r="F53" s="22" t="str">
+      <c r="F53" s="22">
         <f>IF(Aufwandsplan!E52&lt;&gt;0, Aufwandsplan!E52, "")</f>
-        <v/>
-      </c>
-      <c r="G53" s="24" t="str">
+        <v>3</v>
+      </c>
+      <c r="G53" s="24">
         <f>IF(Aufwandsplan!F52&lt;&gt;0, Aufwandsplan!F52, "")</f>
-        <v/>
+        <v>-3</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="1"/>
@@ -6652,13 +6671,13 @@
         <f>IF(Aufwandsplan!D53&lt;&gt;0, Aufwandsplan!D53, "")</f>
         <v/>
       </c>
-      <c r="F54" s="22" t="str">
+      <c r="F54" s="22">
         <f>IF(Aufwandsplan!E53&lt;&gt;0, Aufwandsplan!E53, "")</f>
-        <v/>
-      </c>
-      <c r="G54" s="24" t="str">
+        <v>3</v>
+      </c>
+      <c r="G54" s="24">
         <f>IF(Aufwandsplan!F53&lt;&gt;0, Aufwandsplan!F53, "")</f>
-        <v/>
+        <v>-3</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="1"/>
@@ -6790,7 +6809,8 @@
         <v>8</v>
       </c>
       <c r="F57" s="22">
-        <v>12</v>
+        <f>IF(Aufwandsplan!E56&lt;&gt;0, Aufwandsplan!E56, "")</f>
+        <v>8</v>
       </c>
       <c r="G57" s="24" t="str">
         <f>IF(Aufwandsplan!F56&lt;&gt;0, Aufwandsplan!F56, "")</f>
@@ -6834,8 +6854,9 @@
         <f>IF(Aufwandsplan!D57&lt;&gt;0, Aufwandsplan!D57, "")</f>
         <v>8</v>
       </c>
-      <c r="F58" s="22">
-        <v>13</v>
+      <c r="F58" s="22" t="str">
+        <f>IF(Aufwandsplan!E57&lt;&gt;0, Aufwandsplan!E57, "")</f>
+        <v/>
       </c>
       <c r="G58" s="24">
         <f>IF(Aufwandsplan!F57&lt;&gt;0, Aufwandsplan!F57, "")</f>
@@ -7061,13 +7082,13 @@
         <f>IF(Aufwandsplan!D62&lt;&gt;0, Aufwandsplan!D62, "")</f>
         <v>12</v>
       </c>
-      <c r="F63" s="22" t="str">
+      <c r="F63" s="22">
         <f>IF(Aufwandsplan!E62&lt;&gt;0, Aufwandsplan!E62, "")</f>
-        <v/>
-      </c>
-      <c r="G63" s="24">
+        <v>12</v>
+      </c>
+      <c r="G63" s="24" t="str">
         <f>IF(Aufwandsplan!F62&lt;&gt;0, Aufwandsplan!F62, "")</f>
-        <v>12</v>
+        <v/>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="1"/>
@@ -7107,13 +7128,13 @@
         <f>IF(Aufwandsplan!D63&lt;&gt;0, Aufwandsplan!D63, "")</f>
         <v>12</v>
       </c>
-      <c r="F64" s="22" t="str">
+      <c r="F64" s="22">
         <f>IF(Aufwandsplan!E63&lt;&gt;0, Aufwandsplan!E63, "")</f>
-        <v/>
-      </c>
-      <c r="G64" s="24">
+        <v>12</v>
+      </c>
+      <c r="G64" s="24" t="str">
         <f>IF(Aufwandsplan!F63&lt;&gt;0, Aufwandsplan!F63, "")</f>
-        <v>12</v>
+        <v/>
       </c>
       <c r="H64" s="7"/>
       <c r="I64" s="1"/>
@@ -7153,13 +7174,13 @@
         <f>IF(Aufwandsplan!D64&lt;&gt;0, Aufwandsplan!D64, "")</f>
         <v>12</v>
       </c>
-      <c r="F65" s="22" t="str">
+      <c r="F65" s="22">
         <f>IF(Aufwandsplan!E64&lt;&gt;0, Aufwandsplan!E64, "")</f>
-        <v/>
-      </c>
-      <c r="G65" s="24">
+        <v>12</v>
+      </c>
+      <c r="G65" s="24" t="str">
         <f>IF(Aufwandsplan!F64&lt;&gt;0, Aufwandsplan!F64, "")</f>
-        <v>12</v>
+        <v/>
       </c>
       <c r="H65" s="7"/>
       <c r="I65" s="1"/>
@@ -7199,13 +7220,13 @@
         <f>IF(Aufwandsplan!D65&lt;&gt;0, Aufwandsplan!D65, "")</f>
         <v>12</v>
       </c>
-      <c r="F66" s="22" t="str">
+      <c r="F66" s="22">
         <f>IF(Aufwandsplan!E65&lt;&gt;0, Aufwandsplan!E65, "")</f>
-        <v/>
-      </c>
-      <c r="G66" s="24">
+        <v>12</v>
+      </c>
+      <c r="G66" s="24" t="str">
         <f>IF(Aufwandsplan!F65&lt;&gt;0, Aufwandsplan!F65, "")</f>
-        <v>12</v>
+        <v/>
       </c>
       <c r="H66" s="7"/>
       <c r="I66" s="1"/>
@@ -7245,13 +7266,13 @@
         <f>IF(Aufwandsplan!D66&lt;&gt;0, Aufwandsplan!D66, "")</f>
         <v>12</v>
       </c>
-      <c r="F67" s="22" t="str">
+      <c r="F67" s="22">
         <f>IF(Aufwandsplan!E66&lt;&gt;0, Aufwandsplan!E66, "")</f>
-        <v/>
-      </c>
-      <c r="G67" s="24">
+        <v>12</v>
+      </c>
+      <c r="G67" s="24" t="str">
         <f>IF(Aufwandsplan!F66&lt;&gt;0, Aufwandsplan!F66, "")</f>
-        <v>12</v>
+        <v/>
       </c>
       <c r="H67" s="7"/>
       <c r="I67" s="1"/>
@@ -7291,13 +7312,13 @@
         <f>IF(Aufwandsplan!D67&lt;&gt;0, Aufwandsplan!D67, "")</f>
         <v>12</v>
       </c>
-      <c r="F68" s="22" t="str">
+      <c r="F68" s="22">
         <f>IF(Aufwandsplan!E67&lt;&gt;0, Aufwandsplan!E67, "")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G68" s="24">
         <f>IF(Aufwandsplan!F67&lt;&gt;0, Aufwandsplan!F67, "")</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H68" s="7"/>
       <c r="I68" s="1"/>
@@ -7431,11 +7452,11 @@
       </c>
       <c r="F71" s="22">
         <f>IF(Aufwandsplan!E70&lt;&gt;0, Aufwandsplan!E70, "")</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G71" s="24">
         <f>IF(Aufwandsplan!F70&lt;&gt;0, Aufwandsplan!F70, "")</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="1"/>
@@ -7588,7 +7609,9 @@
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
-      <c r="U74" s="1"/>
+      <c r="U74" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="V74" s="1"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
@@ -7632,7 +7655,9 @@
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
-      <c r="U75" s="1"/>
+      <c r="U75" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="V75" s="1"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
@@ -7676,7 +7701,9 @@
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
-      <c r="U76" s="1"/>
+      <c r="U76" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="V76" s="1"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
@@ -7719,7 +7746,9 @@
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
       <c r="T77" s="1"/>
-      <c r="U77" s="1"/>
+      <c r="U77" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="V77" s="1"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
@@ -8026,7 +8055,9 @@
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
-      <c r="T84" s="1"/>
+      <c r="T84" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="U84" s="1"/>
       <c r="V84" s="1"/>
     </row>
@@ -8050,9 +8081,8 @@
         <f>IF(Aufwandsplan!D84&lt;&gt;0, Aufwandsplan!D84, "")</f>
         <v>25</v>
       </c>
-      <c r="F85" s="22" t="str">
-        <f>IF(Aufwandsplan!E84&lt;&gt;0, Aufwandsplan!E84, "")</f>
-        <v/>
+      <c r="F85" s="22">
+        <v>12</v>
       </c>
       <c r="G85" s="24">
         <f>IF(Aufwandsplan!F84&lt;&gt;0, Aufwandsplan!F84, "")</f>
@@ -8069,8 +8099,12 @@
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
-      <c r="S85" s="1"/>
-      <c r="T85" s="1"/>
+      <c r="S85" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="T85" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="U85" s="1"/>
       <c r="V85" s="1"/>
     </row>
@@ -8314,7 +8348,7 @@
       </c>
       <c r="U91" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V91" s="7">
         <f t="shared" si="0"/>
@@ -8378,7 +8412,7 @@
       </c>
       <c r="T92" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U92" s="7">
         <f t="shared" si="1"/>
@@ -8439,7 +8473,7 @@
       </c>
       <c r="S93" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T93" s="7">
         <f t="shared" si="2"/>
@@ -8447,7 +8481,7 @@
       </c>
       <c r="U93" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V93" s="7">
         <f t="shared" si="2"/>
@@ -8512,7 +8546,7 @@
       </c>
       <c r="U94" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V94" s="7">
         <f t="shared" si="3"/>
@@ -8569,11 +8603,11 @@
       </c>
       <c r="S95" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T95" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U95" s="7">
         <f t="shared" si="4"/>
@@ -8643,60 +8677,60 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="40"/>
+      <c r="G2" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="36" t="s">
+      <c r="J2" s="40"/>
+      <c r="K2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="38" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
       <c r="I3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">

--- a/Doku/Managementplaene_und_listen.xlsx
+++ b/Doku/Managementplaene_und_listen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="90" windowWidth="13290" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="-30" yWindow="90" windowWidth="13290" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Strukturplan" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="379">
   <si>
     <t>Risikoliste</t>
   </si>
@@ -656,9 +656,6 @@
     <t>Mittel</t>
   </si>
   <si>
-    <t>Mit Herrn Dallmöller gesprochen. Spezifikationen festgelegt.</t>
-  </si>
-  <si>
     <t>Wie lösen wir das Vernetzungproblem?</t>
   </si>
   <si>
@@ -999,6 +996,178 @@
   </si>
   <si>
     <t>KW2</t>
+  </si>
+  <si>
+    <t>Qualitätsziele</t>
+  </si>
+  <si>
+    <t>Weche Kriterien braucht es um die Ziele zu erreichen?</t>
+  </si>
+  <si>
+    <t>Brainstorming und Diskussion -&gt; Ergebnisse an MW</t>
+  </si>
+  <si>
+    <t>Risiken</t>
+  </si>
+  <si>
+    <t>Was für Risiken sehen wir uns ausgesetzt?</t>
+  </si>
+  <si>
+    <t>Brainstorming und Diskussion -&gt; Ergebnisse an SW</t>
+  </si>
+  <si>
+    <t>Aufgaben/Arbeitspakete</t>
+  </si>
+  <si>
+    <t>Welche Aufgabe bzw. Arbeitspakete fallen an?
+Was sind die Meilensteine?</t>
+  </si>
+  <si>
+    <t>Aufwands-, Termin und Meilensteinplan</t>
+  </si>
+  <si>
+    <t>Geschäftsanwendungsfälle</t>
+  </si>
+  <si>
+    <t>siehe Anforderungen</t>
+  </si>
+  <si>
+    <t>Anforderungenvon JNK richtig?</t>
+  </si>
+  <si>
+    <t>Mit Herrn Dallmöller gesprochen. Spezifikationen festgelegt. Beantragt</t>
+  </si>
+  <si>
+    <t>Niedrig</t>
+  </si>
+  <si>
+    <t>siehe EAP-Datei</t>
+  </si>
+  <si>
+    <t>EAP</t>
+  </si>
+  <si>
+    <t>ERM gut so? Anforderungn digitalisieren in EAP</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>GUI Entwurf Eingabe Zeiten</t>
+  </si>
+  <si>
+    <t>Entwurf zusammen erarbeitet</t>
+  </si>
+  <si>
+    <t>GUI-Entwürfe digitalisieren</t>
+  </si>
+  <si>
+    <t>EA-Modell</t>
+  </si>
+  <si>
+    <t>Hinweise zu EA-Modell korrekt?</t>
+  </si>
+  <si>
+    <t>siehe Entwürfe in EAP</t>
+  </si>
+  <si>
+    <t>Präsi 1</t>
+  </si>
+  <si>
+    <t>Präsentattion so korrekt und gut?</t>
+  </si>
+  <si>
+    <t>Änderungen in Präsi1 vorgenommen</t>
+  </si>
+  <si>
+    <t>Arbeitsweise MU</t>
+  </si>
+  <si>
+    <t>Was ist zu tun um Ergebnisse von Teammitglied MU zu steigern?</t>
+  </si>
+  <si>
+    <t>Mail an MU</t>
+  </si>
+  <si>
+    <t>Wer installiert die Oracle-DB?</t>
+  </si>
+  <si>
+    <t>Oracle-DB auf Server installiert</t>
+  </si>
+  <si>
+    <t>Wer schreibt die SQL-Befehle zum Erstellen der Tabellen?</t>
+  </si>
+  <si>
+    <t>siehe sql.txt-Datei</t>
+  </si>
+  <si>
+    <t>Klassenmodell</t>
+  </si>
+  <si>
+    <t>Fehlen dort nicht die Verwaltungsklassen?</t>
+  </si>
+  <si>
+    <t>Verwaltungsklassen im Modell hinzugefügt</t>
+  </si>
+  <si>
+    <t>Wer digitalisiert das Modell</t>
+  </si>
+  <si>
+    <t>Dialoge</t>
+  </si>
+  <si>
+    <t>Diagloge müssen noch in EAP erstellt und beschrieben werden</t>
+  </si>
+  <si>
+    <t>Modell ist in EAP digitalisiert</t>
+  </si>
+  <si>
+    <t>Dialoge samt textueller Beschreibung in EA</t>
+  </si>
+  <si>
+    <t>Stundenplanerstellung</t>
+  </si>
+  <si>
+    <t>Algorithmus ist noch unbekannt. Informieren!</t>
+  </si>
+  <si>
+    <t>Algorithmus muss ofrmalisiert werden(lineares Optimierungproblem)</t>
+  </si>
+  <si>
+    <t>SQL-Befahle so korrekt(Oracle konform?)</t>
+  </si>
+  <si>
+    <t>Script zu Oracle-SQL angepasst</t>
+  </si>
+  <si>
+    <t>DB ist gefüllt</t>
+  </si>
+  <si>
+    <t>Wer erstellt die Inserts mit Daten zweier Studiengänge?</t>
+  </si>
+  <si>
+    <t>Zugriff Server</t>
+  </si>
+  <si>
+    <t>Ports zur DB und Gui müssen noch freigeschaltetw erden</t>
+  </si>
+  <si>
+    <t>Ports sind von Herrn Schulte freigeschaltet worden. Firewall angepasst</t>
+  </si>
+  <si>
+    <t>Trigger erstellt und hinzugefügt</t>
+  </si>
+  <si>
+    <t>Ist Trigger für Tabelle Zeitpräferenzen sinnvoll?</t>
+  </si>
+  <si>
+    <t>Wie formalisiert man den Algorithmus?</t>
+  </si>
+  <si>
+    <t>Wie funktioniert die Optimierung</t>
+  </si>
+  <si>
+    <t>Struktogramm Urplanerstellung</t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1376,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1280,6 +1449,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Akzent1" xfId="1" builtinId="29"/>
@@ -1694,7 +1865,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1916,7 +2087,7 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1926,7 +2097,7 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1936,7 +2107,7 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1946,7 +2117,7 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1966,7 +2137,7 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1976,96 +2147,96 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2087,7 +2258,7 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2097,7 +2268,7 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2107,7 +2278,7 @@
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2159,7 +2330,7 @@
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2169,7 +2340,7 @@
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2179,7 +2350,7 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2189,7 +2360,7 @@
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2199,7 +2370,7 @@
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2209,86 +2380,86 @@
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2308,7 +2479,7 @@
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2318,7 +2489,7 @@
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2328,7 +2499,7 @@
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2349,7 +2520,7 @@
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D75" s="1"/>
     </row>
@@ -2534,7 +2705,7 @@
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D10" s="1">
         <v>6</v>
@@ -2908,7 +3079,7 @@
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D32" s="1">
         <v>4</v>
@@ -2927,7 +3098,7 @@
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D33" s="1">
         <v>4</v>
@@ -2946,7 +3117,7 @@
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D34" s="1">
         <v>4</v>
@@ -2965,7 +3136,7 @@
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D35" s="1">
         <v>4</v>
@@ -2996,7 +3167,7 @@
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D37" s="1">
         <v>3</v>
@@ -3015,7 +3186,7 @@
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D38" s="1">
         <v>3</v>
@@ -3030,11 +3201,11 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D39" s="1">
         <v>3</v>
@@ -3049,11 +3220,11 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D40" s="1">
         <v>3</v>
@@ -3068,11 +3239,11 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D41" s="1">
         <v>3</v>
@@ -3087,11 +3258,11 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D42" s="1">
         <v>10</v>
@@ -3106,11 +3277,11 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D43" s="1">
         <v>10</v>
@@ -3123,11 +3294,11 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D44" s="1">
         <v>3</v>
@@ -3142,11 +3313,11 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D45" s="1">
         <v>3</v>
@@ -3161,11 +3332,11 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D46" s="1">
         <v>3</v>
@@ -3180,11 +3351,11 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1">
@@ -3197,11 +3368,11 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1">
@@ -3214,11 +3385,11 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1">
@@ -3231,11 +3402,11 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1">
@@ -3248,11 +3419,11 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1">
@@ -3265,11 +3436,11 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1">
@@ -3282,11 +3453,11 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1">
@@ -3315,7 +3486,7 @@
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D55" s="1">
         <v>8</v>
@@ -3334,7 +3505,7 @@
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D56" s="1">
         <v>8</v>
@@ -3353,7 +3524,7 @@
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D57" s="1">
         <v>8</v>
@@ -3432,7 +3603,7 @@
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D62" s="1">
         <v>12</v>
@@ -3451,7 +3622,7 @@
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D63" s="1">
         <v>12</v>
@@ -3470,7 +3641,7 @@
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D64" s="1">
         <v>12</v>
@@ -3489,7 +3660,7 @@
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D65" s="1">
         <v>12</v>
@@ -3508,7 +3679,7 @@
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D66" s="1">
         <v>12</v>
@@ -3527,7 +3698,7 @@
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D67" s="1">
         <v>12</v>
@@ -3542,11 +3713,11 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D68" s="1">
         <v>12</v>
@@ -3559,11 +3730,11 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D69" s="1">
         <v>12</v>
@@ -3576,11 +3747,11 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D70" s="1">
         <v>22</v>
@@ -3595,11 +3766,11 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D71" s="1">
         <v>22</v>
@@ -3612,11 +3783,11 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D72" s="1">
         <v>12</v>
@@ -3629,11 +3800,11 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D73" s="1">
         <v>12</v>
@@ -3646,11 +3817,11 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D74" s="1">
         <v>12</v>
@@ -3663,11 +3834,11 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -3678,11 +3849,11 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -3693,11 +3864,11 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -3708,11 +3879,11 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -3723,11 +3894,11 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -3738,11 +3909,11 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -3753,11 +3924,11 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -3787,7 +3958,7 @@
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D83" s="1">
         <v>25</v>
@@ -3804,7 +3975,7 @@
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D84" s="1">
         <v>25</v>
@@ -3821,7 +3992,7 @@
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D85" s="1">
         <v>25</v>
@@ -3854,7 +4025,7 @@
         <v>170</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1">
@@ -4084,7 +4255,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C114" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D114" s="2">
         <f>SUM(D3:D113)</f>
@@ -4146,7 +4317,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>45</v>
@@ -4163,7 +4334,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>46</v>
@@ -4180,7 +4351,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>47</v>
@@ -4197,7 +4368,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>48</v>
@@ -4214,10 +4385,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>216</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>217</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>24</v>
@@ -4252,7 +4423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="S74" sqref="S74"/>
     </sheetView>
@@ -4333,10 +4504,10 @@
         <v>36</v>
       </c>
       <c r="U2" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="V2" s="32" t="s">
         <v>321</v>
-      </c>
-      <c r="V2" s="32" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4864,7 +5035,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -5305,7 +5476,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -5352,7 +5523,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -5399,7 +5570,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -5444,7 +5615,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -5580,7 +5751,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -5763,7 +5934,7 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -5809,7 +5980,7 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -5856,7 +6027,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -6127,10 +6298,10 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
@@ -6413,7 +6584,7 @@
         <v>116</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="28"/>
@@ -6460,7 +6631,7 @@
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
@@ -6506,7 +6677,7 @@
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
@@ -6552,7 +6723,7 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
@@ -6599,7 +6770,7 @@
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
@@ -6644,7 +6815,7 @@
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="R53" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
@@ -6690,7 +6861,7 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S54" s="28"/>
       <c r="T54" s="1"/>
@@ -7286,7 +7457,7 @@
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
@@ -7563,7 +7734,7 @@
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
@@ -7610,7 +7781,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
       <c r="U74" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="V74" s="1"/>
     </row>
@@ -8286,10 +8457,10 @@
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B91" s="27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F91" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G91" s="9" t="s">
         <v>87</v>
@@ -8357,7 +8528,7 @@
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B92" s="29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G92" s="9" t="s">
         <v>89</v>
@@ -8425,7 +8596,7 @@
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G93" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H93" s="7">
         <f>COUNTIF(H4:H89,"JNK")+COUNTIF(H4:H89,"alle")</f>
@@ -8649,17 +8820,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
@@ -8668,7 +8839,7 @@
     <col min="9" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="56.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="65.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
@@ -8740,7 +8911,7 @@
         <v>114</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>115</v>
@@ -8781,7 +8952,7 @@
         <v>120</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>207</v>
+        <v>335</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>121</v>
@@ -8793,7 +8964,7 @@
         <v>121</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>121</v>
@@ -8801,7 +8972,9 @@
       <c r="J5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="L5" s="1" t="s">
         <v>122</v>
       </c>
@@ -8814,348 +8987,868 @@
         <v>206</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>115</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>90</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>117</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>208</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
+      <c r="A28" s="43">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -9167,8 +9860,8 @@
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -9193,6 +9886,34 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -9216,7 +9937,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9246,10 +9967,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>4</v>
@@ -9378,7 +10099,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>98</v>
@@ -9531,7 +10252,7 @@
         <v>90</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">

--- a/Doku/Managementplaene_und_listen.xlsx
+++ b/Doku/Managementplaene_und_listen.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="412">
   <si>
     <t>Risikoliste</t>
   </si>
@@ -1168,13 +1168,112 @@
   </si>
   <si>
     <t>Struktogramm Urplanerstellung</t>
+  </si>
+  <si>
+    <t>Spezifikation Testdurchführung</t>
+  </si>
+  <si>
+    <t>KW02</t>
+  </si>
+  <si>
+    <t>Dokument wurde im Git hinzugefügt. Absprache mit MU</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Durchführung Test</t>
+  </si>
+  <si>
+    <t>KW04</t>
+  </si>
+  <si>
+    <t>siehe Dokument</t>
+  </si>
+  <si>
+    <t>bis auf weiteres ausgesetzt</t>
+  </si>
+  <si>
+    <t>KW03</t>
+  </si>
+  <si>
+    <t>KW05</t>
+  </si>
+  <si>
+    <t>siehe Dokument (unter "Weitere_Dokumente")</t>
+  </si>
+  <si>
+    <t>Abschlusspräsentation erstellen</t>
+  </si>
+  <si>
+    <t>siehe PPTX</t>
+  </si>
+  <si>
+    <t>Präsi 3</t>
+  </si>
+  <si>
+    <t>Dokumentation Fortschritt der Optimierung</t>
+  </si>
+  <si>
+    <t>Dokument zur Aufgabenstellung und Möglichkeiten</t>
+  </si>
+  <si>
+    <t>Niedirg</t>
+  </si>
+  <si>
+    <t>Programmierung</t>
+  </si>
+  <si>
+    <t>Problem Seitenreload  Urplanersellung beheben</t>
+  </si>
+  <si>
+    <t>siehe Programm</t>
+  </si>
+  <si>
+    <t>Installation JBOSS Standalone</t>
+  </si>
+  <si>
+    <t>MW/SW</t>
+  </si>
+  <si>
+    <t>Server installiert</t>
+  </si>
+  <si>
+    <t>Formatierung Dokumente  vereinheitlichen</t>
+  </si>
+  <si>
+    <t>siehe Dokumente (unter "Weitere_Dokumente")</t>
+  </si>
+  <si>
+    <t>Anpassung der Präsentation</t>
+  </si>
+  <si>
+    <t>siehe Präsentation</t>
+  </si>
+  <si>
+    <t>Überprüfung der abzugebeden Dokumente</t>
+  </si>
+  <si>
+    <t>Dokumente geprüft, sortiert und Liste an JNK geschickt</t>
+  </si>
+  <si>
+    <t>Abgabe</t>
+  </si>
+  <si>
+    <t>Sammeln der Dateien in Dropbox</t>
+  </si>
+  <si>
+    <t>alle/JNK</t>
+  </si>
+  <si>
+    <t>Alle Dokumente befinden sich im Dropbox-Ordner</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1200,6 +1299,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1376,7 +1483,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1419,6 +1526,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1449,8 +1558,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Akzent1" xfId="1" builtinId="29"/>
@@ -4443,98 +4551,98 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="37" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="N2" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="P2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="32" t="s">
+      <c r="R2" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="32" t="s">
+      <c r="S2" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="32" t="s">
+      <c r="T2" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="32" t="s">
+      <c r="U2" s="34" t="s">
         <v>320</v>
       </c>
-      <c r="V2" s="32" t="s">
+      <c r="V2" s="34" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="36"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="38"/>
       <c r="H3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="str">
@@ -8791,15 +8899,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -8812,6 +8911,15 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8820,10 +8928,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8848,60 +8956,60 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="37" t="s">
+      <c r="F2" s="42"/>
+      <c r="G2" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="37" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="40" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
       <c r="I3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -8955,7 +9063,7 @@
         <v>335</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>26</v>
@@ -9221,7 +9329,7 @@
         <v>207</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>28</v>
@@ -9259,7 +9367,7 @@
         <v>207</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>29</v>
@@ -9691,7 +9799,9 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
+      <c r="L24" s="44" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -9745,7 +9855,7 @@
         <v>115</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>34</v>
@@ -9808,7 +9918,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="43">
+      <c r="A28" s="33">
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -9846,74 +9956,422 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
+      <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
+      <c r="A30" s="32">
+        <v>27</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="A31" s="1">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
+      <c r="A32" s="1">
+        <v>29</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
+      <c r="A33" s="1">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="33">
+        <v>31</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" s="33" t="s">
+        <v>380</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="I34" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="J34" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="K34" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="L34" s="33" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="33">
+        <v>32</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" s="33" t="s">
+        <v>380</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="H35" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="I35" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J35" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="K35" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="L35" s="33" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="33">
+        <v>33</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="H36" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="I36" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J36" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="K36" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="33">
+        <v>34</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="G37" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="H37" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="I37" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="J37" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="K37" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="L37" s="33" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="33">
+        <v>35</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>406</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="G38" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="H38" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="I38" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="J38" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="K38" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="L38" s="33" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="33">
+        <v>36</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>409</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="F39" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="G39" s="33" t="s">
+        <v>410</v>
+      </c>
+      <c r="H39" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="I39" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="J39" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="K39" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="L39" s="33" t="s">
+        <v>411</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -9929,6 +10387,7 @@
     <mergeCell ref="H2:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Doku/Managementplaene_und_listen.xlsx
+++ b/Doku/Managementplaene_und_listen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="90" windowWidth="13290" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="-30" yWindow="90" windowWidth="13290" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Strukturplan" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="403">
   <si>
     <t>Risikoliste</t>
   </si>
@@ -710,9 +710,6 @@
     <t>Entwurf Maske "Stundenplan anzeigen"</t>
   </si>
   <si>
-    <t>Entwurf "restl. Masken" (Anmeldung, Stundenplan erstellen, Laden)</t>
-  </si>
-  <si>
     <t>Implementierung "restl. Masken" (Anmeldung, Stundenplan erstellen, Laden)</t>
   </si>
   <si>
@@ -755,39 +752,6 @@
     <t>D3.11</t>
   </si>
   <si>
-    <t>Application Function "Zeiten Speichern" definieren und spezifizieren</t>
-  </si>
-  <si>
-    <t>Application Function "Zeitpraeferenzen bereitstellen" definieren und spezifizieren</t>
-  </si>
-  <si>
-    <t>Application Function "Dozentenliste anzeigen" definieren und spezifizieren</t>
-  </si>
-  <si>
-    <t>Application Function "Vergleich Raumgroesse mit Teilnehmer" definieren und spezifizieren</t>
-  </si>
-  <si>
-    <t>Application Function "Stundenplan speichern" definieren und spezifizieren</t>
-  </si>
-  <si>
-    <t>Application Function "Stundenplan berechnen" definieren und spezifizieren</t>
-  </si>
-  <si>
-    <t>Application Function "Stundenplan anzeigen" definieren und spezifizieren</t>
-  </si>
-  <si>
-    <t>Application Function "Studiengaenge bereitstellen" definieren und spezifizieren</t>
-  </si>
-  <si>
-    <t>Application Function "Raeume bereitstellen" definieren und spezifizieren</t>
-  </si>
-  <si>
-    <t>Application Function "Module bereitstellen" definieren und spezifizieren</t>
-  </si>
-  <si>
-    <t>Application Function "Dozenten bereitstellen" definieren und spezifizieren</t>
-  </si>
-  <si>
     <t>F2.7</t>
   </si>
   <si>
@@ -812,39 +776,6 @@
     <t>F2.14</t>
   </si>
   <si>
-    <t>Implementierung Application Function "Stundenplan berechnen"</t>
-  </si>
-  <si>
-    <t>Implementierung Application Function "Stundenplan anzeigen"</t>
-  </si>
-  <si>
-    <t>Implementierung Application Function "Studiengaenge bereitstellen"</t>
-  </si>
-  <si>
-    <t>Implementierung Application Function "Raeume bereitstellen"</t>
-  </si>
-  <si>
-    <t>Implementierung Application Function "Module bereitstellen"</t>
-  </si>
-  <si>
-    <t>Implementierung Application Function "Dozenten bereitstellen"</t>
-  </si>
-  <si>
-    <t>Implementierung Application Function "Stundenplan speichern"</t>
-  </si>
-  <si>
-    <t>Implementierung Application Function "Zeiten Speichern"</t>
-  </si>
-  <si>
-    <t>Implementierung Application Function "Zeitpraeferenzen bereitstellen"</t>
-  </si>
-  <si>
-    <t>Implementierung Application Function "Dozentenliste anzeigen"</t>
-  </si>
-  <si>
-    <t>Implementierung Application Function "Vergleich Raumgroesse mit Teilnehmer"</t>
-  </si>
-  <si>
     <t>Termin- und Meilensteinplanung (samt Aktualisierungen)</t>
   </si>
   <si>
@@ -866,18 +797,6 @@
     <t>Versionsrisiko Programmierung</t>
   </si>
   <si>
-    <t>Application Function "Dozentenmodule bereitstellen" definieren und spezifizieren</t>
-  </si>
-  <si>
-    <t>Application Function "Räume bereitstellen" definieren und spezifizieren</t>
-  </si>
-  <si>
-    <t>Application Function "Dozentenliste bereitstellen" definieren und spezifizieren</t>
-  </si>
-  <si>
-    <t>Application Function "Dozent bereitstellen" definieren und spezifizieren</t>
-  </si>
-  <si>
     <t>D3.12</t>
   </si>
   <si>
@@ -890,88 +809,16 @@
     <t>D3.15</t>
   </si>
   <si>
-    <t>Application Function "Zufälligen Dozent mit Zeitpräferenz laden" definieren und spezifizieren</t>
-  </si>
-  <si>
-    <t>Application Function "Zufälliges Modul des Dozenten laden" definieren und spezifizieren</t>
-  </si>
-  <si>
-    <t>Application Function "Zeitslotinformationen speichern" definieren und spezifizieren</t>
-  </si>
-  <si>
-    <t>Application Function "Zeitslot des Dozenten sperren" definieren und spezifizieren</t>
-  </si>
-  <si>
-    <t>Application Function "Modul als verplant speichern" definieren und spezifizieren</t>
-  </si>
-  <si>
     <t>D3.16</t>
   </si>
   <si>
-    <t>Application Function "Zufälligen Dozent ohne Zeitpräferenz laden" definieren und spezifizieren</t>
-  </si>
-  <si>
     <t>Entwurf "restl. Masken" (Menü, Stundenplan berechnen)</t>
   </si>
   <si>
     <t>D3.17</t>
   </si>
   <si>
-    <t>Application Function "Stundenplan optimieren" definieren und spezifizieren</t>
-  </si>
-  <si>
     <t>Summen:</t>
-  </si>
-  <si>
-    <t>Application Function "Zeiten Speichern" implementieren</t>
-  </si>
-  <si>
-    <t>Application Function "Zeitpraeferenzen bereitstellen" implementieren</t>
-  </si>
-  <si>
-    <t>Application Function "Dozentenliste bereitstellen"  implementieren</t>
-  </si>
-  <si>
-    <t>Application Function "Dozent bereitstellen" d implementieren</t>
-  </si>
-  <si>
-    <t>Application Function "Stundenplan speichern" implementieren</t>
-  </si>
-  <si>
-    <t>Application Function "Stundenplan berechnen" implementieren</t>
-  </si>
-  <si>
-    <t>Application Function "Stundenplan optimieren" implementieren</t>
-  </si>
-  <si>
-    <t>Application Function "Stundenplan anzeigen"  implementieren</t>
-  </si>
-  <si>
-    <t>Application Function "Studiengaenge bereitstellen" implementieren</t>
-  </si>
-  <si>
-    <t>Application Function "Dozentenmodule bereitstellen" implementieren</t>
-  </si>
-  <si>
-    <t>Application Function "Räume bereitstellen" implementieren</t>
-  </si>
-  <si>
-    <t>Application Function "Zufälligen Dozent mit Zeitpräferenz laden" implementieren</t>
-  </si>
-  <si>
-    <t>Application Function "Zufälliges Modul des Dozenten laden" implementieren</t>
-  </si>
-  <si>
-    <t>Application Function "Zeitslotinformationen speichern" implementieren</t>
-  </si>
-  <si>
-    <t>Application Function "Zeitslot des Dozenten sperren" implementieren</t>
-  </si>
-  <si>
-    <t>Application Function "Modul als verplant speichern" implementieren</t>
-  </si>
-  <si>
-    <t>Application Function "Zufälligen Dozent ohne Zeitpräferenz laden" implementieren</t>
   </si>
   <si>
     <t>F2.15</t>
@@ -1267,6 +1114,132 @@
   </si>
   <si>
     <t>Alle Dokumente befinden sich im Dropbox-Ordner</t>
+  </si>
+  <si>
+    <t>Use Case "Stundenplan löschen" definieren und spezifizieren</t>
+  </si>
+  <si>
+    <t>D2.5</t>
+  </si>
+  <si>
+    <t>AF "Zeiten Speichern" definieren und spezifizieren</t>
+  </si>
+  <si>
+    <t>AF "Stundenplan speichern" definieren und spezifizieren</t>
+  </si>
+  <si>
+    <t>AF "Stundenplan anzeigen" definieren und spezifizieren</t>
+  </si>
+  <si>
+    <t>AF "Zufälligen Dozent mit Zeitpräferenz laden" definieren und spezifizieren</t>
+  </si>
+  <si>
+    <t>AF "Zufälliges Modul des Dozenten laden" definieren und spezifizieren</t>
+  </si>
+  <si>
+    <t>AF "Zufälligen Dozent ohne Zeitpräferenz laden" definieren und spezifizieren</t>
+  </si>
+  <si>
+    <t>AF "StundenplanSlot erstellen" definieren und spezifizieren</t>
+  </si>
+  <si>
+    <t>AF "Studiengang, StundenplanSlot und Zeitslot zum Urplan (Hahmap) hinzufügen" definieren und spezifizieren</t>
+  </si>
+  <si>
+    <t>AF "Zufälligen Raum für gewähltes Modul laden" definieren und spezifizieren</t>
+  </si>
+  <si>
+    <t>AF "Studiengang, StundenplanSlot und Zeitslot zum Urplan (Hahmap) hinzufügen" implementieren</t>
+  </si>
+  <si>
+    <t>AF "Zeiten Speichern" implementieren</t>
+  </si>
+  <si>
+    <t>AF "Stundenplan speichern" implementieren</t>
+  </si>
+  <si>
+    <t>AF "Stundenplan anzeigen"  implementieren</t>
+  </si>
+  <si>
+    <t>AF "Zufälliges Modul des Dozenten laden" implementieren</t>
+  </si>
+  <si>
+    <t>AF "Zufälligen Dozent mit Zeitpräferenz laden" implementieren</t>
+  </si>
+  <si>
+    <t>AF "Zufälligen Raum für gewähltes Modul laden" implementieren</t>
+  </si>
+  <si>
+    <t>AF "Zufälligen Dozent ohne Zeitpräferenz laden" implementieren</t>
+  </si>
+  <si>
+    <t>Implementierung UseCase "Stundenplan löschen"</t>
+  </si>
+  <si>
+    <t>AF "Stundenplanung löschen" definieren und spezifizieren</t>
+  </si>
+  <si>
+    <t>AF "Stundenplanung löschen" implementieren</t>
+  </si>
+  <si>
+    <t>AF "StundenplanSlot erstellen" implementieren</t>
+  </si>
+  <si>
+    <t>AF "Zufallsliste der Studiengänge erstellen" definieren und spezifizieren</t>
+  </si>
+  <si>
+    <t>AF "Zufallsliste der Studiengänge erstellen" implementieren</t>
+  </si>
+  <si>
+    <t>AF "Zeitpraeferenzen löschen" definieren und spezifizieren</t>
+  </si>
+  <si>
+    <t>AF "Zeitpraeferenzen löschen" implementieren</t>
+  </si>
+  <si>
+    <t>AF "Dozentenliste anzeigen" definieren und spezifizieren</t>
+  </si>
+  <si>
+    <t>AF "Dozentenliste anzeigen" implementieren</t>
+  </si>
+  <si>
+    <t>AF "Stundenplan erstellen" definieren und spezifizieren</t>
+  </si>
+  <si>
+    <t>AF "Stundenplan erstellen" implementieren</t>
+  </si>
+  <si>
+    <t>AF "Urplan auf Vollständigkeit prüfen" definieren und spezifizieren</t>
+  </si>
+  <si>
+    <t>AF "Urplan auf Vollständigkeit prüfen" implementieren</t>
+  </si>
+  <si>
+    <t>AF "Zeitslotinformationen sichern" definieren und spezifizieren</t>
+  </si>
+  <si>
+    <t>AF "Zeitslotinformationen sichern" implementieren</t>
+  </si>
+  <si>
+    <t>AF "Existenz einer Planung prüfen" definieren und spezifizieren</t>
+  </si>
+  <si>
+    <t>AF "Existenz einer Planung prüfen" implementieren</t>
+  </si>
+  <si>
+    <t>F2.21</t>
+  </si>
+  <si>
+    <t>KW3</t>
+  </si>
+  <si>
+    <t>KW4</t>
+  </si>
+  <si>
+    <t>KW5</t>
+  </si>
+  <si>
+    <t>Datenbank/JBOSS</t>
   </si>
 </sst>
 </file>
@@ -1483,7 +1456,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1516,7 +1489,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -1528,6 +1500,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1558,7 +1531,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Akzent1" xfId="1" builtinId="29"/>
@@ -1862,10 +1834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1873,7 +1845,7 @@
     <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="83.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="106.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
@@ -1973,7 +1945,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -2205,7 +2177,7 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2230,417 +2202,554 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>126</v>
+        <v>362</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1" t="s">
-        <v>241</v>
-      </c>
+      <c r="C37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>242</v>
+        <v>363</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>232</v>
+        <v>154</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>243</v>
+        <v>386</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>244</v>
+        <v>388</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>245</v>
+        <v>396</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>246</v>
+        <v>364</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>247</v>
+        <v>390</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>248</v>
+        <v>381</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>249</v>
+        <v>365</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>250</v>
+        <v>384</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>251</v>
+        <v>392</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D48" s="1"/>
+        <v>239</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>148</v>
+        <v>255</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>224</v>
+        <v>366</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>155</v>
+        <v>256</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>225</v>
+        <v>367</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="20" t="s">
-        <v>194</v>
+      <c r="A51" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>226</v>
+        <v>394</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C52" t="s">
-        <v>162</v>
-      </c>
-      <c r="D52" s="1"/>
+        <v>258</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>166</v>
+        <v>259</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>164</v>
+        <v>370</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>167</v>
+        <v>261</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>165</v>
+        <v>368</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B55" s="1"/>
+        <v>146</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="C55" s="1" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>188</v>
+      <c r="A58" s="20" t="s">
+        <v>194</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1" t="s">
-        <v>267</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" t="s">
+        <v>162</v>
+      </c>
+      <c r="D59" s="1"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>268</v>
+        <v>402</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>269</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>252</v>
+        <v>160</v>
       </c>
       <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1" t="s">
-        <v>270</v>
-      </c>
+      <c r="C62" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D62" s="1"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>253</v>
+        <v>168</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>254</v>
+        <v>169</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>255</v>
+        <v>188</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>256</v>
+        <v>189</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
-        <v>262</v>
+        <v>380</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
-        <v>263</v>
+        <v>373</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>258</v>
+        <v>191</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>264</v>
+        <v>387</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
-        <v>265</v>
+        <v>389</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>161</v>
+        <v>241</v>
       </c>
       <c r="B70" s="1"/>
-      <c r="C70" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>187</v>
+        <v>242</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
-        <v>223</v>
+        <v>374</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
-        <v>222</v>
+        <v>391</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="s">
-        <v>227</v>
+        <v>382</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B74" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D74" s="1"/>
+        <v>245</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>170</v>
+        <v>246</v>
       </c>
       <c r="B75" s="1"/>
-      <c r="C75" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1" t="s">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D76" s="1"/>
+      <c r="D90" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2650,17 +2759,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="112.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -2734,7 +2843,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" ref="F5:F88" si="0">D5-E5</f>
+        <f t="shared" ref="F5:F90" si="0">D5-E5</f>
         <v>0</v>
       </c>
     </row>
@@ -2781,11 +2890,11 @@
         <v>6</v>
       </c>
       <c r="E8" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2813,17 +2922,17 @@
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="D10" s="1">
         <v>6</v>
       </c>
       <c r="E10" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2868,10 +2977,12 @@
       <c r="D13" s="1">
         <v>4</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1">
+        <v>4</v>
+      </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2885,10 +2996,12 @@
       <c r="D14" s="1">
         <v>4</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <v>12</v>
+      </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2987,11 +3100,11 @@
         <v>6</v>
       </c>
       <c r="E20" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -3006,11 +3119,11 @@
         <v>10</v>
       </c>
       <c r="E21" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -3037,11 +3150,11 @@
         <v>8</v>
       </c>
       <c r="E23" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -3125,11 +3238,11 @@
         <v>8</v>
       </c>
       <c r="E28" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -3141,14 +3254,14 @@
         <v>180</v>
       </c>
       <c r="D29" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E29" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" ref="F29" si="1">D29-E29</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -3206,17 +3319,17 @@
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D33" s="1">
         <v>4</v>
       </c>
       <c r="E33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3228,14 +3341,14 @@
         <v>219</v>
       </c>
       <c r="D34" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E34" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -3259,42 +3372,40 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="1"/>
+        <v>362</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>361</v>
+      </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="E36" s="1">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D37" s="1">
-        <v>3</v>
-      </c>
-      <c r="E37" s="1">
-        <v>3</v>
-      </c>
-      <c r="F37" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>242</v>
+        <v>363</v>
       </c>
       <c r="D38" s="1">
         <v>3</v>
@@ -3309,11 +3420,11 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>232</v>
+        <v>154</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>280</v>
+        <v>386</v>
       </c>
       <c r="D39" s="1">
         <v>3</v>
@@ -3328,11 +3439,11 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>281</v>
+        <v>388</v>
       </c>
       <c r="D40" s="1">
         <v>3</v>
@@ -3347,85 +3458,83 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D41" s="1">
-        <v>3</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="D41" s="1"/>
       <c r="E41" s="1">
         <v>3</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>246</v>
+        <v>364</v>
       </c>
       <c r="D42" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E42" s="1">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>295</v>
+        <v>390</v>
       </c>
       <c r="D43" s="1">
-        <v>10</v>
-      </c>
-      <c r="E43" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="E43" s="1">
+        <v>27</v>
+      </c>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D44" s="1">
-        <v>3</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="D44" s="1"/>
       <c r="E44" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>248</v>
+        <v>365</v>
       </c>
       <c r="D45" s="1">
         <v>3</v>
@@ -3440,47 +3549,47 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D46" s="1">
-        <v>3</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="D46" s="1"/>
       <c r="E46" s="1">
         <v>3</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D47" s="1"/>
+        <v>392</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3</v>
+      </c>
       <c r="E47" s="1">
         <v>3</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>286</v>
+        <v>371</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1">
@@ -3493,11 +3602,11 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>287</v>
+        <v>366</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1">
@@ -3510,11 +3619,11 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>288</v>
+        <v>367</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1">
@@ -3527,93 +3636,97 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D51" s="1"/>
+        <v>394</v>
+      </c>
+      <c r="D51" s="1">
+        <v>3</v>
+      </c>
       <c r="E51" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D52" s="1"/>
+        <v>369</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3</v>
+      </c>
       <c r="E52" s="1">
         <v>3</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D53" s="1"/>
+        <v>370</v>
+      </c>
+      <c r="D53" s="1">
+        <v>3</v>
+      </c>
       <c r="E53" s="1">
         <v>3</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C54" s="1"/>
+        <v>261</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>368</v>
+      </c>
       <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+      <c r="E54" s="1">
+        <v>2</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D55" s="1">
-        <v>8</v>
-      </c>
-      <c r="E55" s="1">
-        <v>8</v>
-      </c>
-      <c r="F55" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D56" s="1">
         <v>8</v>
@@ -3627,110 +3740,112 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
-        <v>194</v>
+      <c r="A57" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>293</v>
+        <v>225</v>
       </c>
       <c r="D57" s="1">
         <v>8</v>
       </c>
-      <c r="E57" s="1"/>
+      <c r="E57" s="1">
+        <v>8</v>
+      </c>
       <c r="F57" s="1">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D58" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B58" t="s">
-        <v>162</v>
-      </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
+      <c r="E58" s="1">
+        <v>6</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B59" t="s">
+        <v>162</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D59" s="1">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D60" s="1">
         <v>15</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E60" s="1">
         <v>15</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F60" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1" t="s">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D61" s="1">
         <v>34</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E61" s="1">
         <v>12</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F61" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-    </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D62" s="1">
-        <v>12</v>
-      </c>
-      <c r="E62" s="1">
-        <v>12</v>
-      </c>
-      <c r="F62" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D63" s="1">
         <v>12</v>
@@ -3745,55 +3860,55 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D64" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E64" s="1">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>297</v>
+        <v>230</v>
       </c>
       <c r="D65" s="1">
         <v>12</v>
       </c>
       <c r="E65" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F65" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
-        <v>298</v>
+        <v>380</v>
       </c>
       <c r="D66" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E66" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" si="0"/>
@@ -3802,383 +3917,443 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>299</v>
+        <v>373</v>
       </c>
       <c r="D67" s="1">
         <v>12</v>
       </c>
       <c r="E67" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F67" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>252</v>
+        <v>191</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>300</v>
+        <v>387</v>
       </c>
       <c r="D68" s="1">
         <v>12</v>
       </c>
-      <c r="E68" s="1"/>
+      <c r="E68" s="1">
+        <v>12</v>
+      </c>
       <c r="F68" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>301</v>
+        <v>389</v>
       </c>
       <c r="D69" s="1">
         <v>12</v>
       </c>
-      <c r="E69" s="1"/>
+      <c r="E69" s="1">
+        <v>2</v>
+      </c>
       <c r="F69" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D70" s="1">
-        <v>22</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="D70" s="1"/>
       <c r="E70" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F70" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>303</v>
+        <v>374</v>
       </c>
       <c r="D71" s="1">
-        <v>22</v>
-      </c>
-      <c r="E71" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="E71" s="1">
+        <v>12</v>
+      </c>
       <c r="F71" s="1">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
-        <v>304</v>
+        <v>391</v>
       </c>
       <c r="D72" s="1">
-        <v>12</v>
-      </c>
-      <c r="E72" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="E72" s="1">
+        <v>57</v>
+      </c>
       <c r="F72" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D73" s="1">
-        <v>12</v>
-      </c>
-      <c r="E73" s="1"/>
+        <v>382</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1">
+        <v>7</v>
+      </c>
       <c r="F73" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
-        <v>306</v>
+        <v>375</v>
       </c>
       <c r="D74" s="1">
         <v>12</v>
       </c>
-      <c r="E74" s="1"/>
+      <c r="E74" s="1">
+        <v>13</v>
+      </c>
       <c r="F74" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>307</v>
+        <v>385</v>
       </c>
       <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
+      <c r="E75" s="1">
+        <v>8</v>
+      </c>
       <c r="F75" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>314</v>
+        <v>247</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
+        <v>393</v>
+      </c>
+      <c r="D76" s="1">
+        <v>12</v>
+      </c>
+      <c r="E76" s="1">
+        <v>16</v>
+      </c>
       <c r="F76" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>315</v>
+        <v>263</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
+      <c r="E77" s="1">
+        <v>15</v>
+      </c>
       <c r="F77" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>316</v>
+        <v>264</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>310</v>
+        <v>377</v>
       </c>
       <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
+      <c r="E78" s="1">
+        <v>12</v>
+      </c>
       <c r="F78" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>317</v>
+        <v>265</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>311</v>
+        <v>376</v>
       </c>
       <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
+      <c r="E79" s="1">
+        <v>15</v>
+      </c>
       <c r="F79" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>318</v>
+        <v>266</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
+        <v>395</v>
+      </c>
+      <c r="D80" s="1">
+        <v>12</v>
+      </c>
+      <c r="E80" s="1">
+        <v>10</v>
+      </c>
       <c r="F80" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>319</v>
+        <v>267</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
+        <v>383</v>
+      </c>
+      <c r="D81" s="1">
+        <v>12</v>
+      </c>
+      <c r="E81" s="1">
+        <v>10</v>
+      </c>
       <c r="F81" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
+        <v>268</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D82" s="1">
+        <v>12</v>
+      </c>
+      <c r="E82" s="1">
+        <v>13</v>
+      </c>
       <c r="F82" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>187</v>
+        <v>398</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D83" s="1">
-        <v>25</v>
-      </c>
-      <c r="E83" s="1"/>
+        <v>379</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1">
+        <v>8</v>
+      </c>
       <c r="F83" s="1">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D84" s="1">
-        <v>25</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D85" s="1">
         <v>25</v>
       </c>
-      <c r="E85" s="1"/>
+      <c r="E85" s="1">
+        <v>20</v>
+      </c>
       <c r="F85" s="1">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C86" s="1"/>
+        <v>192</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="D86" s="1">
-        <v>4</v>
-      </c>
-      <c r="E86" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="E86" s="1">
+        <v>24</v>
+      </c>
       <c r="F86" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C87" s="1"/>
+        <v>193</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="D87" s="1">
-        <v>10</v>
-      </c>
-      <c r="E87" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="E87" s="1">
+        <v>30</v>
+      </c>
       <c r="F87" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1">
-        <v>5</v>
-      </c>
-      <c r="E88" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E88" s="1">
+        <v>6</v>
+      </c>
       <c r="F88" s="1">
         <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1">
+        <v>10</v>
+      </c>
+      <c r="E89" s="1">
+        <v>23</v>
+      </c>
+      <c r="F89" s="1">
+        <f t="shared" si="0"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
+      <c r="E90" s="1">
+        <v>5</v>
+      </c>
+      <c r="F90" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -4362,20 +4537,36 @@
       <c r="F113" s="1"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C114" s="31" t="s">
-        <v>296</v>
-      </c>
-      <c r="D114" s="2">
-        <f>SUM(D3:D113)</f>
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C116" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D116" s="2">
+        <f>SUM(D3:D115)</f>
         <v>520</v>
       </c>
-      <c r="E114" s="2">
-        <f>SUM(E3:E113)</f>
-        <v>312</v>
-      </c>
-      <c r="F114" s="2">
-        <f>SUM(F3:F113)</f>
-        <v>208</v>
+      <c r="E116" s="2">
+        <f>SUM(E3:E115)</f>
+        <v>688</v>
+      </c>
+      <c r="F116" s="2">
+        <f>SUM(F3:F115)</f>
+        <v>-168</v>
       </c>
     </row>
   </sheetData>
@@ -4529,11 +4720,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V95"/>
+  <dimension ref="A1:Y101"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S74" sqref="S74"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4545,12 +4736,12 @@
     <col min="7" max="7" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -4612,13 +4803,22 @@
         <v>36</v>
       </c>
       <c r="U2" s="34" t="s">
-        <v>320</v>
+        <v>269</v>
       </c>
       <c r="V2" s="34" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="W2" s="34" t="s">
+        <v>399</v>
+      </c>
+      <c r="X2" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y2" s="34" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -4643,13 +4843,16 @@
       <c r="T3" s="34"/>
       <c r="U3" s="34"/>
       <c r="V3" s="34"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="str">
         <f>IF(Aufwandsplan!A3&lt;&gt;0, Aufwandsplan!A3, "")</f>
         <v>A1</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="16" t="s">
         <v>203</v>
       </c>
       <c r="C4" s="22" t="str">
@@ -4668,12 +4871,12 @@
         <f>IF(Aufwandsplan!E3&lt;&gt;0, Aufwandsplan!E3, "")</f>
         <v/>
       </c>
-      <c r="G4" s="24" t="str">
+      <c r="G4" s="22" t="str">
         <f>IF(Aufwandsplan!F3&lt;&gt;0, Aufwandsplan!F3, "")</f>
         <v/>
       </c>
       <c r="H4" s="7"/>
-      <c r="I4" s="28"/>
+      <c r="I4" s="27"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -4687,15 +4890,16 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="str">
         <f>IF(Aufwandsplan!A4&lt;&gt;0, Aufwandsplan!A4, "")</f>
         <v>A1.1</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>203</v>
-      </c>
+      <c r="B5" s="15"/>
       <c r="C5" s="22" t="str">
         <f>IF(Aufwandsplan!B4&lt;&gt;0, Aufwandsplan!B4, "")</f>
         <v/>
@@ -4712,7 +4916,7 @@
         <f>IF(Aufwandsplan!E4&lt;&gt;0, Aufwandsplan!E4, "")</f>
         <v>2</v>
       </c>
-      <c r="G5" s="24" t="str">
+      <c r="G5" s="22" t="str">
         <f>IF(Aufwandsplan!F4&lt;&gt;0, Aufwandsplan!F4, "")</f>
         <v/>
       </c>
@@ -4733,15 +4937,16 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="str">
         <f>IF(Aufwandsplan!A5&lt;&gt;0, Aufwandsplan!A5, "")</f>
         <v>A1.2</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>203</v>
-      </c>
+      <c r="B6" s="15"/>
       <c r="C6" s="22" t="str">
         <f>IF(Aufwandsplan!B5&lt;&gt;0, Aufwandsplan!B5, "")</f>
         <v/>
@@ -4758,7 +4963,7 @@
         <f>IF(Aufwandsplan!E5&lt;&gt;0, Aufwandsplan!E5, "")</f>
         <v>2</v>
       </c>
-      <c r="G6" s="24" t="str">
+      <c r="G6" s="22" t="str">
         <f>IF(Aufwandsplan!F5&lt;&gt;0, Aufwandsplan!F5, "")</f>
         <v/>
       </c>
@@ -4779,15 +4984,16 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="str">
         <f>IF(Aufwandsplan!A6&lt;&gt;0, Aufwandsplan!A6, "")</f>
         <v>A1.3</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>203</v>
-      </c>
+      <c r="B7" s="15"/>
       <c r="C7" s="22" t="str">
         <f>IF(Aufwandsplan!B6&lt;&gt;0, Aufwandsplan!B6, "")</f>
         <v/>
@@ -4804,7 +5010,7 @@
         <f>IF(Aufwandsplan!E6&lt;&gt;0, Aufwandsplan!E6, "")</f>
         <v>2</v>
       </c>
-      <c r="G7" s="24" t="str">
+      <c r="G7" s="22" t="str">
         <f>IF(Aufwandsplan!F6&lt;&gt;0, Aufwandsplan!F6, "")</f>
         <v/>
       </c>
@@ -4825,15 +5031,16 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="str">
         <f>IF(Aufwandsplan!A7&lt;&gt;0, Aufwandsplan!A7, "")</f>
         <v>A2</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>203</v>
-      </c>
+      <c r="B8" s="15"/>
       <c r="C8" s="22" t="str">
         <f>IF(Aufwandsplan!B7&lt;&gt;0, Aufwandsplan!B7, "")</f>
         <v>Projektplanung</v>
@@ -4850,14 +5057,14 @@
         <f>IF(Aufwandsplan!E7&lt;&gt;0, Aufwandsplan!E7, "")</f>
         <v/>
       </c>
-      <c r="G8" s="24" t="str">
+      <c r="G8" s="22" t="str">
         <f>IF(Aufwandsplan!F7&lt;&gt;0, Aufwandsplan!F7, "")</f>
         <v/>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="30"/>
+      <c r="K8" s="29"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -4869,15 +5076,16 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="str">
         <f>IF(Aufwandsplan!A8&lt;&gt;0, Aufwandsplan!A8, "")</f>
         <v>A2.1</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>203</v>
-      </c>
+      <c r="B9" s="15"/>
       <c r="C9" s="22" t="str">
         <f>IF(Aufwandsplan!B8&lt;&gt;0, Aufwandsplan!B8, "")</f>
         <v/>
@@ -4892,11 +5100,11 @@
       </c>
       <c r="F9" s="22">
         <f>IF(Aufwandsplan!E8&lt;&gt;0, Aufwandsplan!E8, "")</f>
-        <v>6</v>
-      </c>
-      <c r="G9" s="24" t="str">
+        <v>8</v>
+      </c>
+      <c r="G9" s="22">
         <f>IF(Aufwandsplan!F8&lt;&gt;0, Aufwandsplan!F8, "")</f>
-        <v/>
+        <v>-2</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="1"/>
@@ -4917,15 +5125,16 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="str">
         <f>IF(Aufwandsplan!A9&lt;&gt;0, Aufwandsplan!A9, "")</f>
         <v>A2.2</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>203</v>
-      </c>
+      <c r="B10" s="15"/>
       <c r="C10" s="22" t="str">
         <f>IF(Aufwandsplan!B9&lt;&gt;0, Aufwandsplan!B9, "")</f>
         <v/>
@@ -4942,7 +5151,7 @@
         <f>IF(Aufwandsplan!E9&lt;&gt;0, Aufwandsplan!E9, "")</f>
         <v>5</v>
       </c>
-      <c r="G10" s="24" t="str">
+      <c r="G10" s="22" t="str">
         <f>IF(Aufwandsplan!F9&lt;&gt;0, Aufwandsplan!F9, "")</f>
         <v/>
       </c>
@@ -4963,15 +5172,16 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="str">
         <f>IF(Aufwandsplan!A10&lt;&gt;0, Aufwandsplan!A10, "")</f>
         <v>A2.3</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>203</v>
-      </c>
+      <c r="B11" s="15"/>
       <c r="C11" s="22" t="str">
         <f>IF(Aufwandsplan!B10&lt;&gt;0, Aufwandsplan!B10, "")</f>
         <v/>
@@ -4986,11 +5196,11 @@
       </c>
       <c r="F11" s="22">
         <f>IF(Aufwandsplan!E10&lt;&gt;0, Aufwandsplan!E10, "")</f>
-        <v>6</v>
-      </c>
-      <c r="G11" s="24" t="str">
+        <v>11</v>
+      </c>
+      <c r="G11" s="22">
         <f>IF(Aufwandsplan!F10&lt;&gt;0, Aufwandsplan!F10, "")</f>
-        <v/>
+        <v>-5</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="1"/>
@@ -5009,15 +5219,16 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="str">
         <f>IF(Aufwandsplan!A11&lt;&gt;0, Aufwandsplan!A11, "")</f>
         <v>A3</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>203</v>
-      </c>
+      <c r="B12" s="15"/>
       <c r="C12" s="22" t="str">
         <f>IF(Aufwandsplan!B11&lt;&gt;0, Aufwandsplan!B11, "")</f>
         <v>Dokumentation</v>
@@ -5034,7 +5245,7 @@
         <f>IF(Aufwandsplan!E11&lt;&gt;0, Aufwandsplan!E11, "")</f>
         <v/>
       </c>
-      <c r="G12" s="24" t="str">
+      <c r="G12" s="22" t="str">
         <f>IF(Aufwandsplan!F11&lt;&gt;0, Aufwandsplan!F11, "")</f>
         <v/>
       </c>
@@ -5053,15 +5264,16 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="str">
         <f>IF(Aufwandsplan!A12&lt;&gt;0, Aufwandsplan!A12, "")</f>
         <v>A3.1</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>203</v>
-      </c>
+      <c r="B13" s="15"/>
       <c r="C13" s="22" t="str">
         <f>IF(Aufwandsplan!B12&lt;&gt;0, Aufwandsplan!B12, "")</f>
         <v/>
@@ -5078,7 +5290,7 @@
         <f>IF(Aufwandsplan!E12&lt;&gt;0, Aufwandsplan!E12, "")</f>
         <v>4</v>
       </c>
-      <c r="G13" s="24" t="str">
+      <c r="G13" s="22" t="str">
         <f>IF(Aufwandsplan!F12&lt;&gt;0, Aufwandsplan!F12, "")</f>
         <v/>
       </c>
@@ -5103,15 +5315,16 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="str">
         <f>IF(Aufwandsplan!A13&lt;&gt;0, Aufwandsplan!A13, "")</f>
         <v>A3.2</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>203</v>
-      </c>
+      <c r="B14" s="15"/>
       <c r="C14" s="22" t="str">
         <f>IF(Aufwandsplan!B13&lt;&gt;0, Aufwandsplan!B13, "")</f>
         <v/>
@@ -5125,11 +5338,12 @@
         <v>4</v>
       </c>
       <c r="F14" s="22">
+        <f>IF(Aufwandsplan!E13&lt;&gt;0, Aufwandsplan!E13, "")</f>
         <v>4</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="22" t="str">
         <f>IF(Aufwandsplan!F13&lt;&gt;0, Aufwandsplan!F13, "")</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="1"/>
@@ -5148,15 +5362,16 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="str">
         <f>IF(Aufwandsplan!A14&lt;&gt;0, Aufwandsplan!A14, "")</f>
         <v>A3.3</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>203</v>
-      </c>
+      <c r="B15" s="15"/>
       <c r="C15" s="22" t="str">
         <f>IF(Aufwandsplan!B14&lt;&gt;0, Aufwandsplan!B14, "")</f>
         <v/>
@@ -5169,13 +5384,13 @@
         <f>IF(Aufwandsplan!D14&lt;&gt;0, Aufwandsplan!D14, "")</f>
         <v>4</v>
       </c>
-      <c r="F15" s="22" t="str">
+      <c r="F15" s="22">
         <f>IF(Aufwandsplan!E14&lt;&gt;0, Aufwandsplan!E14, "")</f>
-        <v/>
-      </c>
-      <c r="G15" s="24">
+        <v>12</v>
+      </c>
+      <c r="G15" s="22">
         <f>IF(Aufwandsplan!F14&lt;&gt;0, Aufwandsplan!F14, "")</f>
-        <v>4</v>
+        <v>-8</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="1"/>
@@ -5192,8 +5407,17 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="str">
         <f>IF(Aufwandsplan!A15&lt;&gt;0, Aufwandsplan!A15, "")</f>
         <v>B1</v>
@@ -5217,7 +5441,7 @@
         <f>IF(Aufwandsplan!E15&lt;&gt;0, Aufwandsplan!E15, "")</f>
         <v/>
       </c>
-      <c r="G16" s="24" t="str">
+      <c r="G16" s="22" t="str">
         <f>IF(Aufwandsplan!F15&lt;&gt;0, Aufwandsplan!F15, "")</f>
         <v/>
       </c>
@@ -5226,7 +5450,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="30"/>
+      <c r="M16" s="29"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -5236,15 +5460,16 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="str">
         <f>IF(Aufwandsplan!A16&lt;&gt;0, Aufwandsplan!A16, "")</f>
         <v>B1.1</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="B17" s="16"/>
       <c r="C17" s="22" t="str">
         <f>IF(Aufwandsplan!B16&lt;&gt;0, Aufwandsplan!B16, "")</f>
         <v/>
@@ -5261,7 +5486,7 @@
         <f>IF(Aufwandsplan!E16&lt;&gt;0, Aufwandsplan!E16, "")</f>
         <v>5</v>
       </c>
-      <c r="G17" s="24" t="str">
+      <c r="G17" s="22" t="str">
         <f>IF(Aufwandsplan!F16&lt;&gt;0, Aufwandsplan!F16, "")</f>
         <v/>
       </c>
@@ -5282,15 +5507,16 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="str">
         <f>IF(Aufwandsplan!A17&lt;&gt;0, Aufwandsplan!A17, "")</f>
         <v>B1.2</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="B18" s="15"/>
       <c r="C18" s="22" t="str">
         <f>IF(Aufwandsplan!B17&lt;&gt;0, Aufwandsplan!B17, "")</f>
         <v/>
@@ -5307,7 +5533,7 @@
         <f>IF(Aufwandsplan!E17&lt;&gt;0, Aufwandsplan!E17, "")</f>
         <v>5</v>
       </c>
-      <c r="G18" s="24" t="str">
+      <c r="G18" s="22" t="str">
         <f>IF(Aufwandsplan!F17&lt;&gt;0, Aufwandsplan!F17, "")</f>
         <v/>
       </c>
@@ -5330,15 +5556,16 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="str">
         <f>IF(Aufwandsplan!A18&lt;&gt;0, Aufwandsplan!A18, "")</f>
         <v>B1.3</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="B19" s="15"/>
       <c r="C19" s="22" t="str">
         <f>IF(Aufwandsplan!B18&lt;&gt;0, Aufwandsplan!B18, "")</f>
         <v/>
@@ -5355,7 +5582,7 @@
         <f>IF(Aufwandsplan!E18&lt;&gt;0, Aufwandsplan!E18, "")</f>
         <v>8</v>
       </c>
-      <c r="G19" s="24" t="str">
+      <c r="G19" s="22" t="str">
         <f>IF(Aufwandsplan!F18&lt;&gt;0, Aufwandsplan!F18, "")</f>
         <v/>
       </c>
@@ -5376,15 +5603,16 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="str">
         <f>IF(Aufwandsplan!A19&lt;&gt;0, Aufwandsplan!A19, "")</f>
         <v>B2</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="B20" s="15"/>
       <c r="C20" s="22" t="str">
         <f>IF(Aufwandsplan!B19&lt;&gt;0, Aufwandsplan!B19, "")</f>
         <v>Abnahmekriterien/Testdurchführung</v>
@@ -5401,7 +5629,7 @@
         <f>IF(Aufwandsplan!E19&lt;&gt;0, Aufwandsplan!E19, "")</f>
         <v/>
       </c>
-      <c r="G20" s="24" t="str">
+      <c r="G20" s="22" t="str">
         <f>IF(Aufwandsplan!F19&lt;&gt;0, Aufwandsplan!F19, "")</f>
         <v/>
       </c>
@@ -5420,15 +5648,16 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="str">
         <f>IF(Aufwandsplan!A20&lt;&gt;0, Aufwandsplan!A20, "")</f>
         <v>B2.1</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="B21" s="15"/>
       <c r="C21" s="22" t="str">
         <f>IF(Aufwandsplan!B20&lt;&gt;0, Aufwandsplan!B20, "")</f>
         <v/>
@@ -5443,11 +5672,11 @@
       </c>
       <c r="F21" s="22">
         <f>IF(Aufwandsplan!E20&lt;&gt;0, Aufwandsplan!E20, "")</f>
-        <v>6</v>
-      </c>
-      <c r="G21" s="24" t="str">
+        <v>10</v>
+      </c>
+      <c r="G21" s="22">
         <f>IF(Aufwandsplan!F20&lt;&gt;0, Aufwandsplan!F20, "")</f>
-        <v/>
+        <v>-4</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="1"/>
@@ -5464,15 +5693,16 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="str">
         <f>IF(Aufwandsplan!A21&lt;&gt;0, Aufwandsplan!A21, "")</f>
         <v>B2.2</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="B22" s="15"/>
       <c r="C22" s="22" t="str">
         <f>IF(Aufwandsplan!B21&lt;&gt;0, Aufwandsplan!B21, "")</f>
         <v/>
@@ -5487,11 +5717,11 @@
       </c>
       <c r="F22" s="22">
         <f>IF(Aufwandsplan!E21&lt;&gt;0, Aufwandsplan!E21, "")</f>
-        <v>10</v>
-      </c>
-      <c r="G22" s="24" t="str">
+        <v>8</v>
+      </c>
+      <c r="G22" s="22">
         <f>IF(Aufwandsplan!F21&lt;&gt;0, Aufwandsplan!F21, "")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="1"/>
@@ -5508,13 +5738,16 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="str">
         <f>IF(Aufwandsplan!A22&lt;&gt;0, Aufwandsplan!A22, "")</f>
         <v>C1</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="17" t="s">
         <v>71</v>
       </c>
       <c r="C23" s="22" t="str">
@@ -5533,7 +5766,7 @@
         <f>IF(Aufwandsplan!E22&lt;&gt;0, Aufwandsplan!E22, "")</f>
         <v/>
       </c>
-      <c r="G23" s="24" t="str">
+      <c r="G23" s="22" t="str">
         <f>IF(Aufwandsplan!F22&lt;&gt;0, Aufwandsplan!F22, "")</f>
         <v/>
       </c>
@@ -5552,15 +5785,16 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="str">
         <f>IF(Aufwandsplan!A23&lt;&gt;0, Aufwandsplan!A23, "")</f>
         <v>C1.1</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>71</v>
-      </c>
+      <c r="B24" s="15"/>
       <c r="C24" s="22" t="str">
         <f>IF(Aufwandsplan!B23&lt;&gt;0, Aufwandsplan!B23, "")</f>
         <v/>
@@ -5575,11 +5809,11 @@
       </c>
       <c r="F24" s="22">
         <f>IF(Aufwandsplan!E23&lt;&gt;0, Aufwandsplan!E23, "")</f>
-        <v>8</v>
-      </c>
-      <c r="G24" s="24" t="str">
+        <v>10</v>
+      </c>
+      <c r="G24" s="22">
         <f>IF(Aufwandsplan!F23&lt;&gt;0, Aufwandsplan!F23, "")</f>
-        <v/>
+        <v>-2</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="1"/>
@@ -5598,15 +5832,16 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="str">
         <f>IF(Aufwandsplan!A24&lt;&gt;0, Aufwandsplan!A24, "")</f>
         <v>C1.2</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>71</v>
-      </c>
+      <c r="B25"/>
       <c r="C25" s="22" t="str">
         <f>IF(Aufwandsplan!B24&lt;&gt;0, Aufwandsplan!B24, "")</f>
         <v/>
@@ -5623,7 +5858,7 @@
         <f>IF(Aufwandsplan!E24&lt;&gt;0, Aufwandsplan!E24, "")</f>
         <v>6</v>
       </c>
-      <c r="G25" s="24" t="str">
+      <c r="G25" s="22" t="str">
         <f>IF(Aufwandsplan!F24&lt;&gt;0, Aufwandsplan!F24, "")</f>
         <v/>
       </c>
@@ -5644,15 +5879,16 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="str">
         <f>IF(Aufwandsplan!A25&lt;&gt;0, Aufwandsplan!A25, "")</f>
         <v>C1.3</v>
       </c>
-      <c r="B26" s="22" t="s">
-        <v>71</v>
-      </c>
+      <c r="B26" s="1"/>
       <c r="C26" s="22" t="str">
         <f>IF(Aufwandsplan!B25&lt;&gt;0, Aufwandsplan!B25, "")</f>
         <v/>
@@ -5669,7 +5905,7 @@
         <f>IF(Aufwandsplan!E25&lt;&gt;0, Aufwandsplan!E25, "")</f>
         <v>6</v>
       </c>
-      <c r="G26" s="24" t="str">
+      <c r="G26" s="22" t="str">
         <f>IF(Aufwandsplan!F25&lt;&gt;0, Aufwandsplan!F25, "")</f>
         <v/>
       </c>
@@ -5690,15 +5926,16 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="str">
         <f>IF(Aufwandsplan!A26&lt;&gt;0, Aufwandsplan!A26, "")</f>
         <v>C1.4</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>71</v>
-      </c>
+      <c r="B27" s="1"/>
       <c r="C27" s="22" t="str">
         <f>IF(Aufwandsplan!B26&lt;&gt;0, Aufwandsplan!B26, "")</f>
         <v/>
@@ -5715,7 +5952,7 @@
         <f>IF(Aufwandsplan!E26&lt;&gt;0, Aufwandsplan!E26, "")</f>
         <v>2</v>
       </c>
-      <c r="G27" s="24" t="str">
+      <c r="G27" s="22" t="str">
         <f>IF(Aufwandsplan!F26&lt;&gt;0, Aufwandsplan!F26, "")</f>
         <v/>
       </c>
@@ -5736,13 +5973,16 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="str">
         <f>IF(Aufwandsplan!A27&lt;&gt;0, Aufwandsplan!A27, "")</f>
         <v>D1</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="17" t="s">
         <v>64</v>
       </c>
       <c r="C28" s="22" t="str">
@@ -5761,7 +6001,7 @@
         <f>IF(Aufwandsplan!E27&lt;&gt;0, Aufwandsplan!E27, "")</f>
         <v/>
       </c>
-      <c r="G28" s="24" t="str">
+      <c r="G28" s="22" t="str">
         <f>IF(Aufwandsplan!F27&lt;&gt;0, Aufwandsplan!F27, "")</f>
         <v/>
       </c>
@@ -5771,7 +6011,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="30"/>
+      <c r="N28" s="29"/>
       <c r="O28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -5779,15 +6019,16 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="str">
         <f>IF(Aufwandsplan!A28&lt;&gt;0, Aufwandsplan!A28, "")</f>
         <v>D1.1</v>
       </c>
-      <c r="B29" s="22" t="s">
-        <v>64</v>
-      </c>
+      <c r="B29" s="1"/>
       <c r="C29" s="22" t="str">
         <f>IF(Aufwandsplan!B28&lt;&gt;0, Aufwandsplan!B28, "")</f>
         <v/>
@@ -5802,11 +6043,11 @@
       </c>
       <c r="F29" s="22">
         <f>IF(Aufwandsplan!E28&lt;&gt;0, Aufwandsplan!E28, "")</f>
-        <v>8</v>
-      </c>
-      <c r="G29" s="24" t="str">
+        <v>10</v>
+      </c>
+      <c r="G29" s="22">
         <f>IF(Aufwandsplan!F28&lt;&gt;0, Aufwandsplan!F28, "")</f>
-        <v/>
+        <v>-2</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="1"/>
@@ -5825,15 +6066,16 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="str">
         <f>IF(Aufwandsplan!A29&lt;&gt;0, Aufwandsplan!A29, "")</f>
         <v>D1.2</v>
       </c>
-      <c r="B30" s="22" t="s">
-        <v>64</v>
-      </c>
+      <c r="B30" s="1"/>
       <c r="C30" s="22" t="str">
         <f>IF(Aufwandsplan!B29&lt;&gt;0, Aufwandsplan!B29, "")</f>
         <v/>
@@ -5844,15 +6086,15 @@
       </c>
       <c r="E30" s="22">
         <f>IF(Aufwandsplan!D29&lt;&gt;0, Aufwandsplan!D29, "")</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F30" s="22">
         <f>IF(Aufwandsplan!E29&lt;&gt;0, Aufwandsplan!E29, "")</f>
-        <v>10</v>
-      </c>
-      <c r="G30" s="24" t="str">
+        <v>7</v>
+      </c>
+      <c r="G30" s="22">
         <f>IF(Aufwandsplan!F29&lt;&gt;0, Aufwandsplan!F29, "")</f>
-        <v/>
+        <v>-2</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="1"/>
@@ -5871,15 +6113,16 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="str">
         <f>IF(Aufwandsplan!A30&lt;&gt;0, Aufwandsplan!A30, "")</f>
         <v>D1.3</v>
       </c>
-      <c r="B31" s="22" t="s">
-        <v>64</v>
-      </c>
+      <c r="B31"/>
       <c r="C31" s="22" t="str">
         <f>IF(Aufwandsplan!B30&lt;&gt;0, Aufwandsplan!B30, "")</f>
         <v/>
@@ -5896,7 +6139,7 @@
         <f>IF(Aufwandsplan!E30&lt;&gt;0, Aufwandsplan!E30, "")</f>
         <v>8</v>
       </c>
-      <c r="G31" s="24" t="str">
+      <c r="G31" s="22" t="str">
         <f>IF(Aufwandsplan!F30&lt;&gt;0, Aufwandsplan!F30, "")</f>
         <v/>
       </c>
@@ -5919,15 +6162,16 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="str">
         <f>IF(Aufwandsplan!A31&lt;&gt;0, Aufwandsplan!A31, "")</f>
         <v>D2</v>
       </c>
-      <c r="B32" s="22" t="s">
-        <v>64</v>
-      </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="22" t="str">
         <f>IF(Aufwandsplan!B31&lt;&gt;0, Aufwandsplan!B31, "")</f>
         <v>Use Cases definieren</v>
@@ -5944,7 +6188,7 @@
         <f>IF(Aufwandsplan!E31&lt;&gt;0, Aufwandsplan!E31, "")</f>
         <v/>
       </c>
-      <c r="G32" s="24" t="str">
+      <c r="G32" s="22" t="str">
         <f>IF(Aufwandsplan!F31&lt;&gt;0, Aufwandsplan!F31, "")</f>
         <v/>
       </c>
@@ -5954,22 +6198,23 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="30"/>
+      <c r="N32" s="29"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="str">
         <f>IF(Aufwandsplan!A32&lt;&gt;0, Aufwandsplan!A32, "")</f>
         <v>D2.1</v>
       </c>
-      <c r="B33" s="22" t="s">
-        <v>64</v>
-      </c>
+      <c r="B33" s="1"/>
       <c r="C33" s="22" t="str">
         <f>IF(Aufwandsplan!B32&lt;&gt;0, Aufwandsplan!B32, "")</f>
         <v/>
@@ -5986,7 +6231,7 @@
         <f>IF(Aufwandsplan!E32&lt;&gt;0, Aufwandsplan!E32, "")</f>
         <v>4</v>
       </c>
-      <c r="G33" s="24" t="str">
+      <c r="G33" s="22" t="str">
         <f>IF(Aufwandsplan!F32&lt;&gt;0, Aufwandsplan!F32, "")</f>
         <v/>
       </c>
@@ -6007,15 +6252,16 @@
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="str">
         <f>IF(Aufwandsplan!A33&lt;&gt;0, Aufwandsplan!A33, "")</f>
         <v>D2.2</v>
       </c>
-      <c r="B34" s="22" t="s">
-        <v>64</v>
-      </c>
+      <c r="B34" s="1"/>
       <c r="C34" s="22" t="str">
         <f>IF(Aufwandsplan!B33&lt;&gt;0, Aufwandsplan!B33, "")</f>
         <v/>
@@ -6030,11 +6276,11 @@
       </c>
       <c r="F34" s="22">
         <f>IF(Aufwandsplan!E33&lt;&gt;0, Aufwandsplan!E33, "")</f>
-        <v>1</v>
-      </c>
-      <c r="G34" s="24">
+        <v>2</v>
+      </c>
+      <c r="G34" s="22">
         <f>IF(Aufwandsplan!F33&lt;&gt;0, Aufwandsplan!F33, "")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="1"/>
@@ -6053,15 +6299,16 @@
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="str">
         <f>IF(Aufwandsplan!A34&lt;&gt;0, Aufwandsplan!A34, "")</f>
         <v>D2.3</v>
       </c>
-      <c r="B35" s="22" t="s">
-        <v>64</v>
-      </c>
+      <c r="B35" s="1"/>
       <c r="C35" s="22" t="str">
         <f>IF(Aufwandsplan!B34&lt;&gt;0, Aufwandsplan!B34, "")</f>
         <v/>
@@ -6072,15 +6319,15 @@
       </c>
       <c r="E35" s="22">
         <f>IF(Aufwandsplan!D34&lt;&gt;0, Aufwandsplan!D34, "")</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F35" s="22">
         <f>IF(Aufwandsplan!E34&lt;&gt;0, Aufwandsplan!E34, "")</f>
-        <v>7</v>
-      </c>
-      <c r="G35" s="24">
+        <v>8</v>
+      </c>
+      <c r="G35" s="22" t="str">
         <f>IF(Aufwandsplan!F34&lt;&gt;0, Aufwandsplan!F34, "")</f>
-        <v>-3</v>
+        <v/>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="1"/>
@@ -6099,15 +6346,16 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="str">
         <f>IF(Aufwandsplan!A35&lt;&gt;0, Aufwandsplan!A35, "")</f>
         <v>D2.4</v>
       </c>
-      <c r="B36" s="22" t="s">
-        <v>64</v>
-      </c>
+      <c r="B36" s="1"/>
       <c r="C36" s="22" t="str">
         <f>IF(Aufwandsplan!B35&lt;&gt;0, Aufwandsplan!B35, "")</f>
         <v/>
@@ -6124,7 +6372,7 @@
         <f>IF(Aufwandsplan!E35&lt;&gt;0, Aufwandsplan!E35, "")</f>
         <v>4</v>
       </c>
-      <c r="G36" s="24" t="str">
+      <c r="G36" s="22" t="str">
         <f>IF(Aufwandsplan!F35&lt;&gt;0, Aufwandsplan!F35, "")</f>
         <v/>
       </c>
@@ -6145,34 +6393,35 @@
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="str">
         <f>IF(Aufwandsplan!A36&lt;&gt;0, Aufwandsplan!A36, "")</f>
-        <v>D3</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>64</v>
-      </c>
+        <v>D2.5</v>
+      </c>
+      <c r="B37" s="1"/>
       <c r="C37" s="22" t="str">
         <f>IF(Aufwandsplan!B36&lt;&gt;0, Aufwandsplan!B36, "")</f>
-        <v>Application Functions definieren</v>
+        <v/>
       </c>
       <c r="D37" s="22" t="str">
         <f>IF(Aufwandsplan!C36&lt;&gt;0, Aufwandsplan!C36, "")</f>
-        <v/>
+        <v>Use Case "Stundenplan löschen" definieren und spezifizieren</v>
       </c>
       <c r="E37" s="22" t="str">
         <f>IF(Aufwandsplan!D36&lt;&gt;0, Aufwandsplan!D36, "")</f>
         <v/>
       </c>
-      <c r="F37" s="22" t="str">
+      <c r="F37" s="22">
         <f>IF(Aufwandsplan!E36&lt;&gt;0, Aufwandsplan!E36, "")</f>
-        <v/>
-      </c>
-      <c r="G37" s="24" t="str">
+        <v>2</v>
+      </c>
+      <c r="G37" s="22">
         <f>IF(Aufwandsplan!F36&lt;&gt;0, Aufwandsplan!F36, "")</f>
-        <v/>
+        <v>-2</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="1"/>
@@ -6180,38 +6429,39 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-      <c r="P37" s="26"/>
+      <c r="P37" s="25"/>
       <c r="Q37" s="1"/>
-      <c r="R37" s="30"/>
+      <c r="R37" s="29"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="str">
         <f>IF(Aufwandsplan!A37&lt;&gt;0, Aufwandsplan!A37, "")</f>
-        <v>D3.1</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>64</v>
-      </c>
+        <v>D3</v>
+      </c>
+      <c r="B38" s="1"/>
       <c r="C38" s="22" t="str">
         <f>IF(Aufwandsplan!B37&lt;&gt;0, Aufwandsplan!B37, "")</f>
-        <v/>
+        <v>Application Functions definieren</v>
       </c>
       <c r="D38" s="22" t="str">
         <f>IF(Aufwandsplan!C37&lt;&gt;0, Aufwandsplan!C37, "")</f>
-        <v>Application Function "Zeiten Speichern" definieren und spezifizieren</v>
-      </c>
-      <c r="E38" s="22">
+        <v/>
+      </c>
+      <c r="E38" s="22" t="str">
         <f>IF(Aufwandsplan!D37&lt;&gt;0, Aufwandsplan!D37, "")</f>
-        <v>3</v>
-      </c>
-      <c r="F38" s="22">
+        <v/>
+      </c>
+      <c r="F38" s="22" t="str">
         <f>IF(Aufwandsplan!E37&lt;&gt;0, Aufwandsplan!E37, "")</f>
-        <v>3</v>
-      </c>
-      <c r="G38" s="24" t="str">
+        <v/>
+      </c>
+      <c r="G38" s="22" t="str">
         <f>IF(Aufwandsplan!F37&lt;&gt;0, Aufwandsplan!F37, "")</f>
         <v/>
       </c>
@@ -6232,22 +6482,23 @@
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="str">
         <f>IF(Aufwandsplan!A38&lt;&gt;0, Aufwandsplan!A38, "")</f>
-        <v>D3.2</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>64</v>
-      </c>
+        <v>D3.1</v>
+      </c>
+      <c r="B39" s="1"/>
       <c r="C39" s="22" t="str">
         <f>IF(Aufwandsplan!B38&lt;&gt;0, Aufwandsplan!B38, "")</f>
         <v/>
       </c>
       <c r="D39" s="22" t="str">
         <f>IF(Aufwandsplan!C38&lt;&gt;0, Aufwandsplan!C38, "")</f>
-        <v>Application Function "Zeitpraeferenzen bereitstellen" definieren und spezifizieren</v>
+        <v>AF "Zeiten Speichern" definieren und spezifizieren</v>
       </c>
       <c r="E39" s="22">
         <f>IF(Aufwandsplan!D38&lt;&gt;0, Aufwandsplan!D38, "")</f>
@@ -6257,7 +6508,7 @@
         <f>IF(Aufwandsplan!E38&lt;&gt;0, Aufwandsplan!E38, "")</f>
         <v>3</v>
       </c>
-      <c r="G39" s="24" t="str">
+      <c r="G39" s="22" t="str">
         <f>IF(Aufwandsplan!F38&lt;&gt;0, Aufwandsplan!F38, "")</f>
         <v/>
       </c>
@@ -6278,22 +6529,23 @@
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="str">
         <f>IF(Aufwandsplan!A39&lt;&gt;0, Aufwandsplan!A39, "")</f>
-        <v>D3.3</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>64</v>
-      </c>
+        <v>D3.2</v>
+      </c>
+      <c r="B40" s="1"/>
       <c r="C40" s="22" t="str">
         <f>IF(Aufwandsplan!B39&lt;&gt;0, Aufwandsplan!B39, "")</f>
         <v/>
       </c>
       <c r="D40" s="22" t="str">
         <f>IF(Aufwandsplan!C39&lt;&gt;0, Aufwandsplan!C39, "")</f>
-        <v>Application Function "Dozentenliste bereitstellen" definieren und spezifizieren</v>
+        <v>AF "Zeitpraeferenzen löschen" definieren und spezifizieren</v>
       </c>
       <c r="E40" s="22">
         <f>IF(Aufwandsplan!D39&lt;&gt;0, Aufwandsplan!D39, "")</f>
@@ -6303,7 +6555,7 @@
         <f>IF(Aufwandsplan!E39&lt;&gt;0, Aufwandsplan!E39, "")</f>
         <v>3</v>
       </c>
-      <c r="G40" s="24" t="str">
+      <c r="G40" s="22" t="str">
         <f>IF(Aufwandsplan!F39&lt;&gt;0, Aufwandsplan!F39, "")</f>
         <v/>
       </c>
@@ -6324,22 +6576,23 @@
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="str">
         <f>IF(Aufwandsplan!A40&lt;&gt;0, Aufwandsplan!A40, "")</f>
-        <v>D3.4</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>64</v>
-      </c>
+        <v>D3.3</v>
+      </c>
+      <c r="B41" s="1"/>
       <c r="C41" s="22" t="str">
         <f>IF(Aufwandsplan!B40&lt;&gt;0, Aufwandsplan!B40, "")</f>
         <v/>
       </c>
       <c r="D41" s="22" t="str">
         <f>IF(Aufwandsplan!C40&lt;&gt;0, Aufwandsplan!C40, "")</f>
-        <v>Application Function "Dozent bereitstellen" definieren und spezifizieren</v>
+        <v>AF "Dozentenliste anzeigen" definieren und spezifizieren</v>
       </c>
       <c r="E41" s="22">
         <f>IF(Aufwandsplan!D40&lt;&gt;0, Aufwandsplan!D40, "")</f>
@@ -6349,7 +6602,7 @@
         <f>IF(Aufwandsplan!E40&lt;&gt;0, Aufwandsplan!E40, "")</f>
         <v>3</v>
       </c>
-      <c r="G41" s="24" t="str">
+      <c r="G41" s="22" t="str">
         <f>IF(Aufwandsplan!F40&lt;&gt;0, Aufwandsplan!F40, "")</f>
         <v/>
       </c>
@@ -6370,34 +6623,35 @@
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="str">
         <f>IF(Aufwandsplan!A41&lt;&gt;0, Aufwandsplan!A41, "")</f>
-        <v>D3.5</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>64</v>
-      </c>
+        <v>D3.4</v>
+      </c>
+      <c r="B42" s="1"/>
       <c r="C42" s="22" t="str">
         <f>IF(Aufwandsplan!B41&lt;&gt;0, Aufwandsplan!B41, "")</f>
         <v/>
       </c>
       <c r="D42" s="22" t="str">
         <f>IF(Aufwandsplan!C41&lt;&gt;0, Aufwandsplan!C41, "")</f>
-        <v>Application Function "Stundenplan speichern" definieren und spezifizieren</v>
-      </c>
-      <c r="E42" s="22">
+        <v>AF "Existenz einer Planung prüfen" definieren und spezifizieren</v>
+      </c>
+      <c r="E42" s="22" t="str">
         <f>IF(Aufwandsplan!D41&lt;&gt;0, Aufwandsplan!D41, "")</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="F42" s="22">
         <f>IF(Aufwandsplan!E41&lt;&gt;0, Aufwandsplan!E41, "")</f>
         <v>3</v>
       </c>
-      <c r="G42" s="24" t="str">
+      <c r="G42" s="22">
         <f>IF(Aufwandsplan!F41&lt;&gt;0, Aufwandsplan!F41, "")</f>
-        <v/>
+        <v>-3</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="1"/>
@@ -6418,34 +6672,35 @@
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="str">
         <f>IF(Aufwandsplan!A42&lt;&gt;0, Aufwandsplan!A42, "")</f>
-        <v>D3.6</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>64</v>
-      </c>
+        <v>D3.5</v>
+      </c>
+      <c r="B43" s="1"/>
       <c r="C43" s="22" t="str">
         <f>IF(Aufwandsplan!B42&lt;&gt;0, Aufwandsplan!B42, "")</f>
         <v/>
       </c>
       <c r="D43" s="22" t="str">
         <f>IF(Aufwandsplan!C42&lt;&gt;0, Aufwandsplan!C42, "")</f>
-        <v>Application Function "Stundenplan berechnen" definieren und spezifizieren</v>
+        <v>AF "Stundenplan speichern" definieren und spezifizieren</v>
       </c>
       <c r="E43" s="22">
         <f>IF(Aufwandsplan!D42&lt;&gt;0, Aufwandsplan!D42, "")</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F43" s="22">
         <f>IF(Aufwandsplan!E42&lt;&gt;0, Aufwandsplan!E42, "")</f>
-        <v>17</v>
-      </c>
-      <c r="G43" s="24">
+        <v>3</v>
+      </c>
+      <c r="G43" s="22" t="str">
         <f>IF(Aufwandsplan!F42&lt;&gt;0, Aufwandsplan!F42, "")</f>
-        <v>-7</v>
+        <v/>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="1"/>
@@ -6468,34 +6723,35 @@
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="str">
         <f>IF(Aufwandsplan!A43&lt;&gt;0, Aufwandsplan!A43, "")</f>
-        <v>D3.7</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>64</v>
-      </c>
+        <v>D3.6</v>
+      </c>
+      <c r="B44"/>
       <c r="C44" s="22" t="str">
         <f>IF(Aufwandsplan!B43&lt;&gt;0, Aufwandsplan!B43, "")</f>
         <v/>
       </c>
       <c r="D44" s="22" t="str">
         <f>IF(Aufwandsplan!C43&lt;&gt;0, Aufwandsplan!C43, "")</f>
-        <v>Application Function "Stundenplan optimieren" definieren und spezifizieren</v>
+        <v>AF "Stundenplan erstellen" definieren und spezifizieren</v>
       </c>
       <c r="E44" s="22">
         <f>IF(Aufwandsplan!D43&lt;&gt;0, Aufwandsplan!D43, "")</f>
-        <v>10</v>
-      </c>
-      <c r="F44" s="22" t="str">
+        <v>15</v>
+      </c>
+      <c r="F44" s="22">
         <f>IF(Aufwandsplan!E43&lt;&gt;0, Aufwandsplan!E43, "")</f>
-        <v/>
-      </c>
-      <c r="G44" s="24">
+        <v>27</v>
+      </c>
+      <c r="G44" s="22">
         <f>IF(Aufwandsplan!F43&lt;&gt;0, Aufwandsplan!F43, "")</f>
-        <v>10</v>
+        <v>-12</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="1"/>
@@ -6508,40 +6764,41 @@
         <v>89</v>
       </c>
       <c r="P44" s="1"/>
-      <c r="Q44" s="28"/>
+      <c r="Q44" s="27"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="str">
         <f>IF(Aufwandsplan!A44&lt;&gt;0, Aufwandsplan!A44, "")</f>
-        <v>D3.8</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>64</v>
-      </c>
+        <v>D3.7</v>
+      </c>
+      <c r="B45" s="1"/>
       <c r="C45" s="22" t="str">
         <f>IF(Aufwandsplan!B44&lt;&gt;0, Aufwandsplan!B44, "")</f>
         <v/>
       </c>
       <c r="D45" s="22" t="str">
         <f>IF(Aufwandsplan!C44&lt;&gt;0, Aufwandsplan!C44, "")</f>
-        <v>Application Function "Stundenplan anzeigen" definieren und spezifizieren</v>
-      </c>
-      <c r="E45" s="22">
+        <v>AF "Stundenplanung löschen" definieren und spezifizieren</v>
+      </c>
+      <c r="E45" s="22" t="str">
         <f>IF(Aufwandsplan!D44&lt;&gt;0, Aufwandsplan!D44, "")</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="F45" s="22">
         <f>IF(Aufwandsplan!E44&lt;&gt;0, Aufwandsplan!E44, "")</f>
-        <v>3</v>
-      </c>
-      <c r="G45" s="24" t="str">
+        <v>2</v>
+      </c>
+      <c r="G45" s="22">
         <f>IF(Aufwandsplan!F44&lt;&gt;0, Aufwandsplan!F44, "")</f>
-        <v/>
+        <v>-2</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="1"/>
@@ -6560,22 +6817,23 @@
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="str">
         <f>IF(Aufwandsplan!A45&lt;&gt;0, Aufwandsplan!A45, "")</f>
-        <v>D3.9</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>64</v>
-      </c>
+        <v>D3.8</v>
+      </c>
+      <c r="B46" s="1"/>
       <c r="C46" s="22" t="str">
         <f>IF(Aufwandsplan!B45&lt;&gt;0, Aufwandsplan!B45, "")</f>
         <v/>
       </c>
       <c r="D46" s="22" t="str">
         <f>IF(Aufwandsplan!C45&lt;&gt;0, Aufwandsplan!C45, "")</f>
-        <v>Application Function "Studiengaenge bereitstellen" definieren und spezifizieren</v>
+        <v>AF "Stundenplan anzeigen" definieren und spezifizieren</v>
       </c>
       <c r="E46" s="22">
         <f>IF(Aufwandsplan!D45&lt;&gt;0, Aufwandsplan!D45, "")</f>
@@ -6585,7 +6843,7 @@
         <f>IF(Aufwandsplan!E45&lt;&gt;0, Aufwandsplan!E45, "")</f>
         <v>3</v>
       </c>
-      <c r="G46" s="24" t="str">
+      <c r="G46" s="22" t="str">
         <f>IF(Aufwandsplan!F45&lt;&gt;0, Aufwandsplan!F45, "")</f>
         <v/>
       </c>
@@ -6606,34 +6864,35 @@
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="str">
         <f>IF(Aufwandsplan!A46&lt;&gt;0, Aufwandsplan!A46, "")</f>
-        <v>D3.10</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>64</v>
-      </c>
+        <v>D3.9</v>
+      </c>
+      <c r="B47" s="1"/>
       <c r="C47" s="22" t="str">
         <f>IF(Aufwandsplan!B46&lt;&gt;0, Aufwandsplan!B46, "")</f>
         <v/>
       </c>
       <c r="D47" s="22" t="str">
         <f>IF(Aufwandsplan!C46&lt;&gt;0, Aufwandsplan!C46, "")</f>
-        <v>Application Function "Dozentenmodule bereitstellen" definieren und spezifizieren</v>
-      </c>
-      <c r="E47" s="22">
+        <v>AF "Zufallsliste der Studiengänge erstellen" definieren und spezifizieren</v>
+      </c>
+      <c r="E47" s="22" t="str">
         <f>IF(Aufwandsplan!D46&lt;&gt;0, Aufwandsplan!D46, "")</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="F47" s="22">
         <f>IF(Aufwandsplan!E46&lt;&gt;0, Aufwandsplan!E46, "")</f>
         <v>3</v>
       </c>
-      <c r="G47" s="24" t="str">
+      <c r="G47" s="22">
         <f>IF(Aufwandsplan!F46&lt;&gt;0, Aufwandsplan!F46, "")</f>
-        <v/>
+        <v>-3</v>
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="1"/>
@@ -6652,34 +6911,35 @@
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="str">
         <f>IF(Aufwandsplan!A47&lt;&gt;0, Aufwandsplan!A47, "")</f>
-        <v>D3.11</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>64</v>
-      </c>
+        <v>D3.10</v>
+      </c>
+      <c r="B48" s="1"/>
       <c r="C48" s="22" t="str">
         <f>IF(Aufwandsplan!B47&lt;&gt;0, Aufwandsplan!B47, "")</f>
         <v/>
       </c>
       <c r="D48" s="22" t="str">
         <f>IF(Aufwandsplan!C47&lt;&gt;0, Aufwandsplan!C47, "")</f>
-        <v>Application Function "Räume bereitstellen" definieren und spezifizieren</v>
-      </c>
-      <c r="E48" s="22" t="str">
+        <v>AF "Urplan auf Vollständigkeit prüfen" definieren und spezifizieren</v>
+      </c>
+      <c r="E48" s="22">
         <f>IF(Aufwandsplan!D47&lt;&gt;0, Aufwandsplan!D47, "")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="F48" s="22">
         <f>IF(Aufwandsplan!E47&lt;&gt;0, Aufwandsplan!E47, "")</f>
         <v>3</v>
       </c>
-      <c r="G48" s="24">
+      <c r="G48" s="22" t="str">
         <f>IF(Aufwandsplan!F47&lt;&gt;0, Aufwandsplan!F47, "")</f>
-        <v>-3</v>
+        <v/>
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="1"/>
@@ -6695,27 +6955,28 @@
         <v>217</v>
       </c>
       <c r="Q48" s="1"/>
-      <c r="R48" s="28"/>
+      <c r="R48" s="27"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="str">
         <f>IF(Aufwandsplan!A48&lt;&gt;0, Aufwandsplan!A48, "")</f>
-        <v>D3.12</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>64</v>
-      </c>
+        <v>D3.11</v>
+      </c>
+      <c r="B49"/>
       <c r="C49" s="22" t="str">
         <f>IF(Aufwandsplan!B48&lt;&gt;0, Aufwandsplan!B48, "")</f>
         <v/>
       </c>
       <c r="D49" s="22" t="str">
         <f>IF(Aufwandsplan!C48&lt;&gt;0, Aufwandsplan!C48, "")</f>
-        <v>Application Function "Zufälligen Dozent mit Zeitpräferenz laden" definieren und spezifizieren</v>
+        <v>AF "Zufälligen Raum für gewähltes Modul laden" definieren und spezifizieren</v>
       </c>
       <c r="E49" s="22" t="str">
         <f>IF(Aufwandsplan!D48&lt;&gt;0, Aufwandsplan!D48, "")</f>
@@ -6725,7 +6986,7 @@
         <f>IF(Aufwandsplan!E48&lt;&gt;0, Aufwandsplan!E48, "")</f>
         <v>3</v>
       </c>
-      <c r="G49" s="24">
+      <c r="G49" s="22">
         <f>IF(Aufwandsplan!F48&lt;&gt;0, Aufwandsplan!F48, "")</f>
         <v>-3</v>
       </c>
@@ -6746,22 +7007,23 @@
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="str">
         <f>IF(Aufwandsplan!A49&lt;&gt;0, Aufwandsplan!A49, "")</f>
-        <v>D3.13</v>
-      </c>
-      <c r="B50" s="22" t="s">
-        <v>64</v>
-      </c>
+        <v>D3.12</v>
+      </c>
+      <c r="B50" s="1"/>
       <c r="C50" s="22" t="str">
         <f>IF(Aufwandsplan!B49&lt;&gt;0, Aufwandsplan!B49, "")</f>
         <v/>
       </c>
       <c r="D50" s="22" t="str">
         <f>IF(Aufwandsplan!C49&lt;&gt;0, Aufwandsplan!C49, "")</f>
-        <v>Application Function "Zufälliges Modul des Dozenten laden" definieren und spezifizieren</v>
+        <v>AF "Zufälligen Dozent mit Zeitpräferenz laden" definieren und spezifizieren</v>
       </c>
       <c r="E50" s="22" t="str">
         <f>IF(Aufwandsplan!D49&lt;&gt;0, Aufwandsplan!D49, "")</f>
@@ -6771,7 +7033,7 @@
         <f>IF(Aufwandsplan!E49&lt;&gt;0, Aufwandsplan!E49, "")</f>
         <v>3</v>
       </c>
-      <c r="G50" s="24">
+      <c r="G50" s="22">
         <f>IF(Aufwandsplan!F49&lt;&gt;0, Aufwandsplan!F49, "")</f>
         <v>-3</v>
       </c>
@@ -6792,22 +7054,23 @@
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="str">
         <f>IF(Aufwandsplan!A50&lt;&gt;0, Aufwandsplan!A50, "")</f>
-        <v>D3.14</v>
-      </c>
-      <c r="B51" s="22" t="s">
-        <v>64</v>
-      </c>
+        <v>D3.13</v>
+      </c>
+      <c r="B51" s="1"/>
       <c r="C51" s="22" t="str">
         <f>IF(Aufwandsplan!B50&lt;&gt;0, Aufwandsplan!B50, "")</f>
         <v/>
       </c>
       <c r="D51" s="22" t="str">
         <f>IF(Aufwandsplan!C50&lt;&gt;0, Aufwandsplan!C50, "")</f>
-        <v>Application Function "Zeitslotinformationen speichern" definieren und spezifizieren</v>
+        <v>AF "Zufälliges Modul des Dozenten laden" definieren und spezifizieren</v>
       </c>
       <c r="E51" s="22" t="str">
         <f>IF(Aufwandsplan!D50&lt;&gt;0, Aufwandsplan!D50, "")</f>
@@ -6817,7 +7080,7 @@
         <f>IF(Aufwandsplan!E50&lt;&gt;0, Aufwandsplan!E50, "")</f>
         <v>3</v>
       </c>
-      <c r="G51" s="24">
+      <c r="G51" s="22">
         <f>IF(Aufwandsplan!F50&lt;&gt;0, Aufwandsplan!F50, "")</f>
         <v>-3</v>
       </c>
@@ -6838,34 +7101,35 @@
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="str">
         <f>IF(Aufwandsplan!A51&lt;&gt;0, Aufwandsplan!A51, "")</f>
-        <v>D3.15</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>64</v>
-      </c>
+        <v>D3.14</v>
+      </c>
+      <c r="B52" s="1"/>
       <c r="C52" s="22" t="str">
         <f>IF(Aufwandsplan!B51&lt;&gt;0, Aufwandsplan!B51, "")</f>
         <v/>
       </c>
       <c r="D52" s="22" t="str">
         <f>IF(Aufwandsplan!C51&lt;&gt;0, Aufwandsplan!C51, "")</f>
-        <v>Application Function "Zeitslot des Dozenten sperren" definieren und spezifizieren</v>
-      </c>
-      <c r="E52" s="22" t="str">
+        <v>AF "Zeitslotinformationen sichern" definieren und spezifizieren</v>
+      </c>
+      <c r="E52" s="22">
         <f>IF(Aufwandsplan!D51&lt;&gt;0, Aufwandsplan!D51, "")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="F52" s="22">
         <f>IF(Aufwandsplan!E51&lt;&gt;0, Aufwandsplan!E51, "")</f>
-        <v>3</v>
-      </c>
-      <c r="G52" s="24">
+        <v>2</v>
+      </c>
+      <c r="G52" s="22">
         <f>IF(Aufwandsplan!F51&lt;&gt;0, Aufwandsplan!F51, "")</f>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="1"/>
@@ -6884,34 +7148,35 @@
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="str">
         <f>IF(Aufwandsplan!A52&lt;&gt;0, Aufwandsplan!A52, "")</f>
-        <v>D3.16</v>
-      </c>
-      <c r="B53" s="22" t="s">
-        <v>64</v>
-      </c>
+        <v>D3.15</v>
+      </c>
+      <c r="B53"/>
       <c r="C53" s="22" t="str">
         <f>IF(Aufwandsplan!B52&lt;&gt;0, Aufwandsplan!B52, "")</f>
         <v/>
       </c>
       <c r="D53" s="22" t="str">
         <f>IF(Aufwandsplan!C52&lt;&gt;0, Aufwandsplan!C52, "")</f>
-        <v>Application Function "Modul als verplant speichern" definieren und spezifizieren</v>
-      </c>
-      <c r="E53" s="22" t="str">
+        <v>AF "StundenplanSlot erstellen" definieren und spezifizieren</v>
+      </c>
+      <c r="E53" s="22">
         <f>IF(Aufwandsplan!D52&lt;&gt;0, Aufwandsplan!D52, "")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="F53" s="22">
         <f>IF(Aufwandsplan!E52&lt;&gt;0, Aufwandsplan!E52, "")</f>
         <v>3</v>
       </c>
-      <c r="G53" s="24">
+      <c r="G53" s="22" t="str">
         <f>IF(Aufwandsplan!F52&lt;&gt;0, Aufwandsplan!F52, "")</f>
-        <v>-3</v>
+        <v/>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="1"/>
@@ -6929,34 +7194,35 @@
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="str">
         <f>IF(Aufwandsplan!A53&lt;&gt;0, Aufwandsplan!A53, "")</f>
-        <v>D3.17</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>64</v>
-      </c>
+        <v>D3.16</v>
+      </c>
+      <c r="B54" s="1"/>
       <c r="C54" s="22" t="str">
         <f>IF(Aufwandsplan!B53&lt;&gt;0, Aufwandsplan!B53, "")</f>
         <v/>
       </c>
       <c r="D54" s="22" t="str">
         <f>IF(Aufwandsplan!C53&lt;&gt;0, Aufwandsplan!C53, "")</f>
-        <v>Application Function "Zufälligen Dozent ohne Zeitpräferenz laden" definieren und spezifizieren</v>
-      </c>
-      <c r="E54" s="22" t="str">
+        <v>AF "Studiengang, StundenplanSlot und Zeitslot zum Urplan (Hahmap) hinzufügen" definieren und spezifizieren</v>
+      </c>
+      <c r="E54" s="22">
         <f>IF(Aufwandsplan!D53&lt;&gt;0, Aufwandsplan!D53, "")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="F54" s="22">
         <f>IF(Aufwandsplan!E53&lt;&gt;0, Aufwandsplan!E53, "")</f>
         <v>3</v>
       </c>
-      <c r="G54" s="24">
+      <c r="G54" s="22" t="str">
         <f>IF(Aufwandsplan!F53&lt;&gt;0, Aufwandsplan!F53, "")</f>
-        <v>-3</v>
+        <v/>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="1"/>
@@ -6971,38 +7237,39 @@
       <c r="R54" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="S54" s="28"/>
+      <c r="S54" s="27"/>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="str">
         <f>IF(Aufwandsplan!A54&lt;&gt;0, Aufwandsplan!A54, "")</f>
-        <v>E1</v>
-      </c>
-      <c r="B55" s="22" t="s">
-        <v>132</v>
-      </c>
+        <v>D3.17</v>
+      </c>
+      <c r="B55" s="1"/>
       <c r="C55" s="22" t="str">
         <f>IF(Aufwandsplan!B54&lt;&gt;0, Aufwandsplan!B54, "")</f>
-        <v>GUI Entwürfe</v>
+        <v/>
       </c>
       <c r="D55" s="22" t="str">
         <f>IF(Aufwandsplan!C54&lt;&gt;0, Aufwandsplan!C54, "")</f>
-        <v/>
+        <v>AF "Zufälligen Dozent ohne Zeitpräferenz laden" definieren und spezifizieren</v>
       </c>
       <c r="E55" s="22" t="str">
         <f>IF(Aufwandsplan!D54&lt;&gt;0, Aufwandsplan!D54, "")</f>
         <v/>
       </c>
-      <c r="F55" s="22" t="str">
+      <c r="F55" s="22">
         <f>IF(Aufwandsplan!E54&lt;&gt;0, Aufwandsplan!E54, "")</f>
-        <v/>
-      </c>
-      <c r="G55" s="24" t="str">
+        <v>2</v>
+      </c>
+      <c r="G55" s="22">
         <f>IF(Aufwandsplan!F54&lt;&gt;0, Aufwandsplan!F54, "")</f>
-        <v/>
+        <v>-2</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="1"/>
@@ -7019,32 +7286,35 @@
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="str">
         <f>IF(Aufwandsplan!A55&lt;&gt;0, Aufwandsplan!A55, "")</f>
-        <v>E1.1</v>
-      </c>
-      <c r="B56" s="22" t="s">
+        <v>E1</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C56" s="22" t="str">
         <f>IF(Aufwandsplan!B55&lt;&gt;0, Aufwandsplan!B55, "")</f>
-        <v/>
+        <v>GUI Entwürfe</v>
       </c>
       <c r="D56" s="22" t="str">
         <f>IF(Aufwandsplan!C55&lt;&gt;0, Aufwandsplan!C55, "")</f>
-        <v>Entwurf Maske "Eingabe Zeiten"</v>
-      </c>
-      <c r="E56" s="22">
+        <v/>
+      </c>
+      <c r="E56" s="22" t="str">
         <f>IF(Aufwandsplan!D55&lt;&gt;0, Aufwandsplan!D55, "")</f>
-        <v>8</v>
-      </c>
-      <c r="F56" s="22">
+        <v/>
+      </c>
+      <c r="F56" s="22" t="str">
         <f>IF(Aufwandsplan!E55&lt;&gt;0, Aufwandsplan!E55, "")</f>
-        <v>8</v>
-      </c>
-      <c r="G56" s="24" t="str">
+        <v/>
+      </c>
+      <c r="G56" s="22" t="str">
         <f>IF(Aufwandsplan!F55&lt;&gt;0, Aufwandsplan!F55, "")</f>
         <v/>
       </c>
@@ -7066,22 +7336,23 @@
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="str">
         <f>IF(Aufwandsplan!A56&lt;&gt;0, Aufwandsplan!A56, "")</f>
-        <v>E1.2</v>
-      </c>
-      <c r="B57" s="22" t="s">
-        <v>132</v>
-      </c>
+        <v>E1.1</v>
+      </c>
+      <c r="B57" s="1"/>
       <c r="C57" s="22" t="str">
         <f>IF(Aufwandsplan!B56&lt;&gt;0, Aufwandsplan!B56, "")</f>
         <v/>
       </c>
       <c r="D57" s="22" t="str">
         <f>IF(Aufwandsplan!C56&lt;&gt;0, Aufwandsplan!C56, "")</f>
-        <v>Entwurf Maske "Stundenplan anzeigen"</v>
+        <v>Entwurf Maske "Eingabe Zeiten"</v>
       </c>
       <c r="E57" s="22">
         <f>IF(Aufwandsplan!D56&lt;&gt;0, Aufwandsplan!D56, "")</f>
@@ -7091,7 +7362,7 @@
         <f>IF(Aufwandsplan!E56&lt;&gt;0, Aufwandsplan!E56, "")</f>
         <v>8</v>
       </c>
-      <c r="G57" s="24" t="str">
+      <c r="G57" s="22" t="str">
         <f>IF(Aufwandsplan!F56&lt;&gt;0, Aufwandsplan!F56, "")</f>
         <v/>
       </c>
@@ -7112,34 +7383,35 @@
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="str">
         <f>IF(Aufwandsplan!A57&lt;&gt;0, Aufwandsplan!A57, "")</f>
-        <v>E1.3</v>
-      </c>
-      <c r="B58" s="22" t="s">
-        <v>132</v>
-      </c>
+        <v>E1.2</v>
+      </c>
+      <c r="B58" s="1"/>
       <c r="C58" s="22" t="str">
         <f>IF(Aufwandsplan!B57&lt;&gt;0, Aufwandsplan!B57, "")</f>
         <v/>
       </c>
       <c r="D58" s="22" t="str">
         <f>IF(Aufwandsplan!C57&lt;&gt;0, Aufwandsplan!C57, "")</f>
-        <v>Entwurf "restl. Masken" (Menü, Stundenplan berechnen)</v>
+        <v>Entwurf Maske "Stundenplan anzeigen"</v>
       </c>
       <c r="E58" s="22">
         <f>IF(Aufwandsplan!D57&lt;&gt;0, Aufwandsplan!D57, "")</f>
         <v>8</v>
       </c>
-      <c r="F58" s="22" t="str">
+      <c r="F58" s="22">
         <f>IF(Aufwandsplan!E57&lt;&gt;0, Aufwandsplan!E57, "")</f>
-        <v/>
-      </c>
-      <c r="G58" s="24">
+        <v>8</v>
+      </c>
+      <c r="G58" s="22" t="str">
         <f>IF(Aufwandsplan!F57&lt;&gt;0, Aufwandsplan!F57, "")</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="1"/>
@@ -7160,34 +7432,35 @@
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="str">
         <f>IF(Aufwandsplan!A58&lt;&gt;0, Aufwandsplan!A58, "")</f>
-        <v>F1</v>
-      </c>
-      <c r="B59" s="22" t="s">
-        <v>133</v>
-      </c>
+        <v>E1.3</v>
+      </c>
+      <c r="B59" s="1"/>
       <c r="C59" s="22" t="str">
         <f>IF(Aufwandsplan!B58&lt;&gt;0, Aufwandsplan!B58, "")</f>
-        <v>Implementierung Datenhaltung</v>
+        <v/>
       </c>
       <c r="D59" s="22" t="str">
         <f>IF(Aufwandsplan!C58&lt;&gt;0, Aufwandsplan!C58, "")</f>
-        <v/>
-      </c>
-      <c r="E59" s="22" t="str">
+        <v>Entwurf "restl. Masken" (Menü, Stundenplan berechnen)</v>
+      </c>
+      <c r="E59" s="22">
         <f>IF(Aufwandsplan!D58&lt;&gt;0, Aufwandsplan!D58, "")</f>
-        <v/>
-      </c>
-      <c r="F59" s="22" t="str">
+        <v>8</v>
+      </c>
+      <c r="F59" s="22">
         <f>IF(Aufwandsplan!E58&lt;&gt;0, Aufwandsplan!E58, "")</f>
-        <v/>
-      </c>
-      <c r="G59" s="24" t="str">
+        <v>6</v>
+      </c>
+      <c r="G59" s="22">
         <f>IF(Aufwandsplan!F58&lt;&gt;0, Aufwandsplan!F58, "")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="H59" s="7"/>
       <c r="I59" s="1"/>
@@ -7197,38 +7470,41 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
-      <c r="P59" s="26"/>
-      <c r="R59" s="30"/>
+      <c r="P59" s="25"/>
+      <c r="R59" s="29"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="str">
         <f>IF(Aufwandsplan!A59&lt;&gt;0, Aufwandsplan!A59, "")</f>
-        <v>F1.1</v>
-      </c>
-      <c r="B60" s="22" t="s">
+        <v>F1</v>
+      </c>
+      <c r="B60" s="17" t="s">
         <v>133</v>
       </c>
       <c r="C60" s="22" t="str">
         <f>IF(Aufwandsplan!B59&lt;&gt;0, Aufwandsplan!B59, "")</f>
-        <v/>
+        <v>Implementierung Datenhaltung</v>
       </c>
       <c r="D60" s="22" t="str">
         <f>IF(Aufwandsplan!C59&lt;&gt;0, Aufwandsplan!C59, "")</f>
-        <v>Datenbank</v>
-      </c>
-      <c r="E60" s="22">
+        <v/>
+      </c>
+      <c r="E60" s="22" t="str">
         <f>IF(Aufwandsplan!D59&lt;&gt;0, Aufwandsplan!D59, "")</f>
-        <v>15</v>
-      </c>
-      <c r="F60" s="22">
+        <v/>
+      </c>
+      <c r="F60" s="22" t="str">
         <f>IF(Aufwandsplan!E59&lt;&gt;0, Aufwandsplan!E59, "")</f>
-        <v>15</v>
-      </c>
-      <c r="G60" s="24" t="str">
+        <v/>
+      </c>
+      <c r="G60" s="22" t="str">
         <f>IF(Aufwandsplan!F59&lt;&gt;0, Aufwandsplan!F59, "")</f>
         <v/>
       </c>
@@ -7248,37 +7524,38 @@
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
-      <c r="T60" s="28"/>
+      <c r="T60" s="27"/>
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="str">
         <f>IF(Aufwandsplan!A60&lt;&gt;0, Aufwandsplan!A60, "")</f>
-        <v>F1.2</v>
-      </c>
-      <c r="B61" s="22" t="s">
-        <v>133</v>
-      </c>
+        <v>F1.1</v>
+      </c>
+      <c r="B61" s="1"/>
       <c r="C61" s="22" t="str">
         <f>IF(Aufwandsplan!B60&lt;&gt;0, Aufwandsplan!B60, "")</f>
         <v/>
       </c>
       <c r="D61" s="22" t="str">
         <f>IF(Aufwandsplan!C60&lt;&gt;0, Aufwandsplan!C60, "")</f>
-        <v>Zugriff</v>
+        <v>Datenbank/JBOSS</v>
       </c>
       <c r="E61" s="22">
         <f>IF(Aufwandsplan!D60&lt;&gt;0, Aufwandsplan!D60, "")</f>
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F61" s="22">
         <f>IF(Aufwandsplan!E60&lt;&gt;0, Aufwandsplan!E60, "")</f>
-        <v>12</v>
-      </c>
-      <c r="G61" s="24">
+        <v>15</v>
+      </c>
+      <c r="G61" s="22" t="str">
         <f>IF(Aufwandsplan!F60&lt;&gt;0, Aufwandsplan!F60, "")</f>
-        <v>22</v>
+        <v/>
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="1"/>
@@ -7297,34 +7574,35 @@
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="str">
         <f>IF(Aufwandsplan!A61&lt;&gt;0, Aufwandsplan!A61, "")</f>
-        <v>F2</v>
-      </c>
-      <c r="B62" s="22" t="s">
-        <v>133</v>
-      </c>
+        <v>F1.2</v>
+      </c>
+      <c r="B62" s="1"/>
       <c r="C62" s="22" t="str">
         <f>IF(Aufwandsplan!B61&lt;&gt;0, Aufwandsplan!B61, "")</f>
-        <v>Implementierung Anwendungskern</v>
+        <v/>
       </c>
       <c r="D62" s="22" t="str">
         <f>IF(Aufwandsplan!C61&lt;&gt;0, Aufwandsplan!C61, "")</f>
-        <v/>
-      </c>
-      <c r="E62" s="22" t="str">
+        <v>Zugriff</v>
+      </c>
+      <c r="E62" s="22">
         <f>IF(Aufwandsplan!D61&lt;&gt;0, Aufwandsplan!D61, "")</f>
-        <v/>
-      </c>
-      <c r="F62" s="22" t="str">
+        <v>34</v>
+      </c>
+      <c r="F62" s="22">
         <f>IF(Aufwandsplan!E61&lt;&gt;0, Aufwandsplan!E61, "")</f>
-        <v/>
-      </c>
-      <c r="G62" s="24" t="str">
+        <v>12</v>
+      </c>
+      <c r="G62" s="22">
         <f>IF(Aufwandsplan!F61&lt;&gt;0, Aufwandsplan!F61, "")</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="1"/>
@@ -7335,37 +7613,38 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
-      <c r="R62" s="26"/>
+      <c r="R62" s="25"/>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="str">
         <f>IF(Aufwandsplan!A62&lt;&gt;0, Aufwandsplan!A62, "")</f>
-        <v>F2.1</v>
-      </c>
-      <c r="B63" s="22" t="s">
-        <v>133</v>
-      </c>
+        <v>F2</v>
+      </c>
+      <c r="B63" s="1"/>
       <c r="C63" s="22" t="str">
         <f>IF(Aufwandsplan!B62&lt;&gt;0, Aufwandsplan!B62, "")</f>
-        <v/>
+        <v>Implementierung Anwendungskern</v>
       </c>
       <c r="D63" s="22" t="str">
         <f>IF(Aufwandsplan!C62&lt;&gt;0, Aufwandsplan!C62, "")</f>
-        <v>Implementierung UseCase "Zeitpraeferenzen der Dozenten erfassen"</v>
-      </c>
-      <c r="E63" s="22">
+        <v/>
+      </c>
+      <c r="E63" s="22" t="str">
         <f>IF(Aufwandsplan!D62&lt;&gt;0, Aufwandsplan!D62, "")</f>
-        <v>12</v>
-      </c>
-      <c r="F63" s="22">
+        <v/>
+      </c>
+      <c r="F63" s="22" t="str">
         <f>IF(Aufwandsplan!E62&lt;&gt;0, Aufwandsplan!E62, "")</f>
-        <v>12</v>
-      </c>
-      <c r="G63" s="24" t="str">
+        <v/>
+      </c>
+      <c r="G63" s="22" t="str">
         <f>IF(Aufwandsplan!F62&lt;&gt;0, Aufwandsplan!F62, "")</f>
         <v/>
       </c>
@@ -7386,22 +7665,23 @@
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="str">
         <f>IF(Aufwandsplan!A63&lt;&gt;0, Aufwandsplan!A63, "")</f>
-        <v>F2.2</v>
-      </c>
-      <c r="B64" s="22" t="s">
-        <v>133</v>
-      </c>
+        <v>F2.1</v>
+      </c>
+      <c r="B64"/>
       <c r="C64" s="22" t="str">
         <f>IF(Aufwandsplan!B63&lt;&gt;0, Aufwandsplan!B63, "")</f>
         <v/>
       </c>
       <c r="D64" s="22" t="str">
         <f>IF(Aufwandsplan!C63&lt;&gt;0, Aufwandsplan!C63, "")</f>
-        <v>Implementierung UseCase "Stundenplan erstellen"</v>
+        <v>Implementierung UseCase "Zeitpraeferenzen der Dozenten erfassen"</v>
       </c>
       <c r="E64" s="22">
         <f>IF(Aufwandsplan!D63&lt;&gt;0, Aufwandsplan!D63, "")</f>
@@ -7411,7 +7691,7 @@
         <f>IF(Aufwandsplan!E63&lt;&gt;0, Aufwandsplan!E63, "")</f>
         <v>12</v>
       </c>
-      <c r="G64" s="24" t="str">
+      <c r="G64" s="22" t="str">
         <f>IF(Aufwandsplan!F63&lt;&gt;0, Aufwandsplan!F63, "")</f>
         <v/>
       </c>
@@ -7432,34 +7712,35 @@
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="str">
         <f>IF(Aufwandsplan!A64&lt;&gt;0, Aufwandsplan!A64, "")</f>
-        <v>F2.3</v>
-      </c>
-      <c r="B65" s="22" t="s">
-        <v>133</v>
-      </c>
+        <v>F2.2</v>
+      </c>
+      <c r="B65" s="1"/>
       <c r="C65" s="22" t="str">
         <f>IF(Aufwandsplan!B64&lt;&gt;0, Aufwandsplan!B64, "")</f>
         <v/>
       </c>
       <c r="D65" s="22" t="str">
         <f>IF(Aufwandsplan!C64&lt;&gt;0, Aufwandsplan!C64, "")</f>
-        <v>Implementierung UseCase "Stundenplan anzeigen"</v>
+        <v>Implementierung UseCase "Stundenplan erstellen"</v>
       </c>
       <c r="E65" s="22">
         <f>IF(Aufwandsplan!D64&lt;&gt;0, Aufwandsplan!D64, "")</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F65" s="22">
         <f>IF(Aufwandsplan!E64&lt;&gt;0, Aufwandsplan!E64, "")</f>
-        <v>12</v>
-      </c>
-      <c r="G65" s="24" t="str">
+        <v>43</v>
+      </c>
+      <c r="G65" s="22">
         <f>IF(Aufwandsplan!F64&lt;&gt;0, Aufwandsplan!F64, "")</f>
-        <v/>
+        <v>-23</v>
       </c>
       <c r="H65" s="7"/>
       <c r="I65" s="1"/>
@@ -7478,22 +7759,23 @@
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="str">
         <f>IF(Aufwandsplan!A65&lt;&gt;0, Aufwandsplan!A65, "")</f>
-        <v>F2.4</v>
-      </c>
-      <c r="B66" s="22" t="s">
-        <v>133</v>
-      </c>
+        <v>F2.3</v>
+      </c>
+      <c r="B66" s="1"/>
       <c r="C66" s="22" t="str">
         <f>IF(Aufwandsplan!B65&lt;&gt;0, Aufwandsplan!B65, "")</f>
         <v/>
       </c>
       <c r="D66" s="22" t="str">
         <f>IF(Aufwandsplan!C65&lt;&gt;0, Aufwandsplan!C65, "")</f>
-        <v>Application Function "Zeiten Speichern" implementieren</v>
+        <v>Implementierung UseCase "Stundenplan anzeigen"</v>
       </c>
       <c r="E66" s="22">
         <f>IF(Aufwandsplan!D65&lt;&gt;0, Aufwandsplan!D65, "")</f>
@@ -7501,11 +7783,11 @@
       </c>
       <c r="F66" s="22">
         <f>IF(Aufwandsplan!E65&lt;&gt;0, Aufwandsplan!E65, "")</f>
-        <v>12</v>
-      </c>
-      <c r="G66" s="24" t="str">
+        <v>11</v>
+      </c>
+      <c r="G66" s="22">
         <f>IF(Aufwandsplan!F65&lt;&gt;0, Aufwandsplan!F65, "")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H66" s="7"/>
       <c r="I66" s="1"/>
@@ -7524,32 +7806,33 @@
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="str">
         <f>IF(Aufwandsplan!A66&lt;&gt;0, Aufwandsplan!A66, "")</f>
-        <v>F2.5</v>
-      </c>
-      <c r="B67" s="22" t="s">
-        <v>133</v>
-      </c>
+        <v>F2.4</v>
+      </c>
+      <c r="B67" s="1"/>
       <c r="C67" s="22" t="str">
         <f>IF(Aufwandsplan!B66&lt;&gt;0, Aufwandsplan!B66, "")</f>
         <v/>
       </c>
       <c r="D67" s="22" t="str">
         <f>IF(Aufwandsplan!C66&lt;&gt;0, Aufwandsplan!C66, "")</f>
-        <v>Application Function "Zeitpraeferenzen bereitstellen" implementieren</v>
+        <v>Implementierung UseCase "Stundenplan löschen"</v>
       </c>
       <c r="E67" s="22">
         <f>IF(Aufwandsplan!D66&lt;&gt;0, Aufwandsplan!D66, "")</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F67" s="22">
         <f>IF(Aufwandsplan!E66&lt;&gt;0, Aufwandsplan!E66, "")</f>
-        <v>12</v>
-      </c>
-      <c r="G67" s="24" t="str">
+        <v>5</v>
+      </c>
+      <c r="G67" s="22" t="str">
         <f>IF(Aufwandsplan!F66&lt;&gt;0, Aufwandsplan!F66, "")</f>
         <v/>
       </c>
@@ -7570,22 +7853,23 @@
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="str">
         <f>IF(Aufwandsplan!A67&lt;&gt;0, Aufwandsplan!A67, "")</f>
-        <v>F2.6</v>
-      </c>
-      <c r="B68" s="22" t="s">
-        <v>133</v>
-      </c>
+        <v>F2.5</v>
+      </c>
+      <c r="B68" s="1"/>
       <c r="C68" s="22" t="str">
         <f>IF(Aufwandsplan!B67&lt;&gt;0, Aufwandsplan!B67, "")</f>
         <v/>
       </c>
       <c r="D68" s="22" t="str">
         <f>IF(Aufwandsplan!C67&lt;&gt;0, Aufwandsplan!C67, "")</f>
-        <v>Application Function "Dozentenliste bereitstellen"  implementieren</v>
+        <v>AF "Zeiten Speichern" implementieren</v>
       </c>
       <c r="E68" s="22">
         <f>IF(Aufwandsplan!D67&lt;&gt;0, Aufwandsplan!D67, "")</f>
@@ -7593,11 +7877,11 @@
       </c>
       <c r="F68" s="22">
         <f>IF(Aufwandsplan!E67&lt;&gt;0, Aufwandsplan!E67, "")</f>
-        <v>2</v>
-      </c>
-      <c r="G68" s="24">
+        <v>12</v>
+      </c>
+      <c r="G68" s="22" t="str">
         <f>IF(Aufwandsplan!F67&lt;&gt;0, Aufwandsplan!F67, "")</f>
-        <v>10</v>
+        <v/>
       </c>
       <c r="H68" s="7"/>
       <c r="I68" s="1"/>
@@ -7616,34 +7900,35 @@
       </c>
       <c r="U68" s="1"/>
       <c r="V68" s="1"/>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="str">
         <f>IF(Aufwandsplan!A68&lt;&gt;0, Aufwandsplan!A68, "")</f>
-        <v>F2.7</v>
-      </c>
-      <c r="B69" s="22" t="s">
-        <v>133</v>
-      </c>
+        <v>F2.6</v>
+      </c>
+      <c r="B69" s="1"/>
       <c r="C69" s="22" t="str">
         <f>IF(Aufwandsplan!B68&lt;&gt;0, Aufwandsplan!B68, "")</f>
         <v/>
       </c>
       <c r="D69" s="22" t="str">
         <f>IF(Aufwandsplan!C68&lt;&gt;0, Aufwandsplan!C68, "")</f>
-        <v>Application Function "Dozent bereitstellen" d implementieren</v>
+        <v>AF "Zeitpraeferenzen löschen" implementieren</v>
       </c>
       <c r="E69" s="22">
         <f>IF(Aufwandsplan!D68&lt;&gt;0, Aufwandsplan!D68, "")</f>
         <v>12</v>
       </c>
-      <c r="F69" s="22" t="str">
+      <c r="F69" s="22">
         <f>IF(Aufwandsplan!E68&lt;&gt;0, Aufwandsplan!E68, "")</f>
-        <v/>
-      </c>
-      <c r="G69" s="24">
+        <v>12</v>
+      </c>
+      <c r="G69" s="22" t="str">
         <f>IF(Aufwandsplan!F68&lt;&gt;0, Aufwandsplan!F68, "")</f>
-        <v>12</v>
+        <v/>
       </c>
       <c r="H69" s="7"/>
       <c r="I69" s="1"/>
@@ -7662,34 +7947,35 @@
       </c>
       <c r="U69" s="1"/>
       <c r="V69" s="1"/>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="str">
         <f>IF(Aufwandsplan!A69&lt;&gt;0, Aufwandsplan!A69, "")</f>
-        <v>F2.8</v>
-      </c>
-      <c r="B70" s="22" t="s">
-        <v>133</v>
-      </c>
+        <v>F2.7</v>
+      </c>
+      <c r="B70" s="1"/>
       <c r="C70" s="22" t="str">
         <f>IF(Aufwandsplan!B69&lt;&gt;0, Aufwandsplan!B69, "")</f>
         <v/>
       </c>
       <c r="D70" s="22" t="str">
         <f>IF(Aufwandsplan!C69&lt;&gt;0, Aufwandsplan!C69, "")</f>
-        <v>Application Function "Stundenplan speichern" implementieren</v>
+        <v>AF "Dozentenliste anzeigen" implementieren</v>
       </c>
       <c r="E70" s="22">
         <f>IF(Aufwandsplan!D69&lt;&gt;0, Aufwandsplan!D69, "")</f>
         <v>12</v>
       </c>
-      <c r="F70" s="22" t="str">
+      <c r="F70" s="22">
         <f>IF(Aufwandsplan!E69&lt;&gt;0, Aufwandsplan!E69, "")</f>
-        <v/>
-      </c>
-      <c r="G70" s="24">
+        <v>2</v>
+      </c>
+      <c r="G70" s="22">
         <f>IF(Aufwandsplan!F69&lt;&gt;0, Aufwandsplan!F69, "")</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H70" s="7"/>
       <c r="I70" s="1"/>
@@ -7708,34 +7994,35 @@
       </c>
       <c r="U70" s="1"/>
       <c r="V70" s="1"/>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="str">
         <f>IF(Aufwandsplan!A70&lt;&gt;0, Aufwandsplan!A70, "")</f>
-        <v>F2.9</v>
-      </c>
-      <c r="B71" s="22" t="s">
-        <v>133</v>
-      </c>
+        <v>F2.8</v>
+      </c>
+      <c r="B71" s="1"/>
       <c r="C71" s="22" t="str">
         <f>IF(Aufwandsplan!B70&lt;&gt;0, Aufwandsplan!B70, "")</f>
         <v/>
       </c>
       <c r="D71" s="22" t="str">
         <f>IF(Aufwandsplan!C70&lt;&gt;0, Aufwandsplan!C70, "")</f>
-        <v>Application Function "Stundenplan berechnen" implementieren</v>
-      </c>
-      <c r="E71" s="22">
+        <v>AF "Existenz einer Planung prüfen" implementieren</v>
+      </c>
+      <c r="E71" s="22" t="str">
         <f>IF(Aufwandsplan!D70&lt;&gt;0, Aufwandsplan!D70, "")</f>
-        <v>22</v>
+        <v/>
       </c>
       <c r="F71" s="22">
         <f>IF(Aufwandsplan!E70&lt;&gt;0, Aufwandsplan!E70, "")</f>
-        <v>20</v>
-      </c>
-      <c r="G71" s="24">
+        <v>11</v>
+      </c>
+      <c r="G71" s="22">
         <f>IF(Aufwandsplan!F70&lt;&gt;0, Aufwandsplan!F70, "")</f>
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="1"/>
@@ -7756,34 +8043,35 @@
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
       <c r="V71" s="1"/>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="str">
         <f>IF(Aufwandsplan!A71&lt;&gt;0, Aufwandsplan!A71, "")</f>
-        <v>F2.10</v>
-      </c>
-      <c r="B72" s="22" t="s">
-        <v>133</v>
-      </c>
+        <v>F2.9</v>
+      </c>
+      <c r="B72" s="1"/>
       <c r="C72" s="22" t="str">
         <f>IF(Aufwandsplan!B71&lt;&gt;0, Aufwandsplan!B71, "")</f>
         <v/>
       </c>
       <c r="D72" s="22" t="str">
         <f>IF(Aufwandsplan!C71&lt;&gt;0, Aufwandsplan!C71, "")</f>
-        <v>Application Function "Stundenplan optimieren" implementieren</v>
+        <v>AF "Stundenplan speichern" implementieren</v>
       </c>
       <c r="E72" s="22">
         <f>IF(Aufwandsplan!D71&lt;&gt;0, Aufwandsplan!D71, "")</f>
-        <v>22</v>
-      </c>
-      <c r="F72" s="22" t="str">
+        <v>12</v>
+      </c>
+      <c r="F72" s="22">
         <f>IF(Aufwandsplan!E71&lt;&gt;0, Aufwandsplan!E71, "")</f>
-        <v/>
-      </c>
-      <c r="G72" s="24">
+        <v>12</v>
+      </c>
+      <c r="G72" s="22" t="str">
         <f>IF(Aufwandsplan!F71&lt;&gt;0, Aufwandsplan!F71, "")</f>
-        <v>22</v>
+        <v/>
       </c>
       <c r="H72" s="7"/>
       <c r="I72" s="1"/>
@@ -7800,34 +8088,35 @@
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
       <c r="V72" s="1"/>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="1"/>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="str">
         <f>IF(Aufwandsplan!A72&lt;&gt;0, Aufwandsplan!A72, "")</f>
-        <v>F2.11</v>
-      </c>
-      <c r="B73" s="22" t="s">
-        <v>133</v>
-      </c>
+        <v>F2.10</v>
+      </c>
+      <c r="B73" s="1"/>
       <c r="C73" s="22" t="str">
         <f>IF(Aufwandsplan!B72&lt;&gt;0, Aufwandsplan!B72, "")</f>
         <v/>
       </c>
       <c r="D73" s="22" t="str">
         <f>IF(Aufwandsplan!C72&lt;&gt;0, Aufwandsplan!C72, "")</f>
-        <v>Application Function "Stundenplan anzeigen"  implementieren</v>
+        <v>AF "Stundenplan erstellen" implementieren</v>
       </c>
       <c r="E73" s="22">
         <f>IF(Aufwandsplan!D72&lt;&gt;0, Aufwandsplan!D72, "")</f>
-        <v>12</v>
-      </c>
-      <c r="F73" s="22" t="str">
+        <v>22</v>
+      </c>
+      <c r="F73" s="22">
         <f>IF(Aufwandsplan!E72&lt;&gt;0, Aufwandsplan!E72, "")</f>
-        <v/>
-      </c>
-      <c r="G73" s="24">
+        <v>57</v>
+      </c>
+      <c r="G73" s="22">
         <f>IF(Aufwandsplan!F72&lt;&gt;0, Aufwandsplan!F72, "")</f>
-        <v>12</v>
+        <v>-35</v>
       </c>
       <c r="H73" s="7"/>
       <c r="I73" s="1"/>
@@ -7846,34 +8135,35 @@
       </c>
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W73" s="1"/>
+      <c r="X73" s="1"/>
+      <c r="Y73" s="1"/>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="str">
         <f>IF(Aufwandsplan!A73&lt;&gt;0, Aufwandsplan!A73, "")</f>
-        <v>F2.12</v>
-      </c>
-      <c r="B74" s="22" t="s">
-        <v>133</v>
-      </c>
+        <v>F2.11</v>
+      </c>
+      <c r="B74" s="1"/>
       <c r="C74" s="22" t="str">
         <f>IF(Aufwandsplan!B73&lt;&gt;0, Aufwandsplan!B73, "")</f>
         <v/>
       </c>
       <c r="D74" s="22" t="str">
         <f>IF(Aufwandsplan!C73&lt;&gt;0, Aufwandsplan!C73, "")</f>
-        <v>Application Function "Studiengaenge bereitstellen" implementieren</v>
-      </c>
-      <c r="E74" s="22">
+        <v>AF "Stundenplanung löschen" implementieren</v>
+      </c>
+      <c r="E74" s="22" t="str">
         <f>IF(Aufwandsplan!D73&lt;&gt;0, Aufwandsplan!D73, "")</f>
-        <v>12</v>
-      </c>
-      <c r="F74" s="22" t="str">
+        <v/>
+      </c>
+      <c r="F74" s="22">
         <f>IF(Aufwandsplan!E73&lt;&gt;0, Aufwandsplan!E73, "")</f>
-        <v/>
-      </c>
-      <c r="G74" s="24">
+        <v>7</v>
+      </c>
+      <c r="G74" s="22">
         <f>IF(Aufwandsplan!F73&lt;&gt;0, Aufwandsplan!F73, "")</f>
-        <v>12</v>
+        <v>-7</v>
       </c>
       <c r="H74" s="7"/>
       <c r="I74" s="1"/>
@@ -7892,34 +8182,35 @@
         <v>217</v>
       </c>
       <c r="V74" s="1"/>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+      <c r="Y74" s="1"/>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="str">
         <f>IF(Aufwandsplan!A74&lt;&gt;0, Aufwandsplan!A74, "")</f>
-        <v>F2.13</v>
-      </c>
-      <c r="B75" s="22" t="s">
-        <v>133</v>
-      </c>
+        <v>F2.12</v>
+      </c>
+      <c r="B75"/>
       <c r="C75" s="22" t="str">
         <f>IF(Aufwandsplan!B74&lt;&gt;0, Aufwandsplan!B74, "")</f>
         <v/>
       </c>
       <c r="D75" s="22" t="str">
         <f>IF(Aufwandsplan!C74&lt;&gt;0, Aufwandsplan!C74, "")</f>
-        <v>Application Function "Dozentenmodule bereitstellen" implementieren</v>
+        <v>AF "Stundenplan anzeigen"  implementieren</v>
       </c>
       <c r="E75" s="22">
         <f>IF(Aufwandsplan!D74&lt;&gt;0, Aufwandsplan!D74, "")</f>
         <v>12</v>
       </c>
-      <c r="F75" s="22" t="str">
+      <c r="F75" s="22">
         <f>IF(Aufwandsplan!E74&lt;&gt;0, Aufwandsplan!E74, "")</f>
-        <v/>
-      </c>
-      <c r="G75" s="24">
+        <v>13</v>
+      </c>
+      <c r="G75" s="22">
         <f>IF(Aufwandsplan!F74&lt;&gt;0, Aufwandsplan!F74, "")</f>
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="H75" s="7"/>
       <c r="I75" s="1"/>
@@ -7938,34 +8229,35 @@
         <v>87</v>
       </c>
       <c r="V75" s="1"/>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+      <c r="Y75" s="1"/>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="str">
         <f>IF(Aufwandsplan!A75&lt;&gt;0, Aufwandsplan!A75, "")</f>
-        <v>F2.14</v>
-      </c>
-      <c r="B76" s="22" t="s">
-        <v>133</v>
-      </c>
+        <v>F2.13</v>
+      </c>
+      <c r="B76" s="1"/>
       <c r="C76" s="22" t="str">
         <f>IF(Aufwandsplan!B75&lt;&gt;0, Aufwandsplan!B75, "")</f>
         <v/>
       </c>
       <c r="D76" s="22" t="str">
         <f>IF(Aufwandsplan!C75&lt;&gt;0, Aufwandsplan!C75, "")</f>
-        <v>Application Function "Räume bereitstellen" implementieren</v>
+        <v>AF "Zufallsliste der Studiengänge erstellen" implementieren</v>
       </c>
       <c r="E76" s="22" t="str">
         <f>IF(Aufwandsplan!D75&lt;&gt;0, Aufwandsplan!D75, "")</f>
         <v/>
       </c>
-      <c r="F76" s="22" t="str">
+      <c r="F76" s="22">
         <f>IF(Aufwandsplan!E75&lt;&gt;0, Aufwandsplan!E75, "")</f>
-        <v/>
-      </c>
-      <c r="G76" s="24" t="str">
+        <v>8</v>
+      </c>
+      <c r="G76" s="22">
         <f>IF(Aufwandsplan!F75&lt;&gt;0, Aufwandsplan!F75, "")</f>
-        <v/>
+        <v>-8</v>
       </c>
       <c r="H76" s="7"/>
       <c r="I76" s="1"/>
@@ -7984,34 +8276,35 @@
         <v>116</v>
       </c>
       <c r="V76" s="1"/>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+      <c r="Y76" s="1"/>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="str">
         <f>IF(Aufwandsplan!A76&lt;&gt;0, Aufwandsplan!A76, "")</f>
-        <v>F2.15</v>
-      </c>
-      <c r="B77" s="22" t="s">
-        <v>133</v>
-      </c>
+        <v>F2.14</v>
+      </c>
+      <c r="B77" s="1"/>
       <c r="C77" s="22" t="str">
         <f>IF(Aufwandsplan!B76&lt;&gt;0, Aufwandsplan!B76, "")</f>
         <v/>
       </c>
       <c r="D77" s="22" t="str">
         <f>IF(Aufwandsplan!C76&lt;&gt;0, Aufwandsplan!C76, "")</f>
-        <v>Application Function "Zufälligen Dozent mit Zeitpräferenz laden" implementieren</v>
-      </c>
-      <c r="E77" s="22" t="str">
+        <v>AF "Urplan auf Vollständigkeit prüfen" implementieren</v>
+      </c>
+      <c r="E77" s="22">
         <f>IF(Aufwandsplan!D76&lt;&gt;0, Aufwandsplan!D76, "")</f>
-        <v/>
-      </c>
-      <c r="F77" s="22" t="str">
+        <v>12</v>
+      </c>
+      <c r="F77" s="22">
         <f>IF(Aufwandsplan!E76&lt;&gt;0, Aufwandsplan!E76, "")</f>
-        <v/>
-      </c>
-      <c r="G77" s="24" t="str">
+        <v>16</v>
+      </c>
+      <c r="G77" s="22">
         <f>IF(Aufwandsplan!F76&lt;&gt;0, Aufwandsplan!F76, "")</f>
-        <v/>
+        <v>-4</v>
       </c>
       <c r="H77" s="7"/>
       <c r="I77" s="1"/>
@@ -8029,34 +8322,35 @@
         <v>116</v>
       </c>
       <c r="V77" s="1"/>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
+      <c r="Y77" s="1"/>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="str">
         <f>IF(Aufwandsplan!A77&lt;&gt;0, Aufwandsplan!A77, "")</f>
-        <v>F2.16</v>
-      </c>
-      <c r="B78" s="22" t="s">
-        <v>133</v>
-      </c>
+        <v>F2.15</v>
+      </c>
+      <c r="B78" s="1"/>
       <c r="C78" s="22" t="str">
         <f>IF(Aufwandsplan!B77&lt;&gt;0, Aufwandsplan!B77, "")</f>
         <v/>
       </c>
       <c r="D78" s="22" t="str">
         <f>IF(Aufwandsplan!C77&lt;&gt;0, Aufwandsplan!C77, "")</f>
-        <v>Application Function "Zufälliges Modul des Dozenten laden" implementieren</v>
+        <v>AF "Zufälligen Raum für gewähltes Modul laden" implementieren</v>
       </c>
       <c r="E78" s="22" t="str">
         <f>IF(Aufwandsplan!D77&lt;&gt;0, Aufwandsplan!D77, "")</f>
         <v/>
       </c>
-      <c r="F78" s="22" t="str">
+      <c r="F78" s="22">
         <f>IF(Aufwandsplan!E77&lt;&gt;0, Aufwandsplan!E77, "")</f>
-        <v/>
-      </c>
-      <c r="G78" s="24" t="str">
+        <v>15</v>
+      </c>
+      <c r="G78" s="22">
         <f>IF(Aufwandsplan!F77&lt;&gt;0, Aufwandsplan!F77, "")</f>
-        <v/>
+        <v>-15</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -8073,34 +8367,35 @@
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="str">
         <f>IF(Aufwandsplan!A78&lt;&gt;0, Aufwandsplan!A78, "")</f>
-        <v>F2.17</v>
-      </c>
-      <c r="B79" s="22" t="s">
-        <v>133</v>
-      </c>
+        <v>F2.16</v>
+      </c>
+      <c r="B79" s="1"/>
       <c r="C79" s="22" t="str">
         <f>IF(Aufwandsplan!B78&lt;&gt;0, Aufwandsplan!B78, "")</f>
         <v/>
       </c>
       <c r="D79" s="22" t="str">
         <f>IF(Aufwandsplan!C78&lt;&gt;0, Aufwandsplan!C78, "")</f>
-        <v>Application Function "Zeitslotinformationen speichern" implementieren</v>
+        <v>AF "Zufälligen Dozent mit Zeitpräferenz laden" implementieren</v>
       </c>
       <c r="E79" s="22" t="str">
         <f>IF(Aufwandsplan!D78&lt;&gt;0, Aufwandsplan!D78, "")</f>
         <v/>
       </c>
-      <c r="F79" s="22" t="str">
+      <c r="F79" s="22">
         <f>IF(Aufwandsplan!E78&lt;&gt;0, Aufwandsplan!E78, "")</f>
-        <v/>
-      </c>
-      <c r="G79" s="24" t="str">
+        <v>12</v>
+      </c>
+      <c r="G79" s="22">
         <f>IF(Aufwandsplan!F78&lt;&gt;0, Aufwandsplan!F78, "")</f>
-        <v/>
+        <v>-12</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -8117,34 +8412,35 @@
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
       <c r="V79" s="1"/>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+      <c r="Y79" s="1"/>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="str">
         <f>IF(Aufwandsplan!A79&lt;&gt;0, Aufwandsplan!A79, "")</f>
-        <v>F2.18</v>
-      </c>
-      <c r="B80" s="22" t="s">
-        <v>133</v>
-      </c>
+        <v>F2.17</v>
+      </c>
+      <c r="B80" s="1"/>
       <c r="C80" s="22" t="str">
         <f>IF(Aufwandsplan!B79&lt;&gt;0, Aufwandsplan!B79, "")</f>
         <v/>
       </c>
       <c r="D80" s="22" t="str">
         <f>IF(Aufwandsplan!C79&lt;&gt;0, Aufwandsplan!C79, "")</f>
-        <v>Application Function "Zeitslot des Dozenten sperren" implementieren</v>
+        <v>AF "Zufälliges Modul des Dozenten laden" implementieren</v>
       </c>
       <c r="E80" s="22" t="str">
         <f>IF(Aufwandsplan!D79&lt;&gt;0, Aufwandsplan!D79, "")</f>
         <v/>
       </c>
-      <c r="F80" s="22" t="str">
+      <c r="F80" s="22">
         <f>IF(Aufwandsplan!E79&lt;&gt;0, Aufwandsplan!E79, "")</f>
-        <v/>
-      </c>
-      <c r="G80" s="24" t="str">
+        <v>15</v>
+      </c>
+      <c r="G80" s="22">
         <f>IF(Aufwandsplan!F79&lt;&gt;0, Aufwandsplan!F79, "")</f>
-        <v/>
+        <v>-15</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -8161,34 +8457,35 @@
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
       <c r="V80" s="1"/>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+      <c r="Y80" s="1"/>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="str">
         <f>IF(Aufwandsplan!A80&lt;&gt;0, Aufwandsplan!A80, "")</f>
-        <v>F2.19</v>
-      </c>
-      <c r="B81" s="22" t="s">
-        <v>133</v>
-      </c>
+        <v>F2.18</v>
+      </c>
+      <c r="B81" s="1"/>
       <c r="C81" s="22" t="str">
         <f>IF(Aufwandsplan!B80&lt;&gt;0, Aufwandsplan!B80, "")</f>
         <v/>
       </c>
       <c r="D81" s="22" t="str">
         <f>IF(Aufwandsplan!C80&lt;&gt;0, Aufwandsplan!C80, "")</f>
-        <v>Application Function "Modul als verplant speichern" implementieren</v>
-      </c>
-      <c r="E81" s="22" t="str">
+        <v>AF "Zeitslotinformationen sichern" implementieren</v>
+      </c>
+      <c r="E81" s="22">
         <f>IF(Aufwandsplan!D80&lt;&gt;0, Aufwandsplan!D80, "")</f>
-        <v/>
-      </c>
-      <c r="F81" s="22" t="str">
+        <v>12</v>
+      </c>
+      <c r="F81" s="22">
         <f>IF(Aufwandsplan!E80&lt;&gt;0, Aufwandsplan!E80, "")</f>
-        <v/>
-      </c>
-      <c r="G81" s="24" t="str">
+        <v>10</v>
+      </c>
+      <c r="G81" s="22">
         <f>IF(Aufwandsplan!F80&lt;&gt;0, Aufwandsplan!F80, "")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -8205,34 +8502,35 @@
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
       <c r="V81" s="1"/>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
+      <c r="Y81" s="1"/>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="str">
         <f>IF(Aufwandsplan!A81&lt;&gt;0, Aufwandsplan!A81, "")</f>
-        <v>F2.20</v>
-      </c>
-      <c r="B82" s="22" t="s">
-        <v>133</v>
-      </c>
+        <v>F2.19</v>
+      </c>
+      <c r="B82" s="1"/>
       <c r="C82" s="22" t="str">
         <f>IF(Aufwandsplan!B81&lt;&gt;0, Aufwandsplan!B81, "")</f>
         <v/>
       </c>
       <c r="D82" s="22" t="str">
         <f>IF(Aufwandsplan!C81&lt;&gt;0, Aufwandsplan!C81, "")</f>
-        <v>Application Function "Zufälligen Dozent ohne Zeitpräferenz laden" implementieren</v>
-      </c>
-      <c r="E82" s="22" t="str">
+        <v>AF "StundenplanSlot erstellen" implementieren</v>
+      </c>
+      <c r="E82" s="22">
         <f>IF(Aufwandsplan!D81&lt;&gt;0, Aufwandsplan!D81, "")</f>
-        <v/>
-      </c>
-      <c r="F82" s="22" t="str">
+        <v>12</v>
+      </c>
+      <c r="F82" s="22">
         <f>IF(Aufwandsplan!E81&lt;&gt;0, Aufwandsplan!E81, "")</f>
-        <v/>
-      </c>
-      <c r="G82" s="24" t="str">
+        <v>10</v>
+      </c>
+      <c r="G82" s="22">
         <f>IF(Aufwandsplan!F81&lt;&gt;0, Aufwandsplan!F81, "")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -8249,34 +8547,35 @@
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
       <c r="V82" s="1"/>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+      <c r="Y82" s="1"/>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="str">
         <f>IF(Aufwandsplan!A82&lt;&gt;0, Aufwandsplan!A82, "")</f>
-        <v>F3</v>
-      </c>
-      <c r="B83" s="22" t="s">
-        <v>133</v>
-      </c>
+        <v>F2.20</v>
+      </c>
+      <c r="B83" s="1"/>
       <c r="C83" s="22" t="str">
         <f>IF(Aufwandsplan!B82&lt;&gt;0, Aufwandsplan!B82, "")</f>
-        <v>Implementierung GUI</v>
+        <v/>
       </c>
       <c r="D83" s="22" t="str">
         <f>IF(Aufwandsplan!C82&lt;&gt;0, Aufwandsplan!C82, "")</f>
-        <v/>
-      </c>
-      <c r="E83" s="22" t="str">
+        <v>AF "Studiengang, StundenplanSlot und Zeitslot zum Urplan (Hahmap) hinzufügen" implementieren</v>
+      </c>
+      <c r="E83" s="22">
         <f>IF(Aufwandsplan!D82&lt;&gt;0, Aufwandsplan!D82, "")</f>
-        <v/>
-      </c>
-      <c r="F83" s="22" t="str">
+        <v>12</v>
+      </c>
+      <c r="F83" s="22">
         <f>IF(Aufwandsplan!E82&lt;&gt;0, Aufwandsplan!E82, "")</f>
-        <v/>
-      </c>
-      <c r="G83" s="24" t="str">
+        <v>13</v>
+      </c>
+      <c r="G83" s="22">
         <f>IF(Aufwandsplan!F82&lt;&gt;0, Aufwandsplan!F82, "")</f>
-        <v/>
+        <v>-1</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -8289,38 +8588,39 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
-      <c r="S83" s="26"/>
+      <c r="S83" s="25"/>
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
       <c r="V83" s="1"/>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="1"/>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="str">
         <f>IF(Aufwandsplan!A83&lt;&gt;0, Aufwandsplan!A83, "")</f>
-        <v>F3.1</v>
-      </c>
-      <c r="B84" s="22" t="s">
-        <v>133</v>
-      </c>
+        <v>F2.21</v>
+      </c>
+      <c r="B84" s="1"/>
       <c r="C84" s="22" t="str">
         <f>IF(Aufwandsplan!B83&lt;&gt;0, Aufwandsplan!B83, "")</f>
         <v/>
       </c>
       <c r="D84" s="22" t="str">
         <f>IF(Aufwandsplan!C83&lt;&gt;0, Aufwandsplan!C83, "")</f>
-        <v>Implementierung Maske "Eingabe Zeiten"</v>
-      </c>
-      <c r="E84" s="22">
+        <v>AF "Zufälligen Dozent ohne Zeitpräferenz laden" implementieren</v>
+      </c>
+      <c r="E84" s="22" t="str">
         <f>IF(Aufwandsplan!D83&lt;&gt;0, Aufwandsplan!D83, "")</f>
-        <v>25</v>
-      </c>
-      <c r="F84" s="22" t="str">
+        <v/>
+      </c>
+      <c r="F84" s="22">
         <f>IF(Aufwandsplan!E83&lt;&gt;0, Aufwandsplan!E83, "")</f>
-        <v/>
-      </c>
-      <c r="G84" s="24">
+        <v>8</v>
+      </c>
+      <c r="G84" s="22">
         <f>IF(Aufwandsplan!F83&lt;&gt;0, Aufwandsplan!F83, "")</f>
-        <v>25</v>
+        <v>-8</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -8339,33 +8639,35 @@
       </c>
       <c r="U84" s="1"/>
       <c r="V84" s="1"/>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W84" s="1"/>
+      <c r="X84" s="1"/>
+      <c r="Y84" s="1"/>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="str">
         <f>IF(Aufwandsplan!A84&lt;&gt;0, Aufwandsplan!A84, "")</f>
-        <v>F3.2</v>
-      </c>
-      <c r="B85" s="22" t="s">
-        <v>133</v>
-      </c>
+        <v>F3</v>
+      </c>
+      <c r="B85" s="1"/>
       <c r="C85" s="22" t="str">
         <f>IF(Aufwandsplan!B84&lt;&gt;0, Aufwandsplan!B84, "")</f>
-        <v/>
+        <v>Implementierung GUI</v>
       </c>
       <c r="D85" s="22" t="str">
         <f>IF(Aufwandsplan!C84&lt;&gt;0, Aufwandsplan!C84, "")</f>
-        <v>Implementierung Maske "Studenplan anzeigen"</v>
-      </c>
-      <c r="E85" s="22">
+        <v/>
+      </c>
+      <c r="E85" s="22" t="str">
         <f>IF(Aufwandsplan!D84&lt;&gt;0, Aufwandsplan!D84, "")</f>
-        <v>25</v>
-      </c>
-      <c r="F85" s="22">
-        <v>12</v>
-      </c>
-      <c r="G85" s="24">
+        <v/>
+      </c>
+      <c r="F85" s="22" t="str">
+        <f>IF(Aufwandsplan!E84&lt;&gt;0, Aufwandsplan!E84, "")</f>
+        <v/>
+      </c>
+      <c r="G85" s="22" t="str">
         <f>IF(Aufwandsplan!F84&lt;&gt;0, Aufwandsplan!F84, "")</f>
-        <v>25</v>
+        <v/>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -8386,34 +8688,35 @@
       </c>
       <c r="U85" s="1"/>
       <c r="V85" s="1"/>
-    </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W85" s="1"/>
+      <c r="X85" s="1"/>
+      <c r="Y85" s="1"/>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="str">
         <f>IF(Aufwandsplan!A85&lt;&gt;0, Aufwandsplan!A85, "")</f>
-        <v>F3.3</v>
-      </c>
-      <c r="B86" s="22" t="s">
-        <v>133</v>
-      </c>
+        <v>F3.1</v>
+      </c>
+      <c r="B86" s="1"/>
       <c r="C86" s="22" t="str">
         <f>IF(Aufwandsplan!B85&lt;&gt;0, Aufwandsplan!B85, "")</f>
         <v/>
       </c>
       <c r="D86" s="22" t="str">
         <f>IF(Aufwandsplan!C85&lt;&gt;0, Aufwandsplan!C85, "")</f>
-        <v>Implementierung "restl. Masken" (Anmeldung, Stundenplan erstellen, Laden)</v>
+        <v>Implementierung Maske "Eingabe Zeiten"</v>
       </c>
       <c r="E86" s="22">
         <f>IF(Aufwandsplan!D85&lt;&gt;0, Aufwandsplan!D85, "")</f>
         <v>25</v>
       </c>
-      <c r="F86" s="22" t="str">
+      <c r="F86" s="22">
         <f>IF(Aufwandsplan!E85&lt;&gt;0, Aufwandsplan!E85, "")</f>
-        <v/>
-      </c>
-      <c r="G86" s="24">
+        <v>20</v>
+      </c>
+      <c r="G86" s="22">
         <f>IF(Aufwandsplan!F85&lt;&gt;0, Aufwandsplan!F85, "")</f>
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -8430,34 +8733,35 @@
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
       <c r="V86" s="1"/>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+      <c r="Y86" s="1"/>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="22" t="str">
         <f>IF(Aufwandsplan!A86&lt;&gt;0, Aufwandsplan!A86, "")</f>
-        <v>G1</v>
-      </c>
-      <c r="B87" s="22" t="s">
-        <v>133</v>
-      </c>
+        <v>F3.2</v>
+      </c>
+      <c r="B87" s="1"/>
       <c r="C87" s="22" t="str">
         <f>IF(Aufwandsplan!B86&lt;&gt;0, Aufwandsplan!B86, "")</f>
-        <v>Test der Anwendung</v>
+        <v/>
       </c>
       <c r="D87" s="22" t="str">
         <f>IF(Aufwandsplan!C86&lt;&gt;0, Aufwandsplan!C86, "")</f>
-        <v/>
+        <v>Implementierung Maske "Studenplan anzeigen"</v>
       </c>
       <c r="E87" s="22">
         <f>IF(Aufwandsplan!D86&lt;&gt;0, Aufwandsplan!D86, "")</f>
-        <v>4</v>
-      </c>
-      <c r="F87" s="22" t="str">
+        <v>25</v>
+      </c>
+      <c r="F87" s="22">
         <f>IF(Aufwandsplan!E86&lt;&gt;0, Aufwandsplan!E86, "")</f>
-        <v/>
-      </c>
-      <c r="G87" s="24">
+        <v>24</v>
+      </c>
+      <c r="G87" s="22">
         <f>IF(Aufwandsplan!F86&lt;&gt;0, Aufwandsplan!F86, "")</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -8474,34 +8778,35 @@
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
       <c r="V87" s="1"/>
-    </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+      <c r="Y87" s="1"/>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="22" t="str">
         <f>IF(Aufwandsplan!A87&lt;&gt;0, Aufwandsplan!A87, "")</f>
-        <v>G2</v>
-      </c>
-      <c r="B88" s="22" t="s">
-        <v>133</v>
-      </c>
+        <v>F3.3</v>
+      </c>
+      <c r="B88" s="1"/>
       <c r="C88" s="22" t="str">
         <f>IF(Aufwandsplan!B87&lt;&gt;0, Aufwandsplan!B87, "")</f>
-        <v>Anpassungen/Fehlerbehebung</v>
+        <v/>
       </c>
       <c r="D88" s="22" t="str">
         <f>IF(Aufwandsplan!C87&lt;&gt;0, Aufwandsplan!C87, "")</f>
-        <v/>
+        <v>Implementierung "restl. Masken" (Anmeldung, Stundenplan erstellen, Laden)</v>
       </c>
       <c r="E88" s="22">
         <f>IF(Aufwandsplan!D87&lt;&gt;0, Aufwandsplan!D87, "")</f>
-        <v>10</v>
-      </c>
-      <c r="F88" s="22" t="str">
+        <v>25</v>
+      </c>
+      <c r="F88" s="22">
         <f>IF(Aufwandsplan!E87&lt;&gt;0, Aufwandsplan!E87, "")</f>
-        <v/>
-      </c>
-      <c r="G88" s="24">
+        <v>30</v>
+      </c>
+      <c r="G88" s="22">
         <f>IF(Aufwandsplan!F87&lt;&gt;0, Aufwandsplan!F87, "")</f>
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -8518,18 +8823,21 @@
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
       <c r="V88" s="1"/>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+      <c r="Y88" s="1"/>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="22" t="str">
         <f>IF(Aufwandsplan!A88&lt;&gt;0, Aufwandsplan!A88, "")</f>
-        <v>G3</v>
-      </c>
-      <c r="B89" s="22" t="s">
-        <v>133</v>
+        <v>G1</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="C89" s="22" t="str">
         <f>IF(Aufwandsplan!B88&lt;&gt;0, Aufwandsplan!B88, "")</f>
-        <v>interne Abnahme</v>
+        <v>Test der Anwendung</v>
       </c>
       <c r="D89" s="22" t="str">
         <f>IF(Aufwandsplan!C88&lt;&gt;0, Aufwandsplan!C88, "")</f>
@@ -8537,15 +8845,15 @@
       </c>
       <c r="E89" s="22">
         <f>IF(Aufwandsplan!D88&lt;&gt;0, Aufwandsplan!D88, "")</f>
-        <v>5</v>
-      </c>
-      <c r="F89" s="22" t="str">
+        <v>4</v>
+      </c>
+      <c r="F89" s="22">
         <f>IF(Aufwandsplan!E88&lt;&gt;0, Aufwandsplan!E88, "")</f>
-        <v/>
-      </c>
-      <c r="G89" s="24">
+        <v>6</v>
+      </c>
+      <c r="G89" s="22">
         <f>IF(Aufwandsplan!F88&lt;&gt;0, Aufwandsplan!F88, "")</f>
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -8559,346 +8867,515 @@
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
-      <c r="T89" s="26"/>
+      <c r="T89" s="25"/>
       <c r="U89" s="1"/>
       <c r="V89" s="1"/>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B91" s="27" t="s">
-        <v>273</v>
-      </c>
-      <c r="F91" s="25" t="s">
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+      <c r="Y89" s="1"/>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A90" s="22" t="str">
+        <f>IF(Aufwandsplan!A89&lt;&gt;0, Aufwandsplan!A89, "")</f>
+        <v>G2</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="22" t="str">
+        <f>IF(Aufwandsplan!B89&lt;&gt;0, Aufwandsplan!B89, "")</f>
+        <v>Anpassungen/Fehlerbehebung</v>
+      </c>
+      <c r="D90" s="22" t="str">
+        <f>IF(Aufwandsplan!C89&lt;&gt;0, Aufwandsplan!C89, "")</f>
+        <v/>
+      </c>
+      <c r="E90" s="22">
+        <f>IF(Aufwandsplan!D89&lt;&gt;0, Aufwandsplan!D89, "")</f>
+        <v>10</v>
+      </c>
+      <c r="F90" s="22">
+        <f>IF(Aufwandsplan!E89&lt;&gt;0, Aufwandsplan!E89, "")</f>
+        <v>23</v>
+      </c>
+      <c r="G90" s="22">
+        <f>IF(Aufwandsplan!F89&lt;&gt;0, Aufwandsplan!F89, "")</f>
+        <v>-13</v>
+      </c>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+      <c r="Y90" s="1"/>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A91" s="22" t="str">
+        <f>IF(Aufwandsplan!A90&lt;&gt;0, Aufwandsplan!A90, "")</f>
+        <v>G3</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="22" t="str">
+        <f>IF(Aufwandsplan!B90&lt;&gt;0, Aufwandsplan!B90, "")</f>
+        <v>interne Abnahme</v>
+      </c>
+      <c r="D91" s="22" t="str">
+        <f>IF(Aufwandsplan!C90&lt;&gt;0, Aufwandsplan!C90, "")</f>
+        <v/>
+      </c>
+      <c r="E91" s="22">
+        <f>IF(Aufwandsplan!D90&lt;&gt;0, Aufwandsplan!D90, "")</f>
+        <v>5</v>
+      </c>
+      <c r="F91" s="22">
+        <f>IF(Aufwandsplan!E90&lt;&gt;0, Aufwandsplan!E90, "")</f>
+        <v>5</v>
+      </c>
+      <c r="G91" s="22" t="str">
+        <f>IF(Aufwandsplan!F90&lt;&gt;0, Aufwandsplan!F90, "")</f>
+        <v/>
+      </c>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="1"/>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F93" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="G91" s="9" t="s">
+      <c r="G93" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="H91" s="7">
-        <f>COUNTIF(H4:H89,"SW")+COUNTIF(H4:H89,"alle")</f>
+      <c r="H93" s="7">
+        <f>COUNTIF(H4:H91,"SW")+COUNTIF(H4:H91,"alle")</f>
         <v>0</v>
       </c>
-      <c r="I91" s="7">
-        <f t="shared" ref="I91:V91" si="0">COUNTIF(I4:I89,"SW")+COUNTIF(I4:I89,"alle")</f>
+      <c r="I93" s="7">
+        <f t="shared" ref="I93:Y93" si="0">COUNTIF(I4:I91,"SW")+COUNTIF(I4:I91,"alle")</f>
         <v>3</v>
       </c>
-      <c r="J91" s="7">
+      <c r="J93" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K91" s="7">
+      <c r="K93" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="L91" s="7">
+      <c r="L93" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M91" s="7">
+      <c r="M93" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N91" s="7">
+      <c r="N93" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="O91" s="7">
+      <c r="O93" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P91" s="7">
+      <c r="P93" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Q91" s="7">
+      <c r="Q93" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R91" s="7">
+      <c r="R93" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="S91" s="7">
+      <c r="S93" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T91" s="7">
+      <c r="T93" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U91" s="7">
+      <c r="U93" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V91" s="7">
+      <c r="V93" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B92" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="G92" s="9" t="s">
+      <c r="W93" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X93" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y93" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G94" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="H92" s="7">
-        <f>COUNTIF(H4:H89,"MW")+COUNTIF(H4:H89,"alle")</f>
+      <c r="H94" s="7">
+        <f>COUNTIF(H4:H91,"MW")+COUNTIF(H4:H91,"alle")</f>
         <v>0</v>
       </c>
-      <c r="I92" s="7">
-        <f t="shared" ref="I92:V92" si="1">COUNTIF(I4:I89,"MW")+COUNTIF(I4:I89,"alle")</f>
+      <c r="I94" s="7">
+        <f t="shared" ref="I94:Y94" si="1">COUNTIF(I4:I91,"MW")+COUNTIF(I4:I91,"alle")</f>
         <v>3</v>
       </c>
-      <c r="J92" s="7">
+      <c r="J94" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K92" s="7">
+      <c r="K94" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L92" s="7">
+      <c r="L94" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M92" s="7">
+      <c r="M94" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N92" s="7">
+      <c r="N94" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O92" s="7">
+      <c r="O94" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="P92" s="7">
+      <c r="P94" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q92" s="7">
+      <c r="Q94" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R92" s="7">
+      <c r="R94" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S92" s="7">
+      <c r="S94" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T92" s="7">
+      <c r="T94" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="U92" s="7">
+      <c r="U94" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V92" s="7">
+      <c r="V94" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G93" s="9" t="s">
+      <c r="W94" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X94" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y94" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G95" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="H93" s="7">
-        <f>COUNTIF(H4:H89,"JNK")+COUNTIF(H4:H89,"alle")</f>
+      <c r="H95" s="7">
+        <f>COUNTIF(H4:H91,"JNK")+COUNTIF(H4:H91,"alle")</f>
         <v>0</v>
       </c>
-      <c r="I93" s="7">
-        <f t="shared" ref="I93:V93" si="2">COUNTIF(I4:I89,"JNK")+COUNTIF(I4:I89,"alle")</f>
+      <c r="I95" s="7">
+        <f t="shared" ref="I95:Y95" si="2">COUNTIF(I4:I91,"JNK")+COUNTIF(I4:I91,"alle")</f>
         <v>3</v>
       </c>
-      <c r="J93" s="7">
+      <c r="J95" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K93" s="7">
+      <c r="K95" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L93" s="7">
+      <c r="L95" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M93" s="7">
+      <c r="M95" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="N93" s="7">
+      <c r="N95" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="O93" s="7">
+      <c r="O95" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="P93" s="7">
+      <c r="P95" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Q93" s="7">
+      <c r="Q95" s="7">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="R93" s="7">
+      <c r="R95" s="7">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="S93" s="7">
+      <c r="S95" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="T93" s="7">
+      <c r="T95" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U93" s="7">
+      <c r="U95" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="V93" s="7">
+      <c r="V95" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G94" s="9" t="s">
+      <c r="W95" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X95" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y95" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G96" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="H94" s="7">
-        <f>COUNTIF(H4:H89,"PD")+COUNTIF(H4:H89,"alle")</f>
+      <c r="H96" s="7">
+        <f>COUNTIF(H4:H91,"PD")+COUNTIF(H4:H91,"alle")</f>
         <v>0</v>
       </c>
-      <c r="I94" s="7">
-        <f t="shared" ref="I94:V94" si="3">COUNTIF(I4:I89,"PD")+COUNTIF(I4:I89,"alle")</f>
+      <c r="I96" s="7">
+        <f t="shared" ref="I96:Y96" si="3">COUNTIF(I4:I91,"PD")+COUNTIF(I4:I91,"alle")</f>
         <v>3</v>
       </c>
-      <c r="J94" s="7">
+      <c r="J96" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K94" s="7">
+      <c r="K96" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L94" s="7">
+      <c r="L96" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M94" s="7">
+      <c r="M96" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="N94" s="7">
+      <c r="N96" s="7">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="O94" s="7">
+      <c r="O96" s="7">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="P94" s="7">
+      <c r="P96" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q94" s="7">
+      <c r="Q96" s="7">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="R94" s="7">
+      <c r="R96" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S94" s="7">
+      <c r="S96" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T94" s="7">
+      <c r="T96" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U94" s="7">
+      <c r="U96" s="7">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="V94" s="7">
+      <c r="V96" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G95" s="9" t="s">
+      <c r="W96" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X96" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y96" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="G97" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="H95" s="7">
-        <f>COUNTIF(H4:H89,"MU")+COUNTIF(H4:H89,"alle")</f>
+      <c r="H97" s="7">
+        <f>COUNTIF(H4:H91,"MU")+COUNTIF(H4:H91,"alle")</f>
         <v>0</v>
       </c>
-      <c r="I95" s="7">
-        <f t="shared" ref="I95:V95" si="4">COUNTIF(I4:I89,"MU")+COUNTIF(I4:I89,"alle")</f>
+      <c r="I97" s="7">
+        <f t="shared" ref="I97:Y97" si="4">COUNTIF(I4:I91,"MU")+COUNTIF(I4:I91,"alle")</f>
         <v>3</v>
       </c>
-      <c r="J95" s="7">
+      <c r="J97" s="7">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K95" s="7">
+      <c r="K97" s="7">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L95" s="7">
+      <c r="L97" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M95" s="7">
+      <c r="M97" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N95" s="7">
+      <c r="N97" s="7">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="O95" s="7">
+      <c r="O97" s="7">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="P95" s="7">
+      <c r="P97" s="7">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="Q95" s="7">
+      <c r="Q97" s="7">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="R95" s="7">
+      <c r="R97" s="7">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="S95" s="7">
+      <c r="S97" s="7">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="T95" s="7">
+      <c r="T97" s="7">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U95" s="7">
+      <c r="U97" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V95" s="7">
+      <c r="V97" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="W97" s="7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X97" s="7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y97" s="7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B100" s="26" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="101" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B101" s="28" t="s">
+        <v>249</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="24">
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -8911,15 +9388,6 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8930,7 +9398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -9060,7 +9528,7 @@
         <v>120</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>335</v>
+        <v>284</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>87</v>
@@ -9122,7 +9590,7 @@
         <v>117</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>334</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -9130,10 +9598,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>323</v>
+        <v>272</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>207</v>
@@ -9160,7 +9628,7 @@
         <v>117</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>324</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -9168,10 +9636,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>325</v>
+        <v>274</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>326</v>
+        <v>275</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>115</v>
@@ -9198,7 +9666,7 @@
         <v>117</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>327</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -9206,10 +9674,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>329</v>
+        <v>278</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>115</v>
@@ -9236,7 +9704,7 @@
         <v>117</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>330</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -9244,10 +9712,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>331</v>
+        <v>280</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>333</v>
+        <v>282</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>207</v>
@@ -9274,7 +9742,7 @@
         <v>117</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>332</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -9282,10 +9750,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>337</v>
+        <v>286</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>338</v>
+        <v>287</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>207</v>
@@ -9312,7 +9780,7 @@
         <v>117</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>336</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -9320,10 +9788,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>339</v>
+        <v>288</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>340</v>
+        <v>289</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>207</v>
@@ -9350,7 +9818,7 @@
         <v>117</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>341</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -9358,10 +9826,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>339</v>
+        <v>288</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>342</v>
+        <v>291</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>207</v>
@@ -9388,7 +9856,7 @@
         <v>117</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>345</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -9396,10 +9864,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>343</v>
+        <v>292</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>344</v>
+        <v>293</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>207</v>
@@ -9426,7 +9894,7 @@
         <v>117</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>336</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -9434,10 +9902,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>346</v>
+        <v>295</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>347</v>
+        <v>296</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>115</v>
@@ -9464,7 +9932,7 @@
         <v>117</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>348</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -9472,10 +9940,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>349</v>
+        <v>298</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>350</v>
+        <v>299</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>115</v>
@@ -9502,7 +9970,7 @@
         <v>117</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>351</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -9513,7 +9981,7 @@
         <v>164</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>352</v>
+        <v>301</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>115</v>
@@ -9540,7 +10008,7 @@
         <v>117</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>353</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -9551,7 +10019,7 @@
         <v>164</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>354</v>
+        <v>303</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>207</v>
@@ -9578,7 +10046,7 @@
         <v>117</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>355</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -9586,10 +10054,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>356</v>
+        <v>305</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>357</v>
+        <v>306</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>207</v>
@@ -9616,7 +10084,7 @@
         <v>117</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>358</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -9624,10 +10092,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>356</v>
+        <v>305</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>359</v>
+        <v>308</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>207</v>
@@ -9654,7 +10122,7 @@
         <v>117</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>362</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -9662,10 +10130,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>360</v>
+        <v>309</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>361</v>
+        <v>310</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>207</v>
@@ -9692,7 +10160,7 @@
         <v>117</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>363</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -9700,10 +10168,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>364</v>
+        <v>313</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>365</v>
+        <v>314</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>115</v>
@@ -9730,7 +10198,7 @@
         <v>117</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>366</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -9738,10 +10206,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>364</v>
+        <v>313</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>376</v>
+        <v>325</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>115</v>
@@ -9768,7 +10236,7 @@
         <v>117</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>378</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -9776,10 +10244,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>364</v>
+        <v>313</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>115</v>
@@ -9799,8 +10267,8 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="44" t="s">
-        <v>386</v>
+      <c r="L24" s="33" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -9811,7 +10279,7 @@
         <v>164</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>367</v>
+        <v>316</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>115</v>
@@ -9838,7 +10306,7 @@
         <v>117</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>368</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -9849,7 +10317,7 @@
         <v>164</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>370</v>
+        <v>319</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>115</v>
@@ -9876,7 +10344,7 @@
         <v>117</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>369</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -9884,10 +10352,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>371</v>
+        <v>320</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>372</v>
+        <v>321</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>115</v>
@@ -9914,18 +10382,18 @@
         <v>117</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>373</v>
+        <v>322</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="33">
+      <c r="A28" s="32">
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>375</v>
+        <v>324</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>115</v>
@@ -9952,7 +10420,7 @@
         <v>117</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>374</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -9960,10 +10428,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>382</v>
+        <v>331</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>379</v>
+        <v>328</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>207</v>
@@ -9978,30 +10446,30 @@
         <v>89</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>380</v>
+        <v>329</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>89</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>380</v>
+        <v>329</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>117</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>381</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="32">
+      <c r="A30" s="31">
         <v>27</v>
       </c>
-      <c r="B30" s="32" t="s">
-        <v>382</v>
+      <c r="B30" s="31" t="s">
+        <v>331</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>383</v>
+        <v>332</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>115</v>
@@ -10010,25 +10478,25 @@
         <v>87</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>380</v>
+        <v>329</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>121</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>388</v>
+        <v>337</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>121</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>388</v>
+        <v>337</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>117</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>385</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -10039,34 +10507,34 @@
         <v>196</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>393</v>
+        <v>342</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>335</v>
+        <v>284</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>380</v>
+        <v>329</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>87</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>384</v>
+        <v>333</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>87</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>384</v>
+        <v>333</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>117</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>389</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -10074,10 +10542,10 @@
         <v>29</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>392</v>
+        <v>341</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>390</v>
+        <v>339</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>115</v>
@@ -10086,25 +10554,25 @@
         <v>87</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>380</v>
+        <v>329</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>121</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>388</v>
+        <v>337</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>121</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>388</v>
+        <v>337</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>117</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>391</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -10115,262 +10583,262 @@
         <v>196</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>394</v>
+        <v>343</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>395</v>
+        <v>344</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>380</v>
+        <v>329</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>89</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>388</v>
+        <v>337</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>89</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>384</v>
+        <v>333</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>117</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>389</v>
+        <v>338</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="33">
+      <c r="A34" s="32">
         <v>31</v>
       </c>
-      <c r="B34" s="33" t="s">
-        <v>396</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>397</v>
-      </c>
-      <c r="D34" s="33" t="s">
+      <c r="B34" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="D34" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="E34" s="33" t="s">
+      <c r="E34" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="F34" s="33" t="s">
-        <v>380</v>
-      </c>
-      <c r="G34" s="33" t="s">
+      <c r="F34" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="G34" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="H34" s="33" t="s">
-        <v>388</v>
-      </c>
-      <c r="I34" s="33" t="s">
+      <c r="H34" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="I34" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="J34" s="33" t="s">
-        <v>384</v>
-      </c>
-      <c r="K34" s="33" t="s">
+      <c r="J34" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="K34" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="L34" s="33" t="s">
-        <v>398</v>
+      <c r="L34" s="32" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="33">
+      <c r="A35" s="32">
         <v>32</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="C35" s="33" t="s">
-        <v>399</v>
-      </c>
-      <c r="D35" s="33" t="s">
+      <c r="C35" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="D35" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="E35" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="F35" s="33" t="s">
-        <v>380</v>
-      </c>
-      <c r="G35" s="33" t="s">
-        <v>400</v>
-      </c>
-      <c r="H35" s="33" t="s">
-        <v>387</v>
-      </c>
-      <c r="I35" s="33" t="s">
+      <c r="F35" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="H35" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="I35" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="J35" s="33" t="s">
-        <v>387</v>
-      </c>
-      <c r="K35" s="33" t="s">
+      <c r="J35" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="K35" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="L35" s="33" t="s">
-        <v>401</v>
+      <c r="L35" s="32" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="33">
+      <c r="A36" s="32">
         <v>33</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="C36" s="33" t="s">
-        <v>402</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="E36" s="33" t="s">
+      <c r="C36" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="E36" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="F36" s="33" t="s">
-        <v>384</v>
-      </c>
-      <c r="G36" s="33" t="s">
+      <c r="F36" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="G36" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="H36" s="33" t="s">
-        <v>388</v>
-      </c>
-      <c r="I36" s="33" t="s">
+      <c r="H36" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="I36" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="J36" s="33" t="s">
-        <v>388</v>
-      </c>
-      <c r="K36" s="33" t="s">
+      <c r="J36" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="K36" s="32" t="s">
         <v>117</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>403</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="33">
+      <c r="A37" s="32">
         <v>34</v>
       </c>
-      <c r="B37" s="33" t="s">
-        <v>392</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>404</v>
-      </c>
-      <c r="D37" s="33" t="s">
+      <c r="B37" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="D37" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="E37" s="33" t="s">
+      <c r="E37" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="F37" s="33" t="s">
-        <v>388</v>
-      </c>
-      <c r="G37" s="33" t="s">
+      <c r="F37" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="G37" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="H37" s="33" t="s">
-        <v>388</v>
-      </c>
-      <c r="I37" s="33" t="s">
+      <c r="H37" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="I37" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="J37" s="33" t="s">
-        <v>388</v>
-      </c>
-      <c r="K37" s="33" t="s">
+      <c r="J37" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="K37" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="L37" s="33" t="s">
-        <v>405</v>
+      <c r="L37" s="32" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="33">
+      <c r="A38" s="32">
         <v>35</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="C38" s="33" t="s">
-        <v>406</v>
-      </c>
-      <c r="D38" s="33" t="s">
+      <c r="C38" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="D38" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="E38" s="33" t="s">
+      <c r="E38" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="F38" s="33" t="s">
-        <v>388</v>
-      </c>
-      <c r="G38" s="33" t="s">
+      <c r="F38" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="G38" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="H38" s="33" t="s">
-        <v>388</v>
-      </c>
-      <c r="I38" s="33" t="s">
+      <c r="H38" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="I38" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="J38" s="33" t="s">
-        <v>388</v>
-      </c>
-      <c r="K38" s="33" t="s">
+      <c r="J38" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="K38" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="L38" s="33" t="s">
-        <v>407</v>
+      <c r="L38" s="32" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="33">
+      <c r="A39" s="32">
         <v>36</v>
       </c>
-      <c r="B39" s="33" t="s">
-        <v>408</v>
-      </c>
-      <c r="C39" s="33" t="s">
-        <v>409</v>
-      </c>
-      <c r="D39" s="33" t="s">
+      <c r="B39" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="D39" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="E39" s="33" t="s">
+      <c r="E39" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="F39" s="33" t="s">
-        <v>388</v>
-      </c>
-      <c r="G39" s="33" t="s">
-        <v>410</v>
-      </c>
-      <c r="H39" s="33" t="s">
-        <v>388</v>
-      </c>
-      <c r="I39" s="33" t="s">
+      <c r="F39" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="G39" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="H39" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="I39" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="J39" s="33" t="s">
-        <v>388</v>
-      </c>
-      <c r="K39" s="33" t="s">
+      <c r="J39" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="K39" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="L39" s="33" t="s">
-        <v>411</v>
+      <c r="L39" s="32" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -10426,10 +10894,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>4</v>
@@ -10558,7 +11026,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>98</v>
@@ -10711,7 +11179,7 @@
         <v>90</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">

--- a/Doku/Managementplaene_und_listen.xlsx
+++ b/Doku/Managementplaene_und_listen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="90" windowWidth="13290" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="-30" yWindow="90" windowWidth="13290" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Strukturplan" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="403">
   <si>
     <t>Risikoliste</t>
   </si>
@@ -1456,7 +1456,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1531,6 +1531,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Akzent1" xfId="1" builtinId="29"/>
@@ -2761,8 +2763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90"/>
+    <sheetView topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2959,11 +2961,11 @@
         <v>4</v>
       </c>
       <c r="E12" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3504,11 +3506,11 @@
         <v>15</v>
       </c>
       <c r="E43" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>-12</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -3870,11 +3872,11 @@
         <v>20</v>
       </c>
       <c r="E64" s="1">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="0"/>
-        <v>-23</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -3927,11 +3929,11 @@
         <v>12</v>
       </c>
       <c r="E67" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F67" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -4020,11 +4022,11 @@
         <v>22</v>
       </c>
       <c r="E72" s="1">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F72" s="1">
         <f t="shared" si="0"/>
-        <v>-35</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -4056,11 +4058,11 @@
         <v>12</v>
       </c>
       <c r="E74" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F74" s="1">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -4092,11 +4094,11 @@
         <v>12</v>
       </c>
       <c r="E76" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F76" s="1">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -4109,11 +4111,11 @@
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" si="0"/>
-        <v>-15</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -4126,11 +4128,11 @@
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" si="0"/>
-        <v>-12</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -4143,11 +4145,11 @@
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F79" s="1">
         <f t="shared" si="0"/>
-        <v>-15</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -4217,11 +4219,11 @@
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F83" s="1">
         <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -4234,10 +4236,7 @@
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="F84" s="1"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
@@ -4289,11 +4288,11 @@
         <v>25</v>
       </c>
       <c r="E87" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F87" s="1">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -4562,11 +4561,11 @@
       </c>
       <c r="E116" s="2">
         <f>SUM(E3:E115)</f>
-        <v>688</v>
+        <v>626</v>
       </c>
       <c r="F116" s="2">
         <f>SUM(F3:F115)</f>
-        <v>-168</v>
+        <v>-106</v>
       </c>
     </row>
   </sheetData>
@@ -4720,11 +4719,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y101"/>
+  <dimension ref="A1:Z97"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E93" sqref="E93"/>
+      <selection pane="bottomLeft" activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4732,7 +4731,7 @@
     <col min="1" max="1" width="8.140625" style="21" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="83.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="96.42578125" style="21" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
@@ -4871,7 +4870,7 @@
         <f>IF(Aufwandsplan!E3&lt;&gt;0, Aufwandsplan!E3, "")</f>
         <v/>
       </c>
-      <c r="G4" s="22" t="str">
+      <c r="G4" s="44" t="str">
         <f>IF(Aufwandsplan!F3&lt;&gt;0, Aufwandsplan!F3, "")</f>
         <v/>
       </c>
@@ -4916,7 +4915,7 @@
         <f>IF(Aufwandsplan!E4&lt;&gt;0, Aufwandsplan!E4, "")</f>
         <v>2</v>
       </c>
-      <c r="G5" s="22" t="str">
+      <c r="G5" s="44" t="str">
         <f>IF(Aufwandsplan!F4&lt;&gt;0, Aufwandsplan!F4, "")</f>
         <v/>
       </c>
@@ -4963,7 +4962,7 @@
         <f>IF(Aufwandsplan!E5&lt;&gt;0, Aufwandsplan!E5, "")</f>
         <v>2</v>
       </c>
-      <c r="G6" s="22" t="str">
+      <c r="G6" s="44" t="str">
         <f>IF(Aufwandsplan!F5&lt;&gt;0, Aufwandsplan!F5, "")</f>
         <v/>
       </c>
@@ -5010,7 +5009,7 @@
         <f>IF(Aufwandsplan!E6&lt;&gt;0, Aufwandsplan!E6, "")</f>
         <v>2</v>
       </c>
-      <c r="G7" s="22" t="str">
+      <c r="G7" s="44" t="str">
         <f>IF(Aufwandsplan!F6&lt;&gt;0, Aufwandsplan!F6, "")</f>
         <v/>
       </c>
@@ -5057,7 +5056,7 @@
         <f>IF(Aufwandsplan!E7&lt;&gt;0, Aufwandsplan!E7, "")</f>
         <v/>
       </c>
-      <c r="G8" s="22" t="str">
+      <c r="G8" s="44" t="str">
         <f>IF(Aufwandsplan!F7&lt;&gt;0, Aufwandsplan!F7, "")</f>
         <v/>
       </c>
@@ -5102,7 +5101,7 @@
         <f>IF(Aufwandsplan!E8&lt;&gt;0, Aufwandsplan!E8, "")</f>
         <v>8</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="44">
         <f>IF(Aufwandsplan!F8&lt;&gt;0, Aufwandsplan!F8, "")</f>
         <v>-2</v>
       </c>
@@ -5151,7 +5150,7 @@
         <f>IF(Aufwandsplan!E9&lt;&gt;0, Aufwandsplan!E9, "")</f>
         <v>5</v>
       </c>
-      <c r="G10" s="22" t="str">
+      <c r="G10" s="44" t="str">
         <f>IF(Aufwandsplan!F9&lt;&gt;0, Aufwandsplan!F9, "")</f>
         <v/>
       </c>
@@ -5198,7 +5197,7 @@
         <f>IF(Aufwandsplan!E10&lt;&gt;0, Aufwandsplan!E10, "")</f>
         <v>11</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="44">
         <f>IF(Aufwandsplan!F10&lt;&gt;0, Aufwandsplan!F10, "")</f>
         <v>-5</v>
       </c>
@@ -5245,7 +5244,7 @@
         <f>IF(Aufwandsplan!E11&lt;&gt;0, Aufwandsplan!E11, "")</f>
         <v/>
       </c>
-      <c r="G12" s="22" t="str">
+      <c r="G12" s="44" t="str">
         <f>IF(Aufwandsplan!F11&lt;&gt;0, Aufwandsplan!F11, "")</f>
         <v/>
       </c>
@@ -5288,11 +5287,11 @@
       </c>
       <c r="F13" s="22">
         <f>IF(Aufwandsplan!E12&lt;&gt;0, Aufwandsplan!E12, "")</f>
-        <v>4</v>
-      </c>
-      <c r="G13" s="22" t="str">
+        <v>6</v>
+      </c>
+      <c r="G13" s="44">
         <f>IF(Aufwandsplan!F12&lt;&gt;0, Aufwandsplan!F12, "")</f>
-        <v/>
+        <v>-2</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="1"/>
@@ -5341,7 +5340,7 @@
         <f>IF(Aufwandsplan!E13&lt;&gt;0, Aufwandsplan!E13, "")</f>
         <v>4</v>
       </c>
-      <c r="G14" s="22" t="str">
+      <c r="G14" s="44" t="str">
         <f>IF(Aufwandsplan!F13&lt;&gt;0, Aufwandsplan!F13, "")</f>
         <v/>
       </c>
@@ -5388,7 +5387,7 @@
         <f>IF(Aufwandsplan!E14&lt;&gt;0, Aufwandsplan!E14, "")</f>
         <v>12</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="44">
         <f>IF(Aufwandsplan!F14&lt;&gt;0, Aufwandsplan!F14, "")</f>
         <v>-8</v>
       </c>
@@ -5441,7 +5440,7 @@
         <f>IF(Aufwandsplan!E15&lt;&gt;0, Aufwandsplan!E15, "")</f>
         <v/>
       </c>
-      <c r="G16" s="22" t="str">
+      <c r="G16" s="44" t="str">
         <f>IF(Aufwandsplan!F15&lt;&gt;0, Aufwandsplan!F15, "")</f>
         <v/>
       </c>
@@ -5486,7 +5485,7 @@
         <f>IF(Aufwandsplan!E16&lt;&gt;0, Aufwandsplan!E16, "")</f>
         <v>5</v>
       </c>
-      <c r="G17" s="22" t="str">
+      <c r="G17" s="44" t="str">
         <f>IF(Aufwandsplan!F16&lt;&gt;0, Aufwandsplan!F16, "")</f>
         <v/>
       </c>
@@ -5533,7 +5532,7 @@
         <f>IF(Aufwandsplan!E17&lt;&gt;0, Aufwandsplan!E17, "")</f>
         <v>5</v>
       </c>
-      <c r="G18" s="22" t="str">
+      <c r="G18" s="44" t="str">
         <f>IF(Aufwandsplan!F17&lt;&gt;0, Aufwandsplan!F17, "")</f>
         <v/>
       </c>
@@ -5582,7 +5581,7 @@
         <f>IF(Aufwandsplan!E18&lt;&gt;0, Aufwandsplan!E18, "")</f>
         <v>8</v>
       </c>
-      <c r="G19" s="22" t="str">
+      <c r="G19" s="44" t="str">
         <f>IF(Aufwandsplan!F18&lt;&gt;0, Aufwandsplan!F18, "")</f>
         <v/>
       </c>
@@ -5629,7 +5628,7 @@
         <f>IF(Aufwandsplan!E19&lt;&gt;0, Aufwandsplan!E19, "")</f>
         <v/>
       </c>
-      <c r="G20" s="22" t="str">
+      <c r="G20" s="44" t="str">
         <f>IF(Aufwandsplan!F19&lt;&gt;0, Aufwandsplan!F19, "")</f>
         <v/>
       </c>
@@ -5674,7 +5673,7 @@
         <f>IF(Aufwandsplan!E20&lt;&gt;0, Aufwandsplan!E20, "")</f>
         <v>10</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="44">
         <f>IF(Aufwandsplan!F20&lt;&gt;0, Aufwandsplan!F20, "")</f>
         <v>-4</v>
       </c>
@@ -5719,7 +5718,7 @@
         <f>IF(Aufwandsplan!E21&lt;&gt;0, Aufwandsplan!E21, "")</f>
         <v>8</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="44">
         <f>IF(Aufwandsplan!F21&lt;&gt;0, Aufwandsplan!F21, "")</f>
         <v>2</v>
       </c>
@@ -5766,7 +5765,7 @@
         <f>IF(Aufwandsplan!E22&lt;&gt;0, Aufwandsplan!E22, "")</f>
         <v/>
       </c>
-      <c r="G23" s="22" t="str">
+      <c r="G23" s="44" t="str">
         <f>IF(Aufwandsplan!F22&lt;&gt;0, Aufwandsplan!F22, "")</f>
         <v/>
       </c>
@@ -5811,7 +5810,7 @@
         <f>IF(Aufwandsplan!E23&lt;&gt;0, Aufwandsplan!E23, "")</f>
         <v>10</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="44">
         <f>IF(Aufwandsplan!F23&lt;&gt;0, Aufwandsplan!F23, "")</f>
         <v>-2</v>
       </c>
@@ -5858,7 +5857,7 @@
         <f>IF(Aufwandsplan!E24&lt;&gt;0, Aufwandsplan!E24, "")</f>
         <v>6</v>
       </c>
-      <c r="G25" s="22" t="str">
+      <c r="G25" s="44" t="str">
         <f>IF(Aufwandsplan!F24&lt;&gt;0, Aufwandsplan!F24, "")</f>
         <v/>
       </c>
@@ -5905,7 +5904,7 @@
         <f>IF(Aufwandsplan!E25&lt;&gt;0, Aufwandsplan!E25, "")</f>
         <v>6</v>
       </c>
-      <c r="G26" s="22" t="str">
+      <c r="G26" s="44" t="str">
         <f>IF(Aufwandsplan!F25&lt;&gt;0, Aufwandsplan!F25, "")</f>
         <v/>
       </c>
@@ -5952,7 +5951,7 @@
         <f>IF(Aufwandsplan!E26&lt;&gt;0, Aufwandsplan!E26, "")</f>
         <v>2</v>
       </c>
-      <c r="G27" s="22" t="str">
+      <c r="G27" s="44" t="str">
         <f>IF(Aufwandsplan!F26&lt;&gt;0, Aufwandsplan!F26, "")</f>
         <v/>
       </c>
@@ -6001,7 +6000,7 @@
         <f>IF(Aufwandsplan!E27&lt;&gt;0, Aufwandsplan!E27, "")</f>
         <v/>
       </c>
-      <c r="G28" s="22" t="str">
+      <c r="G28" s="44" t="str">
         <f>IF(Aufwandsplan!F27&lt;&gt;0, Aufwandsplan!F27, "")</f>
         <v/>
       </c>
@@ -6013,6 +6012,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="29"/>
       <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -6045,7 +6045,7 @@
         <f>IF(Aufwandsplan!E28&lt;&gt;0, Aufwandsplan!E28, "")</f>
         <v>10</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G29" s="44">
         <f>IF(Aufwandsplan!F28&lt;&gt;0, Aufwandsplan!F28, "")</f>
         <v>-2</v>
       </c>
@@ -6092,7 +6092,7 @@
         <f>IF(Aufwandsplan!E29&lt;&gt;0, Aufwandsplan!E29, "")</f>
         <v>7</v>
       </c>
-      <c r="G30" s="22">
+      <c r="G30" s="44">
         <f>IF(Aufwandsplan!F29&lt;&gt;0, Aufwandsplan!F29, "")</f>
         <v>-2</v>
       </c>
@@ -6139,7 +6139,7 @@
         <f>IF(Aufwandsplan!E30&lt;&gt;0, Aufwandsplan!E30, "")</f>
         <v>8</v>
       </c>
-      <c r="G31" s="22" t="str">
+      <c r="G31" s="44" t="str">
         <f>IF(Aufwandsplan!F30&lt;&gt;0, Aufwandsplan!F30, "")</f>
         <v/>
       </c>
@@ -6188,7 +6188,7 @@
         <f>IF(Aufwandsplan!E31&lt;&gt;0, Aufwandsplan!E31, "")</f>
         <v/>
       </c>
-      <c r="G32" s="22" t="str">
+      <c r="G32" s="44" t="str">
         <f>IF(Aufwandsplan!F31&lt;&gt;0, Aufwandsplan!F31, "")</f>
         <v/>
       </c>
@@ -6199,6 +6199,8 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="29"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -6231,7 +6233,7 @@
         <f>IF(Aufwandsplan!E32&lt;&gt;0, Aufwandsplan!E32, "")</f>
         <v>4</v>
       </c>
-      <c r="G33" s="22" t="str">
+      <c r="G33" s="44" t="str">
         <f>IF(Aufwandsplan!F32&lt;&gt;0, Aufwandsplan!F32, "")</f>
         <v/>
       </c>
@@ -6278,7 +6280,7 @@
         <f>IF(Aufwandsplan!E33&lt;&gt;0, Aufwandsplan!E33, "")</f>
         <v>2</v>
       </c>
-      <c r="G34" s="22">
+      <c r="G34" s="44">
         <f>IF(Aufwandsplan!F33&lt;&gt;0, Aufwandsplan!F33, "")</f>
         <v>2</v>
       </c>
@@ -6325,7 +6327,7 @@
         <f>IF(Aufwandsplan!E34&lt;&gt;0, Aufwandsplan!E34, "")</f>
         <v>8</v>
       </c>
-      <c r="G35" s="22" t="str">
+      <c r="G35" s="44" t="str">
         <f>IF(Aufwandsplan!F34&lt;&gt;0, Aufwandsplan!F34, "")</f>
         <v/>
       </c>
@@ -6372,7 +6374,7 @@
         <f>IF(Aufwandsplan!E35&lt;&gt;0, Aufwandsplan!E35, "")</f>
         <v>4</v>
       </c>
-      <c r="G36" s="22" t="str">
+      <c r="G36" s="44" t="str">
         <f>IF(Aufwandsplan!F35&lt;&gt;0, Aufwandsplan!F35, "")</f>
         <v/>
       </c>
@@ -6419,7 +6421,7 @@
         <f>IF(Aufwandsplan!E36&lt;&gt;0, Aufwandsplan!E36, "")</f>
         <v>2</v>
       </c>
-      <c r="G37" s="22">
+      <c r="G37" s="44">
         <f>IF(Aufwandsplan!F36&lt;&gt;0, Aufwandsplan!F36, "")</f>
         <v>-2</v>
       </c>
@@ -6429,9 +6431,12 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-      <c r="P37" s="25"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
-      <c r="R37" s="29"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
@@ -6461,7 +6466,7 @@
         <f>IF(Aufwandsplan!E37&lt;&gt;0, Aufwandsplan!E37, "")</f>
         <v/>
       </c>
-      <c r="G38" s="22" t="str">
+      <c r="G38" s="44" t="str">
         <f>IF(Aufwandsplan!F37&lt;&gt;0, Aufwandsplan!F37, "")</f>
         <v/>
       </c>
@@ -6471,13 +6476,11 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
-      <c r="N38" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
+      <c r="P38" s="25"/>
       <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
+      <c r="R38" s="29"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
@@ -6508,7 +6511,7 @@
         <f>IF(Aufwandsplan!E38&lt;&gt;0, Aufwandsplan!E38, "")</f>
         <v>3</v>
       </c>
-      <c r="G39" s="22" t="str">
+      <c r="G39" s="44" t="str">
         <f>IF(Aufwandsplan!F38&lt;&gt;0, Aufwandsplan!F38, "")</f>
         <v/>
       </c>
@@ -6519,7 +6522,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -6555,7 +6558,7 @@
         <f>IF(Aufwandsplan!E39&lt;&gt;0, Aufwandsplan!E39, "")</f>
         <v>3</v>
       </c>
-      <c r="G40" s="22" t="str">
+      <c r="G40" s="44" t="str">
         <f>IF(Aufwandsplan!F39&lt;&gt;0, Aufwandsplan!F39, "")</f>
         <v/>
       </c>
@@ -6566,7 +6569,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
@@ -6602,7 +6605,7 @@
         <f>IF(Aufwandsplan!E40&lt;&gt;0, Aufwandsplan!E40, "")</f>
         <v>3</v>
       </c>
-      <c r="G41" s="22" t="str">
+      <c r="G41" s="44" t="str">
         <f>IF(Aufwandsplan!F40&lt;&gt;0, Aufwandsplan!F40, "")</f>
         <v/>
       </c>
@@ -6612,10 +6615,10 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="N41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -6649,7 +6652,7 @@
         <f>IF(Aufwandsplan!E41&lt;&gt;0, Aufwandsplan!E41, "")</f>
         <v>3</v>
       </c>
-      <c r="G42" s="22">
+      <c r="G42" s="44">
         <f>IF(Aufwandsplan!F41&lt;&gt;0, Aufwandsplan!F41, "")</f>
         <v>-3</v>
       </c>
@@ -6659,12 +6662,8 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-      <c r="N42" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>217</v>
-      </c>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -6698,7 +6697,7 @@
         <f>IF(Aufwandsplan!E42&lt;&gt;0, Aufwandsplan!E42, "")</f>
         <v>3</v>
       </c>
-      <c r="G43" s="22" t="str">
+      <c r="G43" s="44" t="str">
         <f>IF(Aufwandsplan!F42&lt;&gt;0, Aufwandsplan!F42, "")</f>
         <v/>
       </c>
@@ -6708,16 +6707,14 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
+      <c r="N43" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="O43" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
@@ -6747,11 +6744,11 @@
       </c>
       <c r="F44" s="22">
         <f>IF(Aufwandsplan!E43&lt;&gt;0, Aufwandsplan!E43, "")</f>
-        <v>27</v>
-      </c>
-      <c r="G44" s="22">
+        <v>23</v>
+      </c>
+      <c r="G44" s="44">
         <f>IF(Aufwandsplan!F43&lt;&gt;0, Aufwandsplan!F43, "")</f>
-        <v>-12</v>
+        <v>-8</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="1"/>
@@ -6761,10 +6758,14 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="27"/>
+        <v>217</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
@@ -6796,7 +6797,7 @@
         <f>IF(Aufwandsplan!E44&lt;&gt;0, Aufwandsplan!E44, "")</f>
         <v>2</v>
       </c>
-      <c r="G45" s="22">
+      <c r="G45" s="44">
         <f>IF(Aufwandsplan!F44&lt;&gt;0, Aufwandsplan!F44, "")</f>
         <v>-2</v>
       </c>
@@ -6808,7 +6809,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
@@ -6843,7 +6844,7 @@
         <f>IF(Aufwandsplan!E45&lt;&gt;0, Aufwandsplan!E45, "")</f>
         <v>3</v>
       </c>
-      <c r="G46" s="22" t="str">
+      <c r="G46" s="44" t="str">
         <f>IF(Aufwandsplan!F45&lt;&gt;0, Aufwandsplan!F45, "")</f>
         <v/>
       </c>
@@ -6853,10 +6854,10 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
-      <c r="N46" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="O46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
@@ -6890,7 +6891,7 @@
         <f>IF(Aufwandsplan!E46&lt;&gt;0, Aufwandsplan!E46, "")</f>
         <v>3</v>
       </c>
-      <c r="G47" s="22">
+      <c r="G47" s="44">
         <f>IF(Aufwandsplan!F46&lt;&gt;0, Aufwandsplan!F46, "")</f>
         <v>-3</v>
       </c>
@@ -6900,9 +6901,11 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
+      <c r="N47" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="O47" s="1" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
@@ -6937,7 +6940,7 @@
         <f>IF(Aufwandsplan!E47&lt;&gt;0, Aufwandsplan!E47, "")</f>
         <v>3</v>
       </c>
-      <c r="G48" s="22" t="str">
+      <c r="G48" s="44" t="str">
         <f>IF(Aufwandsplan!F47&lt;&gt;0, Aufwandsplan!F47, "")</f>
         <v/>
       </c>
@@ -6948,12 +6951,8 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
-      <c r="O48" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>217</v>
-      </c>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="27"/>
       <c r="S48" s="1"/>
@@ -6986,7 +6985,7 @@
         <f>IF(Aufwandsplan!E48&lt;&gt;0, Aufwandsplan!E48, "")</f>
         <v>3</v>
       </c>
-      <c r="G49" s="22">
+      <c r="G49" s="44">
         <f>IF(Aufwandsplan!F48&lt;&gt;0, Aufwandsplan!F48, "")</f>
         <v>-3</v>
       </c>
@@ -6997,11 +6996,13 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1" t="s">
+      <c r="O49" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="P49" s="1" t="s">
         <v>217</v>
       </c>
+      <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
@@ -7033,7 +7034,7 @@
         <f>IF(Aufwandsplan!E49&lt;&gt;0, Aufwandsplan!E49, "")</f>
         <v>3</v>
       </c>
-      <c r="G50" s="22">
+      <c r="G50" s="44">
         <f>IF(Aufwandsplan!F49&lt;&gt;0, Aufwandsplan!F49, "")</f>
         <v>-3</v>
       </c>
@@ -7044,7 +7045,9 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
+      <c r="O50" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="P50" s="1"/>
       <c r="Q50" s="1" t="s">
         <v>217</v>
@@ -7080,7 +7083,7 @@
         <f>IF(Aufwandsplan!E50&lt;&gt;0, Aufwandsplan!E50, "")</f>
         <v>3</v>
       </c>
-      <c r="G51" s="22">
+      <c r="G51" s="44">
         <f>IF(Aufwandsplan!F50&lt;&gt;0, Aufwandsplan!F50, "")</f>
         <v>-3</v>
       </c>
@@ -7127,7 +7130,7 @@
         <f>IF(Aufwandsplan!E51&lt;&gt;0, Aufwandsplan!E51, "")</f>
         <v>2</v>
       </c>
-      <c r="G52" s="22">
+      <c r="G52" s="44">
         <f>IF(Aufwandsplan!F51&lt;&gt;0, Aufwandsplan!F51, "")</f>
         <v>1</v>
       </c>
@@ -7140,10 +7143,10 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1" t="s">
+      <c r="Q52" s="1" t="s">
         <v>217</v>
       </c>
+      <c r="R52" s="1"/>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
@@ -7174,7 +7177,7 @@
         <f>IF(Aufwandsplan!E52&lt;&gt;0, Aufwandsplan!E52, "")</f>
         <v>3</v>
       </c>
-      <c r="G53" s="22" t="str">
+      <c r="G53" s="44" t="str">
         <f>IF(Aufwandsplan!F52&lt;&gt;0, Aufwandsplan!F52, "")</f>
         <v/>
       </c>
@@ -7187,6 +7190,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
       <c r="R53" s="1" t="s">
         <v>217</v>
       </c>
@@ -7220,7 +7224,7 @@
         <f>IF(Aufwandsplan!E53&lt;&gt;0, Aufwandsplan!E53, "")</f>
         <v>3</v>
       </c>
-      <c r="G54" s="22" t="str">
+      <c r="G54" s="44" t="str">
         <f>IF(Aufwandsplan!F53&lt;&gt;0, Aufwandsplan!F53, "")</f>
         <v/>
       </c>
@@ -7267,7 +7271,7 @@
         <f>IF(Aufwandsplan!E54&lt;&gt;0, Aufwandsplan!E54, "")</f>
         <v>2</v>
       </c>
-      <c r="G55" s="22">
+      <c r="G55" s="44">
         <f>IF(Aufwandsplan!F54&lt;&gt;0, Aufwandsplan!F54, "")</f>
         <v>-2</v>
       </c>
@@ -7281,7 +7285,9 @@
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
+      <c r="R55" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
@@ -7314,7 +7320,7 @@
         <f>IF(Aufwandsplan!E55&lt;&gt;0, Aufwandsplan!E55, "")</f>
         <v/>
       </c>
-      <c r="G56" s="22" t="str">
+      <c r="G56" s="44" t="str">
         <f>IF(Aufwandsplan!F55&lt;&gt;0, Aufwandsplan!F55, "")</f>
         <v/>
       </c>
@@ -7324,14 +7330,11 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
-      <c r="N56" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
@@ -7362,7 +7365,7 @@
         <f>IF(Aufwandsplan!E56&lt;&gt;0, Aufwandsplan!E56, "")</f>
         <v>8</v>
       </c>
-      <c r="G57" s="22" t="str">
+      <c r="G57" s="44" t="str">
         <f>IF(Aufwandsplan!F56&lt;&gt;0, Aufwandsplan!F56, "")</f>
         <v/>
       </c>
@@ -7372,11 +7375,11 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
+      <c r="N57" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="O57" s="1"/>
-      <c r="P57" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
@@ -7409,7 +7412,7 @@
         <f>IF(Aufwandsplan!E57&lt;&gt;0, Aufwandsplan!E57, "")</f>
         <v>8</v>
       </c>
-      <c r="G58" s="22" t="str">
+      <c r="G58" s="44" t="str">
         <f>IF(Aufwandsplan!F57&lt;&gt;0, Aufwandsplan!F57, "")</f>
         <v/>
       </c>
@@ -7420,8 +7423,12 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
+      <c r="O58" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="Q58" s="1" t="s">
         <v>121</v>
       </c>
@@ -7458,7 +7465,7 @@
         <f>IF(Aufwandsplan!E58&lt;&gt;0, Aufwandsplan!E58, "")</f>
         <v>6</v>
       </c>
-      <c r="G59" s="22">
+      <c r="G59" s="44">
         <f>IF(Aufwandsplan!F58&lt;&gt;0, Aufwandsplan!F58, "")</f>
         <v>2</v>
       </c>
@@ -7470,8 +7477,9 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
-      <c r="P59" s="25"/>
-      <c r="R59" s="29"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
@@ -7504,7 +7512,7 @@
         <f>IF(Aufwandsplan!E59&lt;&gt;0, Aufwandsplan!E59, "")</f>
         <v/>
       </c>
-      <c r="G60" s="22" t="str">
+      <c r="G60" s="44" t="str">
         <f>IF(Aufwandsplan!F59&lt;&gt;0, Aufwandsplan!F59, "")</f>
         <v/>
       </c>
@@ -7514,15 +7522,11 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
-      <c r="N60" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="N60" s="1"/>
       <c r="O60" s="1"/>
-      <c r="P60" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="P60" s="25"/>
       <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
+      <c r="R60" s="29"/>
       <c r="S60" s="1"/>
       <c r="T60" s="27"/>
       <c r="U60" s="1"/>
@@ -7553,7 +7557,7 @@
         <f>IF(Aufwandsplan!E60&lt;&gt;0, Aufwandsplan!E60, "")</f>
         <v>15</v>
       </c>
-      <c r="G61" s="22" t="str">
+      <c r="G61" s="44" t="str">
         <f>IF(Aufwandsplan!F60&lt;&gt;0, Aufwandsplan!F60, "")</f>
         <v/>
       </c>
@@ -7563,9 +7567,13 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
+      <c r="N61" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
+      <c r="P61" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="Q61" s="1" t="s">
         <v>116</v>
       </c>
@@ -7600,7 +7608,7 @@
         <f>IF(Aufwandsplan!E61&lt;&gt;0, Aufwandsplan!E61, "")</f>
         <v>12</v>
       </c>
-      <c r="G62" s="22">
+      <c r="G62" s="44">
         <f>IF(Aufwandsplan!F61&lt;&gt;0, Aufwandsplan!F61, "")</f>
         <v>22</v>
       </c>
@@ -7613,7 +7621,8 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
-      <c r="R62" s="25"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
@@ -7644,7 +7653,7 @@
         <f>IF(Aufwandsplan!E62&lt;&gt;0, Aufwandsplan!E62, "")</f>
         <v/>
       </c>
-      <c r="G63" s="22" t="str">
+      <c r="G63" s="44" t="str">
         <f>IF(Aufwandsplan!F62&lt;&gt;0, Aufwandsplan!F62, "")</f>
         <v/>
       </c>
@@ -7658,15 +7667,13 @@
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
-      <c r="R63" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="R63" s="25"/>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
-      <c r="X63" s="1"/>
+      <c r="X63" s="29"/>
       <c r="Y63" s="1"/>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
@@ -7691,7 +7698,7 @@
         <f>IF(Aufwandsplan!E63&lt;&gt;0, Aufwandsplan!E63, "")</f>
         <v>12</v>
       </c>
-      <c r="G64" s="22" t="str">
+      <c r="G64" s="44" t="str">
         <f>IF(Aufwandsplan!F63&lt;&gt;0, Aufwandsplan!F63, "")</f>
         <v/>
       </c>
@@ -7706,7 +7713,7 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
@@ -7736,11 +7743,11 @@
       </c>
       <c r="F65" s="22">
         <f>IF(Aufwandsplan!E64&lt;&gt;0, Aufwandsplan!E64, "")</f>
-        <v>43</v>
-      </c>
-      <c r="G65" s="22">
+        <v>24</v>
+      </c>
+      <c r="G65" s="44">
         <f>IF(Aufwandsplan!F64&lt;&gt;0, Aufwandsplan!F64, "")</f>
-        <v>-23</v>
+        <v>-4</v>
       </c>
       <c r="H65" s="7"/>
       <c r="I65" s="1"/>
@@ -7752,10 +7759,10 @@
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
-      <c r="R65" s="1"/>
-      <c r="S65" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="R65" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S65" s="1"/>
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
@@ -7785,7 +7792,7 @@
         <f>IF(Aufwandsplan!E65&lt;&gt;0, Aufwandsplan!E65, "")</f>
         <v>11</v>
       </c>
-      <c r="G66" s="22">
+      <c r="G66" s="44">
         <f>IF(Aufwandsplan!F65&lt;&gt;0, Aufwandsplan!F65, "")</f>
         <v>1</v>
       </c>
@@ -7801,7 +7808,7 @@
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
@@ -7832,7 +7839,7 @@
         <f>IF(Aufwandsplan!E66&lt;&gt;0, Aufwandsplan!E66, "")</f>
         <v>5</v>
       </c>
-      <c r="G67" s="22" t="str">
+      <c r="G67" s="44" t="str">
         <f>IF(Aufwandsplan!F66&lt;&gt;0, Aufwandsplan!F66, "")</f>
         <v/>
       </c>
@@ -7848,7 +7855,7 @@
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1" t="s">
-        <v>217</v>
+        <v>87</v>
       </c>
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
@@ -7877,11 +7884,11 @@
       </c>
       <c r="F68" s="22">
         <f>IF(Aufwandsplan!E67&lt;&gt;0, Aufwandsplan!E67, "")</f>
-        <v>12</v>
-      </c>
-      <c r="G68" s="22" t="str">
+        <v>10</v>
+      </c>
+      <c r="G68" s="44">
         <f>IF(Aufwandsplan!F67&lt;&gt;0, Aufwandsplan!F67, "")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="H68" s="7"/>
       <c r="I68" s="1"/>
@@ -7894,7 +7901,9 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
-      <c r="S68" s="1"/>
+      <c r="S68" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="T68" s="1" t="s">
         <v>116</v>
       </c>
@@ -7926,7 +7935,7 @@
         <f>IF(Aufwandsplan!E68&lt;&gt;0, Aufwandsplan!E68, "")</f>
         <v>12</v>
       </c>
-      <c r="G69" s="22" t="str">
+      <c r="G69" s="44" t="str">
         <f>IF(Aufwandsplan!F68&lt;&gt;0, Aufwandsplan!F68, "")</f>
         <v/>
       </c>
@@ -7973,7 +7982,7 @@
         <f>IF(Aufwandsplan!E69&lt;&gt;0, Aufwandsplan!E69, "")</f>
         <v>2</v>
       </c>
-      <c r="G70" s="22">
+      <c r="G70" s="44">
         <f>IF(Aufwandsplan!F69&lt;&gt;0, Aufwandsplan!F69, "")</f>
         <v>10</v>
       </c>
@@ -8020,7 +8029,7 @@
         <f>IF(Aufwandsplan!E70&lt;&gt;0, Aufwandsplan!E70, "")</f>
         <v>11</v>
       </c>
-      <c r="G71" s="22">
+      <c r="G71" s="44">
         <f>IF(Aufwandsplan!F70&lt;&gt;0, Aufwandsplan!F70, "")</f>
         <v>-11</v>
       </c>
@@ -8034,13 +8043,11 @@
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
-      <c r="R71" s="1" t="s">
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="S71" t="s">
-        <v>116</v>
-      </c>
-      <c r="T71" s="1"/>
       <c r="U71" s="1"/>
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
@@ -8069,7 +8076,7 @@
         <f>IF(Aufwandsplan!E71&lt;&gt;0, Aufwandsplan!E71, "")</f>
         <v>12</v>
       </c>
-      <c r="G72" s="22" t="str">
+      <c r="G72" s="44" t="str">
         <f>IF(Aufwandsplan!F71&lt;&gt;0, Aufwandsplan!F71, "")</f>
         <v/>
       </c>
@@ -8083,8 +8090,12 @@
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
-      <c r="R72" s="1"/>
-      <c r="S72" s="1"/>
+      <c r="R72" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S72" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
       <c r="V72" s="1"/>
@@ -8112,11 +8123,11 @@
       </c>
       <c r="F73" s="22">
         <f>IF(Aufwandsplan!E72&lt;&gt;0, Aufwandsplan!E72, "")</f>
-        <v>57</v>
-      </c>
-      <c r="G73" s="22">
+        <v>37</v>
+      </c>
+      <c r="G73" s="44">
         <f>IF(Aufwandsplan!F72&lt;&gt;0, Aufwandsplan!F72, "")</f>
-        <v>-35</v>
+        <v>-15</v>
       </c>
       <c r="H73" s="7"/>
       <c r="I73" s="1"/>
@@ -8161,7 +8172,7 @@
         <f>IF(Aufwandsplan!E73&lt;&gt;0, Aufwandsplan!E73, "")</f>
         <v>7</v>
       </c>
-      <c r="G74" s="22">
+      <c r="G74" s="44">
         <f>IF(Aufwandsplan!F73&lt;&gt;0, Aufwandsplan!F73, "")</f>
         <v>-7</v>
       </c>
@@ -8206,11 +8217,11 @@
       </c>
       <c r="F75" s="22">
         <f>IF(Aufwandsplan!E74&lt;&gt;0, Aufwandsplan!E74, "")</f>
-        <v>13</v>
-      </c>
-      <c r="G75" s="22">
+        <v>8</v>
+      </c>
+      <c r="G75" s="44">
         <f>IF(Aufwandsplan!F74&lt;&gt;0, Aufwandsplan!F74, "")</f>
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="H75" s="7"/>
       <c r="I75" s="1"/>
@@ -8255,7 +8266,7 @@
         <f>IF(Aufwandsplan!E75&lt;&gt;0, Aufwandsplan!E75, "")</f>
         <v>8</v>
       </c>
-      <c r="G76" s="22">
+      <c r="G76" s="44">
         <f>IF(Aufwandsplan!F75&lt;&gt;0, Aufwandsplan!F75, "")</f>
         <v>-8</v>
       </c>
@@ -8300,11 +8311,11 @@
       </c>
       <c r="F77" s="22">
         <f>IF(Aufwandsplan!E76&lt;&gt;0, Aufwandsplan!E76, "")</f>
-        <v>16</v>
-      </c>
-      <c r="G77" s="22">
+        <v>15</v>
+      </c>
+      <c r="G77" s="44">
         <f>IF(Aufwandsplan!F76&lt;&gt;0, Aufwandsplan!F76, "")</f>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="H77" s="7"/>
       <c r="I77" s="1"/>
@@ -8317,11 +8328,12 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
       <c r="T77" s="1"/>
-      <c r="U77" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="V77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="W77" s="1"/>
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
@@ -8346,13 +8358,13 @@
       </c>
       <c r="F78" s="22">
         <f>IF(Aufwandsplan!E77&lt;&gt;0, Aufwandsplan!E77, "")</f>
-        <v>15</v>
-      </c>
-      <c r="G78" s="22">
+        <v>10</v>
+      </c>
+      <c r="G78" s="44">
         <f>IF(Aufwandsplan!F77&lt;&gt;0, Aufwandsplan!F77, "")</f>
-        <v>-15</v>
-      </c>
-      <c r="H78" s="1"/>
+        <v>-10</v>
+      </c>
+      <c r="H78" s="7"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
@@ -8366,7 +8378,9 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
-      <c r="V78" s="1"/>
+      <c r="V78" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="W78" s="1"/>
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
@@ -8391,13 +8405,13 @@
       </c>
       <c r="F79" s="22">
         <f>IF(Aufwandsplan!E78&lt;&gt;0, Aufwandsplan!E78, "")</f>
-        <v>12</v>
-      </c>
-      <c r="G79" s="22">
+        <v>11</v>
+      </c>
+      <c r="G79" s="44">
         <f>IF(Aufwandsplan!F78&lt;&gt;0, Aufwandsplan!F78, "")</f>
-        <v>-12</v>
-      </c>
-      <c r="H79" s="1"/>
+        <v>-11</v>
+      </c>
+      <c r="H79" s="7"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
@@ -8411,7 +8425,9 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
-      <c r="V79" s="1"/>
+      <c r="V79" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="W79" s="1"/>
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
@@ -8436,13 +8452,13 @@
       </c>
       <c r="F80" s="22">
         <f>IF(Aufwandsplan!E79&lt;&gt;0, Aufwandsplan!E79, "")</f>
-        <v>15</v>
-      </c>
-      <c r="G80" s="22">
+        <v>11</v>
+      </c>
+      <c r="G80" s="44">
         <f>IF(Aufwandsplan!F79&lt;&gt;0, Aufwandsplan!F79, "")</f>
-        <v>-15</v>
-      </c>
-      <c r="H80" s="1"/>
+        <v>-11</v>
+      </c>
+      <c r="H80" s="7"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
@@ -8457,11 +8473,13 @@
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
       <c r="V80" s="1"/>
-      <c r="W80" s="1"/>
+      <c r="W80" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="str">
         <f>IF(Aufwandsplan!A80&lt;&gt;0, Aufwandsplan!A80, "")</f>
         <v>F2.18</v>
@@ -8483,11 +8501,11 @@
         <f>IF(Aufwandsplan!E80&lt;&gt;0, Aufwandsplan!E80, "")</f>
         <v>10</v>
       </c>
-      <c r="G81" s="22">
+      <c r="G81" s="44">
         <f>IF(Aufwandsplan!F80&lt;&gt;0, Aufwandsplan!F80, "")</f>
         <v>2</v>
       </c>
-      <c r="H81" s="1"/>
+      <c r="H81" s="7"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
@@ -8502,11 +8520,13 @@
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
       <c r="V81" s="1"/>
-      <c r="W81" s="1"/>
+      <c r="W81" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="str">
         <f>IF(Aufwandsplan!A81&lt;&gt;0, Aufwandsplan!A81, "")</f>
         <v>F2.19</v>
@@ -8528,11 +8548,11 @@
         <f>IF(Aufwandsplan!E81&lt;&gt;0, Aufwandsplan!E81, "")</f>
         <v>10</v>
       </c>
-      <c r="G82" s="22">
+      <c r="G82" s="44">
         <f>IF(Aufwandsplan!F81&lt;&gt;0, Aufwandsplan!F81, "")</f>
         <v>2</v>
       </c>
-      <c r="H82" s="1"/>
+      <c r="H82" s="7"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
@@ -8547,11 +8567,13 @@
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
       <c r="V82" s="1"/>
-      <c r="W82" s="1"/>
+      <c r="W82" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="str">
         <f>IF(Aufwandsplan!A82&lt;&gt;0, Aufwandsplan!A82, "")</f>
         <v>F2.20</v>
@@ -8573,11 +8595,11 @@
         <f>IF(Aufwandsplan!E82&lt;&gt;0, Aufwandsplan!E82, "")</f>
         <v>13</v>
       </c>
-      <c r="G83" s="22">
+      <c r="G83" s="44">
         <f>IF(Aufwandsplan!F82&lt;&gt;0, Aufwandsplan!F82, "")</f>
         <v>-1</v>
       </c>
-      <c r="H83" s="1"/>
+      <c r="H83" s="7"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
@@ -8588,15 +8610,17 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
-      <c r="S83" s="25"/>
+      <c r="S83" s="1"/>
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
-      <c r="X83" s="1"/>
+      <c r="X83" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Y83" s="1"/>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="str">
         <f>IF(Aufwandsplan!A83&lt;&gt;0, Aufwandsplan!A83, "")</f>
         <v>F2.21</v>
@@ -8616,13 +8640,13 @@
       </c>
       <c r="F84" s="22">
         <f>IF(Aufwandsplan!E83&lt;&gt;0, Aufwandsplan!E83, "")</f>
-        <v>8</v>
-      </c>
-      <c r="G84" s="22">
+        <v>7</v>
+      </c>
+      <c r="G84" s="44">
         <f>IF(Aufwandsplan!F83&lt;&gt;0, Aufwandsplan!F83, "")</f>
-        <v>-8</v>
-      </c>
-      <c r="H84" s="1"/>
+        <v>-7</v>
+      </c>
+      <c r="H84" s="7"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
@@ -8634,16 +8658,16 @@
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
-      <c r="T84" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="T84" s="1"/>
       <c r="U84" s="1"/>
       <c r="V84" s="1"/>
       <c r="W84" s="1"/>
-      <c r="X84" s="1"/>
+      <c r="X84" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Y84" s="1"/>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="str">
         <f>IF(Aufwandsplan!A84&lt;&gt;0, Aufwandsplan!A84, "")</f>
         <v>F3</v>
@@ -8665,11 +8689,11 @@
         <f>IF(Aufwandsplan!E84&lt;&gt;0, Aufwandsplan!E84, "")</f>
         <v/>
       </c>
-      <c r="G85" s="22" t="str">
+      <c r="G85" s="44" t="str">
         <f>IF(Aufwandsplan!F84&lt;&gt;0, Aufwandsplan!F84, "")</f>
         <v/>
       </c>
-      <c r="H85" s="1"/>
+      <c r="H85" s="7"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
@@ -8680,19 +8704,15 @@
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
-      <c r="S85" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="T85" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="S85" s="25"/>
+      <c r="T85" s="1"/>
       <c r="U85" s="1"/>
-      <c r="V85" s="1"/>
+      <c r="V85" s="29"/>
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="str">
         <f>IF(Aufwandsplan!A85&lt;&gt;0, Aufwandsplan!A85, "")</f>
         <v>F3.1</v>
@@ -8714,11 +8734,11 @@
         <f>IF(Aufwandsplan!E85&lt;&gt;0, Aufwandsplan!E85, "")</f>
         <v>20</v>
       </c>
-      <c r="G86" s="22">
+      <c r="G86" s="44">
         <f>IF(Aufwandsplan!F85&lt;&gt;0, Aufwandsplan!F85, "")</f>
         <v>5</v>
       </c>
-      <c r="H86" s="1"/>
+      <c r="H86" s="7"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -8729,7 +8749,9 @@
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
-      <c r="S86" s="1"/>
+      <c r="S86" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
       <c r="V86" s="1"/>
@@ -8737,7 +8759,7 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="22" t="str">
         <f>IF(Aufwandsplan!A86&lt;&gt;0, Aufwandsplan!A86, "")</f>
         <v>F3.2</v>
@@ -8759,11 +8781,11 @@
         <f>IF(Aufwandsplan!E86&lt;&gt;0, Aufwandsplan!E86, "")</f>
         <v>24</v>
       </c>
-      <c r="G87" s="22">
+      <c r="G87" s="44">
         <f>IF(Aufwandsplan!F86&lt;&gt;0, Aufwandsplan!F86, "")</f>
         <v>1</v>
       </c>
-      <c r="H87" s="1"/>
+      <c r="H87" s="7"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -8775,14 +8797,18 @@
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
-      <c r="T87" s="1"/>
-      <c r="U87" s="1"/>
+      <c r="T87" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="U87" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="22" t="str">
         <f>IF(Aufwandsplan!A87&lt;&gt;0, Aufwandsplan!A87, "")</f>
         <v>F3.3</v>
@@ -8802,13 +8828,13 @@
       </c>
       <c r="F88" s="22">
         <f>IF(Aufwandsplan!E87&lt;&gt;0, Aufwandsplan!E87, "")</f>
-        <v>30</v>
-      </c>
-      <c r="G88" s="22">
+        <v>28</v>
+      </c>
+      <c r="G88" s="44">
         <f>IF(Aufwandsplan!F87&lt;&gt;0, Aufwandsplan!F87, "")</f>
-        <v>-5</v>
-      </c>
-      <c r="H88" s="1"/>
+        <v>-3</v>
+      </c>
+      <c r="H88" s="7"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -8821,13 +8847,17 @@
       <c r="R88" s="1"/>
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
-      <c r="U88" s="1"/>
-      <c r="V88" s="1"/>
+      <c r="U88" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="V88" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="W88" s="1"/>
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="22" t="str">
         <f>IF(Aufwandsplan!A88&lt;&gt;0, Aufwandsplan!A88, "")</f>
         <v>G1</v>
@@ -8851,11 +8881,11 @@
         <f>IF(Aufwandsplan!E88&lt;&gt;0, Aufwandsplan!E88, "")</f>
         <v>6</v>
       </c>
-      <c r="G89" s="22">
+      <c r="G89" s="44">
         <f>IF(Aufwandsplan!F88&lt;&gt;0, Aufwandsplan!F88, "")</f>
         <v>-2</v>
       </c>
-      <c r="H89" s="1"/>
+      <c r="H89" s="7"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
@@ -8872,9 +8902,11 @@
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
       <c r="X89" s="1"/>
-      <c r="Y89" s="1"/>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y89" s="29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="22" t="str">
         <f>IF(Aufwandsplan!A89&lt;&gt;0, Aufwandsplan!A89, "")</f>
         <v>G2</v>
@@ -8896,11 +8928,11 @@
         <f>IF(Aufwandsplan!E89&lt;&gt;0, Aufwandsplan!E89, "")</f>
         <v>23</v>
       </c>
-      <c r="G90" s="22">
+      <c r="G90" s="44">
         <f>IF(Aufwandsplan!F89&lt;&gt;0, Aufwandsplan!F89, "")</f>
         <v>-13</v>
       </c>
-      <c r="H90" s="1"/>
+      <c r="H90" s="7"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
@@ -8917,9 +8949,11 @@
       <c r="V90" s="1"/>
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
-      <c r="Y90" s="1"/>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y90" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="22" t="str">
         <f>IF(Aufwandsplan!A90&lt;&gt;0, Aufwandsplan!A90, "")</f>
         <v>G3</v>
@@ -8941,11 +8975,11 @@
         <f>IF(Aufwandsplan!E90&lt;&gt;0, Aufwandsplan!E90, "")</f>
         <v>5</v>
       </c>
-      <c r="G91" s="22" t="str">
+      <c r="G91" s="44" t="str">
         <f>IF(Aufwandsplan!F90&lt;&gt;0, Aufwandsplan!F90, "")</f>
         <v/>
       </c>
-      <c r="H91" s="1"/>
+      <c r="H91" s="7"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -8962,9 +8996,17 @@
       <c r="V91" s="1"/>
       <c r="W91" s="1"/>
       <c r="X91" s="1"/>
-      <c r="Y91" s="1"/>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y91" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z92" s="45"/>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B93" s="26" t="s">
+        <v>250</v>
+      </c>
       <c r="F93" s="24" t="s">
         <v>210</v>
       </c>
@@ -9029,22 +9071,26 @@
       </c>
       <c r="V93" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W93" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X93" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y93" s="7">
+      <c r="Y93" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z93" s="45"/>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B94" s="28" t="s">
+        <v>249</v>
+      </c>
       <c r="G94" s="9" t="s">
         <v>89</v>
       </c>
@@ -9094,7 +9140,7 @@
       </c>
       <c r="S94" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T94" s="7">
         <f t="shared" si="1"/>
@@ -9102,11 +9148,11 @@
       </c>
       <c r="U94" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V94" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W94" s="7">
         <f t="shared" si="1"/>
@@ -9116,12 +9162,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y94" s="7">
+      <c r="Y94" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Z94" s="45"/>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="G95" s="9" t="s">
         <v>217</v>
       </c>
@@ -9183,22 +9230,23 @@
       </c>
       <c r="V95" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W95" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X95" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y95" s="7">
+      <c r="Y95" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z95" s="45"/>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="G96" s="9" t="s">
         <v>116</v>
       </c>
@@ -9252,30 +9300,31 @@
       </c>
       <c r="T96" s="7">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U96" s="7">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V96" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W96" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X96" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y96" s="7">
+        <v>2</v>
+      </c>
+      <c r="Y96" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="2:25" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Z96" s="45"/>
+    </row>
+    <row r="97" spans="7:26" x14ac:dyDescent="0.25">
       <c r="G97" s="9" t="s">
         <v>121</v>
       </c>
@@ -9325,11 +9374,11 @@
       </c>
       <c r="S97" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T97" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U97" s="7">
         <f t="shared" si="4"/>
@@ -9347,34 +9396,14 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Y97" s="7">
+      <c r="Y97" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B100" s="26" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="101" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B101" s="28" t="s">
-        <v>249</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Z97" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="A2:A3"/>
@@ -9388,6 +9417,17 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
